--- a/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
@@ -108,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,12 +128,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -176,12 +170,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,40 +333,40 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.28867513459481292</c:v>
+                    <c:v>0.29880715233359845</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.7453559924999299</c:v>
+                    <c:v>0.53452248382484879</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.3746344747958346</c:v>
+                    <c:v>2.2253945610567474</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>6.9920589878010109</c:v>
+                    <c:v>5.931654390599963</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4.714045207910317</c:v>
+                    <c:v>5.0023803857573164</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>10.897247358851684</c:v>
+                    <c:v>10.331413032015284</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>27.513632984395212</c:v>
+                    <c:v>19.673374562252068</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>22.863726730347352</c:v>
+                    <c:v>18.76610419524166</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>17.182031958479829</c:v>
+                    <c:v>23.177241505613299</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>21.084486134491296</c:v>
+                    <c:v>25.85663311783799</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>36.201212379943549</c:v>
+                    <c:v>48.093101673435754</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>33.608861265379936</c:v>
+                    <c:v>43.866613294221402</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -406,43 +399,43 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.28867513459481292</c:v>
+                    <c:v>0.29880715233359845</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.7453559924999299</c:v>
+                    <c:v>0.53452248382484879</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>2.3746344747958346</c:v>
+                    <c:v>2.2253945610567474</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>6.9920589878010109</c:v>
+                    <c:v>5.931654390599963</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4.714045207910317</c:v>
+                    <c:v>5.0023803857573164</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>10.897247358851684</c:v>
+                    <c:v>10.331413032015284</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>27.513632984395212</c:v>
+                    <c:v>19.673374562252068</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>22.863726730347352</c:v>
+                    <c:v>18.76610419524166</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>17.182031958479829</c:v>
+                    <c:v>23.177241505613299</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>21.084486134491296</c:v>
+                    <c:v>25.85663311783799</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>36.201212379943549</c:v>
+                    <c:v>48.093101673435754</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>33.608861265379936</c:v>
+                    <c:v>43.866613294221402</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>62.75414992917468</c:v>
+                    <c:v>53.607035785559773</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -489,280 +482,280 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.25</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>104</c:v>
+                  <c:v>102.125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>212</c:v>
+                  <c:v>214.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>372.75</c:v>
+                  <c:v>380.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>614.5</c:v>
+                  <c:v>623.625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>862.25</c:v>
+                  <c:v>873.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1186.5</c:v>
+                  <c:v>1212.875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1520.5</c:v>
+                  <c:v>1540.375</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1814.25</c:v>
+                  <c:v>1879.625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2250</c:v>
+                  <c:v>2305.625</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2660.25</c:v>
+                  <c:v>2689.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2938.75</c:v>
+                  <c:v>2996.75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3312.25</c:v>
+                  <c:v>3389.375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3755</c:v>
+                  <c:v>3792.25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4015.25</c:v>
+                  <c:v>4113.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4229</c:v>
+                  <c:v>4344.125</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4672.75</c:v>
+                  <c:v>4741.875</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4856</c:v>
+                  <c:v>4976.875</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5014.25</c:v>
+                  <c:v>5142.75</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5222</c:v>
+                  <c:v>5338.75</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5349.75</c:v>
+                  <c:v>5445.875</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5476.25</c:v>
+                  <c:v>5591.375</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5534.5</c:v>
+                  <c:v>5657.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5609.75</c:v>
+                  <c:v>5721.75</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5661</c:v>
+                  <c:v>5767.125</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5624</c:v>
+                  <c:v>5728</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5516.75</c:v>
+                  <c:v>5628.875</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5477.75</c:v>
+                  <c:v>5540</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5419.75</c:v>
+                  <c:v>5487.625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5170.75</c:v>
+                  <c:v>5278.625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5136.75</c:v>
+                  <c:v>5215.25</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4900.5</c:v>
+                  <c:v>4971.125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4794.5</c:v>
+                  <c:v>4874</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4529.75</c:v>
+                  <c:v>4620</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4329.5</c:v>
+                  <c:v>4418.375</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4139.5</c:v>
+                  <c:v>4242</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3978.75</c:v>
+                  <c:v>4048.875</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3760.75</c:v>
+                  <c:v>3832.375</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3559.5</c:v>
+                  <c:v>3613.375</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3423.25</c:v>
+                  <c:v>3442</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3137.25</c:v>
+                  <c:v>3207.25</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2885.25</c:v>
+                  <c:v>2940.25</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2712.25</c:v>
+                  <c:v>2774.75</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2619</c:v>
+                  <c:v>2652.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2324.75</c:v>
+                  <c:v>2378.875</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2193.75</c:v>
+                  <c:v>2237.125</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2034.5</c:v>
+                  <c:v>2070.625</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1900</c:v>
+                  <c:v>1927.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1717.75</c:v>
+                  <c:v>1764.375</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1570.25</c:v>
+                  <c:v>1596.125</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1407.25</c:v>
+                  <c:v>1432.25</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1264.25</c:v>
+                  <c:v>1319.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1157.25</c:v>
+                  <c:v>1190.125</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1039</c:v>
+                  <c:v>1059.75</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>946.5</c:v>
+                  <c:v>972.625</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>817</c:v>
+                  <c:v>849.75</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>758.5</c:v>
+                  <c:v>769.875</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>658.25</c:v>
+                  <c:v>694.625</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>556.5</c:v>
+                  <c:v>578.75</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>509.75</c:v>
+                  <c:v>540.75</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>439.5</c:v>
+                  <c:v>462.875</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>402</c:v>
+                  <c:v>426.875</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>353</c:v>
+                  <c:v>372.875</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>314.75</c:v>
+                  <c:v>339.875</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>274.25</c:v>
+                  <c:v>275.625</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>238</c:v>
+                  <c:v>252.625</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>203.25</c:v>
+                  <c:v>216.625</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>173.75</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>150.75</c:v>
+                  <c:v>164.25</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>124.75</c:v>
+                  <c:v>134.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>111.75</c:v>
+                  <c:v>121.625</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>94.5</c:v>
+                  <c:v>99.125</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>73.25</c:v>
+                  <c:v>77.75</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>74.75</c:v>
+                  <c:v>79.625</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>54.5</c:v>
+                  <c:v>57.875</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>44</c:v>
+                  <c:v>46.125</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>33.75</c:v>
+                  <c:v>34.25</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>31.75</c:v>
+                  <c:v>32.75</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>25.25</c:v>
+                  <c:v>25.125</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>17.25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>14.5</c:v>
+                  <c:v>14.125</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>10.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7.5</c:v>
+                  <c:v>6.625</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.75</c:v>
+                  <c:v>4.125</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.75</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.75</c:v>
+                  <c:v>2.375</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.25</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2</c:v>
+                  <c:v>1.875</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0.5</c:v>
@@ -833,64 +826,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>13.380475640458465</c:v>
+                    <c:v>10.42354208347904</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.6844714813555735</c:v>
+                    <c:v>10.684633309050598</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.1961063055284402</c:v>
+                    <c:v>10.056887793739065</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.0773135310045205</c:v>
+                    <c:v>8.6695936363388117</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.1402218205728523</c:v>
+                    <c:v>6.1615314113588386</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.750937025982485</c:v>
+                    <c:v>6.5541845445414522</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.7950243374196331</c:v>
+                    <c:v>9.1606189337473971</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.3662285576855004</c:v>
+                    <c:v>12.227428685918747</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>9.5804492612391439</c:v>
+                    <c:v>12.433726685627423</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.0321970770403741</c:v>
+                    <c:v>10.789427517905311</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>8.1022530139581566</c:v>
+                    <c:v>17.177280931431234</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>9.0239527897483658</c:v>
+                    <c:v>11.071788063908965</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>10.299531907162265</c:v>
+                    <c:v>10.787859297556146</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>10.895955770674282</c:v>
+                    <c:v>15.195045866839227</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>17.839865039922167</c:v>
+                    <c:v>27.550953069044432</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>30.738087354964616</c:v>
+                    <c:v>37.883999937078528</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>44.181997914010879</c:v>
+                    <c:v>45.96688318476663</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>51.26434462206565</c:v>
+                    <c:v>40.706411214035015</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>50.841956754875042</c:v>
+                    <c:v>64.440201486851635</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>60.273779398111678</c:v>
+                    <c:v>77.078039709871518</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -902,64 +895,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>13.380475640458465</c:v>
+                    <c:v>10.42354208347904</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.6844714813555735</c:v>
+                    <c:v>10.684633309050598</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.1961063055284402</c:v>
+                    <c:v>10.056887793739065</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.0773135310045205</c:v>
+                    <c:v>8.6695936363388117</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.1402218205728523</c:v>
+                    <c:v>6.1615314113588386</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.750937025982485</c:v>
+                    <c:v>6.5541845445414522</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.7950243374196331</c:v>
+                    <c:v>9.1606189337473971</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.3662285576855004</c:v>
+                    <c:v>12.227428685918747</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>9.5804492612391439</c:v>
+                    <c:v>12.433726685627423</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.0321970770403741</c:v>
+                    <c:v>10.789427517905311</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>8.1022530139581566</c:v>
+                    <c:v>17.177280931431234</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>9.0239527897483658</c:v>
+                    <c:v>11.071788063908965</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>10.299531907162265</c:v>
+                    <c:v>10.787859297556146</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>10.895955770674282</c:v>
+                    <c:v>15.195045866839227</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>17.839865039922167</c:v>
+                    <c:v>27.550953069044432</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>30.738087354964616</c:v>
+                    <c:v>37.883999937078528</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>44.181997914010879</c:v>
+                    <c:v>45.96688318476663</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>51.26434462206565</c:v>
+                    <c:v>40.706411214035015</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>50.841956754875042</c:v>
+                    <c:v>64.440201486851635</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>60.273779398111678</c:v>
+                    <c:v>77.078039709871518</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -985,334 +978,334 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="110"/>
                 <c:pt idx="0">
-                  <c:v>12.785764637403171</c:v>
+                  <c:v>6.827566637657573</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1951679271878595</c:v>
+                  <c:v>7.3847276851883965</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.6163137736728004</c:v>
+                  <c:v>-1.6962848196270577</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0734388921409721</c:v>
+                  <c:v>9.099511740787408</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.34573718230238</c:v>
+                  <c:v>8.8944407304515707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46711214911189503</c:v>
+                  <c:v>-2.2066298746503898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8068255819378525</c:v>
+                  <c:v>5.3642810023738079</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7656944729387754</c:v>
+                  <c:v>-3.9392074504867134</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.45660375431178</c:v>
+                  <c:v>-5.793223335465874</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.247858784627127</c:v>
+                  <c:v>35.061815923312622</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>94.047879357821856</c:v>
+                  <c:v>108.40439557703175</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>205.15927889570574</c:v>
+                  <c:v>217.66699073743035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>357.09243898466173</c:v>
+                  <c:v>365.02596807292537</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>593.77569042891218</c:v>
+                  <c:v>610.74589898064687</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>844.13715977966524</c:v>
+                  <c:v>883.72540163247891</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1130.8785907477077</c:v>
+                  <c:v>1179.0943261012376</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1478.0002285241999</c:v>
+                  <c:v>1534.0060145556872</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1836.361393332475</c:v>
+                  <c:v>1869.8234633654288</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2215.1859478056376</c:v>
+                  <c:v>2297.2064799219311</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2591.52267479896</c:v>
+                  <c:v>2686.8247659206322</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2898.9651405811246</c:v>
+                  <c:v>2972.5026710033376</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3311.1382483243874</c:v>
+                  <c:v>3435.0902757942627</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3654.1837138533551</c:v>
+                  <c:v>3772.5124900639012</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4013.0926488637851</c:v>
+                  <c:v>4135.2425395250266</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4202.0625901222193</c:v>
+                  <c:v>4340.5178960561698</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4602.528836846348</c:v>
+                  <c:v>4734.831501513715</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4878.666594743725</c:v>
+                  <c:v>4983.3388740420314</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5026.0560687780326</c:v>
+                  <c:v>5152.9430535137599</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5187.1269991993886</c:v>
+                  <c:v>5335.0450171828161</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5364.9330372214245</c:v>
+                  <c:v>5493.4702382981723</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5511.7342040538724</c:v>
+                  <c:v>5629.6780872642939</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5619.8923360109275</c:v>
+                  <c:v>5760.0314247012093</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5663.1869597434979</c:v>
+                  <c:v>5798.4404147267305</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5642.9229354858326</c:v>
+                  <c:v>5786.3256622552781</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5620.7366378903316</c:v>
+                  <c:v>5750.5862776040976</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5614.9197193384125</c:v>
+                  <c:v>5703.5453843474352</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5470.5657517313875</c:v>
+                  <c:v>5628.9682633280672</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5376.1433165669423</c:v>
+                  <c:v>5516.2769564986193</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5258.3312226533826</c:v>
+                  <c:v>5381.7061856537985</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5106.4812894761426</c:v>
+                  <c:v>5213.8757050931354</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4953.6141708791201</c:v>
+                  <c:v>5049.8925993442472</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4813.3124633729394</c:v>
+                  <c:v>4913.3844226971123</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4554.3793429136194</c:v>
+                  <c:v>4635.6244241520617</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4434.6849271692299</c:v>
+                  <c:v>4510.2612884957234</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4298.9542864188497</c:v>
+                  <c:v>4336.0503104459449</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4024.2297516837652</c:v>
+                  <c:v>4079.9663211787065</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3802.8153815679198</c:v>
+                  <c:v>3855.2247748095497</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3569.868173979215</c:v>
+                  <c:v>3629.2262073289539</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3407.16740326024</c:v>
+                  <c:v>3467.634674809869</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3122.0081814108376</c:v>
+                  <c:v>3158.7209733552245</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2936.6179164405876</c:v>
+                  <c:v>2985.4782892954486</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2773.0914463950248</c:v>
+                  <c:v>2790.9918673643783</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2573.121829671315</c:v>
+                  <c:v>2622.8024900366972</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2333.8622170127774</c:v>
+                  <c:v>2367.2943139059826</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2167.0570051465124</c:v>
+                  <c:v>2221.5032187614074</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2058.0446195828199</c:v>
+                  <c:v>2084.0879914649363</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1859.0575615521475</c:v>
+                  <c:v>1899.6287611364339</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1671.6676298230827</c:v>
+                  <c:v>1704.675218082494</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1528.4327330957101</c:v>
+                  <c:v>1551.3394048914713</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1371.73926582699</c:v>
+                  <c:v>1392.2773480780827</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1273.0931057326925</c:v>
+                  <c:v>1293.1396667171462</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1137.7857975051718</c:v>
+                  <c:v>1146.3019399853622</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1019.4206196730901</c:v>
+                  <c:v>1032.8160714849294</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>922.33438128791408</c:v>
+                  <c:v>938.48796069760613</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>814.43356810346927</c:v>
+                  <c:v>821.64802989095745</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>737.81650205003029</c:v>
+                  <c:v>762.19284517271387</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>659.17675976687929</c:v>
+                  <c:v>665.64719104766766</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>545.35009132523498</c:v>
+                  <c:v>566.10940184263586</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>510.86521602189123</c:v>
+                  <c:v>522.03531181183598</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>431.53388458397177</c:v>
+                  <c:v>443.80028937244742</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>425.54100040222653</c:v>
+                  <c:v>427.90416624987017</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>350.61209103837575</c:v>
+                  <c:v>370.0170840905044</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>342.26388338569052</c:v>
+                  <c:v>338.57745203847162</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>263.21703479438975</c:v>
+                  <c:v>275.12057851883537</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>234.25284248334302</c:v>
+                  <c:v>238.47845965123227</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>214.552514545153</c:v>
+                  <c:v>217.02797226770713</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>195.58877322473523</c:v>
+                  <c:v>195.23458648601039</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>172.3217053208495</c:v>
+                  <c:v>169.56867824494788</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>149.83546617836652</c:v>
+                  <c:v>150.02839443099185</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>153.725798074854</c:v>
+                  <c:v>149.83087950991413</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>107.31893128281779</c:v>
+                  <c:v>98.421664221139281</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>94.842843326972371</c:v>
+                  <c:v>94.154598105349294</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>81.516519427532216</c:v>
+                  <c:v>80.647997905616563</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>71.28677447512743</c:v>
+                  <c:v>68.827692867256673</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>45.053940217010627</c:v>
+                  <c:v>57.189245995133952</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>35.665324695408302</c:v>
+                  <c:v>44.736559656157525</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>40.471544452011528</c:v>
+                  <c:v>38.141107894829432</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>24.486789983697175</c:v>
+                  <c:v>29.82797402236605</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>34.04852139879943</c:v>
+                  <c:v>39.868296983389797</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>24.23903697170315</c:v>
+                  <c:v>29.01671402109783</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>11.951006700284736</c:v>
+                  <c:v>7.4797748145647081</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.4703418937278752</c:v>
+                  <c:v>10.308078417729106</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>13.114956459030475</c:v>
+                  <c:v>11.692888106568699</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.6503651277161984</c:v>
+                  <c:v>4.0304013262502769</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.2638471783138749</c:v>
+                  <c:v>-3.3587443409487623</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.69961469154804479</c:v>
+                  <c:v>4.4566550736781174</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.5842521709855628</c:v>
+                  <c:v>3.2652906965231479</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.99722034495789513</c:v>
+                  <c:v>7.1392594469361823</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-1.7847240492701599</c:v>
+                  <c:v>-6.6130367246805584</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-7.7606636798009943E-2</c:v>
+                  <c:v>4.7571970475837562</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-2.690379103616567</c:v>
+                  <c:v>1.2306692619022239</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.88541103899478935</c:v>
+                  <c:v>12.412615902343457</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.9965393729507763</c:v>
+                  <c:v>-1.485405204817658</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-1.3309280518442388</c:v>
+                  <c:v>0.44780249893665186</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.4132003006234228</c:v>
+                  <c:v>2.6022000557131744</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5.507987936492996</c:v>
+                  <c:v>5.0970684685744221</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>8.4944395367056025</c:v>
+                  <c:v>3.8723893656861055</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.6384004778228702</c:v>
+                  <c:v>3.4459600928239489</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3.3333096010610452</c:v>
+                  <c:v>3.5938057280145568</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-1.069133414421225</c:v>
+                  <c:v>-5.4791715025203196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,11 +1325,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="468862376"/>
-        <c:axId val="468863552"/>
+        <c:axId val="447306600"/>
+        <c:axId val="447306992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="468862376"/>
+        <c:axId val="447306600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,7 +1442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468863552"/>
+        <c:crossAx val="447306992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1457,7 +1450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468863552"/>
+        <c:axId val="447306992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,7 +1564,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468862376"/>
+        <c:crossAx val="447306600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2274,7 +2267,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,8 +2587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="N245" sqref="N245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2605,25 +2598,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="5" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2">
@@ -2638,7 +2631,18 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2666,6 +2670,18 @@
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
       <c r="L3" s="1">
@@ -2701,6 +2717,18 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L67" si="0">SUM(B4:K4)</f>
         <v>0</v>
@@ -2734,6 +2762,18 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2767,6 +2807,18 @@
       <c r="E6">
         <v>0</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2800,6 +2852,18 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2833,6 +2897,18 @@
       <c r="E8">
         <v>0</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2866,6 +2942,18 @@
       <c r="E9">
         <v>0</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2899,21 +2987,33 @@
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.51754916950676566</v>
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>0.28867513459481292</v>
+        <v>0.29880715233359845</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -2932,9 +3032,21 @@
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
@@ -2942,11 +3054,11 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" si="2"/>
-        <v>1.2909944487358056</v>
+        <v>0.92582009977255142</v>
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>0.7453559924999299</v>
+        <v>0.53452248382484879</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2965,21 +3077,33 @@
       <c r="E12">
         <v>26</v>
       </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>28</v>
+      </c>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="1"/>
-        <v>23.25</v>
+        <v>25.5</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="2"/>
-        <v>4.1129875597510219</v>
+        <v>3.8544964466377261</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>2.3746344747958346</v>
+        <v>2.2253945610567474</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2998,21 +3122,33 @@
       <c r="E13">
         <v>98</v>
       </c>
+      <c r="F13">
+        <v>111</v>
+      </c>
+      <c r="G13">
+        <v>95</v>
+      </c>
+      <c r="H13">
+        <v>105</v>
+      </c>
+      <c r="I13">
+        <v>90</v>
+      </c>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
-        <v>416</v>
+        <v>817</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>102.125</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="2"/>
-        <v>12.110601416389967</v>
+        <v>10.273926777458142</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>6.9920589878010109</v>
+        <v>5.931654390599963</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -3031,21 +3167,33 @@
       <c r="E14">
         <v>206</v>
       </c>
+      <c r="F14">
+        <v>223</v>
+      </c>
+      <c r="G14">
+        <v>206</v>
+      </c>
+      <c r="H14">
+        <v>214</v>
+      </c>
+      <c r="I14">
+        <v>227</v>
+      </c>
       <c r="L14" s="1">
         <f t="shared" si="0"/>
-        <v>848</v>
+        <v>1718</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="1"/>
-        <v>212</v>
+        <v>214.75</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="2"/>
-        <v>8.1649658092772608</v>
+        <v>8.6643769869176719</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>4.714045207910317</v>
+        <v>5.0023803857573164</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -3064,21 +3212,33 @@
       <c r="E15">
         <v>386</v>
       </c>
+      <c r="F15">
+        <v>379</v>
+      </c>
+      <c r="G15">
+        <v>393</v>
+      </c>
+      <c r="H15">
+        <v>372</v>
+      </c>
+      <c r="I15">
+        <v>407</v>
+      </c>
       <c r="L15" s="1">
         <f t="shared" si="0"/>
-        <v>1491</v>
+        <v>3042</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="1"/>
-        <v>372.75</v>
+        <v>380.25</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="2"/>
-        <v>18.874586088176873</v>
+        <v>17.894532285429694</v>
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>10.897247358851684</v>
+        <v>10.331413032015284</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -3097,21 +3257,33 @@
       <c r="E16">
         <v>602</v>
       </c>
+      <c r="F16">
+        <v>633</v>
+      </c>
+      <c r="G16">
+        <v>632</v>
+      </c>
+      <c r="H16">
+        <v>651</v>
+      </c>
+      <c r="I16">
+        <v>615</v>
+      </c>
       <c r="L16" s="1">
         <f t="shared" si="0"/>
-        <v>2458</v>
+        <v>4989</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="1"/>
-        <v>614.5</v>
+        <v>623.625</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="2"/>
-        <v>47.655010229775421</v>
+        <v>34.075284298153697</v>
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>27.513632984395212</v>
+        <v>19.673374562252068</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -3130,21 +3302,33 @@
       <c r="E17">
         <v>836</v>
       </c>
+      <c r="F17">
+        <v>873</v>
+      </c>
+      <c r="G17">
+        <v>869</v>
+      </c>
+      <c r="H17">
+        <v>875</v>
+      </c>
+      <c r="I17">
+        <v>920</v>
+      </c>
       <c r="L17" s="1">
         <f t="shared" si="0"/>
-        <v>3449</v>
+        <v>6986</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="1"/>
-        <v>862.25</v>
+        <v>873.25</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="2"/>
-        <v>39.601136347332258</v>
+        <v>32.503845926290012</v>
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>22.863726730347352</v>
+        <v>18.76610419524166</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -3163,21 +3347,33 @@
       <c r="E18">
         <v>1169</v>
       </c>
+      <c r="F18">
+        <v>1226</v>
+      </c>
+      <c r="G18">
+        <v>1224</v>
+      </c>
+      <c r="H18">
+        <v>1287</v>
+      </c>
+      <c r="I18">
+        <v>1220</v>
+      </c>
       <c r="L18" s="1">
         <f t="shared" si="0"/>
-        <v>4746</v>
+        <v>9703</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="1"/>
-        <v>1186.5</v>
+        <v>1212.875</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="2"/>
-        <v>29.760152329359247</v>
+        <v>40.144159867016413</v>
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>17.182031958479829</v>
+        <v>23.177241505613299</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -3196,21 +3392,33 @@
       <c r="E19">
         <v>1502</v>
       </c>
+      <c r="F19">
+        <v>1531</v>
+      </c>
+      <c r="G19">
+        <v>1518</v>
+      </c>
+      <c r="H19">
+        <v>1625</v>
+      </c>
+      <c r="I19">
+        <v>1567</v>
+      </c>
       <c r="L19" s="1">
         <f t="shared" si="0"/>
-        <v>6082</v>
+        <v>12323</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="1"/>
-        <v>1520.5</v>
+        <v>1540.375</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="2"/>
-        <v>36.519401236420443</v>
+        <v>44.785002272763464</v>
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
-        <v>21.084486134491296</v>
+        <v>25.85663311783799</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -3229,21 +3437,33 @@
       <c r="E20">
         <v>1793</v>
       </c>
+      <c r="F20">
+        <v>1933</v>
+      </c>
+      <c r="G20">
+        <v>1946</v>
+      </c>
+      <c r="H20">
+        <v>1916</v>
+      </c>
+      <c r="I20">
+        <v>1985</v>
+      </c>
       <c r="L20" s="1">
         <f t="shared" si="0"/>
-        <v>7257</v>
+        <v>15037</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="1"/>
-        <v>1814.25</v>
+        <v>1879.625</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="2"/>
-        <v>62.702339137653659</v>
+        <v>83.299695591966511</v>
       </c>
       <c r="O20">
         <f t="shared" si="3"/>
-        <v>36.201212379943549</v>
+        <v>48.093101673435754</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -3262,21 +3482,33 @@
       <c r="E21">
         <v>2257</v>
       </c>
+      <c r="F21">
+        <v>2336</v>
+      </c>
+      <c r="G21">
+        <v>2365</v>
+      </c>
+      <c r="H21">
+        <v>2420</v>
+      </c>
+      <c r="I21">
+        <v>2324</v>
+      </c>
       <c r="L21" s="1">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>18445</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="1"/>
-        <v>2250</v>
+        <v>2305.625</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="2"/>
-        <v>58.212255296171669</v>
+        <v>75.979202981567823</v>
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
-        <v>33.608861265379936</v>
+        <v>43.866613294221402</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -3295,21 +3527,33 @@
       <c r="E22">
         <v>2767</v>
       </c>
+      <c r="F22">
+        <v>2641</v>
+      </c>
+      <c r="G22">
+        <v>2769</v>
+      </c>
+      <c r="H22">
+        <v>2800</v>
+      </c>
+      <c r="I22">
+        <v>2665</v>
+      </c>
       <c r="L22" s="1">
         <f t="shared" si="0"/>
-        <v>10641</v>
+        <v>21516</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="1"/>
-        <v>2660.25</v>
+        <v>2689.5</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="2"/>
-        <v>108.6933760631254</v>
+        <v>92.850109623752502</v>
       </c>
       <c r="O22">
         <f t="shared" si="3"/>
-        <v>62.75414992917468</v>
+        <v>53.607035785559773</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -3328,21 +3572,33 @@
       <c r="E23">
         <v>2987</v>
       </c>
+      <c r="F23">
+        <v>2923</v>
+      </c>
+      <c r="G23">
+        <v>3116</v>
+      </c>
+      <c r="H23">
+        <v>3163</v>
+      </c>
+      <c r="I23">
+        <v>3017</v>
+      </c>
       <c r="L23" s="1">
         <f t="shared" si="0"/>
-        <v>11755</v>
+        <v>23974</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="1"/>
-        <v>2938.75</v>
+        <v>2996.75</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="2"/>
-        <v>169.91443925301542</v>
+        <v>145.29649489430716</v>
       </c>
       <c r="O23">
         <f t="shared" si="3"/>
-        <v>98.100147241932774</v>
+        <v>83.886970439537322</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -3361,21 +3617,33 @@
       <c r="E24">
         <v>3353</v>
       </c>
+      <c r="F24">
+        <v>3453</v>
+      </c>
+      <c r="G24">
+        <v>3538</v>
+      </c>
+      <c r="H24">
+        <v>3467</v>
+      </c>
+      <c r="I24">
+        <v>3408</v>
+      </c>
       <c r="L24" s="1">
         <f t="shared" si="0"/>
-        <v>13249</v>
+        <v>27115</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="1"/>
-        <v>3312.25</v>
+        <v>3389.375</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="2"/>
-        <v>160.57474894889296</v>
+        <v>138.17994220787409</v>
       </c>
       <c r="O24">
         <f t="shared" si="3"/>
-        <v>92.707874530699939</v>
+        <v>79.77822683032305</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -3394,21 +3662,33 @@
       <c r="E25">
         <v>3826</v>
       </c>
+      <c r="F25">
+        <v>3805</v>
+      </c>
+      <c r="G25">
+        <v>3774</v>
+      </c>
+      <c r="H25">
+        <v>3929</v>
+      </c>
+      <c r="I25">
+        <v>3810</v>
+      </c>
       <c r="L25" s="1">
         <f t="shared" si="0"/>
-        <v>15020</v>
+        <v>30338</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="1"/>
-        <v>3755</v>
+        <v>3792.25</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" si="2"/>
-        <v>136.41847382227965</v>
+        <v>107.49850497299286</v>
       </c>
       <c r="O25">
         <f t="shared" si="3"/>
-        <v>78.761242583731075</v>
+        <v>62.064290783639755</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -3427,21 +3707,33 @@
       <c r="E26">
         <v>4123</v>
       </c>
+      <c r="F26">
+        <v>4079</v>
+      </c>
+      <c r="G26">
+        <v>4258</v>
+      </c>
+      <c r="H26">
+        <v>4299</v>
+      </c>
+      <c r="I26">
+        <v>4211</v>
+      </c>
       <c r="L26" s="1">
         <f t="shared" si="0"/>
-        <v>16061</v>
+        <v>32908</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="1"/>
-        <v>4015.25</v>
+        <v>4113.5</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="2"/>
-        <v>196.30991654354432</v>
+        <v>177.36644875189091</v>
       </c>
       <c r="O26">
         <f t="shared" si="3"/>
-        <v>113.33958316100829</v>
+        <v>102.40256693211219</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -3460,21 +3752,33 @@
       <c r="E27">
         <v>4228</v>
       </c>
+      <c r="F27">
+        <v>4335</v>
+      </c>
+      <c r="G27">
+        <v>4539</v>
+      </c>
+      <c r="H27">
+        <v>4616</v>
+      </c>
+      <c r="I27">
+        <v>4347</v>
+      </c>
       <c r="L27" s="1">
         <f t="shared" si="0"/>
-        <v>16916</v>
+        <v>34753</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="1"/>
-        <v>4229</v>
+        <v>4344.125</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" si="2"/>
-        <v>146.585583647688</v>
+        <v>181.0528237835577</v>
       </c>
       <c r="O27">
         <f t="shared" si="3"/>
-        <v>84.631226178311081</v>
+        <v>104.53089654897892</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -3493,21 +3797,33 @@
       <c r="E28">
         <v>4804</v>
       </c>
+      <c r="F28">
+        <v>4672</v>
+      </c>
+      <c r="G28">
+        <v>4839</v>
+      </c>
+      <c r="H28">
+        <v>4959</v>
+      </c>
+      <c r="I28">
+        <v>4774</v>
+      </c>
       <c r="L28" s="1">
         <f t="shared" si="0"/>
-        <v>18691</v>
+        <v>37935</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="1"/>
-        <v>4672.75</v>
+        <v>4741.875</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" si="2"/>
-        <v>251.94625749684528</v>
+        <v>197.13478891357556</v>
       </c>
       <c r="O28">
         <f t="shared" si="3"/>
-        <v>145.46123958712241</v>
+        <v>113.81582344589292</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -3526,21 +3842,33 @@
       <c r="E29">
         <v>4926</v>
       </c>
+      <c r="F29">
+        <v>5137</v>
+      </c>
+      <c r="G29">
+        <v>5041</v>
+      </c>
+      <c r="H29">
+        <v>5213</v>
+      </c>
+      <c r="I29">
+        <v>5000</v>
+      </c>
       <c r="L29" s="1">
         <f t="shared" si="0"/>
-        <v>19424</v>
+        <v>39815</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="1"/>
-        <v>4856</v>
+        <v>4976.875</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" si="2"/>
-        <v>215.09222828049056</v>
+        <v>201.16761845358144</v>
       </c>
       <c r="O29">
         <f t="shared" si="3"/>
-        <v>124.18355589833767</v>
+        <v>116.14417866641118</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -3559,21 +3887,33 @@
       <c r="E30">
         <v>5017</v>
       </c>
+      <c r="F30">
+        <v>5044</v>
+      </c>
+      <c r="G30">
+        <v>5360</v>
+      </c>
+      <c r="H30">
+        <v>5525</v>
+      </c>
+      <c r="I30">
+        <v>5156</v>
+      </c>
       <c r="L30" s="1">
         <f t="shared" si="0"/>
-        <v>20057</v>
+        <v>41142</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="1"/>
-        <v>5014.25</v>
+        <v>5142.75</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="2"/>
-        <v>275.71769983082334</v>
+        <v>266.55192471904712</v>
       </c>
       <c r="O30">
         <f t="shared" si="3"/>
-        <v>159.1856882176703</v>
+        <v>153.89382548955473</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -3592,21 +3932,33 @@
       <c r="E31">
         <v>5494</v>
       </c>
+      <c r="F31">
+        <v>5437</v>
+      </c>
+      <c r="G31">
+        <v>5430</v>
+      </c>
+      <c r="H31">
+        <v>5620</v>
+      </c>
+      <c r="I31">
+        <v>5335</v>
+      </c>
       <c r="L31" s="1">
         <f t="shared" si="0"/>
-        <v>20888</v>
+        <v>42710</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="1"/>
-        <v>5222</v>
+        <v>5338.75</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="2"/>
-        <v>339.08504341339898</v>
+        <v>266.33853323489319</v>
       </c>
       <c r="O31">
         <f t="shared" si="3"/>
-        <v>195.77084109290186</v>
+        <v>153.77062385873569</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -3625,21 +3977,33 @@
       <c r="E32">
         <v>5461</v>
       </c>
+      <c r="F32">
+        <v>5401</v>
+      </c>
+      <c r="G32">
+        <v>5523</v>
+      </c>
+      <c r="H32">
+        <v>5768</v>
+      </c>
+      <c r="I32">
+        <v>5476</v>
+      </c>
       <c r="L32" s="1">
         <f t="shared" si="0"/>
-        <v>21399</v>
+        <v>43567</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="1"/>
-        <v>5349.75</v>
+        <v>5445.875</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="2"/>
-        <v>341.96820027599057</v>
+        <v>267.37370182680911</v>
       </c>
       <c r="O32">
         <f t="shared" si="3"/>
-        <v>197.43543248363503</v>
+        <v>154.36827872393499</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -3658,21 +4022,33 @@
       <c r="E33">
         <v>5614</v>
       </c>
+      <c r="F33">
+        <v>5656</v>
+      </c>
+      <c r="G33">
+        <v>5716</v>
+      </c>
+      <c r="H33">
+        <v>5849</v>
+      </c>
+      <c r="I33">
+        <v>5605</v>
+      </c>
       <c r="L33" s="1">
         <f t="shared" si="0"/>
-        <v>21905</v>
+        <v>44731</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="1"/>
-        <v>5476.25</v>
+        <v>5591.375</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="2"/>
-        <v>381.80219573316583</v>
+        <v>287.0037020667155</v>
       </c>
       <c r="O33">
         <f t="shared" si="3"/>
-        <v>220.4336004837335</v>
+        <v>165.70166464663737</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -3691,21 +4067,33 @@
       <c r="E34">
         <v>5808</v>
       </c>
+      <c r="F34">
+        <v>5719</v>
+      </c>
+      <c r="G34">
+        <v>5767</v>
+      </c>
+      <c r="H34">
+        <v>5928</v>
+      </c>
+      <c r="I34">
+        <v>5708</v>
+      </c>
       <c r="L34" s="1">
         <f t="shared" si="0"/>
-        <v>22138</v>
+        <v>45260</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="1"/>
-        <v>5534.5</v>
+        <v>5657.5</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" si="2"/>
-        <v>400.4618167399567</v>
+        <v>300.74146466928795</v>
       </c>
       <c r="O34">
         <f t="shared" si="3"/>
-        <v>231.2067376949806</v>
+        <v>173.63316558329572</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -3724,21 +4112,33 @@
       <c r="E35">
         <v>5808</v>
       </c>
+      <c r="F35">
+        <v>5636</v>
+      </c>
+      <c r="G35">
+        <v>5965</v>
+      </c>
+      <c r="H35">
+        <v>6005</v>
+      </c>
+      <c r="I35">
+        <v>5729</v>
+      </c>
       <c r="L35" s="1">
         <f t="shared" si="0"/>
-        <v>22439</v>
+        <v>45774</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="1"/>
-        <v>5609.75</v>
+        <v>5721.75</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" si="2"/>
-        <v>366.41176746023501</v>
+        <v>292.71036391432597</v>
       </c>
       <c r="O35">
         <f t="shared" si="3"/>
-        <v>211.54793257741326</v>
+        <v>168.99640740052942</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -3757,21 +4157,33 @@
       <c r="E36">
         <v>6042</v>
       </c>
+      <c r="F36">
+        <v>5780</v>
+      </c>
+      <c r="G36">
+        <v>5807</v>
+      </c>
+      <c r="H36">
+        <v>6117</v>
+      </c>
+      <c r="I36">
+        <v>5789</v>
+      </c>
       <c r="L36" s="1">
         <f t="shared" si="0"/>
-        <v>22644</v>
+        <v>46137</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="1"/>
-        <v>5661</v>
+        <v>5767.125</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" si="2"/>
-        <v>448.43579993870543</v>
+        <v>332.3038357974736</v>
       </c>
       <c r="O36">
         <f t="shared" si="3"/>
-        <v>258.90452980887676</v>
+        <v>191.85570905041658</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -3790,21 +4202,33 @@
       <c r="E37">
         <v>5885</v>
       </c>
+      <c r="F37">
+        <v>5635</v>
+      </c>
+      <c r="G37">
+        <v>5896</v>
+      </c>
+      <c r="H37">
+        <v>6145</v>
+      </c>
+      <c r="I37">
+        <v>5652</v>
+      </c>
       <c r="L37" s="1">
         <f t="shared" si="0"/>
-        <v>22496</v>
+        <v>45824</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="1"/>
-        <v>5624</v>
+        <v>5728</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" si="2"/>
-        <v>406.55708906212254</v>
+        <v>328.5613663055525</v>
       </c>
       <c r="O37">
         <f t="shared" si="3"/>
-        <v>234.72584481096712</v>
+        <v>189.69499328182198</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -3823,21 +4247,33 @@
       <c r="E38">
         <v>5809</v>
       </c>
+      <c r="F38">
+        <v>5690</v>
+      </c>
+      <c r="G38">
+        <v>5836</v>
+      </c>
+      <c r="H38">
+        <v>5854</v>
+      </c>
+      <c r="I38">
+        <v>5584</v>
+      </c>
       <c r="L38" s="1">
         <f t="shared" si="0"/>
-        <v>22067</v>
+        <v>45031</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="1"/>
-        <v>5516.75</v>
+        <v>5628.875</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" si="2"/>
-        <v>455.42095911365345</v>
+        <v>332.0595632886193</v>
       </c>
       <c r="O38">
         <f t="shared" si="3"/>
-        <v>262.93741333886538</v>
+        <v>191.71467825167394</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -3856,21 +4292,33 @@
       <c r="E39">
         <v>5780</v>
       </c>
+      <c r="F39">
+        <v>5379</v>
+      </c>
+      <c r="G39">
+        <v>5696</v>
+      </c>
+      <c r="H39">
+        <v>5824</v>
+      </c>
+      <c r="I39">
+        <v>5510</v>
+      </c>
       <c r="L39" s="1">
         <f t="shared" si="0"/>
-        <v>21911</v>
+        <v>44320</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" si="1"/>
-        <v>5477.75</v>
+        <v>5540</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" si="2"/>
-        <v>459.04565858601325</v>
+        <v>333.6983239822631</v>
       </c>
       <c r="O39">
         <f t="shared" si="3"/>
-        <v>265.03013455496381</v>
+        <v>192.66081717928657</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -3889,21 +4337,33 @@
       <c r="E40">
         <v>5703</v>
       </c>
+      <c r="F40">
+        <v>5384</v>
+      </c>
+      <c r="G40">
+        <v>5696</v>
+      </c>
+      <c r="H40">
+        <v>5718</v>
+      </c>
+      <c r="I40">
+        <v>5424</v>
+      </c>
       <c r="L40" s="1">
         <f t="shared" si="0"/>
-        <v>21679</v>
+        <v>43901</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="1"/>
-        <v>5419.75</v>
+        <v>5487.625</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" si="2"/>
-        <v>431.73091542456552</v>
+        <v>313.70638569938518</v>
       </c>
       <c r="O40">
         <f t="shared" si="3"/>
-        <v>249.25996023785646</v>
+        <v>181.11846623004462</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -3922,21 +4382,33 @@
       <c r="E41">
         <v>5496</v>
       </c>
+      <c r="F41">
+        <v>5227</v>
+      </c>
+      <c r="G41">
+        <v>5483</v>
+      </c>
+      <c r="H41">
+        <v>5610</v>
+      </c>
+      <c r="I41">
+        <v>5226</v>
+      </c>
       <c r="L41" s="1">
         <f t="shared" si="0"/>
-        <v>20683</v>
+        <v>42229</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="1"/>
-        <v>5170.75</v>
+        <v>5278.625</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" si="2"/>
-        <v>392.05303637815808</v>
+        <v>308.14604028424111</v>
       </c>
       <c r="O41">
         <f t="shared" si="3"/>
-        <v>226.35192608953972</v>
+        <v>177.90819930782388</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -3955,21 +4427,33 @@
       <c r="E42">
         <v>5514</v>
       </c>
+      <c r="F42">
+        <v>5234</v>
+      </c>
+      <c r="G42">
+        <v>5325</v>
+      </c>
+      <c r="H42">
+        <v>5486</v>
+      </c>
+      <c r="I42">
+        <v>5130</v>
+      </c>
       <c r="L42" s="1">
         <f t="shared" si="0"/>
-        <v>20547</v>
+        <v>41722</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="1"/>
-        <v>5136.75</v>
+        <v>5215.25</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" si="2"/>
-        <v>459.7835541498485</v>
+        <v>327.72407819470851</v>
       </c>
       <c r="O42">
         <f t="shared" si="3"/>
-        <v>265.45615875737792</v>
+        <v>189.21158476563693</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -3988,21 +4472,33 @@
       <c r="E43">
         <v>5348</v>
       </c>
+      <c r="F43">
+        <v>4965</v>
+      </c>
+      <c r="G43">
+        <v>5062</v>
+      </c>
+      <c r="H43">
+        <v>5253</v>
+      </c>
+      <c r="I43">
+        <v>4887</v>
+      </c>
       <c r="L43" s="1">
         <f t="shared" si="0"/>
-        <v>19602</v>
+        <v>39769</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="1"/>
-        <v>4900.5</v>
+        <v>4971.125</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="2"/>
-        <v>439.52739770500466</v>
+        <v>314.9446379921398</v>
       </c>
       <c r="O43">
         <f t="shared" si="3"/>
-        <v>253.76126138120014</v>
+        <v>181.83337152459117</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -4021,21 +4517,33 @@
       <c r="E44">
         <v>5193</v>
       </c>
+      <c r="F44">
+        <v>4864</v>
+      </c>
+      <c r="G44">
+        <v>5072</v>
+      </c>
+      <c r="H44">
+        <v>5055</v>
+      </c>
+      <c r="I44">
+        <v>4823</v>
+      </c>
       <c r="L44" s="1">
         <f t="shared" si="0"/>
-        <v>19178</v>
+        <v>38992</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="1"/>
-        <v>4794.5</v>
+        <v>4874</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" si="2"/>
-        <v>459.57117693200325</v>
+        <v>323.72033785793741</v>
       </c>
       <c r="O44">
         <f t="shared" si="3"/>
-        <v>265.3335427134852</v>
+        <v>186.90002420443676</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -4054,21 +4562,33 @@
       <c r="E45">
         <v>5003</v>
       </c>
+      <c r="F45">
+        <v>4680</v>
+      </c>
+      <c r="G45">
+        <v>4697</v>
+      </c>
+      <c r="H45">
+        <v>4931</v>
+      </c>
+      <c r="I45">
+        <v>4533</v>
+      </c>
       <c r="L45" s="1">
         <f t="shared" si="0"/>
-        <v>18119</v>
+        <v>36960</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="1"/>
-        <v>4529.75</v>
+        <v>4620</v>
       </c>
       <c r="N45" s="1">
         <f t="shared" si="2"/>
-        <v>516.94575795403011</v>
+        <v>368.02523205423216</v>
       </c>
       <c r="O45">
         <f t="shared" si="3"/>
-        <v>298.45877251119441</v>
+        <v>212.47946679508544</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -4087,21 +4607,33 @@
       <c r="E46">
         <v>4652</v>
       </c>
+      <c r="F46">
+        <v>4486</v>
+      </c>
+      <c r="G46">
+        <v>4707</v>
+      </c>
+      <c r="H46">
+        <v>4549</v>
+      </c>
+      <c r="I46">
+        <v>4287</v>
+      </c>
       <c r="L46" s="1">
         <f t="shared" si="0"/>
-        <v>17318</v>
+        <v>35347</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="1"/>
-        <v>4329.5</v>
+        <v>4418.375</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" si="2"/>
-        <v>454.15819563965448</v>
+        <v>332.21633979768581</v>
       </c>
       <c r="O46">
         <f t="shared" si="3"/>
-        <v>262.20835650722927</v>
+        <v>191.8051932113861</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -4120,21 +4652,33 @@
       <c r="E47">
         <v>4497</v>
       </c>
+      <c r="F47">
+        <v>4323</v>
+      </c>
+      <c r="G47">
+        <v>4508</v>
+      </c>
+      <c r="H47">
+        <v>4397</v>
+      </c>
+      <c r="I47">
+        <v>4150</v>
+      </c>
       <c r="L47" s="1">
         <f t="shared" si="0"/>
-        <v>16558</v>
+        <v>33936</v>
       </c>
       <c r="M47" s="1">
         <f t="shared" si="1"/>
-        <v>4139.5</v>
+        <v>4242</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" si="2"/>
-        <v>407.23989653929209</v>
+        <v>304.57558292529905</v>
       </c>
       <c r="O47">
         <f t="shared" si="3"/>
-        <v>235.12006389171566</v>
+        <v>175.8467947905086</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -4153,21 +4697,33 @@
       <c r="E48">
         <v>4398</v>
       </c>
+      <c r="F48">
+        <v>3998</v>
+      </c>
+      <c r="G48">
+        <v>4192</v>
+      </c>
+      <c r="H48">
+        <v>4298</v>
+      </c>
+      <c r="I48">
+        <v>3988</v>
+      </c>
       <c r="L48" s="1">
         <f t="shared" si="0"/>
-        <v>15915</v>
+        <v>32391</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="1"/>
-        <v>3978.75</v>
+        <v>4048.875</v>
       </c>
       <c r="N48" s="1">
         <f t="shared" si="2"/>
-        <v>488.79469105136565</v>
+        <v>343.36005154939033</v>
       </c>
       <c r="O48">
         <f t="shared" si="3"/>
-        <v>282.20574645696593</v>
+        <v>198.23901819100431</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -4186,21 +4742,33 @@
       <c r="E49">
         <v>4087</v>
       </c>
+      <c r="F49">
+        <v>3829</v>
+      </c>
+      <c r="G49">
+        <v>4079</v>
+      </c>
+      <c r="H49">
+        <v>4031</v>
+      </c>
+      <c r="I49">
+        <v>3677</v>
+      </c>
       <c r="L49" s="1">
         <f t="shared" si="0"/>
-        <v>15043</v>
+        <v>30659</v>
       </c>
       <c r="M49" s="1">
         <f t="shared" si="1"/>
-        <v>3760.75</v>
+        <v>3832.375</v>
       </c>
       <c r="N49" s="1">
         <f t="shared" si="2"/>
-        <v>450.54513277436109</v>
+        <v>328.18154274730318</v>
       </c>
       <c r="O49">
         <f t="shared" si="3"/>
-        <v>260.12235368935308</v>
+        <v>189.47570204822219</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -4219,21 +4787,33 @@
       <c r="E50">
         <v>3975</v>
       </c>
+      <c r="F50">
+        <v>3582</v>
+      </c>
+      <c r="G50">
+        <v>3796</v>
+      </c>
+      <c r="H50">
+        <v>3771</v>
+      </c>
+      <c r="I50">
+        <v>3520</v>
+      </c>
       <c r="L50" s="1">
         <f t="shared" si="0"/>
-        <v>14238</v>
+        <v>28907</v>
       </c>
       <c r="M50" s="1">
         <f t="shared" si="1"/>
-        <v>3559.5</v>
+        <v>3613.375</v>
       </c>
       <c r="N50" s="1">
         <f t="shared" si="2"/>
-        <v>437.16549116629352</v>
+        <v>305.39245827529624</v>
       </c>
       <c r="O50">
         <f t="shared" si="3"/>
-        <v>252.39761400527453</v>
+        <v>176.31841799372384</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -4252,21 +4832,33 @@
       <c r="E51">
         <v>3747</v>
       </c>
+      <c r="F51">
+        <v>3450</v>
+      </c>
+      <c r="G51">
+        <v>3632</v>
+      </c>
+      <c r="H51">
+        <v>3458</v>
+      </c>
+      <c r="I51">
+        <v>3303</v>
+      </c>
       <c r="L51" s="1">
         <f t="shared" si="0"/>
-        <v>13693</v>
+        <v>27536</v>
       </c>
       <c r="M51" s="1">
         <f t="shared" si="1"/>
-        <v>3423.25</v>
+        <v>3442</v>
       </c>
       <c r="N51" s="1">
         <f t="shared" si="2"/>
-        <v>408.99663812799247</v>
+        <v>282.58551171029882</v>
       </c>
       <c r="O51">
         <f t="shared" si="3"/>
-        <v>236.13431912084843</v>
+        <v>163.15082125502917</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -4285,21 +4877,33 @@
       <c r="E52">
         <v>3477</v>
       </c>
+      <c r="F52">
+        <v>3295</v>
+      </c>
+      <c r="G52">
+        <v>3455</v>
+      </c>
+      <c r="H52">
+        <v>3276</v>
+      </c>
+      <c r="I52">
+        <v>3083</v>
+      </c>
       <c r="L52" s="1">
         <f t="shared" si="0"/>
-        <v>12549</v>
+        <v>25658</v>
       </c>
       <c r="M52" s="1">
         <f t="shared" si="1"/>
-        <v>3137.25</v>
+        <v>3207.25</v>
       </c>
       <c r="N52" s="1">
         <f t="shared" si="2"/>
-        <v>398.35526438929691</v>
+        <v>289.06388320132379</v>
       </c>
       <c r="O52">
         <f t="shared" si="3"/>
-        <v>229.99051912826513</v>
+        <v>166.89111077928285</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -4318,21 +4922,33 @@
       <c r="E53">
         <v>3154</v>
       </c>
+      <c r="F53">
+        <v>2911</v>
+      </c>
+      <c r="G53">
+        <v>3205</v>
+      </c>
+      <c r="H53">
+        <v>3046</v>
+      </c>
+      <c r="I53">
+        <v>2819</v>
+      </c>
       <c r="L53" s="1">
         <f t="shared" si="0"/>
-        <v>11541</v>
+        <v>23522</v>
       </c>
       <c r="M53" s="1">
         <f t="shared" si="1"/>
-        <v>2885.25</v>
+        <v>2940.25</v>
       </c>
       <c r="N53" s="1">
         <f t="shared" si="2"/>
-        <v>320.14306697683355</v>
+        <v>243.89913020403685</v>
       </c>
       <c r="O53">
         <f t="shared" si="3"/>
-        <v>184.83468589826725</v>
+        <v>140.81522847841626</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -4351,21 +4967,33 @@
       <c r="E54">
         <v>3000</v>
       </c>
+      <c r="F54">
+        <v>2805</v>
+      </c>
+      <c r="G54">
+        <v>3023</v>
+      </c>
+      <c r="H54">
+        <v>2840</v>
+      </c>
+      <c r="I54">
+        <v>2681</v>
+      </c>
       <c r="L54" s="1">
         <f t="shared" si="0"/>
-        <v>10849</v>
+        <v>22198</v>
       </c>
       <c r="M54" s="1">
         <f t="shared" si="1"/>
-        <v>2712.25</v>
+        <v>2774.75</v>
       </c>
       <c r="N54" s="1">
         <f t="shared" si="2"/>
-        <v>356.05465404438496</v>
+        <v>259.54341778262403</v>
       </c>
       <c r="O54">
         <f t="shared" si="3"/>
-        <v>205.56825035874473</v>
+        <v>149.84746212319351</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -4384,21 +5012,33 @@
       <c r="E55">
         <v>2927</v>
       </c>
+      <c r="F55">
+        <v>2659</v>
+      </c>
+      <c r="G55">
+        <v>2774</v>
+      </c>
+      <c r="H55">
+        <v>2779</v>
+      </c>
+      <c r="I55">
+        <v>2532</v>
+      </c>
       <c r="L55" s="1">
         <f t="shared" si="0"/>
-        <v>10476</v>
+        <v>21220</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="1"/>
-        <v>2619</v>
+        <v>2652.5</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="2"/>
-        <v>364.15106755301434</v>
+        <v>252.87885298243955</v>
       </c>
       <c r="O55">
         <f t="shared" si="3"/>
-        <v>210.24271687742245</v>
+        <v>145.99967384177529</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -4417,21 +5057,33 @@
       <c r="E56">
         <v>2586</v>
       </c>
+      <c r="F56">
+        <v>2375</v>
+      </c>
+      <c r="G56">
+        <v>2653</v>
+      </c>
+      <c r="H56">
+        <v>2469</v>
+      </c>
+      <c r="I56">
+        <v>2235</v>
+      </c>
       <c r="L56" s="1">
         <f t="shared" si="0"/>
-        <v>9299</v>
+        <v>19031</v>
       </c>
       <c r="M56" s="1">
         <f t="shared" si="1"/>
-        <v>2324.75</v>
+        <v>2378.875</v>
       </c>
       <c r="N56" s="1">
         <f t="shared" si="2"/>
-        <v>317.43910177124263</v>
+        <v>244.3659068458025</v>
       </c>
       <c r="O56">
         <f t="shared" si="3"/>
-        <v>183.27355085893996</v>
+        <v>141.08472209819109</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -4450,21 +5102,33 @@
       <c r="E57">
         <v>2436</v>
       </c>
+      <c r="F57">
+        <v>2228</v>
+      </c>
+      <c r="G57">
+        <v>2456</v>
+      </c>
+      <c r="H57">
+        <v>2295</v>
+      </c>
+      <c r="I57">
+        <v>2143</v>
+      </c>
       <c r="L57" s="1">
         <f t="shared" si="0"/>
-        <v>8775</v>
+        <v>17897</v>
       </c>
       <c r="M57" s="1">
         <f t="shared" si="1"/>
-        <v>2193.75</v>
+        <v>2237.125</v>
       </c>
       <c r="N57" s="1">
         <f t="shared" si="2"/>
-        <v>270.01527734556061</v>
+        <v>202.29005872049882</v>
       </c>
       <c r="O57">
         <f t="shared" si="3"/>
-        <v>155.89339306077088</v>
+        <v>116.7922198566652</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -4483,21 +5147,33 @@
       <c r="E58">
         <v>2325</v>
       </c>
+      <c r="F58">
+        <v>2126</v>
+      </c>
+      <c r="G58">
+        <v>2301</v>
+      </c>
+      <c r="H58">
+        <v>2015</v>
+      </c>
+      <c r="I58">
+        <v>1985</v>
+      </c>
       <c r="L58" s="1">
         <f t="shared" si="0"/>
-        <v>8138</v>
+        <v>16565</v>
       </c>
       <c r="M58" s="1">
         <f t="shared" si="1"/>
-        <v>2034.5</v>
+        <v>2070.625</v>
       </c>
       <c r="N58" s="1">
         <f t="shared" si="2"/>
-        <v>280.59995248277096</v>
+        <v>209.75968392424699</v>
       </c>
       <c r="O58">
         <f t="shared" si="3"/>
-        <v>162.00445810052403</v>
+        <v>121.10480997879482</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -4516,21 +5192,33 @@
       <c r="E59">
         <v>2137</v>
       </c>
+      <c r="F59">
+        <v>1954</v>
+      </c>
+      <c r="G59">
+        <v>2116</v>
+      </c>
+      <c r="H59">
+        <v>1966</v>
+      </c>
+      <c r="I59">
+        <v>1784</v>
+      </c>
       <c r="L59" s="1">
         <f t="shared" si="0"/>
-        <v>7600</v>
+        <v>15420</v>
       </c>
       <c r="M59" s="1">
         <f t="shared" si="1"/>
-        <v>1900</v>
+        <v>1927.5</v>
       </c>
       <c r="N59" s="1">
         <f t="shared" si="2"/>
-        <v>269.51190449897882</v>
+        <v>199.72981750354651</v>
       </c>
       <c r="O59">
         <f t="shared" si="3"/>
-        <v>155.60277061229414</v>
+        <v>115.31406390086741</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -4549,21 +5237,33 @@
       <c r="E60">
         <v>1998</v>
       </c>
+      <c r="F60">
+        <v>1705</v>
+      </c>
+      <c r="G60">
+        <v>2022</v>
+      </c>
+      <c r="H60">
+        <v>1835</v>
+      </c>
+      <c r="I60">
+        <v>1682</v>
+      </c>
       <c r="L60" s="1">
         <f t="shared" si="0"/>
-        <v>6871</v>
+        <v>14115</v>
       </c>
       <c r="M60" s="1">
         <f t="shared" si="1"/>
-        <v>1717.75</v>
+        <v>1764.375</v>
       </c>
       <c r="N60" s="1">
         <f t="shared" si="2"/>
-        <v>288.89487707468959</v>
+        <v>220.63087305011769</v>
       </c>
       <c r="O60">
         <f t="shared" si="3"/>
-        <v>166.7935350465759</v>
+        <v>127.3812939470276</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -4582,21 +5282,33 @@
       <c r="E61">
         <v>1808</v>
       </c>
+      <c r="F61">
+        <v>1587</v>
+      </c>
+      <c r="G61">
+        <v>1841</v>
+      </c>
+      <c r="H61">
+        <v>1591</v>
+      </c>
+      <c r="I61">
+        <v>1469</v>
+      </c>
       <c r="L61" s="1">
         <f t="shared" si="0"/>
-        <v>6281</v>
+        <v>12769</v>
       </c>
       <c r="M61" s="1">
         <f t="shared" si="1"/>
-        <v>1570.25</v>
+        <v>1596.125</v>
       </c>
       <c r="N61" s="1">
         <f t="shared" si="2"/>
-        <v>286.17287898518032</v>
+        <v>215.33922574128744</v>
       </c>
       <c r="O61">
         <f t="shared" si="3"/>
-        <v>165.22198871686408</v>
+        <v>124.3261599488179</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -4615,21 +5327,33 @@
       <c r="E62">
         <v>1580</v>
       </c>
+      <c r="F62">
+        <v>1427</v>
+      </c>
+      <c r="G62">
+        <v>1651</v>
+      </c>
+      <c r="H62">
+        <v>1402</v>
+      </c>
+      <c r="I62">
+        <v>1349</v>
+      </c>
       <c r="L62" s="1">
         <f t="shared" si="0"/>
-        <v>5629</v>
+        <v>11458</v>
       </c>
       <c r="M62" s="1">
         <f t="shared" si="1"/>
-        <v>1407.25</v>
+        <v>1432.25</v>
       </c>
       <c r="N62" s="1">
         <f t="shared" si="2"/>
-        <v>246.98903484432935</v>
+        <v>185.64001262043234</v>
       </c>
       <c r="O62">
         <f t="shared" si="3"/>
-        <v>142.59918575425942</v>
+        <v>107.17931125877215</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -4648,21 +5372,33 @@
       <c r="E63">
         <v>1423</v>
       </c>
+      <c r="F63">
+        <v>1357</v>
+      </c>
+      <c r="G63">
+        <v>1531</v>
+      </c>
+      <c r="H63">
+        <v>1338</v>
+      </c>
+      <c r="I63">
+        <v>1273</v>
+      </c>
       <c r="L63" s="1">
         <f t="shared" si="0"/>
-        <v>5057</v>
+        <v>10556</v>
       </c>
       <c r="M63" s="1">
         <f t="shared" si="1"/>
-        <v>1264.25</v>
+        <v>1319.5</v>
       </c>
       <c r="N63" s="1">
         <f t="shared" si="2"/>
-        <v>201.80085067544522</v>
+        <v>161.69813144958019</v>
       </c>
       <c r="O63">
         <f t="shared" si="3"/>
-        <v>116.50977546016378</v>
+        <v>93.356459719874621</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -4681,21 +5417,33 @@
       <c r="E64">
         <v>1347</v>
       </c>
+      <c r="F64">
+        <v>1210</v>
+      </c>
+      <c r="G64">
+        <v>1416</v>
+      </c>
+      <c r="H64">
+        <v>1147</v>
+      </c>
+      <c r="I64">
+        <v>1119</v>
+      </c>
       <c r="L64" s="1">
         <f t="shared" si="0"/>
-        <v>4629</v>
+        <v>9521</v>
       </c>
       <c r="M64" s="1">
         <f t="shared" si="1"/>
-        <v>1157.25</v>
+        <v>1190.125</v>
       </c>
       <c r="N64" s="1">
         <f t="shared" si="2"/>
-        <v>185.05382099990982</v>
+        <v>153.71163865219464</v>
       </c>
       <c r="O64">
         <f t="shared" si="3"/>
-        <v>106.84087336886677</v>
+        <v>88.745455953423061</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -4714,21 +5462,33 @@
       <c r="E65">
         <v>1222</v>
       </c>
+      <c r="F65">
+        <v>1107</v>
+      </c>
+      <c r="G65">
+        <v>1255</v>
+      </c>
+      <c r="H65">
+        <v>1015</v>
+      </c>
+      <c r="I65">
+        <v>945</v>
+      </c>
       <c r="L65" s="1">
         <f t="shared" si="0"/>
-        <v>4156</v>
+        <v>8478</v>
       </c>
       <c r="M65" s="1">
         <f t="shared" si="1"/>
-        <v>1039</v>
+        <v>1059.75</v>
       </c>
       <c r="N65" s="1">
         <f t="shared" si="2"/>
-        <v>166.07829478893382</v>
+        <v>141.41807320343261</v>
       </c>
       <c r="O65">
         <f t="shared" si="3"/>
-        <v>95.885348202944968</v>
+        <v>81.647762632280021</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -4747,21 +5507,33 @@
       <c r="E66">
         <v>1143</v>
       </c>
+      <c r="F66">
+        <v>1033</v>
+      </c>
+      <c r="G66">
+        <v>1158</v>
+      </c>
+      <c r="H66">
+        <v>873</v>
+      </c>
+      <c r="I66">
+        <v>931</v>
+      </c>
       <c r="L66" s="1">
         <f t="shared" si="0"/>
-        <v>3786</v>
+        <v>7781</v>
       </c>
       <c r="M66" s="1">
         <f t="shared" si="1"/>
-        <v>946.5</v>
+        <v>972.625</v>
       </c>
       <c r="N66" s="1">
         <f t="shared" si="2"/>
-        <v>171.06041817634687</v>
+        <v>141.5131871694548</v>
       </c>
       <c r="O66">
         <f t="shared" si="3"/>
-        <v>98.76177848180383</v>
+        <v>81.702676706166628</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -4780,21 +5552,33 @@
       <c r="E67">
         <v>949</v>
       </c>
+      <c r="F67">
+        <v>903</v>
+      </c>
+      <c r="G67">
+        <v>1036</v>
+      </c>
+      <c r="H67">
+        <v>805</v>
+      </c>
+      <c r="I67">
+        <v>786</v>
+      </c>
       <c r="L67" s="1">
         <f t="shared" si="0"/>
-        <v>3268</v>
+        <v>6798</v>
       </c>
       <c r="M67" s="1">
         <f t="shared" si="1"/>
-        <v>817</v>
+        <v>849.75</v>
       </c>
       <c r="N67" s="1">
         <f t="shared" si="2"/>
-        <v>152.499180325666</v>
+        <v>129.64208972618201</v>
       </c>
       <c r="O67">
         <f t="shared" si="3"/>
-        <v>88.045442812220557</v>
+        <v>74.848895401716803</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -4813,21 +5597,33 @@
       <c r="E68">
         <v>877</v>
       </c>
+      <c r="F68">
+        <v>799</v>
+      </c>
+      <c r="G68">
+        <v>934</v>
+      </c>
+      <c r="H68">
+        <v>729</v>
+      </c>
+      <c r="I68">
+        <v>663</v>
+      </c>
       <c r="L68" s="1">
         <f t="shared" ref="L68:L112" si="4">SUM(B68:K68)</f>
-        <v>3034</v>
+        <v>6159</v>
       </c>
       <c r="M68" s="1">
         <f t="shared" ref="M68:M112" si="5">AVERAGE(B68:K68)</f>
-        <v>758.5</v>
+        <v>769.875</v>
       </c>
       <c r="N68" s="1">
         <f t="shared" ref="N68:N112" si="6">STDEV(B68:K68)</f>
-        <v>121.40428328522844</v>
+        <v>110.59118732650316</v>
       </c>
       <c r="O68">
         <f t="shared" ref="O68:O112" si="7">N68/SQRT(3)</f>
-        <v>70.092795635500224</v>
+        <v>63.849851772956931</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -4846,21 +5642,33 @@
       <c r="E69">
         <v>811</v>
       </c>
+      <c r="F69">
+        <v>733</v>
+      </c>
+      <c r="G69">
+        <v>908</v>
+      </c>
+      <c r="H69">
+        <v>628</v>
+      </c>
+      <c r="I69">
+        <v>655</v>
+      </c>
       <c r="L69" s="1">
         <f t="shared" si="4"/>
-        <v>2633</v>
+        <v>5557</v>
       </c>
       <c r="M69" s="1">
         <f t="shared" si="5"/>
-        <v>658.25</v>
+        <v>694.625</v>
       </c>
       <c r="N69" s="1">
         <f t="shared" si="6"/>
-        <v>129.25781730066979</v>
+        <v>124.45646111908258</v>
       </c>
       <c r="O69">
         <f t="shared" si="7"/>
-        <v>74.62703561340517</v>
+        <v>71.854971329490525</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -4879,21 +5687,33 @@
       <c r="E70">
         <v>691</v>
       </c>
+      <c r="F70">
+        <v>612</v>
+      </c>
+      <c r="G70">
+        <v>744</v>
+      </c>
+      <c r="H70">
+        <v>522</v>
+      </c>
+      <c r="I70">
+        <v>526</v>
+      </c>
       <c r="L70" s="1">
         <f t="shared" si="4"/>
-        <v>2226</v>
+        <v>4630</v>
       </c>
       <c r="M70" s="1">
         <f t="shared" si="5"/>
-        <v>556.5</v>
+        <v>578.75</v>
       </c>
       <c r="N70" s="1">
         <f t="shared" si="6"/>
-        <v>99.754699137434116</v>
+        <v>97.284193401159911</v>
       </c>
       <c r="O70">
         <f t="shared" si="7"/>
-        <v>57.593402399927719</v>
+        <v>56.167055248055291</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -4912,21 +5732,33 @@
       <c r="E71">
         <v>590</v>
       </c>
+      <c r="F71">
+        <v>562</v>
+      </c>
+      <c r="G71">
+        <v>730</v>
+      </c>
+      <c r="H71">
+        <v>503</v>
+      </c>
+      <c r="I71">
+        <v>492</v>
+      </c>
       <c r="L71" s="1">
         <f t="shared" si="4"/>
-        <v>2039</v>
+        <v>4326</v>
       </c>
       <c r="M71" s="1">
         <f t="shared" si="5"/>
-        <v>509.75</v>
+        <v>540.75</v>
       </c>
       <c r="N71" s="1">
         <f t="shared" si="6"/>
-        <v>74.271461544795258</v>
+        <v>92.937382913750824</v>
       </c>
       <c r="O71">
         <f t="shared" si="7"/>
-        <v>42.880648315994485</v>
+        <v>53.657423043033369</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -4945,21 +5777,33 @@
       <c r="E72">
         <v>546</v>
       </c>
+      <c r="F72">
+        <v>518</v>
+      </c>
+      <c r="G72">
+        <v>599</v>
+      </c>
+      <c r="H72">
+        <v>420</v>
+      </c>
+      <c r="I72">
+        <v>408</v>
+      </c>
       <c r="L72" s="1">
         <f t="shared" si="4"/>
-        <v>1758</v>
+        <v>3703</v>
       </c>
       <c r="M72" s="1">
         <f t="shared" si="5"/>
-        <v>439.5</v>
+        <v>462.875</v>
       </c>
       <c r="N72" s="1">
         <f t="shared" si="6"/>
-        <v>80.392785745985933</v>
+        <v>82.801720996607315</v>
       </c>
       <c r="O72">
         <f t="shared" si="7"/>
-        <v>46.414796491348888</v>
+        <v>47.805595906755521</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -4978,21 +5822,33 @@
       <c r="E73">
         <v>480</v>
       </c>
+      <c r="F73">
+        <v>461</v>
+      </c>
+      <c r="G73">
+        <v>557</v>
+      </c>
+      <c r="H73">
+        <v>390</v>
+      </c>
+      <c r="I73">
+        <v>399</v>
+      </c>
       <c r="L73" s="1">
         <f t="shared" si="4"/>
-        <v>1608</v>
+        <v>3415</v>
       </c>
       <c r="M73" s="1">
         <f t="shared" si="5"/>
-        <v>402</v>
+        <v>426.875</v>
       </c>
       <c r="N73" s="1">
         <f t="shared" si="6"/>
-        <v>78.871203025354362</v>
+        <v>76.877337362840549</v>
       </c>
       <c r="O73">
         <f t="shared" si="7"/>
-        <v>45.536310297997971</v>
+        <v>44.385151421017667</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -5011,21 +5867,33 @@
       <c r="E74">
         <v>453</v>
       </c>
+      <c r="F74">
+        <v>413</v>
+      </c>
+      <c r="G74">
+        <v>510</v>
+      </c>
+      <c r="H74">
+        <v>332</v>
+      </c>
+      <c r="I74">
+        <v>316</v>
+      </c>
       <c r="L74" s="1">
         <f t="shared" si="4"/>
-        <v>1412</v>
+        <v>2983</v>
       </c>
       <c r="M74" s="1">
         <f t="shared" si="5"/>
-        <v>353</v>
+        <v>372.875</v>
       </c>
       <c r="N74" s="1">
         <f t="shared" si="6"/>
-        <v>74.815328197725179</v>
+        <v>79.00350353894801</v>
       </c>
       <c r="O74">
         <f t="shared" si="7"/>
-        <v>43.194649874466833</v>
+        <v>45.612694035135185</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -5044,21 +5912,33 @@
       <c r="E75">
         <v>364</v>
       </c>
+      <c r="F75">
+        <v>376</v>
+      </c>
+      <c r="G75">
+        <v>477</v>
+      </c>
+      <c r="H75">
+        <v>275</v>
+      </c>
+      <c r="I75">
+        <v>332</v>
+      </c>
       <c r="L75" s="1">
         <f t="shared" si="4"/>
-        <v>1259</v>
+        <v>2719</v>
       </c>
       <c r="M75" s="1">
         <f t="shared" si="5"/>
-        <v>314.75</v>
+        <v>339.875</v>
       </c>
       <c r="N75" s="1">
         <f t="shared" si="6"/>
-        <v>61.770408233500717</v>
+        <v>74.018216869710045</v>
       </c>
       <c r="O75">
         <f t="shared" si="7"/>
-        <v>35.663161821564714</v>
+        <v>42.734437434663199</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -5077,21 +5957,33 @@
       <c r="E76">
         <v>315</v>
       </c>
+      <c r="F76">
+        <v>296</v>
+      </c>
+      <c r="G76">
+        <v>370</v>
+      </c>
+      <c r="H76">
+        <v>215</v>
+      </c>
+      <c r="I76">
+        <v>227</v>
+      </c>
       <c r="L76" s="1">
         <f t="shared" si="4"/>
-        <v>1097</v>
+        <v>2205</v>
       </c>
       <c r="M76" s="1">
         <f t="shared" si="5"/>
-        <v>274.25</v>
+        <v>275.625</v>
       </c>
       <c r="N76" s="1">
         <f t="shared" si="6"/>
-        <v>41.987101193898425</v>
+        <v>54.324257933265869</v>
       </c>
       <c r="O76">
         <f t="shared" si="7"/>
-        <v>24.241264176789315</v>
+        <v>31.364124941297714</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -5110,21 +6002,33 @@
       <c r="E77">
         <v>276</v>
       </c>
+      <c r="F77">
+        <v>279</v>
+      </c>
+      <c r="G77">
+        <v>341</v>
+      </c>
+      <c r="H77">
+        <v>216</v>
+      </c>
+      <c r="I77">
+        <v>233</v>
+      </c>
       <c r="L77" s="1">
         <f t="shared" si="4"/>
-        <v>952</v>
+        <v>2021</v>
       </c>
       <c r="M77" s="1">
         <f t="shared" si="5"/>
-        <v>238</v>
+        <v>252.625</v>
       </c>
       <c r="N77" s="1">
         <f t="shared" si="6"/>
-        <v>43.855824394638091</v>
+        <v>49.074105770180445</v>
       </c>
       <c r="O77">
         <f t="shared" si="7"/>
-        <v>25.32017201977726</v>
+        <v>28.332948176653847</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -5143,21 +6047,33 @@
       <c r="E78">
         <v>225</v>
       </c>
+      <c r="F78">
+        <v>221</v>
+      </c>
+      <c r="G78">
+        <v>303</v>
+      </c>
+      <c r="H78">
+        <v>196</v>
+      </c>
+      <c r="I78">
+        <v>200</v>
+      </c>
       <c r="L78" s="1">
         <f t="shared" si="4"/>
-        <v>813</v>
+        <v>1733</v>
       </c>
       <c r="M78" s="1">
         <f t="shared" si="5"/>
-        <v>203.25</v>
+        <v>216.625</v>
       </c>
       <c r="N78" s="1">
         <f t="shared" si="6"/>
-        <v>35.696638497203068</v>
+        <v>42.627749178205505</v>
       </c>
       <c r="O78">
         <f t="shared" si="7"/>
-        <v>20.609463845524949</v>
+        <v>24.611142462984798</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -5176,21 +6092,33 @@
       <c r="E79">
         <v>198</v>
       </c>
+      <c r="F79">
+        <v>205</v>
+      </c>
+      <c r="G79">
+        <v>256</v>
+      </c>
+      <c r="H79">
+        <v>128</v>
+      </c>
+      <c r="I79">
+        <v>148</v>
+      </c>
       <c r="L79" s="1">
         <f t="shared" si="4"/>
-        <v>695</v>
+        <v>1432</v>
       </c>
       <c r="M79" s="1">
         <f t="shared" si="5"/>
-        <v>173.75</v>
+        <v>179</v>
       </c>
       <c r="N79" s="1">
         <f t="shared" si="6"/>
-        <v>36.003472054789384</v>
+        <v>44.98571201742044</v>
       </c>
       <c r="O79">
         <f t="shared" si="7"/>
-        <v>20.78661428259382</v>
+        <v>25.972512942944675</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -5209,21 +6137,33 @@
       <c r="E80">
         <v>183</v>
       </c>
+      <c r="F80">
+        <v>196</v>
+      </c>
+      <c r="G80">
+        <v>259</v>
+      </c>
+      <c r="H80">
+        <v>117</v>
+      </c>
+      <c r="I80">
+        <v>139</v>
+      </c>
       <c r="L80" s="1">
         <f t="shared" si="4"/>
-        <v>603</v>
+        <v>1314</v>
       </c>
       <c r="M80" s="1">
         <f t="shared" si="5"/>
-        <v>150.75</v>
+        <v>164.25</v>
       </c>
       <c r="N80" s="1">
         <f t="shared" si="6"/>
-        <v>33.589432862136867</v>
+        <v>49.23631064279985</v>
       </c>
       <c r="O80">
         <f t="shared" si="7"/>
-        <v>19.392868104881583</v>
+        <v>28.42659720352453</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -5242,21 +6182,33 @@
       <c r="E81">
         <v>136</v>
       </c>
+      <c r="F81">
+        <v>141</v>
+      </c>
+      <c r="G81">
+        <v>206</v>
+      </c>
+      <c r="H81">
+        <v>98</v>
+      </c>
+      <c r="I81">
+        <v>132</v>
+      </c>
       <c r="L81" s="1">
         <f t="shared" si="4"/>
-        <v>499</v>
+        <v>1076</v>
       </c>
       <c r="M81" s="1">
         <f t="shared" si="5"/>
-        <v>124.75</v>
+        <v>134.5</v>
       </c>
       <c r="N81" s="1">
         <f t="shared" si="6"/>
-        <v>19.670197423174653</v>
+        <v>33.877932134566386</v>
       </c>
       <c r="O81">
         <f t="shared" si="7"/>
-        <v>11.356593777282969</v>
+        <v>19.559433237479777</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -5275,21 +6227,33 @@
       <c r="E82">
         <v>121</v>
       </c>
+      <c r="F82">
+        <v>147</v>
+      </c>
+      <c r="G82">
+        <v>194</v>
+      </c>
+      <c r="H82">
+        <v>79</v>
+      </c>
+      <c r="I82">
+        <v>106</v>
+      </c>
       <c r="L82" s="1">
         <f t="shared" si="4"/>
-        <v>447</v>
+        <v>973</v>
       </c>
       <c r="M82" s="1">
         <f t="shared" si="5"/>
-        <v>111.75</v>
+        <v>121.625</v>
       </c>
       <c r="N82" s="1">
         <f t="shared" si="6"/>
-        <v>12.038133853162901</v>
+        <v>35.391433588208479</v>
       </c>
       <c r="O82">
         <f t="shared" si="7"/>
-        <v>6.9502198206643477</v>
+        <v>20.433253709158929</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -5308,21 +6272,33 @@
       <c r="E83">
         <v>99</v>
       </c>
+      <c r="F83">
+        <v>104</v>
+      </c>
+      <c r="G83">
+        <v>152</v>
+      </c>
+      <c r="H83">
+        <v>65</v>
+      </c>
+      <c r="I83">
+        <v>94</v>
+      </c>
       <c r="L83" s="1">
         <f t="shared" si="4"/>
-        <v>378</v>
+        <v>793</v>
       </c>
       <c r="M83" s="1">
         <f t="shared" si="5"/>
-        <v>94.5</v>
+        <v>99.125</v>
       </c>
       <c r="N83" s="1">
         <f t="shared" si="6"/>
-        <v>17.464249196572979</v>
+        <v>26.755173064554931</v>
       </c>
       <c r="O83">
         <f t="shared" si="7"/>
-        <v>10.082988974836116</v>
+        <v>15.447106371035815</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -5341,21 +6317,33 @@
       <c r="E84">
         <v>82</v>
       </c>
+      <c r="F84">
+        <v>88</v>
+      </c>
+      <c r="G84">
+        <v>123</v>
+      </c>
+      <c r="H84">
+        <v>51</v>
+      </c>
+      <c r="I84">
+        <v>67</v>
+      </c>
       <c r="L84" s="1">
         <f t="shared" si="4"/>
-        <v>293</v>
+        <v>622</v>
       </c>
       <c r="M84" s="1">
         <f t="shared" si="5"/>
-        <v>73.25</v>
+        <v>77.75</v>
       </c>
       <c r="N84" s="1">
         <f t="shared" si="6"/>
-        <v>8.1802607945386843</v>
+        <v>21.598611066455177</v>
       </c>
       <c r="O84">
         <f t="shared" si="7"/>
-        <v>4.7228757717682512</v>
+        <v>12.469963913339928</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -5374,21 +6362,33 @@
       <c r="E85">
         <v>81</v>
       </c>
+      <c r="F85">
+        <v>78</v>
+      </c>
+      <c r="G85">
+        <v>126</v>
+      </c>
+      <c r="H85">
+        <v>48</v>
+      </c>
+      <c r="I85">
+        <v>86</v>
+      </c>
       <c r="L85" s="1">
         <f t="shared" si="4"/>
-        <v>299</v>
+        <v>637</v>
       </c>
       <c r="M85" s="1">
         <f t="shared" si="5"/>
-        <v>74.75</v>
+        <v>79.625</v>
       </c>
       <c r="N85" s="1">
         <f t="shared" si="6"/>
-        <v>8.5</v>
+        <v>22.379438905260464</v>
       </c>
       <c r="O85">
         <f t="shared" si="7"/>
-        <v>4.9074772881118189</v>
+        <v>12.920775076264913</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -5407,21 +6407,33 @@
       <c r="E86">
         <v>53</v>
       </c>
+      <c r="F86">
+        <v>63</v>
+      </c>
+      <c r="G86">
+        <v>95</v>
+      </c>
+      <c r="H86">
+        <v>37</v>
+      </c>
+      <c r="I86">
+        <v>50</v>
+      </c>
       <c r="L86" s="1">
         <f t="shared" si="4"/>
-        <v>218</v>
+        <v>463</v>
       </c>
       <c r="M86" s="1">
         <f t="shared" si="5"/>
-        <v>54.5</v>
+        <v>57.875</v>
       </c>
       <c r="N86" s="1">
         <f t="shared" si="6"/>
-        <v>3.415650255319866</v>
+        <v>16.830563185551966</v>
       </c>
       <c r="O86">
         <f t="shared" si="7"/>
-        <v>1.9720265943665387</v>
+        <v>9.717130185791433</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -5440,21 +6452,33 @@
       <c r="E87">
         <v>43</v>
       </c>
+      <c r="F87">
+        <v>44</v>
+      </c>
+      <c r="G87">
+        <v>71</v>
+      </c>
+      <c r="H87">
+        <v>29</v>
+      </c>
+      <c r="I87">
+        <v>49</v>
+      </c>
       <c r="L87" s="1">
         <f t="shared" si="4"/>
-        <v>176</v>
+        <v>369</v>
       </c>
       <c r="M87" s="1">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>46.125</v>
       </c>
       <c r="N87" s="1">
         <f t="shared" si="6"/>
-        <v>7.0710678118654755</v>
+        <v>12.494998999599799</v>
       </c>
       <c r="O87">
         <f t="shared" si="7"/>
-        <v>4.0824829046386304</v>
+        <v>7.2139910359430495</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -5473,21 +6497,33 @@
       <c r="E88">
         <v>32</v>
       </c>
+      <c r="F88">
+        <v>38</v>
+      </c>
+      <c r="G88">
+        <v>47</v>
+      </c>
+      <c r="H88">
+        <v>22</v>
+      </c>
+      <c r="I88">
+        <v>32</v>
+      </c>
       <c r="L88" s="1">
         <f t="shared" si="4"/>
-        <v>135</v>
+        <v>274</v>
       </c>
       <c r="M88" s="1">
         <f t="shared" si="5"/>
-        <v>33.75</v>
+        <v>34.25</v>
       </c>
       <c r="N88" s="1">
         <f t="shared" si="6"/>
-        <v>6.1305247192498404</v>
+        <v>7.9776473438512649</v>
       </c>
       <c r="O88">
         <f t="shared" si="7"/>
-        <v>3.5394600969325505</v>
+        <v>4.6058968414724308</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -5506,9 +6542,21 @@
       <c r="E89">
         <v>29</v>
       </c>
+      <c r="F89">
+        <v>28</v>
+      </c>
+      <c r="G89">
+        <v>42</v>
+      </c>
+      <c r="H89">
+        <v>20</v>
+      </c>
+      <c r="I89">
+        <v>32</v>
+      </c>
       <c r="L89" s="1">
         <f t="shared" si="4"/>
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="M89" s="1">
         <f t="shared" si="5"/>
@@ -5516,11 +6564,11 @@
       </c>
       <c r="N89" s="1">
         <f t="shared" si="6"/>
-        <v>10.279429296739517</v>
+        <v>9.0079330116768261</v>
       </c>
       <c r="O89">
         <f t="shared" si="7"/>
-        <v>5.9348312715882861</v>
+        <v>5.2007325491337326</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -5539,21 +6587,33 @@
       <c r="E90">
         <v>31</v>
       </c>
+      <c r="F90">
+        <v>32</v>
+      </c>
+      <c r="G90">
+        <v>42</v>
+      </c>
+      <c r="H90">
+        <v>21</v>
+      </c>
+      <c r="I90">
+        <v>40</v>
+      </c>
       <c r="L90" s="1">
         <f t="shared" si="4"/>
-        <v>127</v>
+        <v>262</v>
       </c>
       <c r="M90" s="1">
         <f t="shared" si="5"/>
-        <v>31.75</v>
+        <v>32.75</v>
       </c>
       <c r="N90" s="1">
         <f t="shared" si="6"/>
-        <v>4.349329450233296</v>
+        <v>6.9436507482941359</v>
       </c>
       <c r="O90">
         <f t="shared" si="7"/>
-        <v>2.5110865288865605</v>
+        <v>4.0089186286863656</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -5572,21 +6632,33 @@
       <c r="E91">
         <v>26</v>
       </c>
+      <c r="F91">
+        <v>19</v>
+      </c>
+      <c r="G91">
+        <v>33</v>
+      </c>
+      <c r="H91">
+        <v>18</v>
+      </c>
+      <c r="I91">
+        <v>30</v>
+      </c>
       <c r="L91" s="1">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="M91" s="1">
         <f t="shared" si="5"/>
-        <v>25.25</v>
+        <v>25.125</v>
       </c>
       <c r="N91" s="1">
         <f t="shared" si="6"/>
-        <v>2.2173557826083452</v>
+        <v>5.1944338341288798</v>
       </c>
       <c r="O91">
         <f t="shared" si="7"/>
-        <v>1.2801909579781015</v>
+        <v>2.9990077724220088</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -5605,21 +6677,33 @@
       <c r="E92">
         <v>12</v>
       </c>
+      <c r="F92">
+        <v>14</v>
+      </c>
+      <c r="G92">
+        <v>29</v>
+      </c>
+      <c r="H92">
+        <v>11</v>
+      </c>
+      <c r="I92">
+        <v>21</v>
+      </c>
       <c r="L92" s="1">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="M92" s="1">
         <f t="shared" si="5"/>
-        <v>17.25</v>
+        <v>18</v>
       </c>
       <c r="N92" s="1">
         <f t="shared" si="6"/>
-        <v>5.5602757725374259</v>
+        <v>6.4365030434678916</v>
       </c>
       <c r="O92">
         <f t="shared" si="7"/>
-        <v>3.2102267140430372</v>
+        <v>3.7161167647860331</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -5638,21 +6722,33 @@
       <c r="E93">
         <v>13</v>
       </c>
+      <c r="F93">
+        <v>13</v>
+      </c>
+      <c r="G93">
+        <v>20</v>
+      </c>
+      <c r="H93">
+        <v>5</v>
+      </c>
+      <c r="I93">
+        <v>17</v>
+      </c>
       <c r="L93" s="1">
         <f t="shared" si="4"/>
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="M93" s="1">
         <f t="shared" si="5"/>
-        <v>14.5</v>
+        <v>14.125</v>
       </c>
       <c r="N93" s="1">
         <f t="shared" si="6"/>
-        <v>2.3804761428476167</v>
+        <v>4.5493327611231704</v>
       </c>
       <c r="O93">
         <f t="shared" si="7"/>
-        <v>1.3743685418725535</v>
+        <v>2.6265584942676461</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -5671,21 +6767,33 @@
       <c r="E94">
         <v>11</v>
       </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <v>12</v>
+      </c>
+      <c r="H94">
+        <v>10</v>
+      </c>
+      <c r="I94">
+        <v>11</v>
+      </c>
       <c r="L94" s="1">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="M94" s="1">
         <f t="shared" si="5"/>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="N94" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2.2038926600773587</v>
       </c>
       <c r="O94">
         <f t="shared" si="7"/>
-        <v>0.57735026918962584</v>
+        <v>1.2724180205607036</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -5704,21 +6812,33 @@
       <c r="E95">
         <v>2</v>
       </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+      <c r="G95">
+        <v>9</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
       <c r="L95" s="1">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="M95" s="1">
         <f t="shared" si="5"/>
-        <v>7.5</v>
+        <v>6.625</v>
       </c>
       <c r="N95" s="1">
         <f t="shared" si="6"/>
-        <v>3.7859388972001824</v>
+        <v>3.7392703642746747</v>
       </c>
       <c r="O95">
         <f t="shared" si="7"/>
-        <v>2.1858128414340001</v>
+        <v>2.1588687513867737</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
@@ -5737,21 +6857,33 @@
       <c r="E96">
         <v>4</v>
       </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>6</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
       <c r="L96" s="1">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M96" s="1">
         <f t="shared" si="5"/>
-        <v>4.75</v>
+        <v>4.125</v>
       </c>
       <c r="N96" s="1">
         <f t="shared" si="6"/>
-        <v>1.707825127659933</v>
+        <v>2.1671244937540095</v>
       </c>
       <c r="O96">
         <f t="shared" si="7"/>
-        <v>0.98601329718326935</v>
+        <v>1.2511899098363088</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
@@ -5770,21 +6902,33 @@
       <c r="E97">
         <v>1</v>
       </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
       <c r="L97" s="1">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M97" s="1">
         <f t="shared" si="5"/>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N97" s="1">
         <f t="shared" si="6"/>
-        <v>1.707825127659933</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="O97">
         <f t="shared" si="7"/>
-        <v>0.98601329718326935</v>
+        <v>0.81649658092772615</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
@@ -5803,21 +6947,33 @@
       <c r="E98">
         <v>1</v>
       </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
       <c r="L98" s="1">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M98" s="1">
         <f t="shared" si="5"/>
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N98" s="1">
         <f t="shared" si="6"/>
-        <v>2.0615528128088303</v>
+        <v>1.8468119248354136</v>
       </c>
       <c r="O98">
         <f t="shared" si="7"/>
-        <v>1.1902380714238083</v>
+        <v>1.0662573619463369</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
@@ -5836,21 +6992,33 @@
       <c r="E99">
         <v>0</v>
       </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
       <c r="L99" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M99" s="1">
         <f t="shared" si="5"/>
-        <v>1.25</v>
+        <v>0.875</v>
       </c>
       <c r="N99" s="1">
         <f t="shared" si="6"/>
-        <v>0.9574271077563381</v>
+        <v>0.99103120896511487</v>
       </c>
       <c r="O99">
         <f t="shared" si="7"/>
-        <v>0.55277079839256671</v>
+        <v>0.57217213527132937</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
@@ -5869,21 +7037,33 @@
       <c r="E100">
         <v>0</v>
       </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
       <c r="L100" s="1">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M100" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="N100" s="1">
         <f t="shared" si="6"/>
-        <v>1.8257418583505538</v>
+        <v>1.5526475085202969</v>
       </c>
       <c r="O100">
         <f t="shared" si="7"/>
-        <v>1.0540925533894598</v>
+        <v>0.89642145700079523</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
@@ -5902,21 +7082,33 @@
       <c r="E101">
         <v>0</v>
       </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
       <c r="L101" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M101" s="1">
         <f t="shared" si="5"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="N101" s="1">
         <f t="shared" si="6"/>
-        <v>0.9574271077563381</v>
+        <v>0.7559289460184544</v>
       </c>
       <c r="O101">
         <f t="shared" si="7"/>
-        <v>0.55277079839256671</v>
+        <v>0.43643578047198478</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
@@ -5935,9 +7127,21 @@
       <c r="E102">
         <v>0</v>
       </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
       <c r="L102" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M102" s="1">
         <f t="shared" si="5"/>
@@ -5945,11 +7149,11 @@
       </c>
       <c r="N102" s="1">
         <f t="shared" si="6"/>
-        <v>0.57735026918962573</v>
+        <v>0.53452248382484879</v>
       </c>
       <c r="O102">
         <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
+        <v>0.30860669992418382</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -5968,6 +7172,18 @@
       <c r="E103">
         <v>0</v>
       </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
       <c r="L103" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6001,9 +7217,21 @@
       <c r="E104">
         <v>0</v>
       </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
       <c r="L104" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M104" s="1">
         <f t="shared" si="5"/>
@@ -6011,11 +7239,11 @@
       </c>
       <c r="N104" s="1">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0.46291004988627571</v>
       </c>
       <c r="O104">
         <f t="shared" si="7"/>
-        <v>0.28867513459481292</v>
+        <v>0.2672612419124244</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -6034,6 +7262,18 @@
       <c r="E105">
         <v>0</v>
       </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
       <c r="L105" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6067,6 +7307,18 @@
       <c r="E106">
         <v>0</v>
       </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
       <c r="L106" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6100,6 +7352,18 @@
       <c r="E107">
         <v>0</v>
       </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
       <c r="L107" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6133,6 +7397,18 @@
       <c r="E108">
         <v>0</v>
       </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
       <c r="L108" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6166,6 +7442,18 @@
       <c r="E109">
         <v>0</v>
       </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
       <c r="L109" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6199,6 +7487,18 @@
       <c r="E110">
         <v>0</v>
       </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
       <c r="L110" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6232,6 +7532,18 @@
       <c r="E111">
         <v>0</v>
       </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
       <c r="L111" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6265,6 +7577,18 @@
       <c r="E112">
         <v>0</v>
       </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
       <c r="L112" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6283,25 +7607,25 @@
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="6" t="s">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B122">
@@ -6316,7 +7640,18 @@
       <c r="E122">
         <v>3</v>
       </c>
-      <c r="F122" s="2"/>
+      <c r="F122">
+        <v>4</v>
+      </c>
+      <c r="G122">
+        <v>5</v>
+      </c>
+      <c r="H122">
+        <v>6</v>
+      </c>
+      <c r="I122">
+        <v>7</v>
+      </c>
       <c r="L122" s="1" t="s">
         <v>1</v>
       </c>
@@ -6346,21 +7681,33 @@
       <c r="E123">
         <v>7.4910373315215102</v>
       </c>
+      <c r="F123">
+        <v>16.133622769266299</v>
+      </c>
+      <c r="G123">
+        <v>-2.19299294799566</v>
+      </c>
+      <c r="H123">
+        <v>-11.126536279916699</v>
+      </c>
+      <c r="I123">
+        <v>0.66338101029396002</v>
+      </c>
       <c r="L123" s="1">
         <f>SUM(B123:K123)</f>
-        <v>51.143058549612682</v>
+        <v>54.620533101260584</v>
       </c>
       <c r="M123" s="1">
         <f>AVERAGE(B123:K123)</f>
-        <v>12.785764637403171</v>
+        <v>6.827566637657573</v>
       </c>
       <c r="N123" s="1">
         <f>STDEV(B123:K123)</f>
-        <v>23.175663638711775</v>
+        <v>18.054104483418048</v>
       </c>
       <c r="O123">
         <f>N123/SQRT(3)</f>
-        <v>13.380475640458465</v>
+        <v>10.42354208347904</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
@@ -6379,21 +7726,33 @@
       <c r="E124">
         <v>-3.73373366892337</v>
       </c>
+      <c r="F124">
+        <v>46.319797620177198</v>
+      </c>
+      <c r="G124">
+        <v>8.2839860757812804</v>
+      </c>
+      <c r="H124">
+        <v>-6.6750546060502502</v>
+      </c>
+      <c r="I124">
+        <v>-1.6315793171524999</v>
+      </c>
       <c r="L124" s="1">
         <f t="shared" ref="L124:L187" si="8">SUM(B124:K124)</f>
-        <v>12.780671708751438</v>
+        <v>59.077821481507172</v>
       </c>
       <c r="M124" s="1">
         <f t="shared" ref="M124:M187" si="9">AVERAGE(B124:K124)</f>
-        <v>3.1951679271878595</v>
+        <v>7.3847276851883965</v>
       </c>
       <c r="N124" s="1">
         <f t="shared" ref="N124:N187" si="10">STDEV(B124:K124)</f>
-        <v>13.309895035021928</v>
+        <v>18.506327751518413</v>
       </c>
       <c r="O124">
         <f t="shared" ref="O124:O187" si="11">N124/SQRT(3)</f>
-        <v>7.6844714813555735</v>
+        <v>10.684633309050598</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
@@ -6412,21 +7771,33 @@
       <c r="E125">
         <v>-1.63841009140014</v>
       </c>
+      <c r="F125">
+        <v>30.446614831685999</v>
+      </c>
+      <c r="G125">
+        <v>-10.6741895377635</v>
+      </c>
+      <c r="H125">
+        <v>5.42627105116844</v>
+      </c>
+      <c r="I125">
+        <v>-4.3037198074161997</v>
+      </c>
       <c r="L125" s="1">
         <f t="shared" si="8"/>
-        <v>-34.465255094691202</v>
+        <v>-13.570278557016461</v>
       </c>
       <c r="M125" s="1">
         <f t="shared" si="9"/>
-        <v>-8.6163137736728004</v>
+        <v>-1.6962848196270577</v>
       </c>
       <c r="N125" s="1">
         <f t="shared" si="10"/>
-        <v>15.928123352979778</v>
+        <v>17.419040624775331</v>
       </c>
       <c r="O125">
         <f t="shared" si="11"/>
-        <v>9.1961063055284402</v>
+        <v>10.056887793739065</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
@@ -6445,21 +7816,33 @@
       <c r="E126">
         <v>-5.2491774000227398</v>
       </c>
+      <c r="F126">
+        <v>42.765453823376397</v>
+      </c>
+      <c r="G126">
+        <v>8.2309805452823603</v>
+      </c>
+      <c r="H126">
+        <v>2.7616510391235298</v>
+      </c>
+      <c r="I126">
+        <v>-1.2557470500469201</v>
+      </c>
       <c r="L126" s="1">
         <f t="shared" si="8"/>
-        <v>20.293755568563888</v>
+        <v>72.796093926299264</v>
       </c>
       <c r="M126" s="1">
         <f t="shared" si="9"/>
-        <v>5.0734388921409721</v>
+        <v>9.099511740787408</v>
       </c>
       <c r="N126" s="1">
         <f t="shared" si="10"/>
-        <v>8.7941650016567667</v>
+        <v>15.016176659114638</v>
       </c>
       <c r="O126">
         <f t="shared" si="11"/>
-        <v>5.0773135310045205</v>
+        <v>8.6695936363388117</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
@@ -6478,21 +7861,33 @@
       <c r="E127">
         <v>5.7210727063938904</v>
       </c>
+      <c r="F127">
+        <v>31.3345931619405</v>
+      </c>
+      <c r="G127">
+        <v>11.319533541798499</v>
+      </c>
+      <c r="H127">
+        <v>-1.29837134480476</v>
+      </c>
+      <c r="I127">
+        <v>12.416821755468799</v>
+      </c>
       <c r="L127" s="1">
         <f t="shared" si="8"/>
-        <v>17.38294872920952</v>
+        <v>71.155525843612565</v>
       </c>
       <c r="M127" s="1">
         <f t="shared" si="9"/>
-        <v>4.34573718230238</v>
+        <v>8.8944407304515707</v>
       </c>
       <c r="N127" s="1">
         <f t="shared" si="10"/>
-        <v>5.4390237402686186</v>
+        <v>10.67208545690508</v>
       </c>
       <c r="O127">
         <f t="shared" si="11"/>
-        <v>3.1402218205728523</v>
+        <v>6.1615314113588386</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
@@ -6511,21 +7906,33 @@
       <c r="E128">
         <v>10.7913271971046</v>
       </c>
+      <c r="F128">
+        <v>-18.190127812325901</v>
+      </c>
+      <c r="G128">
+        <v>9.6899758204817701</v>
+      </c>
+      <c r="H128">
+        <v>5.7038553729653296</v>
+      </c>
+      <c r="I128">
+        <v>-16.725190974771898</v>
+      </c>
       <c r="L128" s="1">
         <f t="shared" si="8"/>
-        <v>1.8684485964475801</v>
+        <v>-17.653038997203119</v>
       </c>
       <c r="M128" s="1">
         <f t="shared" si="9"/>
-        <v>0.46711214911189503</v>
+        <v>-2.2066298746503898</v>
       </c>
       <c r="N128" s="1">
         <f t="shared" si="10"/>
-        <v>8.2288643125618428</v>
+        <v>11.352180633328476</v>
       </c>
       <c r="O128">
         <f t="shared" si="11"/>
-        <v>4.750937025982485</v>
+        <v>6.5541845445414522</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
@@ -6544,21 +7951,33 @@
       <c r="E129">
         <v>1.4095170870423299</v>
       </c>
+      <c r="F129">
+        <v>41.701189175248103</v>
+      </c>
+      <c r="G129">
+        <v>7.06633543223142</v>
+      </c>
+      <c r="H129">
+        <v>-12.7018345594406</v>
+      </c>
+      <c r="I129">
+        <v>-0.37874435679987001</v>
+      </c>
       <c r="L129" s="1">
         <f t="shared" si="8"/>
-        <v>7.2273023277514099</v>
+        <v>42.914248018990463</v>
       </c>
       <c r="M129" s="1">
         <f t="shared" si="9"/>
-        <v>1.8068255819378525</v>
+        <v>5.3642810023738079</v>
       </c>
       <c r="N129" s="1">
         <f t="shared" si="10"/>
-        <v>3.1090733532334642</v>
+        <v>15.866657422027926</v>
       </c>
       <c r="O129">
         <f t="shared" si="11"/>
-        <v>1.7950243374196331</v>
+        <v>9.1606189337473971</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
@@ -6577,21 +7996,33 @@
       <c r="E130">
         <v>6.7512411177158302</v>
       </c>
+      <c r="F130">
+        <v>-55.039795313030403</v>
+      </c>
+      <c r="G130">
+        <v>8.1175558529794198</v>
+      </c>
+      <c r="H130">
+        <v>-1.7805462479591301</v>
+      </c>
+      <c r="I130">
+        <v>10.1263482123613</v>
+      </c>
       <c r="L130" s="1">
         <f t="shared" si="8"/>
-        <v>7.0627778917551014</v>
+        <v>-31.513659603893707</v>
       </c>
       <c r="M130" s="1">
         <f t="shared" si="9"/>
-        <v>1.7656944729387754</v>
+        <v>-3.9392074504867134</v>
       </c>
       <c r="N130" s="1">
         <f t="shared" si="10"/>
-        <v>4.0984280842317107</v>
+        <v>21.17852772993642</v>
       </c>
       <c r="O130">
         <f t="shared" si="11"/>
-        <v>2.3662285576855004</v>
+        <v>12.227428685918747</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
@@ -6610,21 +8041,33 @@
       <c r="E131">
         <v>3.7868445366621</v>
       </c>
+      <c r="F131">
+        <v>-48.635560229886302</v>
+      </c>
+      <c r="G131">
+        <v>6.4971009753644404</v>
+      </c>
+      <c r="H131">
+        <v>-4.8674718774855101</v>
+      </c>
+      <c r="I131">
+        <v>14.486559465527501</v>
+      </c>
       <c r="L131" s="1">
         <f t="shared" si="8"/>
-        <v>-13.82641501724712</v>
+        <v>-46.345786683726992</v>
       </c>
       <c r="M131" s="1">
         <f t="shared" si="9"/>
-        <v>-3.45660375431178</v>
+        <v>-5.793223335465874</v>
       </c>
       <c r="N131" s="1">
         <f t="shared" si="10"/>
-        <v>16.593824879801911</v>
+        <v>21.535846346931677</v>
       </c>
       <c r="O131">
         <f t="shared" si="11"/>
-        <v>9.5804492612391439</v>
+        <v>12.433726685627423</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
@@ -6643,21 +8086,33 @@
       <c r="E132">
         <v>21.717206856235801</v>
       </c>
+      <c r="F132">
+        <v>79.540504768490706</v>
+      </c>
+      <c r="G132">
+        <v>32.675435133278299</v>
+      </c>
+      <c r="H132">
+        <v>26.5534401591867</v>
+      </c>
+      <c r="I132">
+        <v>24.733712187036801</v>
+      </c>
       <c r="L132" s="1">
         <f t="shared" si="8"/>
-        <v>116.99143513850851</v>
+        <v>280.49452738650098</v>
       </c>
       <c r="M132" s="1">
         <f t="shared" si="9"/>
-        <v>29.247858784627127</v>
+        <v>35.061815923312622</v>
       </c>
       <c r="N132" s="1">
         <f t="shared" si="10"/>
-        <v>6.9839702035646463</v>
+        <v>18.687836645593762</v>
       </c>
       <c r="O132">
         <f t="shared" si="11"/>
-        <v>4.0321970770403741</v>
+        <v>10.789427517905311</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
@@ -6676,21 +8131,33 @@
       <c r="E133">
         <v>100.307148281484</v>
       </c>
+      <c r="F133">
+        <v>168.537393774837</v>
+      </c>
+      <c r="G133">
+        <v>88.237602904438901</v>
+      </c>
+      <c r="H133">
+        <v>99.729132436215806</v>
+      </c>
+      <c r="I133">
+        <v>134.53951806947501</v>
+      </c>
       <c r="L133" s="1">
         <f t="shared" si="8"/>
-        <v>376.19151743128742</v>
+        <v>867.235164616254</v>
       </c>
       <c r="M133" s="1">
         <f t="shared" si="9"/>
-        <v>94.047879357821856</v>
+        <v>108.40439557703175</v>
       </c>
       <c r="N133" s="1">
         <f t="shared" si="10"/>
-        <v>14.033513875953593</v>
+        <v>29.751923309122944</v>
       </c>
       <c r="O133">
         <f t="shared" si="11"/>
-        <v>8.1022530139581566</v>
+        <v>17.177280931431234</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
@@ -6709,21 +8176,33 @@
       <c r="E134">
         <v>218.79614880681001</v>
       </c>
+      <c r="F134">
+        <v>212.86883661150901</v>
+      </c>
+      <c r="G134">
+        <v>244.09594476222901</v>
+      </c>
+      <c r="H134">
+        <v>238.605861924588</v>
+      </c>
+      <c r="I134">
+        <v>225.12816701829399</v>
+      </c>
       <c r="L134" s="1">
         <f t="shared" si="8"/>
-        <v>820.63711558282296</v>
+        <v>1741.3359258994428</v>
       </c>
       <c r="M134" s="1">
         <f t="shared" si="9"/>
-        <v>205.15927889570574</v>
+        <v>217.66699073743035</v>
       </c>
       <c r="N134" s="1">
         <f t="shared" si="10"/>
-        <v>15.629944716947078</v>
+        <v>19.176899457324978</v>
       </c>
       <c r="O134">
         <f t="shared" si="11"/>
-        <v>9.0239527897483658</v>
+        <v>11.071788063908965</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
@@ -6742,21 +8221,33 @@
       <c r="E135">
         <v>339.25008954107699</v>
       </c>
+      <c r="F135">
+        <v>347.715332001447</v>
+      </c>
+      <c r="G135">
+        <v>390.89270031452099</v>
+      </c>
+      <c r="H135">
+        <v>376.83067715160001</v>
+      </c>
+      <c r="I135">
+        <v>376.39927917718802</v>
+      </c>
       <c r="L135" s="1">
         <f t="shared" si="8"/>
-        <v>1428.3697559386469</v>
+        <v>2920.2077445834029</v>
       </c>
       <c r="M135" s="1">
         <f t="shared" si="9"/>
-        <v>357.09243898466173</v>
+        <v>365.02596807292537</v>
       </c>
       <c r="N135" s="1">
         <f t="shared" si="10"/>
-        <v>17.83931255738182</v>
+        <v>18.685120408271544</v>
       </c>
       <c r="O135">
         <f t="shared" si="11"/>
-        <v>10.299531907162265</v>
+        <v>10.787859297556146</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
@@ -6775,21 +8266,33 @@
       <c r="E136">
         <v>614.77455359697296</v>
       </c>
+      <c r="F136">
+        <v>605.06568253040302</v>
+      </c>
+      <c r="G136">
+        <v>612.53569513559296</v>
+      </c>
+      <c r="H136">
+        <v>643.69856709241799</v>
+      </c>
+      <c r="I136">
+        <v>649.56448537111203</v>
+      </c>
       <c r="L136" s="1">
         <f t="shared" si="8"/>
-        <v>2375.1027617156487</v>
+        <v>4885.967191845175</v>
       </c>
       <c r="M136" s="1">
         <f t="shared" si="9"/>
-        <v>593.77569042891218</v>
+        <v>610.74589898064687</v>
       </c>
       <c r="N136" s="1">
         <f t="shared" si="10"/>
-        <v>18.87234899183116</v>
+        <v>26.318591464705012</v>
       </c>
       <c r="O136">
         <f t="shared" si="11"/>
-        <v>10.895955770674282</v>
+        <v>15.195045866839227</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
@@ -6808,21 +8311,33 @@
       <c r="E137">
         <v>836.845156729221</v>
       </c>
+      <c r="F137">
+        <v>930.31877255439701</v>
+      </c>
+      <c r="G137">
+        <v>903.23366355890005</v>
+      </c>
+      <c r="H137">
+        <v>929.51653945446003</v>
+      </c>
+      <c r="I137">
+        <v>930.18559837341297</v>
+      </c>
       <c r="L137" s="1">
         <f t="shared" si="8"/>
-        <v>3376.548639118661</v>
+        <v>7069.8032130598313</v>
       </c>
       <c r="M137" s="1">
         <f t="shared" si="9"/>
-        <v>844.13715977966524</v>
+        <v>883.72540163247891</v>
       </c>
       <c r="N137" s="1">
         <f t="shared" si="10"/>
-        <v>30.89955264931697</v>
+        <v>47.719650512530642</v>
       </c>
       <c r="O137">
         <f t="shared" si="11"/>
-        <v>17.839865039922167</v>
+        <v>27.550953069044432</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
@@ -6841,21 +8356,33 @@
       <c r="E138">
         <v>1104.9968383908199</v>
       </c>
+      <c r="F138">
+        <v>1252.0832296609799</v>
+      </c>
+      <c r="G138">
+        <v>1186.65627741813</v>
+      </c>
+      <c r="H138">
+        <v>1217.2909392118399</v>
+      </c>
+      <c r="I138">
+        <v>1253.2097995281199</v>
+      </c>
       <c r="L138" s="1">
         <f t="shared" si="8"/>
-        <v>4523.5143629908307</v>
+        <v>9432.7546088099007</v>
       </c>
       <c r="M138" s="1">
         <f t="shared" si="9"/>
-        <v>1130.8785907477077</v>
+        <v>1179.0943261012376</v>
       </c>
       <c r="N138" s="1">
         <f t="shared" si="10"/>
-        <v>53.239929026289154</v>
+        <v>65.617012684956151</v>
       </c>
       <c r="O138">
         <f t="shared" si="11"/>
-        <v>30.738087354964616</v>
+        <v>37.883999937078528</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
@@ -6874,21 +8401,33 @@
       <c r="E139">
         <v>1501.03477096557</v>
       </c>
+      <c r="F139">
+        <v>1562.9025850296</v>
+      </c>
+      <c r="G139">
+        <v>1597.18506515026</v>
+      </c>
+      <c r="H139">
+        <v>1619.0235410928699</v>
+      </c>
+      <c r="I139">
+        <v>1580.9360110759701</v>
+      </c>
       <c r="L139" s="1">
         <f t="shared" si="8"/>
-        <v>5912.0009140967995</v>
+        <v>12272.048116445498</v>
       </c>
       <c r="M139" s="1">
         <f t="shared" si="9"/>
-        <v>1478.0002285241999</v>
+        <v>1534.0060145556872</v>
       </c>
       <c r="N139" s="1">
         <f t="shared" si="10"/>
-        <v>76.525465166968985</v>
+        <v>79.616977141599278</v>
       </c>
       <c r="O139">
         <f t="shared" si="11"/>
-        <v>44.181997914010879</v>
+        <v>45.96688318476663</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
@@ -6907,21 +8446,33 @@
       <c r="E140">
         <v>1870.2248764038</v>
       </c>
+      <c r="F140">
+        <v>1907.74080872535</v>
+      </c>
+      <c r="G140">
+        <v>1871.95907878875</v>
+      </c>
+      <c r="H140">
+        <v>1896.4104669093999</v>
+      </c>
+      <c r="I140">
+        <v>1937.0317791700299</v>
+      </c>
       <c r="L140" s="1">
         <f t="shared" si="8"/>
-        <v>7345.4455733299001</v>
+        <v>14958.58770692343</v>
       </c>
       <c r="M140" s="1">
         <f t="shared" si="9"/>
-        <v>1836.361393332475</v>
+        <v>1869.8234633654288</v>
       </c>
       <c r="N140" s="1">
         <f t="shared" si="10"/>
-        <v>88.792449502138041</v>
+        <v>70.505572416500144</v>
       </c>
       <c r="O140">
         <f t="shared" si="11"/>
-        <v>51.26434462206565</v>
+        <v>40.706411214035015</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
@@ -6940,21 +8491,33 @@
       <c r="E141">
         <v>2254.7192932367302</v>
       </c>
+      <c r="F141">
+        <v>2332.5664603710102</v>
+      </c>
+      <c r="G141">
+        <v>2330.2747938632901</v>
+      </c>
+      <c r="H141">
+        <v>2449.1220896243999</v>
+      </c>
+      <c r="I141">
+        <v>2404.9447042942002</v>
+      </c>
       <c r="L141" s="1">
         <f t="shared" si="8"/>
-        <v>8860.7437912225505</v>
+        <v>18377.651839375449</v>
       </c>
       <c r="M141" s="1">
         <f t="shared" si="9"/>
-        <v>2215.1859478056376</v>
+        <v>2297.2064799219311</v>
       </c>
       <c r="N141" s="1">
         <f t="shared" si="10"/>
-        <v>88.060852255663249</v>
+        <v>111.61370302520254</v>
       </c>
       <c r="O141">
         <f t="shared" si="11"/>
-        <v>50.841956754875042</v>
+        <v>64.440201486851635</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
@@ -6973,21 +8536,33 @@
       <c r="E142">
         <v>2603.2827907800602</v>
       </c>
+      <c r="F142">
+        <v>2711.2415218353199</v>
+      </c>
+      <c r="G142">
+        <v>2714.6433284282598</v>
+      </c>
+      <c r="H142">
+        <v>2840.0526306629099</v>
+      </c>
+      <c r="I142">
+        <v>2862.56994724273</v>
+      </c>
       <c r="L142" s="1">
         <f t="shared" si="8"/>
-        <v>10366.09069919584</v>
+        <v>21494.598127365058</v>
       </c>
       <c r="M142" s="1">
         <f t="shared" si="9"/>
-        <v>2591.52267479896</v>
+        <v>2686.8247659206322</v>
       </c>
       <c r="N142" s="1">
         <f t="shared" si="10"/>
-        <v>104.39724828172768</v>
+        <v>133.50308092530895</v>
       </c>
       <c r="O142">
         <f t="shared" si="11"/>
-        <v>60.273779398111678</v>
+        <v>77.078039709871518</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
@@ -7006,21 +8581,33 @@
       <c r="E143">
         <v>2938.1434061527202</v>
       </c>
+      <c r="F143">
+        <v>3006.73905706405</v>
+      </c>
+      <c r="G143">
+        <v>3019.1759152412401</v>
+      </c>
+      <c r="H143">
+        <v>3057.6816706657401</v>
+      </c>
+      <c r="I143">
+        <v>3100.5641627311702</v>
+      </c>
       <c r="L143" s="1">
         <f t="shared" si="8"/>
-        <v>11595.860562324498</v>
+        <v>23780.021368026701</v>
       </c>
       <c r="M143" s="1">
         <f t="shared" si="9"/>
-        <v>2898.9651405811246</v>
+        <v>2972.5026710033376</v>
       </c>
       <c r="N143" s="1">
         <f t="shared" si="10"/>
-        <v>108.35695564507256</v>
+        <v>109.45350776708177</v>
       </c>
       <c r="O143">
         <f t="shared" si="11"/>
-        <v>62.559917510250983</v>
+        <v>63.193012173073463</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
@@ -7039,21 +8626,33 @@
       <c r="E144">
         <v>3423.3500101566301</v>
       </c>
+      <c r="F144">
+        <v>3512.8111989498102</v>
+      </c>
+      <c r="G144">
+        <v>3483.87568712234</v>
+      </c>
+      <c r="H144">
+        <v>3667.1665503978702</v>
+      </c>
+      <c r="I144">
+        <v>3572.3157765865299</v>
+      </c>
       <c r="L144" s="1">
         <f t="shared" si="8"/>
-        <v>13244.55299329755</v>
+        <v>27480.722206354101</v>
       </c>
       <c r="M144" s="1">
         <f t="shared" si="9"/>
-        <v>3311.1382483243874</v>
+        <v>3435.0902757942627</v>
       </c>
       <c r="N144" s="1">
         <f t="shared" si="10"/>
-        <v>146.55842474747601</v>
+        <v>171.96566501366041</v>
       </c>
       <c r="O144">
         <f t="shared" si="11"/>
-        <v>84.615545979962789</v>
+        <v>99.284422987009847</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
@@ -7072,21 +8671,33 @@
       <c r="E145">
         <v>3830.8964414596499</v>
       </c>
+      <c r="F145">
+        <v>3788.3737664222699</v>
+      </c>
+      <c r="G145">
+        <v>3904.5606436729399</v>
+      </c>
+      <c r="H145">
+        <v>3963.1988010406399</v>
+      </c>
+      <c r="I145">
+        <v>3907.23185396194</v>
+      </c>
       <c r="L145" s="1">
         <f t="shared" si="8"/>
-        <v>14616.734855413421</v>
+        <v>30180.099920511209</v>
       </c>
       <c r="M145" s="1">
         <f t="shared" si="9"/>
-        <v>3654.1837138533551</v>
+        <v>3772.5124900639012</v>
       </c>
       <c r="N145" s="1">
         <f t="shared" si="10"/>
-        <v>186.71071228317359</v>
+        <v>182.36084264998763</v>
       </c>
       <c r="O145">
         <f t="shared" si="11"/>
-        <v>107.79747999727705</v>
+        <v>105.28608159361735</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
@@ -7105,21 +8716,33 @@
       <c r="E146">
         <v>4134.6586337089502</v>
       </c>
+      <c r="F146">
+        <v>4233.6037821769696</v>
+      </c>
+      <c r="G146">
+        <v>4192.7192320823597</v>
+      </c>
+      <c r="H146">
+        <v>4363.6478142738297</v>
+      </c>
+      <c r="I146">
+        <v>4239.5988922119104</v>
+      </c>
       <c r="L146" s="1">
         <f t="shared" si="8"/>
-        <v>16052.370595455141</v>
+        <v>33081.940316200213</v>
       </c>
       <c r="M146" s="1">
         <f t="shared" si="9"/>
-        <v>4013.0926488637851</v>
+        <v>4135.2425395250266</v>
       </c>
       <c r="N146" s="1">
         <f t="shared" si="10"/>
-        <v>167.5871964618627</v>
+        <v>177.27158765602093</v>
       </c>
       <c r="O146">
         <f t="shared" si="11"/>
-        <v>96.756512989991137</v>
+        <v>102.34779885287602</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
@@ -7138,21 +8761,33 @@
       <c r="E147">
         <v>4328.3117423057502</v>
       </c>
+      <c r="F147">
+        <v>4426.8596053123401</v>
+      </c>
+      <c r="G147">
+        <v>4452.5754609107898</v>
+      </c>
+      <c r="H147">
+        <v>4537.5230183601298</v>
+      </c>
+      <c r="I147">
+        <v>4498.9347233772196</v>
+      </c>
       <c r="L147" s="1">
         <f t="shared" si="8"/>
-        <v>16808.250360488877</v>
+        <v>34724.143168449358</v>
       </c>
       <c r="M147" s="1">
         <f t="shared" si="9"/>
-        <v>4202.0625901222193</v>
+        <v>4340.5178960561698</v>
       </c>
       <c r="N147" s="1">
         <f t="shared" si="10"/>
-        <v>218.3043036742481</v>
+        <v>208.24727470830013</v>
       </c>
       <c r="O147">
         <f t="shared" si="11"/>
-        <v>126.03804849158095</v>
+        <v>120.23162011084302</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
@@ -7171,21 +8806,33 @@
       <c r="E148">
         <v>4751.5878264904004</v>
       </c>
+      <c r="F148">
+        <v>4762.0156421661304</v>
+      </c>
+      <c r="G148">
+        <v>4836.7036919593802</v>
+      </c>
+      <c r="H148">
+        <v>5008.1037628650602</v>
+      </c>
+      <c r="I148">
+        <v>4861.7135677337601</v>
+      </c>
       <c r="L148" s="1">
         <f t="shared" si="8"/>
-        <v>18410.115347385392</v>
+        <v>37878.65201210972</v>
       </c>
       <c r="M148" s="1">
         <f t="shared" si="9"/>
-        <v>4602.528836846348</v>
+        <v>4734.831501513715</v>
       </c>
       <c r="N148" s="1">
         <f t="shared" si="10"/>
-        <v>233.33953991880708</v>
+        <v>218.84492592520488</v>
       </c>
       <c r="O148">
         <f t="shared" si="11"/>
-        <v>134.7186461847067</v>
+        <v>126.35017689370075</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
@@ -7204,21 +8851,33 @@
       <c r="E149">
         <v>5095.3901205062803</v>
       </c>
+      <c r="F149">
+        <v>5042.8998484611502</v>
+      </c>
+      <c r="G149">
+        <v>5071.4072213172904</v>
+      </c>
+      <c r="H149">
+        <v>5176.3540651798203</v>
+      </c>
+      <c r="I149">
+        <v>5061.3834784030896</v>
+      </c>
       <c r="L149" s="1">
         <f t="shared" si="8"/>
-        <v>19514.6663789749</v>
+        <v>39866.710992336251</v>
       </c>
       <c r="M149" s="1">
         <f t="shared" si="9"/>
-        <v>4878.666594743725</v>
+        <v>4983.3388740420314</v>
       </c>
       <c r="N149" s="1">
         <f t="shared" si="10"/>
-        <v>262.31217268456334</v>
+        <v>208.70263869058189</v>
       </c>
       <c r="O149">
         <f t="shared" si="11"/>
-        <v>151.44600351114826</v>
+        <v>120.49452462859267</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
@@ -7237,21 +8896,33 @@
       <c r="E150">
         <v>5268.9820420741999</v>
       </c>
+      <c r="F150">
+        <v>5284.81810188293</v>
+      </c>
+      <c r="G150">
+        <v>5199.9637064933704</v>
+      </c>
+      <c r="H150">
+        <v>5351.8944635391199</v>
+      </c>
+      <c r="I150">
+        <v>5282.6438810825302</v>
+      </c>
       <c r="L150" s="1">
         <f t="shared" si="8"/>
-        <v>20104.22427511213</v>
+        <v>41223.544428110079</v>
       </c>
       <c r="M150" s="1">
         <f t="shared" si="9"/>
-        <v>5026.0560687780326</v>
+        <v>5152.9430535137599</v>
       </c>
       <c r="N150" s="1">
         <f t="shared" si="10"/>
-        <v>310.26291844752421</v>
+        <v>247.61617812485713</v>
       </c>
       <c r="O150">
         <f t="shared" si="11"/>
-        <v>179.13037948523703</v>
+        <v>142.9612670960926</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
@@ -7270,21 +8941,33 @@
       <c r="E151">
         <v>5327.9116022586804</v>
       </c>
+      <c r="F151">
+        <v>5363.5621833801197</v>
+      </c>
+      <c r="G151">
+        <v>5451.5963158607401</v>
+      </c>
+      <c r="H151">
+        <v>5634.9906740187998</v>
+      </c>
+      <c r="I151">
+        <v>5481.7029674053101</v>
+      </c>
       <c r="L151" s="1">
         <f t="shared" si="8"/>
-        <v>20748.507996797554</v>
+        <v>42680.360137462529</v>
       </c>
       <c r="M151" s="1">
         <f t="shared" si="9"/>
-        <v>5187.1269991993886</v>
+        <v>5335.0450171828161</v>
       </c>
       <c r="N151" s="1">
         <f t="shared" si="10"/>
-        <v>270.7505973897064</v>
+        <v>248.79997805090071</v>
       </c>
       <c r="O151">
         <f t="shared" si="11"/>
-        <v>156.31793028619899</v>
+        <v>143.6447343020605</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
@@ -7303,21 +8986,33 @@
       <c r="E152">
         <v>5588.5969650745301</v>
       </c>
+      <c r="F152">
+        <v>5626.5886502265903</v>
+      </c>
+      <c r="G152">
+        <v>5631.5721621513303</v>
+      </c>
+      <c r="H152">
+        <v>5658.3954048156702</v>
+      </c>
+      <c r="I152">
+        <v>5571.4735403060904</v>
+      </c>
       <c r="L152" s="1">
         <f t="shared" si="8"/>
-        <v>21459.732148885698</v>
+        <v>43947.761906385378</v>
       </c>
       <c r="M152" s="1">
         <f t="shared" si="9"/>
-        <v>5364.9330372214245</v>
+        <v>5493.4702382981723</v>
       </c>
       <c r="N152" s="1">
         <f t="shared" si="10"/>
-        <v>342.19441811116178</v>
+        <v>263.8873640246473</v>
       </c>
       <c r="O152">
         <f t="shared" si="11"/>
-        <v>197.56603941166662</v>
+        <v>152.3554406553709</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
@@ -7336,21 +9031,33 @@
       <c r="E153">
         <v>5674.5414152145304</v>
       </c>
+      <c r="F153">
+        <v>5646.2172789573597</v>
+      </c>
+      <c r="G153">
+        <v>5719.2820477485602</v>
+      </c>
+      <c r="H153">
+        <v>5973.3378517627698</v>
+      </c>
+      <c r="I153">
+        <v>5651.6507034301703</v>
+      </c>
       <c r="L153" s="1">
         <f t="shared" si="8"/>
-        <v>22046.93681621549</v>
+        <v>45037.424698114351</v>
       </c>
       <c r="M153" s="1">
         <f t="shared" si="9"/>
-        <v>5511.7342040538724</v>
+        <v>5629.6780872642939</v>
       </c>
       <c r="N153" s="1">
         <f t="shared" si="10"/>
-        <v>354.47365682474521</v>
+        <v>282.71262609830052</v>
       </c>
       <c r="O153">
         <f t="shared" si="11"/>
-        <v>204.65546118839768</v>
+        <v>163.22421078115983</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
@@ -7369,21 +9076,33 @@
       <c r="E154">
         <v>5825.2968292236301</v>
       </c>
+      <c r="F154">
+        <v>5843.73880720138</v>
+      </c>
+      <c r="G154">
+        <v>5886.9787216186496</v>
+      </c>
+      <c r="H154">
+        <v>6136.5579831600098</v>
+      </c>
+      <c r="I154">
+        <v>5733.4065415859204</v>
+      </c>
       <c r="L154" s="1">
         <f t="shared" si="8"/>
-        <v>22479.56934404371</v>
+        <v>46080.251397609674</v>
       </c>
       <c r="M154" s="1">
         <f t="shared" si="9"/>
-        <v>5619.8923360109275</v>
+        <v>5760.0314247012093</v>
       </c>
       <c r="N154" s="1">
         <f t="shared" si="10"/>
-        <v>386.64379463706928</v>
+        <v>314.5608740121998</v>
       </c>
       <c r="O154">
         <f t="shared" si="11"/>
-        <v>223.22889891421033</v>
+        <v>181.61180528746752</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
@@ -7402,21 +9121,33 @@
       <c r="E155">
         <v>5843.1241569518997</v>
       </c>
+      <c r="F155">
+        <v>5890.0503053665097</v>
+      </c>
+      <c r="G155">
+        <v>5965.8136191368003</v>
+      </c>
+      <c r="H155">
+        <v>6107.6421005725797</v>
+      </c>
+      <c r="I155">
+        <v>5771.26945376396</v>
+      </c>
       <c r="L155" s="1">
         <f t="shared" si="8"/>
-        <v>22652.747838973992</v>
+        <v>46387.523317813844</v>
       </c>
       <c r="M155" s="1">
         <f t="shared" si="9"/>
-        <v>5663.1869597434979</v>
+        <v>5798.4404147267305</v>
       </c>
       <c r="N155" s="1">
         <f t="shared" si="10"/>
-        <v>349.7537931739368</v>
+        <v>286.08371430288912</v>
       </c>
       <c r="O155">
         <f t="shared" si="11"/>
-        <v>201.93044663906511</v>
+        <v>165.17050946354104</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
@@ -7435,21 +9166,33 @@
       <c r="E156">
         <v>5869.8236870765604</v>
       </c>
+      <c r="F156">
+        <v>5869.9741272926303</v>
+      </c>
+      <c r="G156">
+        <v>5958.4669852256702</v>
+      </c>
+      <c r="H156">
+        <v>6072.0400378703998</v>
+      </c>
+      <c r="I156">
+        <v>5818.4324057102003</v>
+      </c>
       <c r="L156" s="1">
         <f t="shared" si="8"/>
-        <v>22571.69174194333</v>
+        <v>46290.605298042225</v>
       </c>
       <c r="M156" s="1">
         <f t="shared" si="9"/>
-        <v>5642.9229354858326</v>
+        <v>5786.3256622552781</v>
       </c>
       <c r="N156" s="1">
         <f t="shared" si="10"/>
-        <v>404.21891365413046</v>
+        <v>314.35407853300569</v>
       </c>
       <c r="O156">
         <f t="shared" si="11"/>
-        <v>233.37589860975032</v>
+        <v>181.4924118618876</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
@@ -7468,21 +9211,33 @@
       <c r="E157">
         <v>5869.5357322692798</v>
       </c>
+      <c r="F157">
+        <v>5856.9353141784604</v>
+      </c>
+      <c r="G157">
+        <v>5896.2082931995301</v>
+      </c>
+      <c r="H157">
+        <v>6053.53179335594</v>
+      </c>
+      <c r="I157">
+        <v>5715.0682685375205</v>
+      </c>
       <c r="L157" s="1">
         <f t="shared" si="8"/>
-        <v>22482.946551561326</v>
+        <v>46004.690220832781</v>
       </c>
       <c r="M157" s="1">
         <f t="shared" si="9"/>
-        <v>5620.7366378903316</v>
+        <v>5750.5862776040976</v>
       </c>
       <c r="N157" s="1">
         <f t="shared" si="10"/>
-        <v>382.80442347901743</v>
+        <v>300.62192656678116</v>
       </c>
       <c r="O157">
         <f t="shared" si="11"/>
-        <v>221.01223694259022</v>
+        <v>173.56415022763503</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
@@ -7501,21 +9256,33 @@
       <c r="E158">
         <v>5933.6441011428797</v>
       </c>
+      <c r="F158">
+        <v>5632.0124080181104</v>
+      </c>
+      <c r="G158">
+        <v>5853.7924695014899</v>
+      </c>
+      <c r="H158">
+        <v>6031.2366683483096</v>
+      </c>
+      <c r="I158">
+        <v>5651.6426515579196</v>
+      </c>
       <c r="L158" s="1">
         <f t="shared" si="8"/>
-        <v>22459.67887735365</v>
+        <v>45628.363074779481</v>
       </c>
       <c r="M158" s="1">
         <f t="shared" si="9"/>
-        <v>5614.9197193384125</v>
+        <v>5703.5453843474352</v>
       </c>
       <c r="N158" s="1">
         <f t="shared" si="10"/>
-        <v>402.38894321006461</v>
+        <v>305.87935143201412</v>
       </c>
       <c r="O158">
         <f t="shared" si="11"/>
-        <v>232.31936468125986</v>
+        <v>176.59952588882149</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
@@ -7534,21 +9301,33 @@
       <c r="E159">
         <v>5766.7948484420704</v>
       </c>
+      <c r="F159">
+        <v>5824.6055760383597</v>
+      </c>
+      <c r="G159">
+        <v>5777.3407416343598</v>
+      </c>
+      <c r="H159">
+        <v>5952.6199576854697</v>
+      </c>
+      <c r="I159">
+        <v>5594.9168243408003</v>
+      </c>
       <c r="L159" s="1">
         <f t="shared" si="8"/>
-        <v>21882.26300692555</v>
+        <v>45031.746106624538</v>
       </c>
       <c r="M159" s="1">
         <f t="shared" si="9"/>
-        <v>5470.5657517313875</v>
+        <v>5628.9682633280672</v>
       </c>
       <c r="N159" s="1">
         <f t="shared" si="10"/>
-        <v>394.39963061963374</v>
+        <v>323.64374126499752</v>
       </c>
       <c r="O159">
         <f t="shared" si="11"/>
-        <v>227.70673290653451</v>
+        <v>186.85580114088393</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
@@ -7567,21 +9346,33 @@
       <c r="E160">
         <v>5683.0431663990003</v>
       </c>
+      <c r="F160">
+        <v>5597.4921991825004</v>
+      </c>
+      <c r="G160">
+        <v>5753.3771333694403</v>
+      </c>
+      <c r="H160">
+        <v>5797.1581127643503</v>
+      </c>
+      <c r="I160">
+        <v>5477.6149404048901</v>
+      </c>
       <c r="L160" s="1">
         <f t="shared" si="8"/>
-        <v>21504.573266267769</v>
+        <v>44130.215651988954</v>
       </c>
       <c r="M160" s="1">
         <f t="shared" si="9"/>
-        <v>5376.1433165669423</v>
+        <v>5516.2769564986193</v>
       </c>
       <c r="N160" s="1">
         <f t="shared" si="10"/>
-        <v>455.78139731803788</v>
+        <v>347.43163346714385</v>
       </c>
       <c r="O160">
         <f t="shared" si="11"/>
-        <v>263.14551243319295</v>
+        <v>200.58974710724692</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
@@ -7600,21 +9391,33 @@
       <c r="E161">
         <v>5516.5970818996402</v>
       </c>
+      <c r="F161">
+        <v>5464.2274687290101</v>
+      </c>
+      <c r="G161">
+        <v>5543.9673230648004</v>
+      </c>
+      <c r="H161">
+        <v>5744.0370609760203</v>
+      </c>
+      <c r="I161">
+        <v>5268.0927418470301</v>
+      </c>
       <c r="L161" s="1">
         <f t="shared" si="8"/>
-        <v>21033.32489061353</v>
+        <v>43053.649485230388</v>
       </c>
       <c r="M161" s="1">
         <f t="shared" si="9"/>
-        <v>5258.3312226533826</v>
+        <v>5381.7061856537985</v>
       </c>
       <c r="N161" s="1">
         <f t="shared" si="10"/>
-        <v>392.59308056952545</v>
+        <v>316.36408126766099</v>
       </c>
       <c r="O161">
         <f t="shared" si="11"/>
-        <v>226.66372074879996</v>
+        <v>182.65288748181274</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
@@ -7633,21 +9436,33 @@
       <c r="E162">
         <v>5420.2832922935404</v>
       </c>
+      <c r="F162">
+        <v>5266.1155683994202</v>
+      </c>
+      <c r="G162">
+        <v>5381.7314958572297</v>
+      </c>
+      <c r="H162">
+        <v>5467.6866462230601</v>
+      </c>
+      <c r="I162">
+        <v>5169.5467723607999</v>
+      </c>
       <c r="L162" s="1">
         <f t="shared" si="8"/>
-        <v>20425.92515790457</v>
+        <v>41711.005640745083</v>
       </c>
       <c r="M162" s="1">
         <f t="shared" si="9"/>
-        <v>5106.4812894761426</v>
+        <v>5213.8757050931354</v>
       </c>
       <c r="N162" s="1">
         <f t="shared" si="10"/>
-        <v>458.73169992226309</v>
+        <v>332.67920573285738</v>
       </c>
       <c r="O162">
         <f t="shared" si="11"/>
-        <v>264.84887043593324</v>
+        <v>192.07242898365612</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
@@ -7666,21 +9481,33 @@
       <c r="E163">
         <v>5252.3789480924597</v>
       </c>
+      <c r="F163">
+        <v>5128.2755310535404</v>
+      </c>
+      <c r="G163">
+        <v>5252.5570737123398</v>
+      </c>
+      <c r="H163">
+        <v>5357.1177856922104</v>
+      </c>
+      <c r="I163">
+        <v>4846.7337207794099</v>
+      </c>
       <c r="L163" s="1">
         <f t="shared" si="8"/>
-        <v>19814.456683516481</v>
+        <v>40399.140794753977</v>
       </c>
       <c r="M163" s="1">
         <f t="shared" si="9"/>
-        <v>4953.6141708791201</v>
+        <v>5049.8925993442472</v>
       </c>
       <c r="N163" s="1">
         <f t="shared" si="10"/>
-        <v>435.30917743318992</v>
+        <v>335.60989284840855</v>
       </c>
       <c r="O163">
         <f t="shared" si="11"/>
-        <v>251.32587077176677</v>
+        <v>193.76446197873014</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
@@ -7699,21 +9526,33 @@
       <c r="E164">
         <v>5119.8019698858197</v>
       </c>
+      <c r="F164">
+        <v>4963.7225811481403</v>
+      </c>
+      <c r="G164">
+        <v>5076.7575272321001</v>
+      </c>
+      <c r="H164">
+        <v>5198.3539452552704</v>
+      </c>
+      <c r="I164">
+        <v>4814.99147444963</v>
+      </c>
       <c r="L164" s="1">
         <f t="shared" si="8"/>
-        <v>19253.249853491758</v>
+        <v>39307.075381576899</v>
       </c>
       <c r="M164" s="1">
         <f t="shared" si="9"/>
-        <v>4813.3124633729394</v>
+        <v>4913.3844226971123</v>
       </c>
       <c r="N164" s="1">
         <f t="shared" si="10"/>
-        <v>446.97944984010593</v>
+        <v>329.40270109992889</v>
       </c>
       <c r="O164">
         <f t="shared" si="11"/>
-        <v>258.06370568741602</v>
+        <v>190.18073815183379</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
@@ -7732,21 +9571,33 @@
       <c r="E165">
         <v>4833.5300939082999</v>
       </c>
+      <c r="F165">
+        <v>4656.0351026057997</v>
+      </c>
+      <c r="G165">
+        <v>4886.8445326089804</v>
+      </c>
+      <c r="H165">
+        <v>4864.4314258098002</v>
+      </c>
+      <c r="I165">
+        <v>4460.16696053743</v>
+      </c>
       <c r="L165" s="1">
         <f t="shared" si="8"/>
-        <v>18217.517371654478</v>
+        <v>37084.995393216494</v>
       </c>
       <c r="M165" s="1">
         <f t="shared" si="9"/>
-        <v>4554.3793429136194</v>
+        <v>4635.6244241520617</v>
       </c>
       <c r="N165" s="1">
         <f t="shared" si="10"/>
-        <v>407.24176584322987</v>
+        <v>309.51730269585715</v>
       </c>
       <c r="O165">
         <f t="shared" si="11"/>
-        <v>235.12114313484733</v>
+        <v>178.69989803030001</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
@@ -7765,21 +9616,33 @@
       <c r="E166">
         <v>4700.5510908514198</v>
       </c>
+      <c r="F166">
+        <v>4517.9011188744998</v>
+      </c>
+      <c r="G166">
+        <v>4735.0106368064799</v>
+      </c>
+      <c r="H166">
+        <v>4737.4974820613797</v>
+      </c>
+      <c r="I166">
+        <v>4352.9413615465101</v>
+      </c>
       <c r="L166" s="1">
         <f t="shared" si="8"/>
-        <v>17738.73970867692</v>
+        <v>36082.090307965787</v>
       </c>
       <c r="M166" s="1">
         <f t="shared" si="9"/>
-        <v>4434.6849271692299</v>
+        <v>4510.2612884957234</v>
       </c>
       <c r="N166" s="1">
         <f t="shared" si="10"/>
-        <v>441.40468296778147</v>
+        <v>323.88664499854934</v>
       </c>
       <c r="O166">
         <f t="shared" si="11"/>
-        <v>254.84511253301005</v>
+        <v>186.99604167683722</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
@@ -7798,21 +9661,33 @@
       <c r="E167">
         <v>4676.1304145753302</v>
       </c>
+      <c r="F167">
+        <v>4311.84726834297</v>
+      </c>
+      <c r="G167">
+        <v>4471.2300176620402</v>
+      </c>
+      <c r="H167">
+        <v>4621.1021728515598</v>
+      </c>
+      <c r="I167">
+        <v>4088.4058790355898</v>
+      </c>
       <c r="L167" s="1">
         <f t="shared" si="8"/>
-        <v>17195.817145675399</v>
+        <v>34688.402483567559</v>
       </c>
       <c r="M167" s="1">
         <f t="shared" si="9"/>
-        <v>4298.9542864188497</v>
+        <v>4336.0503104459449</v>
       </c>
       <c r="N167" s="1">
         <f t="shared" si="10"/>
-        <v>432.41921189677288</v>
+        <v>322.46932381375194</v>
       </c>
       <c r="O167">
         <f t="shared" si="11"/>
-        <v>249.65734839136766</v>
+        <v>186.17775090926628</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
@@ -7831,21 +9706,33 @@
       <c r="E168">
         <v>4336.2239399254304</v>
       </c>
+      <c r="F168">
+        <v>4139.9052928686096</v>
+      </c>
+      <c r="G168">
+        <v>4352.9058370590201</v>
+      </c>
+      <c r="H168">
+        <v>4240.1529179811396</v>
+      </c>
+      <c r="I168">
+        <v>3809.8475147858198</v>
+      </c>
       <c r="L168" s="1">
         <f t="shared" si="8"/>
-        <v>16096.919006735061</v>
+        <v>32639.730569429652</v>
       </c>
       <c r="M168" s="1">
         <f t="shared" si="9"/>
-        <v>4024.2297516837652</v>
+        <v>4079.9663211787065</v>
       </c>
       <c r="N168" s="1">
         <f t="shared" si="10"/>
-        <v>406.45017217824869</v>
+        <v>312.76281819705025</v>
       </c>
       <c r="O168">
         <f t="shared" si="11"/>
-        <v>234.66411631928165</v>
+        <v>180.57369727857295</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
@@ -7864,21 +9751,33 @@
       <c r="E169">
         <v>4109.3534602373802</v>
       </c>
+      <c r="F169">
+        <v>3869.5532544851299</v>
+      </c>
+      <c r="G169">
+        <v>4057.5083489417998</v>
+      </c>
+      <c r="H169">
+        <v>3984.4561551213201</v>
+      </c>
+      <c r="I169">
+        <v>3719.01891365647</v>
+      </c>
       <c r="L169" s="1">
         <f t="shared" si="8"/>
-        <v>15211.261526271679</v>
+        <v>30841.798198476397</v>
       </c>
       <c r="M169" s="1">
         <f t="shared" si="9"/>
-        <v>3802.8153815679198</v>
+        <v>3855.2247748095497</v>
       </c>
       <c r="N169" s="1">
         <f t="shared" si="10"/>
-        <v>384.06613215375671</v>
+        <v>275.13220083800036</v>
       </c>
       <c r="O169">
         <f t="shared" si="11"/>
-        <v>221.74068478558982</v>
+        <v>158.84765021655369</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
@@ -7897,21 +9796,33 @@
       <c r="E170">
         <v>3879.1273031830701</v>
       </c>
+      <c r="F170">
+        <v>3707.2645983695902</v>
+      </c>
+      <c r="G170">
+        <v>3847.0867313593599</v>
+      </c>
+      <c r="H170">
+        <v>3818.0609359741202</v>
+      </c>
+      <c r="I170">
+        <v>3381.9246970117001</v>
+      </c>
       <c r="L170" s="1">
         <f t="shared" si="8"/>
-        <v>14279.47269591686</v>
+        <v>29033.809658631631</v>
       </c>
       <c r="M170" s="1">
         <f t="shared" si="9"/>
-        <v>3569.868173979215</v>
+        <v>3629.2262073289539</v>
       </c>
       <c r="N170" s="1">
         <f t="shared" si="10"/>
-        <v>393.8221834598524</v>
+        <v>299.94071585721133</v>
       </c>
       <c r="O170">
         <f t="shared" si="11"/>
-        <v>227.37334363339198</v>
+        <v>173.17085304109003</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
@@ -7930,21 +9841,33 @@
       <c r="E171">
         <v>3705.5484710708201</v>
       </c>
+      <c r="F171">
+        <v>3475.78332340717</v>
+      </c>
+      <c r="G171">
+        <v>3668.02474122494</v>
+      </c>
+      <c r="H171">
+        <v>3622.3635031580902</v>
+      </c>
+      <c r="I171">
+        <v>3346.23621764779</v>
+      </c>
       <c r="L171" s="1">
         <f t="shared" si="8"/>
-        <v>13628.66961304096</v>
+        <v>27741.077398478952</v>
       </c>
       <c r="M171" s="1">
         <f t="shared" si="9"/>
-        <v>3407.16740326024</v>
+        <v>3467.634674809869</v>
       </c>
       <c r="N171" s="1">
         <f t="shared" si="10"/>
-        <v>328.71678169638255</v>
+        <v>244.27458388819426</v>
       </c>
       <c r="O171">
         <f t="shared" si="11"/>
-        <v>189.78472239955391</v>
+        <v>141.03199676403278</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
@@ -7963,21 +9886,33 @@
       <c r="E172">
         <v>3530.5226146876798</v>
       </c>
+      <c r="F172">
+        <v>3155.5561355948398</v>
+      </c>
+      <c r="G172">
+        <v>3350.4982833191698</v>
+      </c>
+      <c r="H172">
+        <v>3292.9363072514502</v>
+      </c>
+      <c r="I172">
+        <v>2982.74433503299</v>
+      </c>
       <c r="L172" s="1">
         <f t="shared" si="8"/>
-        <v>12488.03272564335</v>
+        <v>25269.767786841796</v>
       </c>
       <c r="M172" s="1">
         <f t="shared" si="9"/>
-        <v>3122.0081814108376</v>
+        <v>3158.7209733552245</v>
       </c>
       <c r="N172" s="1">
         <f t="shared" si="10"/>
-        <v>437.4605424201801</v>
+        <v>308.28478967071192</v>
       </c>
       <c r="O172">
         <f t="shared" si="11"/>
-        <v>252.56796192613069</v>
+        <v>177.9883063034527</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
@@ -7996,21 +9931,33 @@
       <c r="E173">
         <v>3211.4741486236398</v>
       </c>
+      <c r="F173">
+        <v>3034.9864394962701</v>
+      </c>
+      <c r="G173">
+        <v>3164.3385738767602</v>
+      </c>
+      <c r="H173">
+        <v>3131.86701726913</v>
+      </c>
+      <c r="I173">
+        <v>2806.1626179590799</v>
+      </c>
       <c r="L173" s="1">
         <f t="shared" si="8"/>
-        <v>11746.47166576235</v>
+        <v>23883.826314363589</v>
       </c>
       <c r="M173" s="1">
         <f t="shared" si="9"/>
-        <v>2936.6179164405876</v>
+        <v>2985.4782892954486</v>
       </c>
       <c r="N173" s="1">
         <f t="shared" si="10"/>
-        <v>343.16441517731982</v>
+        <v>253.7886127343636</v>
       </c>
       <c r="O173">
         <f t="shared" si="11"/>
-        <v>198.1260674789261</v>
+        <v>146.5249238794465</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.3">
@@ -8029,21 +9976,33 @@
       <c r="E174">
         <v>3146.27827505394</v>
       </c>
+      <c r="F174">
+        <v>2778.3321724533998</v>
+      </c>
+      <c r="G174">
+        <v>2957.65192883089</v>
+      </c>
+      <c r="H174">
+        <v>2911.5722625851599</v>
+      </c>
+      <c r="I174">
+        <v>2588.0127894654802</v>
+      </c>
       <c r="L174" s="1">
         <f t="shared" si="8"/>
-        <v>11092.365785580099</v>
+        <v>22327.934938915027</v>
       </c>
       <c r="M174" s="1">
         <f t="shared" si="9"/>
-        <v>2773.0914463950248</v>
+        <v>2790.9918673643783</v>
       </c>
       <c r="N174" s="1">
         <f t="shared" si="10"/>
-        <v>354.34573345687249</v>
+        <v>256.80464461763688</v>
       </c>
       <c r="O174">
         <f t="shared" si="11"/>
-        <v>204.58160459752074</v>
+        <v>148.26623069913884</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.3">
@@ -8062,21 +10021,33 @@
       <c r="E175">
         <v>2887.4762743245801</v>
       </c>
+      <c r="F175">
+        <v>2655.0285918712598</v>
+      </c>
+      <c r="G175">
+        <v>2853.8953303992698</v>
+      </c>
+      <c r="H175">
+        <v>2702.2382713332699</v>
+      </c>
+      <c r="I175">
+        <v>2478.77040800452</v>
+      </c>
       <c r="L175" s="1">
         <f t="shared" si="8"/>
-        <v>10292.48731868526</v>
+        <v>20982.419920293578</v>
       </c>
       <c r="M175" s="1">
         <f t="shared" si="9"/>
-        <v>2573.121829671315</v>
+        <v>2622.8024900366972</v>
       </c>
       <c r="N175" s="1">
         <f t="shared" si="10"/>
-        <v>344.22353518185071</v>
+        <v>252.65445207907533</v>
       </c>
       <c r="O175">
         <f t="shared" si="11"/>
-        <v>198.73755069864615</v>
+        <v>145.87011591981155</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
@@ -8095,21 +10066,33 @@
       <c r="E176">
         <v>2640.2875923961001</v>
       </c>
+      <c r="F176">
+        <v>2365.60155145823</v>
+      </c>
+      <c r="G176">
+        <v>2601.1920650452298</v>
+      </c>
+      <c r="H176">
+        <v>2423.4120283275802</v>
+      </c>
+      <c r="I176">
+        <v>2212.6999983657101</v>
+      </c>
       <c r="L176" s="1">
         <f t="shared" si="8"/>
-        <v>9335.4488680511095</v>
+        <v>18938.354511247861</v>
       </c>
       <c r="M176" s="1">
         <f t="shared" si="9"/>
-        <v>2333.8622170127774</v>
+        <v>2367.2943139059826</v>
       </c>
       <c r="N176" s="1">
         <f t="shared" si="10"/>
-        <v>309.03128448144281</v>
+        <v>230.75387273562626</v>
       </c>
       <c r="O176">
         <f t="shared" si="11"/>
-        <v>178.41929528337684</v>
+        <v>133.22581054046248</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.3">
@@ -8128,21 +10111,33 @@
       <c r="E177">
         <v>2394.5338061675402</v>
       </c>
+      <c r="F177">
+        <v>2263.0985516197902</v>
+      </c>
+      <c r="G177">
+        <v>2465.1439597718399</v>
+      </c>
+      <c r="H177">
+        <v>2298.25782437622</v>
+      </c>
+      <c r="I177">
+        <v>2077.2973937373599</v>
+      </c>
       <c r="L177" s="1">
         <f t="shared" si="8"/>
-        <v>8668.2280205860498</v>
+        <v>17772.025750091259</v>
       </c>
       <c r="M177" s="1">
         <f t="shared" si="9"/>
-        <v>2167.0570051465124</v>
+        <v>2221.5032187614074</v>
       </c>
       <c r="N177" s="1">
         <f t="shared" si="10"/>
-        <v>294.57643335099078</v>
+        <v>226.76638633972158</v>
       </c>
       <c r="O177">
         <f t="shared" si="11"/>
-        <v>170.07378309211438</v>
+        <v>130.92363419639693</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.3">
@@ -8161,21 +10156,33 @@
       <c r="E178">
         <v>2314.9627256430599</v>
       </c>
+      <c r="F178">
+        <v>2032.87127843499</v>
+      </c>
+      <c r="G178">
+        <v>2285.5370392203299</v>
+      </c>
+      <c r="H178">
+        <v>2145.3507842384201</v>
+      </c>
+      <c r="I178">
+        <v>1976.76635149447</v>
+      </c>
       <c r="L178" s="1">
         <f t="shared" si="8"/>
-        <v>8232.1784783312796</v>
+        <v>16672.70393171949</v>
       </c>
       <c r="M178" s="1">
         <f t="shared" si="9"/>
-        <v>2058.0446195828199</v>
+        <v>2084.0879914649363</v>
       </c>
       <c r="N178" s="1">
         <f t="shared" si="10"/>
-        <v>283.33422632537815</v>
+        <v>207.71677661719576</v>
       </c>
       <c r="O178">
         <f t="shared" si="11"/>
-        <v>163.58309183959145</v>
+        <v>119.92533689513934</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.3">
@@ -8194,21 +10201,33 @@
       <c r="E179">
         <v>2108.6390107124998</v>
       </c>
+      <c r="F179">
+        <v>1920.30819550156</v>
+      </c>
+      <c r="G179">
+        <v>2144.2923288680599</v>
+      </c>
+      <c r="H179">
+        <v>1842.2305297851501</v>
+      </c>
+      <c r="I179">
+        <v>1853.96878872811</v>
+      </c>
       <c r="L179" s="1">
         <f t="shared" si="8"/>
-        <v>7436.23024620859</v>
+        <v>15197.030089091471</v>
       </c>
       <c r="M179" s="1">
         <f t="shared" si="9"/>
-        <v>1859.0575615521475</v>
+        <v>1899.6287611364339</v>
       </c>
       <c r="N179" s="1">
         <f t="shared" si="10"/>
-        <v>274.19333485592313</v>
+        <v>206.25827567967872</v>
       </c>
       <c r="O179">
         <f t="shared" si="11"/>
-        <v>158.30559568906841</v>
+        <v>119.08327098625055</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.3">
@@ -8227,21 +10246,33 @@
       <c r="E180">
         <v>1886.5801758095599</v>
       </c>
+      <c r="F180">
+        <v>1708.76790558174</v>
+      </c>
+      <c r="G180">
+        <v>1910.1778294667599</v>
+      </c>
+      <c r="H180">
+        <v>1640.7706688344399</v>
+      </c>
+      <c r="I180">
+        <v>1691.0148214846799</v>
+      </c>
       <c r="L180" s="1">
         <f t="shared" si="8"/>
-        <v>6686.6705192923309</v>
+        <v>13637.401744659952</v>
       </c>
       <c r="M180" s="1">
         <f t="shared" si="9"/>
-        <v>1671.6676298230827</v>
+        <v>1704.675218082494</v>
       </c>
       <c r="N180" s="1">
         <f t="shared" si="10"/>
-        <v>229.16316922581399</v>
+        <v>172.55382147781998</v>
       </c>
       <c r="O180">
         <f t="shared" si="11"/>
-        <v>132.30741744087149</v>
+        <v>99.623995279918006</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.3">
@@ -8260,21 +10291,33 @@
       <c r="E181">
         <v>1790.7336680702799</v>
       </c>
+      <c r="F181">
+        <v>1546.86162039637</v>
+      </c>
+      <c r="G181">
+        <v>1762.0098677501001</v>
+      </c>
+      <c r="H181">
+        <v>1478.85367733612</v>
+      </c>
+      <c r="I181">
+        <v>1509.2591412663401</v>
+      </c>
       <c r="L181" s="1">
         <f t="shared" si="8"/>
-        <v>6113.7309323828404</v>
+        <v>12410.71523913177</v>
       </c>
       <c r="M181" s="1">
         <f t="shared" si="9"/>
-        <v>1528.4327330957101</v>
+        <v>1551.3394048914713</v>
       </c>
       <c r="N181" s="1">
         <f t="shared" si="10"/>
-        <v>237.30357989864211</v>
+        <v>178.27140356778992</v>
       </c>
       <c r="O181">
         <f t="shared" si="11"/>
-        <v>137.0072857341429</v>
+        <v>102.92504283867592</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.3">
@@ -8293,21 +10336,33 @@
       <c r="E182">
         <v>1629.61647531576</v>
       </c>
+      <c r="F182">
+        <v>1415.4219007361601</v>
+      </c>
+      <c r="G182">
+        <v>1588.1305384887301</v>
+      </c>
+      <c r="H182">
+        <v>1337.86996408458</v>
+      </c>
+      <c r="I182">
+        <v>1309.8393180072301</v>
+      </c>
       <c r="L182" s="1">
         <f t="shared" si="8"/>
-        <v>5486.9570633079602</v>
+        <v>11138.218784624662</v>
       </c>
       <c r="M182" s="1">
         <f t="shared" si="9"/>
-        <v>1371.73926582699</v>
+        <v>1392.2773480780827</v>
       </c>
       <c r="N182" s="1">
         <f t="shared" si="10"/>
-        <v>228.70433673340531</v>
+        <v>172.06917502602562</v>
       </c>
       <c r="O182">
         <f t="shared" si="11"/>
-        <v>132.04251037786639</v>
+        <v>99.344184520512727</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.3">
@@ -8326,21 +10381,33 @@
       <c r="E183">
         <v>1510.44721453636</v>
       </c>
+      <c r="F183">
+        <v>1277.7064139097899</v>
+      </c>
+      <c r="G183">
+        <v>1523.2324617952099</v>
+      </c>
+      <c r="H183">
+        <v>1226.1403473913599</v>
+      </c>
+      <c r="I183">
+        <v>1225.6656877100399</v>
+      </c>
       <c r="L183" s="1">
         <f t="shared" si="8"/>
-        <v>5092.37242293077</v>
+        <v>10345.117333737169</v>
       </c>
       <c r="M183" s="1">
         <f t="shared" si="9"/>
-        <v>1273.0931057326925</v>
+        <v>1293.1396667171462</v>
       </c>
       <c r="N183" s="1">
         <f t="shared" si="10"/>
-        <v>204.45784055914672</v>
+        <v>164.42063235136729</v>
       </c>
       <c r="O183">
         <f t="shared" si="11"/>
-        <v>118.04378928475295</v>
+        <v>94.928296348390404</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.3">
@@ -8359,21 +10426,33 @@
       <c r="E184">
         <v>1315.2388331890099</v>
       </c>
+      <c r="F184">
+        <v>1124.13313871994</v>
+      </c>
+      <c r="G184">
+        <v>1348.21125666797</v>
+      </c>
+      <c r="H184">
+        <v>1093.9480075091101</v>
+      </c>
+      <c r="I184">
+        <v>1052.9799269651901</v>
+      </c>
       <c r="L184" s="1">
         <f t="shared" si="8"/>
-        <v>4551.1431900206871</v>
+        <v>9170.4155198828976</v>
       </c>
       <c r="M184" s="1">
         <f t="shared" si="9"/>
-        <v>1137.7857975051718</v>
+        <v>1146.3019399853622</v>
       </c>
       <c r="N184" s="1">
         <f t="shared" si="10"/>
-        <v>159.64962181488741</v>
+        <v>135.99520172235444</v>
       </c>
       <c r="O184">
         <f t="shared" si="11"/>
-        <v>92.173752130847205</v>
+        <v>78.516866322898792</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.3">
@@ -8392,21 +10471,33 @@
       <c r="E185">
         <v>1196.41464431956</v>
       </c>
+      <c r="F185">
+        <v>983.97016589343502</v>
+      </c>
+      <c r="G185">
+        <v>1264.7572439312901</v>
+      </c>
+      <c r="H185">
+        <v>953.5785719603</v>
+      </c>
+      <c r="I185">
+        <v>982.54011140204898</v>
+      </c>
       <c r="L185" s="1">
         <f t="shared" si="8"/>
-        <v>4077.6824786923603</v>
+        <v>8262.5285718794348</v>
       </c>
       <c r="M185" s="1">
         <f t="shared" si="9"/>
-        <v>1019.4206196730901</v>
+        <v>1032.8160714849294</v>
       </c>
       <c r="N185" s="1">
         <f t="shared" si="10"/>
-        <v>165.42967935253137</v>
+        <v>145.31127790811814</v>
       </c>
       <c r="O185">
         <f t="shared" si="11"/>
-        <v>95.510869906137458</v>
+        <v>83.89550541654053</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.3">
@@ -8425,21 +10516,33 @@
       <c r="E186">
         <v>1079.30926933512</v>
       </c>
+      <c r="F186">
+        <v>901.47170721359998</v>
+      </c>
+      <c r="G186">
+        <v>1188.1739740967701</v>
+      </c>
+      <c r="H186">
+        <v>859.13993501663197</v>
+      </c>
+      <c r="I186">
+        <v>869.78054410219102</v>
+      </c>
       <c r="L186" s="1">
         <f t="shared" si="8"/>
-        <v>3689.3375251516563</v>
+        <v>7507.903685580849</v>
       </c>
       <c r="M186" s="1">
         <f t="shared" si="9"/>
-        <v>922.33438128791408</v>
+        <v>938.48796069760613</v>
       </c>
       <c r="N186" s="1">
         <f t="shared" si="10"/>
-        <v>168.02561867525174</v>
+        <v>151.40848470678253</v>
       </c>
       <c r="O186">
         <f t="shared" si="11"/>
-        <v>97.009636172910007</v>
+        <v>87.415729403054229</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.3">
@@ -8458,21 +10561,33 @@
       <c r="E187">
         <v>969.71760593074998</v>
       </c>
+      <c r="F187">
+        <v>754.11303131654802</v>
+      </c>
+      <c r="G187">
+        <v>1032.4576693885001</v>
+      </c>
+      <c r="H187">
+        <v>727.87859449535597</v>
+      </c>
+      <c r="I187">
+        <v>801.00067151337805</v>
+      </c>
       <c r="L187" s="1">
         <f t="shared" si="8"/>
-        <v>3257.7342724138771</v>
+        <v>6573.1842391276596</v>
       </c>
       <c r="M187" s="1">
         <f t="shared" si="9"/>
-        <v>814.43356810346927</v>
+        <v>821.64802989095745</v>
       </c>
       <c r="N187" s="1">
         <f t="shared" si="10"/>
-        <v>142.58289866499172</v>
+        <v>130.61313835170833</v>
       </c>
       <c r="O187">
         <f t="shared" si="11"/>
-        <v>82.320274926070098</v>
+        <v>75.409530587060644</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.3">
@@ -8491,21 +10606,33 @@
       <c r="E188">
         <v>863.07578343898001</v>
       </c>
+      <c r="F188">
+        <v>733.89124440401702</v>
+      </c>
+      <c r="G188">
+        <v>981.96417474001601</v>
+      </c>
+      <c r="H188">
+        <v>710.04330277442898</v>
+      </c>
+      <c r="I188">
+        <v>720.37803126312701</v>
+      </c>
       <c r="L188" s="1">
         <f t="shared" ref="L188:L232" si="12">SUM(B188:K188)</f>
-        <v>2951.2660082001212</v>
+        <v>6097.542761381711</v>
       </c>
       <c r="M188" s="1">
         <f t="shared" ref="M188:M232" si="13">AVERAGE(B188:K188)</f>
-        <v>737.81650205003029</v>
+        <v>762.19284517271387</v>
       </c>
       <c r="N188" s="1">
         <f t="shared" ref="N188:N232" si="14">STDEV(B188:K188)</f>
-        <v>136.86038916207758</v>
+        <v>126.56878091796456</v>
       </c>
       <c r="O188">
         <f t="shared" ref="O188:O232" si="15">N188/SQRT(3)</f>
-        <v>79.016382524122434</v>
+        <v>73.074519733989618</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.3">
@@ -8524,21 +10651,33 @@
       <c r="E189">
         <v>778.21861799061003</v>
       </c>
+      <c r="F189">
+        <v>619.811234002932</v>
+      </c>
+      <c r="G189">
+        <v>843.21242782473496</v>
+      </c>
+      <c r="H189">
+        <v>594.96999933570601</v>
+      </c>
+      <c r="I189">
+        <v>630.47682815045096</v>
+      </c>
       <c r="L189" s="1">
         <f t="shared" si="12"/>
-        <v>2636.7070390675171</v>
+        <v>5325.1775283813413</v>
       </c>
       <c r="M189" s="1">
         <f t="shared" si="13"/>
-        <v>659.17675976687929</v>
+        <v>665.64719104766766</v>
       </c>
       <c r="N189" s="1">
         <f t="shared" si="14"/>
-        <v>108.240098905344</v>
+        <v>103.63244878033906</v>
       </c>
       <c r="O189">
         <f t="shared" si="15"/>
-        <v>62.492450240112078</v>
+        <v>59.832222200108866</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.3">
@@ -8557,21 +10696,33 @@
       <c r="E190">
         <v>602.84402871923498</v>
       </c>
+      <c r="F190">
+        <v>559.60002578049</v>
+      </c>
+      <c r="G190">
+        <v>744.46642431244197</v>
+      </c>
+      <c r="H190">
+        <v>479.22138018161002</v>
+      </c>
+      <c r="I190">
+        <v>564.18701916560497</v>
+      </c>
       <c r="L190" s="1">
         <f t="shared" si="12"/>
-        <v>2181.4003653009399</v>
+        <v>4528.8752147410869</v>
       </c>
       <c r="M190" s="1">
         <f t="shared" si="13"/>
-        <v>545.35009132523498</v>
+        <v>566.10940184263586</v>
       </c>
       <c r="N190" s="1">
         <f t="shared" si="14"/>
-        <v>86.149334546697432</v>
+        <v>95.165827244180917</v>
       </c>
       <c r="O190">
         <f t="shared" si="15"/>
-        <v>49.738341491042888</v>
+        <v>54.944015977081278</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.3">
@@ -8590,21 +10741,33 @@
       <c r="E191">
         <v>600.52890036813903</v>
       </c>
+      <c r="F191">
+        <v>533.53910395502999</v>
+      </c>
+      <c r="G191">
+        <v>675.48042545840099</v>
+      </c>
+      <c r="H191">
+        <v>417.819582492113</v>
+      </c>
+      <c r="I191">
+        <v>505.98251850157902</v>
+      </c>
       <c r="L191" s="1">
         <f t="shared" si="12"/>
-        <v>2043.4608640875649</v>
+        <v>4176.2824944946879</v>
       </c>
       <c r="M191" s="1">
         <f t="shared" si="13"/>
-        <v>510.86521602189123</v>
+        <v>522.03531181183598</v>
       </c>
       <c r="N191" s="1">
         <f t="shared" si="14"/>
-        <v>70.987659501083002</v>
+        <v>84.863906268916168</v>
       </c>
       <c r="O191">
         <f t="shared" si="15"/>
-        <v>40.984744322091771</v>
+        <v>48.996199128841923</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.3">
@@ -8623,21 +10786,33 @@
       <c r="E192">
         <v>512.624401174485</v>
       </c>
+      <c r="F192">
+        <v>463.92669704556403</v>
+      </c>
+      <c r="G192">
+        <v>567.97702077031101</v>
+      </c>
+      <c r="H192">
+        <v>326.48340072482802</v>
+      </c>
+      <c r="I192">
+        <v>465.87965810298903</v>
+      </c>
       <c r="L192" s="1">
         <f t="shared" si="12"/>
-        <v>1726.1355383358871</v>
+        <v>3550.4023149795794</v>
       </c>
       <c r="M192" s="1">
         <f t="shared" si="13"/>
-        <v>431.53388458397177</v>
+        <v>443.80028937244742</v>
       </c>
       <c r="N192" s="1">
         <f t="shared" si="14"/>
-        <v>72.905371557065408</v>
+        <v>81.611555679799324</v>
       </c>
       <c r="O192">
         <f t="shared" si="15"/>
-        <v>42.091935893841402</v>
+        <v>47.118453640716275</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.3">
@@ -8656,21 +10831,33 @@
       <c r="E193">
         <v>508.99702458083601</v>
       </c>
+      <c r="F193">
+        <v>365.97418275475002</v>
+      </c>
+      <c r="G193">
+        <v>595.02824030816498</v>
+      </c>
+      <c r="H193">
+        <v>358.779873244464</v>
+      </c>
+      <c r="I193">
+        <v>401.28703208267598</v>
+      </c>
       <c r="L193" s="1">
         <f t="shared" si="12"/>
-        <v>1702.1640016089061</v>
+        <v>3423.2333299989614</v>
       </c>
       <c r="M193" s="1">
         <f t="shared" si="13"/>
-        <v>425.54100040222653</v>
+        <v>427.90416624987017</v>
       </c>
       <c r="N193" s="1">
         <f t="shared" si="14"/>
-        <v>72.98908312160016</v>
+        <v>87.224648937924485</v>
       </c>
       <c r="O193">
         <f t="shared" si="15"/>
-        <v>42.140266788159828</v>
+        <v>50.359174544281309</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.3">
@@ -8689,21 +10876,33 @@
       <c r="E194">
         <v>397.53922617435398</v>
       </c>
+      <c r="F194">
+        <v>416.40902405977198</v>
+      </c>
+      <c r="G194">
+        <v>509.22276599332599</v>
+      </c>
+      <c r="H194">
+        <v>273.72131303697802</v>
+      </c>
+      <c r="I194">
+        <v>358.33520548045601</v>
+      </c>
       <c r="L194" s="1">
         <f t="shared" si="12"/>
-        <v>1402.448364153503</v>
+        <v>2960.1366727240352</v>
       </c>
       <c r="M194" s="1">
         <f t="shared" si="13"/>
-        <v>350.61209103837575</v>
+        <v>370.0170840905044</v>
       </c>
       <c r="N194" s="1">
         <f t="shared" si="14"/>
-        <v>54.233935842089657</v>
+        <v>76.783508451619127</v>
       </c>
       <c r="O194">
         <f t="shared" si="15"/>
-        <v>31.311977457643358</v>
+        <v>44.330979273866213</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.3">
@@ -8722,21 +10921,33 @@
       <c r="E195">
         <v>419.75377950817301</v>
       </c>
+      <c r="F195">
+        <v>301.876774013042</v>
+      </c>
+      <c r="G195">
+        <v>443.97211013827399</v>
+      </c>
+      <c r="H195">
+        <v>288.12319952249499</v>
+      </c>
+      <c r="I195">
+        <v>305.59199909120002</v>
+      </c>
       <c r="L195" s="1">
         <f t="shared" si="12"/>
-        <v>1369.0555335427621</v>
+        <v>2708.619616307773</v>
       </c>
       <c r="M195" s="1">
         <f t="shared" si="13"/>
-        <v>342.26388338569052</v>
+        <v>338.57745203847162</v>
       </c>
       <c r="N195" s="1">
         <f t="shared" si="14"/>
-        <v>71.773035668024676</v>
+        <v>67.185362434201167</v>
       </c>
       <c r="O195">
         <f t="shared" si="15"/>
-        <v>41.438181463490658</v>
+        <v>38.789487086988615</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.3">
@@ -8755,21 +10966,33 @@
       <c r="E196">
         <v>292.67124108970103</v>
       </c>
+      <c r="F196">
+        <v>294.22244198620302</v>
+      </c>
+      <c r="G196">
+        <v>382.19191388972098</v>
+      </c>
+      <c r="H196">
+        <v>201.806306857615</v>
+      </c>
+      <c r="I196">
+        <v>269.87582623958502</v>
+      </c>
       <c r="L196" s="1">
         <f t="shared" si="12"/>
-        <v>1052.868139177559</v>
+        <v>2200.964628150683</v>
       </c>
       <c r="M196" s="1">
         <f t="shared" si="13"/>
-        <v>263.21703479438975</v>
+        <v>275.12057851883537</v>
       </c>
       <c r="N196" s="1">
         <f t="shared" si="14"/>
-        <v>29.472565328088582</v>
+        <v>53.989834539966907</v>
       </c>
       <c r="O196">
         <f t="shared" si="15"/>
-        <v>17.015993525880774</v>
+        <v>31.171045505153252</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.3">
@@ -8788,21 +11011,33 @@
       <c r="E197">
         <v>229.469818078912</v>
       </c>
+      <c r="F197">
+        <v>185.219081930816</v>
+      </c>
+      <c r="G197">
+        <v>347.72473555058201</v>
+      </c>
+      <c r="H197">
+        <v>179.31392571329999</v>
+      </c>
+      <c r="I197">
+        <v>258.55856408178801</v>
+      </c>
       <c r="L197" s="1">
         <f t="shared" si="12"/>
-        <v>937.01136993337207</v>
+        <v>1907.8276772098582</v>
       </c>
       <c r="M197" s="1">
         <f t="shared" si="13"/>
-        <v>234.25284248334302</v>
+        <v>238.47845965123227</v>
       </c>
       <c r="N197" s="1">
         <f t="shared" si="14"/>
-        <v>44.220846734724269</v>
+        <v>59.296875372609662</v>
       </c>
       <c r="O197">
         <f t="shared" si="15"/>
-        <v>25.53091776608624</v>
+        <v>34.235066958479884</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.3">
@@ -8821,21 +11056,33 @@
       <c r="E198">
         <v>203.51783727854399</v>
       </c>
+      <c r="F198">
+        <v>224.945257425308</v>
+      </c>
+      <c r="G198">
+        <v>321.79936910420599</v>
+      </c>
+      <c r="H198">
+        <v>137.564794875681</v>
+      </c>
+      <c r="I198">
+        <v>193.70429855584999</v>
+      </c>
       <c r="L198" s="1">
         <f t="shared" si="12"/>
-        <v>858.21005818061201</v>
+        <v>1736.223778141657</v>
       </c>
       <c r="M198" s="1">
         <f t="shared" si="13"/>
-        <v>214.552514545153</v>
+        <v>217.02797226770713</v>
       </c>
       <c r="N198" s="1">
         <f t="shared" si="14"/>
-        <v>35.990573379998402</v>
+        <v>55.816785745098173</v>
       </c>
       <c r="O198">
         <f t="shared" si="15"/>
-        <v>20.779167229231057</v>
+        <v>32.225836275232098</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.3">
@@ -8854,21 +11101,33 @@
       <c r="E199">
         <v>179.380037471652</v>
       </c>
+      <c r="F199">
+        <v>136.772068172693</v>
+      </c>
+      <c r="G199">
+        <v>256.30023665912398</v>
+      </c>
+      <c r="H199">
+        <v>207.29213378578399</v>
+      </c>
+      <c r="I199">
+        <v>179.15716037154101</v>
+      </c>
       <c r="L199" s="1">
         <f t="shared" si="12"/>
-        <v>782.35509289894094</v>
+        <v>1561.8766918880831</v>
       </c>
       <c r="M199" s="1">
         <f t="shared" si="13"/>
-        <v>195.58877322473523</v>
+        <v>195.23458648601039</v>
       </c>
       <c r="N199" s="1">
         <f t="shared" si="14"/>
-        <v>40.085753466224858</v>
+        <v>42.040545806231385</v>
       </c>
       <c r="O199">
         <f t="shared" si="15"/>
-        <v>23.143520554393898</v>
+        <v>24.272120438106484</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.3">
@@ -8887,21 +11146,33 @@
       <c r="E200">
         <v>171.06344789266501</v>
       </c>
+      <c r="F200">
+        <v>184.42696820199399</v>
+      </c>
+      <c r="G200">
+        <v>216.45600719749899</v>
+      </c>
+      <c r="H200">
+        <v>129.52320174872801</v>
+      </c>
+      <c r="I200">
+        <v>136.856427527964</v>
+      </c>
       <c r="L200" s="1">
         <f t="shared" si="12"/>
-        <v>689.28682128339801</v>
+        <v>1356.549425959583</v>
       </c>
       <c r="M200" s="1">
         <f t="shared" si="13"/>
-        <v>172.3217053208495</v>
+        <v>169.56867824494788</v>
       </c>
       <c r="N200" s="1">
         <f t="shared" si="14"/>
-        <v>15.833196207730346</v>
+        <v>28.971189803252386</v>
       </c>
       <c r="O200">
         <f t="shared" si="15"/>
-        <v>9.1413000926652774</v>
+        <v>16.726524231651506</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.3">
@@ -8920,21 +11191,33 @@
       <c r="E201">
         <v>145.80178724229299</v>
       </c>
+      <c r="F201">
+        <v>190.04841849207801</v>
+      </c>
+      <c r="G201">
+        <v>205.10250255838</v>
+      </c>
+      <c r="H201">
+        <v>83.557159841060596</v>
+      </c>
+      <c r="I201">
+        <v>122.17720984295001</v>
+      </c>
       <c r="L201" s="1">
         <f t="shared" si="12"/>
-        <v>599.34186471346607</v>
+        <v>1200.2271554479348</v>
       </c>
       <c r="M201" s="1">
         <f t="shared" si="13"/>
-        <v>149.83546617836652</v>
+        <v>150.02839443099185</v>
       </c>
       <c r="N201" s="1">
         <f t="shared" si="14"/>
-        <v>20.374179544283695</v>
+        <v>39.774980801458469</v>
       </c>
       <c r="O201">
         <f t="shared" si="15"/>
-        <v>11.763038044409958</v>
+        <v>22.964095872734244</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.3">
@@ -8953,21 +11236,33 @@
       <c r="E202">
         <v>149.01384265720799</v>
       </c>
+      <c r="F202">
+        <v>166.52994207292701</v>
+      </c>
+      <c r="G202">
+        <v>190.706695438362</v>
+      </c>
+      <c r="H202">
+        <v>101.899665698409</v>
+      </c>
+      <c r="I202">
+        <v>124.60754057019901</v>
+      </c>
       <c r="L202" s="1">
         <f t="shared" si="12"/>
-        <v>614.90319229941599</v>
+        <v>1198.647036079313</v>
       </c>
       <c r="M202" s="1">
         <f t="shared" si="13"/>
-        <v>153.725798074854</v>
+        <v>149.83087950991413</v>
       </c>
       <c r="N202" s="1">
         <f t="shared" si="14"/>
-        <v>21.382479153275511</v>
+        <v>30.037171993911127</v>
       </c>
       <c r="O202">
         <f t="shared" si="15"/>
-        <v>12.345180095085178</v>
+        <v>17.341969336379677</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.3">
@@ -8986,21 +11281,33 @@
       <c r="E203">
         <v>79.680500231683197</v>
       </c>
+      <c r="F203">
+        <v>53.151687510311</v>
+      </c>
+      <c r="G203">
+        <v>135.39906295575199</v>
+      </c>
+      <c r="H203">
+        <v>95.549322836100998</v>
+      </c>
+      <c r="I203">
+        <v>73.997515335678997</v>
+      </c>
       <c r="L203" s="1">
         <f t="shared" si="12"/>
-        <v>429.27572513127114</v>
+        <v>787.37331376911425</v>
       </c>
       <c r="M203" s="1">
         <f t="shared" si="13"/>
-        <v>107.31893128281779</v>
+        <v>98.421664221139281</v>
       </c>
       <c r="N203" s="1">
         <f t="shared" si="14"/>
-        <v>34.103310684834355</v>
+        <v>33.439158067953628</v>
       </c>
       <c r="O203">
         <f t="shared" si="15"/>
-        <v>19.689555604146555</v>
+        <v>19.306106912007476</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.3">
@@ -9019,21 +11326,33 @@
       <c r="E204">
         <v>94.985901908016999</v>
       </c>
+      <c r="F204">
+        <v>100.87444075942</v>
+      </c>
+      <c r="G204">
+        <v>149.112922668457</v>
+      </c>
+      <c r="H204">
+        <v>37.408801782876203</v>
+      </c>
+      <c r="I204">
+        <v>86.469246324151698</v>
+      </c>
       <c r="L204" s="1">
         <f t="shared" si="12"/>
-        <v>379.37137330788948</v>
+        <v>753.23678484279435</v>
       </c>
       <c r="M204" s="1">
         <f t="shared" si="13"/>
-        <v>94.842843326972371</v>
+        <v>94.154598105349294</v>
       </c>
       <c r="N204" s="1">
         <f t="shared" si="14"/>
-        <v>20.749662734822564</v>
+        <v>33.033022423713071</v>
       </c>
       <c r="O204">
         <f t="shared" si="15"/>
-        <v>11.979823365543755</v>
+        <v>19.071624388477687</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.3">
@@ -9052,21 +11371,33 @@
       <c r="E205">
         <v>65.338199026882606</v>
       </c>
+      <c r="F205">
+        <v>87.6095773130655</v>
+      </c>
+      <c r="G205">
+        <v>106.9520438537</v>
+      </c>
+      <c r="H205">
+        <v>56.986739240586701</v>
+      </c>
+      <c r="I205">
+        <v>67.569545127451406</v>
+      </c>
       <c r="L205" s="1">
         <f t="shared" si="12"/>
-        <v>326.06607771012887</v>
+        <v>645.18398324493251</v>
       </c>
       <c r="M205" s="1">
         <f t="shared" si="13"/>
-        <v>81.516519427532216</v>
+        <v>80.647997905616563</v>
       </c>
       <c r="N205" s="1">
         <f t="shared" si="14"/>
-        <v>21.084536590935834</v>
+        <v>20.028400827927555</v>
       </c>
       <c r="O205">
         <f t="shared" si="15"/>
-        <v>12.173162876515319</v>
+        <v>11.563402609441699</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.3">
@@ -9085,21 +11416,33 @@
       <c r="E206">
         <v>56.857441402971702</v>
       </c>
+      <c r="F206">
+        <v>51.817484423518103</v>
+      </c>
+      <c r="G206">
+        <v>94.6595961079001</v>
+      </c>
+      <c r="H206">
+        <v>44.153305143117898</v>
+      </c>
+      <c r="I206">
+        <v>74.844059363007503</v>
+      </c>
       <c r="L206" s="1">
         <f t="shared" si="12"/>
-        <v>285.14709790050972</v>
+        <v>550.62154293805338</v>
       </c>
       <c r="M206" s="1">
         <f t="shared" si="13"/>
-        <v>71.28677447512743</v>
+        <v>68.827692867256673</v>
       </c>
       <c r="N206" s="1">
         <f t="shared" si="14"/>
-        <v>17.8251571991883</v>
+        <v>19.194692378920461</v>
       </c>
       <c r="O206">
         <f t="shared" si="15"/>
-        <v>10.291359307298762</v>
+        <v>11.082060811981787</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.3">
@@ -9118,21 +11461,33 @@
       <c r="E207">
         <v>47.903357967734301</v>
       </c>
+      <c r="F207">
+        <v>115.068464562296</v>
+      </c>
+      <c r="G207">
+        <v>90.994791746139498</v>
+      </c>
+      <c r="H207">
+        <v>18.5411075949668</v>
+      </c>
+      <c r="I207">
+        <v>52.693843189626897</v>
+      </c>
       <c r="L207" s="1">
         <f t="shared" si="12"/>
-        <v>180.21576086804251</v>
+        <v>457.51396796107161</v>
       </c>
       <c r="M207" s="1">
         <f t="shared" si="13"/>
-        <v>45.053940217010627</v>
+        <v>57.189245995133952</v>
       </c>
       <c r="N207" s="1">
         <f t="shared" si="14"/>
-        <v>1.9585716491114544</v>
+        <v>30.722901434037812</v>
       </c>
       <c r="O207">
         <f t="shared" si="15"/>
-        <v>1.1307818688416675</v>
+        <v>17.737875413228071</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.3">
@@ -9151,21 +11506,33 @@
       <c r="E208">
         <v>34.1469047255814</v>
       </c>
+      <c r="F208">
+        <v>68.176405217498498</v>
+      </c>
+      <c r="G208">
+        <v>74.252263487782301</v>
+      </c>
+      <c r="H208">
+        <v>21.187208667397002</v>
+      </c>
+      <c r="I208">
+        <v>51.615301094949203</v>
+      </c>
       <c r="L208" s="1">
         <f t="shared" si="12"/>
-        <v>142.66129878163321</v>
+        <v>357.8924772492602</v>
       </c>
       <c r="M208" s="1">
         <f t="shared" si="13"/>
-        <v>35.665324695408302</v>
+        <v>44.736559656157525</v>
       </c>
       <c r="N208" s="1">
         <f t="shared" si="14"/>
-        <v>2.9462523884770371</v>
+        <v>18.430109575100925</v>
       </c>
       <c r="O208">
         <f t="shared" si="15"/>
-        <v>1.7010196095877954</v>
+        <v>10.64062872437882</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.3">
@@ -9184,21 +11551,33 @@
       <c r="E209">
         <v>36.749704554677002</v>
       </c>
+      <c r="F209">
+        <v>22.9098032414913</v>
+      </c>
+      <c r="G209">
+        <v>62.611408487893598</v>
+      </c>
+      <c r="H209">
+        <v>16.6087111532688</v>
+      </c>
+      <c r="I209">
+        <v>41.112762467935603</v>
+      </c>
       <c r="L209" s="1">
         <f t="shared" si="12"/>
-        <v>161.88617780804611</v>
+        <v>305.12886315863545</v>
       </c>
       <c r="M209" s="1">
         <f t="shared" si="13"/>
-        <v>40.471544452011528</v>
+        <v>38.141107894829432</v>
       </c>
       <c r="N209" s="1">
         <f t="shared" si="14"/>
-        <v>15.811453040240673</v>
+        <v>17.217071979433495</v>
       </c>
       <c r="O209">
         <f t="shared" si="15"/>
-        <v>9.12874666906208</v>
+        <v>9.9402811419830925</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.3">
@@ -9217,21 +11596,33 @@
       <c r="E210">
         <v>20.027221109717999</v>
       </c>
+      <c r="F210">
+        <v>36.034829076379502</v>
+      </c>
+      <c r="G210">
+        <v>62.951366666704402</v>
+      </c>
+      <c r="H210">
+        <v>3.8972139246760999</v>
+      </c>
+      <c r="I210">
+        <v>37.793222576379698</v>
+      </c>
       <c r="L210" s="1">
         <f t="shared" si="12"/>
-        <v>97.947159934788701</v>
+        <v>238.6237921789284</v>
       </c>
       <c r="M210" s="1">
         <f t="shared" si="13"/>
-        <v>24.486789983697175</v>
+        <v>29.82797402236605</v>
       </c>
       <c r="N210" s="1">
         <f t="shared" si="14"/>
-        <v>8.4869185015270716</v>
+        <v>17.735074362074229</v>
       </c>
       <c r="O210">
         <f t="shared" si="15"/>
-        <v>4.8999246814470707</v>
+        <v>10.239349957041588</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.3">
@@ -9250,21 +11641,33 @@
       <c r="E211">
         <v>29.242845069617001</v>
       </c>
+      <c r="F211">
+        <v>80.530162121634902</v>
+      </c>
+      <c r="G211">
+        <v>56.535906931385</v>
+      </c>
+      <c r="H211">
+        <v>7.3428990805987198</v>
+      </c>
+      <c r="I211">
+        <v>38.343322138302</v>
+      </c>
       <c r="L211" s="1">
         <f t="shared" si="12"/>
-        <v>136.19408559519772</v>
+        <v>318.94637586711838</v>
       </c>
       <c r="M211" s="1">
         <f t="shared" si="13"/>
-        <v>34.04852139879943</v>
+        <v>39.868296983389797</v>
       </c>
       <c r="N211" s="1">
         <f t="shared" si="14"/>
-        <v>6.2199850886466068</v>
+        <v>21.523964550642845</v>
       </c>
       <c r="O211">
         <f t="shared" si="15"/>
-        <v>3.591110065285577</v>
+        <v>12.42686672734161</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.3">
@@ -9283,21 +11686,33 @@
       <c r="E212">
         <v>37.983394078910301</v>
       </c>
+      <c r="F212">
+        <v>72.088823877274905</v>
+      </c>
+      <c r="G212">
+        <v>23.077452071010999</v>
+      </c>
+      <c r="H212">
+        <v>13.735012397169999</v>
+      </c>
+      <c r="I212">
+        <v>26.2762759365141</v>
+      </c>
       <c r="L212" s="1">
         <f t="shared" si="12"/>
-        <v>96.956147886812602</v>
+        <v>232.13371216878264</v>
       </c>
       <c r="M212" s="1">
         <f t="shared" si="13"/>
-        <v>24.23903697170315</v>
+        <v>29.01671402109783</v>
       </c>
       <c r="N212" s="1">
         <f t="shared" si="14"/>
-        <v>9.8531076107221729</v>
+        <v>18.951358285701524</v>
       </c>
       <c r="O212">
         <f t="shared" si="15"/>
-        <v>5.6886943314047969</v>
+        <v>10.94157180775882</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.3">
@@ -9316,21 +11731,33 @@
       <c r="E213">
         <v>19.5044817067682</v>
       </c>
+      <c r="F213">
+        <v>-35.200953051447797</v>
+      </c>
+      <c r="G213">
+        <v>17.315787509083702</v>
+      </c>
+      <c r="H213">
+        <v>6.2092532366514197</v>
+      </c>
+      <c r="I213">
+        <v>23.710084021091401</v>
+      </c>
       <c r="L213" s="1">
         <f t="shared" si="12"/>
-        <v>47.804026801138946</v>
+        <v>59.838198516517664</v>
       </c>
       <c r="M213" s="1">
         <f t="shared" si="13"/>
-        <v>11.951006700284736</v>
+        <v>7.4797748145647081</v>
       </c>
       <c r="N213" s="1">
         <f t="shared" si="14"/>
-        <v>7.4711049607487849</v>
+        <v>18.635023574004244</v>
       </c>
       <c r="O213">
         <f t="shared" si="15"/>
-        <v>4.3134444602322599</v>
+        <v>10.758935876806373</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.3">
@@ -9349,21 +11776,33 @@
       <c r="E214">
         <v>11.4459873400628</v>
       </c>
+      <c r="F214">
+        <v>0.26442021131515497</v>
+      </c>
+      <c r="G214">
+        <v>24.960221625864499</v>
+      </c>
+      <c r="H214">
+        <v>6.7861402016132999</v>
+      </c>
+      <c r="I214">
+        <v>24.572477728128401</v>
+      </c>
       <c r="L214" s="1">
         <f t="shared" si="12"/>
-        <v>25.881367574911501</v>
+        <v>82.464627341832852</v>
       </c>
       <c r="M214" s="1">
         <f t="shared" si="13"/>
-        <v>6.4703418937278752</v>
+        <v>10.308078417729106</v>
       </c>
       <c r="N214" s="1">
         <f t="shared" si="14"/>
-        <v>8.1846822619500106</v>
+        <v>10.63227878370847</v>
       </c>
       <c r="O214">
         <f t="shared" si="15"/>
-        <v>4.7254285071683944</v>
+        <v>6.138549017873232</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.3">
@@ -9382,21 +11821,33 @@
       <c r="E215">
         <v>17.598921008407999</v>
       </c>
+      <c r="F215">
+        <v>7.2561467718332997</v>
+      </c>
+      <c r="G215">
+        <v>24.776208363473401</v>
+      </c>
+      <c r="H215">
+        <v>0.10985897481441401</v>
+      </c>
+      <c r="I215">
+        <v>8.9410649063065595</v>
+      </c>
       <c r="L215" s="1">
         <f t="shared" si="12"/>
-        <v>52.459825836121901</v>
+        <v>93.54310485254959</v>
       </c>
       <c r="M215" s="1">
         <f t="shared" si="13"/>
-        <v>13.114956459030475</v>
+        <v>11.692888106568699</v>
       </c>
       <c r="N215" s="1">
         <f t="shared" si="14"/>
-        <v>6.8597761417407552</v>
+        <v>8.2967785241306764</v>
       </c>
       <c r="O215">
         <f t="shared" si="15"/>
-        <v>3.9604936020145978</v>
+        <v>4.7901473143135522</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.3">
@@ -9415,21 +11866,33 @@
       <c r="E216">
         <v>7.3948292434215501</v>
       </c>
+      <c r="F216">
+        <v>-22.6303036622703</v>
+      </c>
+      <c r="G216">
+        <v>16.289572894573201</v>
+      </c>
+      <c r="H216">
+        <v>-4.2769421208649803</v>
+      </c>
+      <c r="I216">
+        <v>12.2594229876995</v>
+      </c>
       <c r="L216" s="1">
         <f t="shared" si="12"/>
-        <v>30.601460510864793</v>
+        <v>32.243210610002215</v>
       </c>
       <c r="M216" s="1">
         <f t="shared" si="13"/>
-        <v>7.6503651277161984</v>
+        <v>4.0304013262502769</v>
       </c>
       <c r="N216" s="1">
         <f t="shared" si="14"/>
-        <v>2.8181556946888269</v>
+        <v>12.386927365652456</v>
       </c>
       <c r="O216">
         <f t="shared" si="15"/>
-        <v>1.6270629489468711</v>
+        <v>7.1515958489917875</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.3">
@@ -9448,21 +11911,33 @@
       <c r="E217">
         <v>7.1506207175552801</v>
       </c>
+      <c r="F217">
+        <v>-37.314147889614098</v>
+      </c>
+      <c r="G217">
+        <v>-2.9376083184033601</v>
+      </c>
+      <c r="H217">
+        <v>1.6456544846296299</v>
+      </c>
+      <c r="I217">
+        <v>-9.3192417174577695</v>
+      </c>
       <c r="L217" s="1">
         <f t="shared" si="12"/>
-        <v>21.0553887132555</v>
+        <v>-26.869954727590098</v>
       </c>
       <c r="M217" s="1">
         <f t="shared" si="13"/>
-        <v>5.2638471783138749</v>
+        <v>-3.3587443409487623</v>
       </c>
       <c r="N217" s="1">
         <f t="shared" si="14"/>
-        <v>3.7519567036125054</v>
+        <v>14.896529785886422</v>
       </c>
       <c r="O217">
         <f t="shared" si="15"/>
-        <v>2.1661932128185009</v>
+        <v>8.6005154818728045</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.3">
@@ -9481,21 +11956,33 @@
       <c r="E218">
         <v>6.4835841804742804</v>
       </c>
+      <c r="F218">
+        <v>25.090063266456099</v>
+      </c>
+      <c r="G218">
+        <v>6.5095839221030403</v>
+      </c>
+      <c r="H218">
+        <v>2.6856855228543202</v>
+      </c>
+      <c r="I218">
+        <v>4.1663666442036602</v>
+      </c>
       <c r="L218" s="1">
         <f t="shared" si="12"/>
-        <v>-2.7984587661921791</v>
+        <v>35.653240589424939</v>
       </c>
       <c r="M218" s="1">
         <f t="shared" si="13"/>
-        <v>-0.69961469154804479</v>
+        <v>4.4566550736781174</v>
       </c>
       <c r="N218" s="1">
         <f t="shared" si="14"/>
-        <v>5.1394604610787811</v>
+        <v>9.4018484815399308</v>
       </c>
       <c r="O218">
         <f t="shared" si="15"/>
-        <v>2.9672688806932728</v>
+        <v>5.4281597516971534</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.3">
@@ -9514,21 +12001,33 @@
       <c r="E219">
         <v>1.23185332864522</v>
       </c>
+      <c r="F219">
+        <v>-5.0523818694055</v>
+      </c>
+      <c r="G219">
+        <v>-4.9956934899091703</v>
+      </c>
+      <c r="H219">
+        <v>8.5747814476490003</v>
+      </c>
+      <c r="I219">
+        <v>13.258610799908601</v>
+      </c>
       <c r="L219" s="1">
         <f t="shared" si="12"/>
-        <v>14.337008683942251</v>
+        <v>26.122325572185183</v>
       </c>
       <c r="M219" s="1">
         <f t="shared" si="13"/>
-        <v>3.5842521709855628</v>
+        <v>3.2652906965231479</v>
       </c>
       <c r="N219" s="1">
         <f t="shared" si="14"/>
-        <v>4.9292831901750525</v>
+        <v>6.9568580691809601</v>
       </c>
       <c r="O219">
         <f t="shared" si="15"/>
-        <v>2.8459229767594638</v>
+        <v>4.0165438789556474</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.3">
@@ -9547,21 +12046,33 @@
       <c r="E220">
         <v>4.4144452512264198</v>
       </c>
+      <c r="F220">
+        <v>35.835918694734502</v>
+      </c>
+      <c r="G220">
+        <v>-3.8641626462340302</v>
+      </c>
+      <c r="H220">
+        <v>10.4657255001366</v>
+      </c>
+      <c r="I220">
+        <v>10.687712647020801</v>
+      </c>
       <c r="L220" s="1">
         <f t="shared" si="12"/>
-        <v>3.9888813798315805</v>
+        <v>57.114075575489458</v>
       </c>
       <c r="M220" s="1">
         <f t="shared" si="13"/>
-        <v>0.99722034495789513</v>
+        <v>7.1392594469361823</v>
       </c>
       <c r="N220" s="1">
         <f t="shared" si="14"/>
-        <v>6.556351742588137</v>
+        <v>13.35282885009517</v>
       </c>
       <c r="O220">
         <f t="shared" si="15"/>
-        <v>3.7853114434851332</v>
+        <v>7.7092593310454482</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.3">
@@ -9580,21 +12091,33 @@
       <c r="E221">
         <v>-6.3518127426505</v>
       </c>
+      <c r="F221">
+        <v>-56.601710230111998</v>
+      </c>
+      <c r="G221">
+        <v>12.790050173178299</v>
+      </c>
+      <c r="H221">
+        <v>7.72232841560617</v>
+      </c>
+      <c r="I221">
+        <v>-9.6760659590363005</v>
+      </c>
       <c r="L221" s="1">
         <f t="shared" si="12"/>
-        <v>-7.1388961970806397</v>
+        <v>-52.904293797444467</v>
       </c>
       <c r="M221" s="1">
         <f t="shared" si="13"/>
-        <v>-1.7847240492701599</v>
+        <v>-6.6130367246805584</v>
       </c>
       <c r="N221" s="1">
         <f t="shared" si="14"/>
-        <v>4.7231869158490625</v>
+        <v>21.54864264497753</v>
       </c>
       <c r="O221">
         <f t="shared" si="15"/>
-        <v>2.7269332372983746</v>
+        <v>12.441114631748826</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.3">
@@ -9613,21 +12136,33 @@
       <c r="E222">
         <v>6.4373549446463496</v>
       </c>
+      <c r="F222">
+        <v>34.527316856197999</v>
+      </c>
+      <c r="G222">
+        <v>3.1537332870066099</v>
+      </c>
+      <c r="H222">
+        <v>3.9789749160408898</v>
+      </c>
+      <c r="I222">
+        <v>-3.2920221313834102</v>
+      </c>
       <c r="L222" s="1">
         <f t="shared" si="12"/>
-        <v>-0.31042654719203977</v>
+        <v>38.057576380670049</v>
       </c>
       <c r="M222" s="1">
         <f t="shared" si="13"/>
-        <v>-7.7606636798009943E-2</v>
+        <v>4.7571970475837562</v>
       </c>
       <c r="N222" s="1">
         <f t="shared" si="14"/>
-        <v>6.3475329300624441</v>
+        <v>12.920645263014061</v>
       </c>
       <c r="O222">
         <f t="shared" si="15"/>
-        <v>3.6647498458615662</v>
+        <v>7.4597380207048314</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.3">
@@ -9646,21 +12181,33 @@
       <c r="E223">
         <v>-3.8688963577151001</v>
       </c>
+      <c r="F223">
+        <v>8.5492969155311496</v>
+      </c>
+      <c r="G223">
+        <v>-2.0161435157060601</v>
+      </c>
+      <c r="H223">
+        <v>-2.2422198578715302</v>
+      </c>
+      <c r="I223">
+        <v>16.315936967730501</v>
+      </c>
       <c r="L223" s="1">
         <f t="shared" si="12"/>
-        <v>-10.761516414466268</v>
+        <v>9.8453540952177914</v>
       </c>
       <c r="M223" s="1">
         <f t="shared" si="13"/>
-        <v>-2.690379103616567</v>
+        <v>1.2306692619022239</v>
       </c>
       <c r="N223" s="1">
         <f t="shared" si="14"/>
-        <v>2.1325054856479593</v>
+        <v>7.3569363248759734</v>
       </c>
       <c r="O223">
         <f t="shared" si="15"/>
-        <v>1.2312026161872029</v>
+        <v>4.2475291675780795</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.3">
@@ -9679,21 +12226,33 @@
       <c r="E224">
         <v>-1.5521551817655499</v>
       </c>
+      <c r="F224">
+        <v>91.270091645419001</v>
+      </c>
+      <c r="G224">
+        <v>-3.5542619521729599</v>
+      </c>
+      <c r="H224">
+        <v>3.41369023919105</v>
+      </c>
+      <c r="I224">
+        <v>4.6297631303314102</v>
+      </c>
       <c r="L224" s="1">
         <f t="shared" si="12"/>
-        <v>3.5416441559791574</v>
+        <v>99.30092721874766</v>
       </c>
       <c r="M224" s="1">
         <f t="shared" si="13"/>
-        <v>0.88541103899478935</v>
+        <v>12.412615902343457</v>
       </c>
       <c r="N224" s="1">
         <f t="shared" si="14"/>
-        <v>2.0369478862573858</v>
+        <v>31.979791403038476</v>
       </c>
       <c r="O224">
         <f t="shared" si="15"/>
-        <v>1.176032410455941</v>
+        <v>18.463541175172345</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.3">
@@ -9712,21 +12271,33 @@
       <c r="E225">
         <v>6.7990259751677504</v>
       </c>
+      <c r="F225">
+        <v>-6.9804314561188203</v>
+      </c>
+      <c r="G225">
+        <v>-5.03114238381385</v>
+      </c>
+      <c r="H225">
+        <v>-2.7233938537537998</v>
+      </c>
+      <c r="I225">
+        <v>-5.1344314366579002</v>
+      </c>
       <c r="L225" s="1">
         <f t="shared" si="12"/>
-        <v>7.9861574918031053</v>
+        <v>-11.883241638541264</v>
       </c>
       <c r="M225" s="1">
         <f t="shared" si="13"/>
-        <v>1.9965393729507763</v>
+        <v>-1.485405204817658</v>
       </c>
       <c r="N225" s="1">
         <f t="shared" si="14"/>
-        <v>3.6868106363651902</v>
+        <v>4.5808459006171747</v>
       </c>
       <c r="O225">
         <f t="shared" si="15"/>
-        <v>2.1285811133566184</v>
+        <v>2.6447526138375195</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.3">
@@ -9745,21 +12316,33 @@
       <c r="E226">
         <v>-1.08783512562513</v>
       </c>
+      <c r="F226">
+        <v>0.27303731441496998</v>
+      </c>
+      <c r="G226">
+        <v>1.98298072442412</v>
+      </c>
+      <c r="H226">
+        <v>8.3915631622075999</v>
+      </c>
+      <c r="I226">
+        <v>-1.7414490021765201</v>
+      </c>
       <c r="L226" s="1">
         <f t="shared" si="12"/>
-        <v>-5.3237122073769552</v>
+        <v>3.5824199914932149</v>
       </c>
       <c r="M226" s="1">
         <f t="shared" si="13"/>
-        <v>-1.3309280518442388</v>
+        <v>0.44780249893665186</v>
       </c>
       <c r="N226" s="1">
         <f t="shared" si="14"/>
-        <v>4.0143180480626155</v>
+        <v>4.3306754393399824</v>
       </c>
       <c r="O226">
         <f t="shared" si="15"/>
-        <v>2.317667605661724</v>
+        <v>2.5003166306758398</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.3">
@@ -9778,21 +12361,33 @@
       <c r="E227">
         <v>-6.9222460687160403</v>
       </c>
+      <c r="F227">
+        <v>1.68686520680785</v>
+      </c>
+      <c r="G227">
+        <v>7.9094486124813503</v>
+      </c>
+      <c r="H227">
+        <v>10.226875722408201</v>
+      </c>
+      <c r="I227">
+        <v>-16.658390298485699</v>
+      </c>
       <c r="L227" s="1">
         <f t="shared" si="12"/>
-        <v>17.652801202493691</v>
+        <v>20.817600445705395</v>
       </c>
       <c r="M227" s="1">
         <f t="shared" si="13"/>
-        <v>4.4132003006234228</v>
+        <v>2.6022000557131744</v>
       </c>
       <c r="N227" s="1">
         <f t="shared" si="14"/>
-        <v>11.407012081855152</v>
+        <v>11.09433192734352</v>
       </c>
       <c r="O227">
         <f t="shared" si="15"/>
-        <v>6.5858414961083858</v>
+        <v>6.4053155247308409</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.3">
@@ -9811,21 +12406,33 @@
       <c r="E228">
         <v>1.3872759789228399</v>
       </c>
+      <c r="F228">
+        <v>-2.7662084400653799</v>
+      </c>
+      <c r="G228">
+        <v>5.66638296283781</v>
+      </c>
+      <c r="H228">
+        <v>10.213584169745401</v>
+      </c>
+      <c r="I228">
+        <v>5.6308373101055604</v>
+      </c>
       <c r="L228" s="1">
         <f t="shared" si="12"/>
-        <v>22.031951745971984</v>
+        <v>40.776547748595377</v>
       </c>
       <c r="M228" s="1">
         <f t="shared" si="13"/>
-        <v>5.507987936492996</v>
+        <v>5.0970684685744221</v>
       </c>
       <c r="N228" s="1">
         <f t="shared" si="14"/>
-        <v>11.431463108697447</v>
+        <v>8.2922455211810888</v>
       </c>
       <c r="O228">
         <f t="shared" si="15"/>
-        <v>6.5999583030377469</v>
+        <v>4.7875301838403708</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.3">
@@ -9844,21 +12451,33 @@
       <c r="E229">
         <v>11.5610278174281</v>
       </c>
+      <c r="F229">
+        <v>9.6719819400459492</v>
+      </c>
+      <c r="G229">
+        <v>-8.0919210761784992</v>
+      </c>
+      <c r="H229">
+        <v>3.1407446116208999</v>
+      </c>
+      <c r="I229">
+        <v>-7.71944869682192</v>
+      </c>
       <c r="L229" s="1">
         <f t="shared" si="12"/>
-        <v>33.97775814682241</v>
+        <v>30.979114925488844</v>
       </c>
       <c r="M229" s="1">
         <f t="shared" si="13"/>
-        <v>8.4944395367056025</v>
+        <v>3.8723893656861055</v>
       </c>
       <c r="N229" s="1">
         <f t="shared" si="14"/>
-        <v>9.1575588580252472</v>
+        <v>9.6267637043795524</v>
       </c>
       <c r="O229">
         <f t="shared" si="15"/>
-        <v>5.2871190718007188</v>
+        <v>5.558014616148454</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.3">
@@ -9877,21 +12496,33 @@
       <c r="E230">
         <v>7.6277787759900004</v>
       </c>
+      <c r="F230">
+        <v>21.771988364867799</v>
+      </c>
+      <c r="G230">
+        <v>-8.0505589107050994</v>
+      </c>
+      <c r="H230">
+        <v>1.32419483736157</v>
+      </c>
+      <c r="I230">
+        <v>5.9684545397758404</v>
+      </c>
       <c r="L230" s="1">
         <f t="shared" si="12"/>
-        <v>6.553601911291481</v>
+        <v>27.567680742591591</v>
       </c>
       <c r="M230" s="1">
         <f t="shared" si="13"/>
-        <v>1.6384004778228702</v>
+        <v>3.4459600928239489</v>
       </c>
       <c r="N230" s="1">
         <f t="shared" si="14"/>
-        <v>4.749177424827602</v>
+        <v>8.9411670151133205</v>
       </c>
       <c r="O230">
         <f t="shared" si="15"/>
-        <v>2.7419388646535099</v>
+        <v>5.1621851830450787</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.3">
@@ -9910,21 +12541,33 @@
       <c r="E231">
         <v>-1.2666396051645199</v>
       </c>
+      <c r="F231">
+        <v>2.74676152318716</v>
+      </c>
+      <c r="G231">
+        <v>7.0330192893743497</v>
+      </c>
+      <c r="H231">
+        <v>-0.26227849721908503</v>
+      </c>
+      <c r="I231">
+        <v>5.8997051045298496</v>
+      </c>
       <c r="L231" s="1">
         <f t="shared" si="12"/>
-        <v>13.333238404244181</v>
+        <v>28.750445824116454</v>
       </c>
       <c r="M231" s="1">
         <f t="shared" si="13"/>
-        <v>3.3333096010610452</v>
+        <v>3.5938057280145568</v>
       </c>
       <c r="N231" s="1">
         <f t="shared" si="14"/>
-        <v>3.5210799007175417</v>
+        <v>3.16673954052394</v>
       </c>
       <c r="O231">
         <f t="shared" si="15"/>
-        <v>2.0328964285174536</v>
+        <v>1.8283179261749287</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.3">
@@ -9943,21 +12586,33 @@
       <c r="E232">
         <v>-1.3155066780745901</v>
       </c>
+      <c r="F232">
+        <v>-28.519200764596398</v>
+      </c>
+      <c r="G232">
+        <v>-8.3165951585397107</v>
+      </c>
+      <c r="H232">
+        <v>1.34376595914363</v>
+      </c>
+      <c r="I232">
+        <v>-4.0648083984851802</v>
+      </c>
       <c r="L232" s="1">
         <f t="shared" si="12"/>
-        <v>-4.2765336576849</v>
+        <v>-43.833372020162557</v>
       </c>
       <c r="M232" s="1">
         <f t="shared" si="13"/>
-        <v>-1.069133414421225</v>
+        <v>-5.4791715025203196</v>
       </c>
       <c r="N232" s="1">
         <f t="shared" si="14"/>
-        <v>7.4432719352321461</v>
+        <v>10.898541547619216</v>
       </c>
       <c r="O232">
         <f t="shared" si="15"/>
-        <v>4.2973750554578665</v>
+        <v>6.2922758962922751</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.3">
@@ -9969,7 +12624,7 @@
         <v>162724.44598495992</v>
       </c>
       <c r="C240">
-        <f t="shared" ref="C240:E240" si="16">SUM(C123:C232)</f>
+        <f t="shared" ref="C240:I240" si="16">SUM(C123:C232)</f>
         <v>180954.53929556283</v>
       </c>
       <c r="D240">
@@ -9980,8 +12635,24 @@
         <f t="shared" si="16"/>
         <v>194450.75705760188</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240">
+        <f>SUM(F123:F232)</f>
+        <v>188934.90737039709</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="16"/>
+        <v>197007.14330274114</v>
+      </c>
+      <c r="H240">
+        <f t="shared" si="16"/>
+        <v>193458.91895056827</v>
+      </c>
+      <c r="I240">
+        <f>SUM(I123:I232)</f>
+        <v>184926.81991420136</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -9990,7 +12661,7 @@
         <v>161351</v>
       </c>
       <c r="C241">
-        <f t="shared" ref="C241:E241" si="17">SUM(C3:C112)</f>
+        <f t="shared" ref="C241:I241" si="17">SUM(C3:C112)</f>
         <v>181519</v>
       </c>
       <c r="D241">
@@ -10001,8 +12672,24 @@
         <f t="shared" si="17"/>
         <v>194520</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241">
+        <f>SUM(F3:F112)</f>
+        <v>186904</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="17"/>
+        <v>196497</v>
+      </c>
+      <c r="H241">
+        <f t="shared" si="17"/>
+        <v>193015</v>
+      </c>
+      <c r="I241">
+        <f t="shared" si="17"/>
+        <v>183450</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -10011,7 +12698,7 @@
         <v>1373.4459849599225</v>
       </c>
       <c r="C242">
-        <f t="shared" ref="C242:E242" si="18">C240-C241</f>
+        <f t="shared" ref="C242:I242" si="18">C240-C241</f>
         <v>-564.46070443716599</v>
       </c>
       <c r="D242">
@@ -10022,8 +12709,24 @@
         <f t="shared" si="18"/>
         <v>-69.242942398122977</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242">
+        <f>F240-F241</f>
+        <v>2030.9073703970935</v>
+      </c>
+      <c r="G242">
+        <f t="shared" si="18"/>
+        <v>510.14330274114036</v>
+      </c>
+      <c r="H242">
+        <f t="shared" si="18"/>
+        <v>443.91895056827343</v>
+      </c>
+      <c r="I242">
+        <f t="shared" si="18"/>
+        <v>1476.8199142013618</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -10043,8 +12746,24 @@
         <f t="shared" si="19"/>
         <v>-3.5596824181638383E-4</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243">
+        <f>F242/F241</f>
+        <v>1.086604551211902E-2</v>
+      </c>
+      <c r="G243">
+        <f t="shared" ref="G243:I243" si="20">G242/G241</f>
+        <v>2.5961887598341979E-3</v>
+      </c>
+      <c r="H243">
+        <f t="shared" si="20"/>
+        <v>2.299919439257433E-3</v>
+      </c>
+      <c r="I243">
+        <f>I242/I241</f>
+        <v>8.0502584584429653E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>10</v>
       </c>
@@ -10057,12 +12776,28 @@
         <v>1.7552756838331065</v>
       </c>
       <c r="D244">
-        <f t="shared" ref="D244:E244" si="20">(D241-D240)^2/D241</f>
+        <f t="shared" ref="D244:E244" si="21">(D241-D240)^2/D241</f>
         <v>1.050846656001611</v>
       </c>
       <c r="E244">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4648288463652974E-2</v>
+      </c>
+      <c r="F244">
+        <f>(F241-F240)^2/F241</f>
+        <v>22.06793191763278</v>
+      </c>
+      <c r="G244">
+        <f>(G241-G240)^2/G241</f>
+        <v>1.3244283084812429</v>
+      </c>
+      <c r="H244">
+        <f t="shared" ref="H244:I244" si="22">(H241-H240)^2/H241</f>
+        <v>1.0209778238667315</v>
+      </c>
+      <c r="I244">
+        <f t="shared" si="22"/>
+        <v>11.888782005896525</v>
       </c>
     </row>
   </sheetData>

--- a/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Target</t>
   </si>
@@ -68,6 +71,18 @@
   </si>
   <si>
     <t>Std/sqrt(3)</t>
+  </si>
+  <si>
+    <t>true-out</t>
+  </si>
+  <si>
+    <t>1/root(true)</t>
+  </si>
+  <si>
+    <t>r/s</t>
+  </si>
+  <si>
+    <t>chisq</t>
   </si>
 </sst>
 </file>
@@ -1325,11 +1340,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="447306600"/>
-        <c:axId val="447306992"/>
+        <c:axId val="313006688"/>
+        <c:axId val="369551456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="447306600"/>
+        <c:axId val="313006688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,7 +1457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447306992"/>
+        <c:crossAx val="369551456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1450,7 +1465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="447306992"/>
+        <c:axId val="369551456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,7 +1579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447306600"/>
+        <c:crossAx val="313006688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1691,7 +1706,1837 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>relative error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$R$130:$R$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>11.504553201297902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3172893341863499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.37497317346324011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.148734959149816E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3583193189431216E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0036901846350122E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0651996022213879E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.19958793386532E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7851735668360231E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1346980081556663E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.214623467218845E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6512963201166377E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9469569785007729E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0912084747351027E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.3487818784956711E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2046964034804747E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.2856544366176213E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3034073463130668E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.485382572565702E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.298781673646901E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.9820239198405287E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.9397945533765729E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8.739686147436778E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.8503878320259216E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.8123097605162931E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.3403314497615332E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.3293299963635392E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.9431350565812904E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.3265596473084795E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.6059253308315383E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5.2211943233401075E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9528037254739342E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6351467463010093E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.5845024887575183E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-8.0805134790956738E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.381909989623743E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.0796398788179685E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.2171218869859708E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.679002483086411E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5.9623013952313309E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.3868149109776685E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.4476103456911713E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5131039564977945E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.5382463836561033E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-5.8534525144169104E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1196045226504341E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.8681356078051335E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.9829720013823886E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-6.5018974777839031E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4459786699645176E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.3836220711303447E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.8058952217732757E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.7908990694304279E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9977516697880896E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.6822232971022203E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.5415360712498843E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.5097842747609687E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.3070868030647314E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.9784443283469741E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.1717198419769425E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.1841206319419677E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.4608762252730497E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.12092047044074E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.4109311856402287E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.6645414937863967E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.817721107843708E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.8301006119351548E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.5998180499822775E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.8602297412908377E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-9.0696013888326182E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-3.2381602708967276E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.11545274669882419</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.23190856739908841</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.0954429141056145E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.21099161550288481</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.2847697401777875E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.18924739295475893</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.23987525192702336</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.30617692426737297</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.25052812769932564</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.9222167255998477E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.58679788988616111</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.61203966783876829</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.47045842020780826</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-3.0807841772910648E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.76496424250093564</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2933011818114687E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.3434977363795051</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.8764863468118389</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.7317607960264545</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.8076050383659639</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14.226073449361117</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-8.5143940951675123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="512855680"/>
+        <c:axId val="512856464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="512855680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512856464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="512856464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512855680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1/root(true)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$S$130:$S$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>1.6329931618554523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19802950859533489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8954139199058683E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8239119393494044E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.004407273335673E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3840027153248686E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8713886396267204E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5479257578373642E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3065580739059788E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0825990392946817E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9282539322832151E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8267316060998445E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7176718136839322E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6238709775341649E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5591727976114366E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5172209934815136E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4521950407133924E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4174953192277748E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3944479031314379E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3686115720737697E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3550838384546319E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.337336474903855E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3294980928779005E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3220124979025265E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3168015154181935E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3212910564542248E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3328743112218882E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3435230372511476E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3499192392788215E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3763839347353903E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3847214960382929E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4183148764245436E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.432376666040793E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4712247158412491E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.504418666962188E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5353757178626857E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5715666909482562E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6153476372506338E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6635792022840736E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7044904292704971E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7657678008211362E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.844199375737695E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8984015070124632E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9416560651186562E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0502847851135975E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1142428689408906E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1976031725940863E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2777329617136386E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.3806993438741434E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5030328537576901E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6423514707860023E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7529308506178359E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8987029394585629E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.0718378505606096E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2064707742092177E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.430476221747198E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.6040423985645734E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.7942399730627178E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.1567556712637267E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.3003295253753064E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.6480215984769452E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8400476747043952E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.1786715433664143E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.4242586434973504E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.0233860193683417E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.291610618605574E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7943155358499832E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.474350927519359E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.8027431464087041E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.6226122711845377E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.067521068905561E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.10044039219036507</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.11340959542474854</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.11206636293610515</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.131448155980155</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.14724203476646205</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.17087153154335219</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.18107149208503706</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.17474081133220759</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.19950186722152657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.23570226039551587</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.26607604209509572</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.31622776601683794</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.38851434494290565</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.4923659639173309</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.64888568452305018</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0690449676496976</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.73029674334022143</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4142135623730949</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4142135623730949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="446301384"/>
+        <c:axId val="446301776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="446301384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446301776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="446301776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446301384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>chi squared</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$U$130:$U$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>49.633029135560179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.511021316766296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.585424460835875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38610339106825847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9622048718297914E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60952307196998767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26597914302137154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12566165400714771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94085040012740673</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.63338314305725E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1111322949440305E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0738511381881089E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6610438294890465E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19619019386748512</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61659935561733259</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10272774697807373</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11492355050379077</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9951253386114726E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0462289901420625E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3951611465523275E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0202875880486627E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5711819575046746E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41596744483848846</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26239100292434619</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8581870174564294</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0279057475349196</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.3925340796542496E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.9060743018394242E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9905471872432221</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4287638771863378</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14959743262317854</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.012973233710079</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.6214687522823888E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2480745719441468</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.31824635847041766</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.284039612197592E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9109038987227913</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.0852100176752972</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.2387503325337243</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.13623724422769973</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.9536312667653616E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.19091706932240932</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.73429462221196717</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.6957225244767582</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.5070999362846256E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.33249466466370098</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.6376350337100041E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.10908646100081264</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.7534990249295508E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.40301216902202652</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.020014997377416</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2566368731929325</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1155963705154541</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.52661399831991829</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6136629253620809</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.68453550861517876</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1981364373043917</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.92935654487734176</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.6655954265816575E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.2088730058346191</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.27608591235586633</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.64769219413815227</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.7860536549281496</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.481249007020403E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.1904615074081334E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.9536762411664728E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.2314206135262118E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.79218051989832117</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.4962099730421219E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4724122814064302</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.17222732586472944</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7927957888807342</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.541185109375486</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.9904788683542423E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.4612326559232107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.3143167534014125E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.0727685709625088</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.6540387954653157</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.2107425816686312</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.9143124544401533</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.26070949050282882</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.6513355598181381</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.7426659901474171</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.1263021426650273</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.491231147046985E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.8767531865208253</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1694325030803749E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13.729954101039658</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8245422508504625</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.5297024158687034</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>14.779961346483647</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>101.19058289330864</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>36.247453403911699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="445877040"/>
+        <c:axId val="445876648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="445877040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445876648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="445876648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445877040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2247,6 +4092,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2267,7 +5660,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2285,7 +5678,1134 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="גיליון1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="130">
+          <cell r="R130">
+            <v>-2.4315509963780584</v>
+          </cell>
+          <cell r="S130">
+            <v>1.6329931618554523</v>
+          </cell>
+          <cell r="U130">
+            <v>2.2171650929951729</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="R131">
+            <v>-1.9938397216144885</v>
+          </cell>
+          <cell r="S131">
+            <v>0.63245553203367588</v>
+          </cell>
+          <cell r="U131">
+            <v>9.9384920887193537</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="R132">
+            <v>-0.20464890981640621</v>
+          </cell>
+          <cell r="S132">
+            <v>0.19802950859533489</v>
+          </cell>
+          <cell r="U132">
+            <v>1.0679699953706108</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="R133">
+            <v>3.5174480604062502E-2</v>
+          </cell>
+          <cell r="S133">
+            <v>9.8954139199058683E-2</v>
+          </cell>
+          <cell r="U133">
+            <v>0.12635355225880876</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="R134">
+            <v>-3.5619465779506934E-2</v>
+          </cell>
+          <cell r="S134">
+            <v>6.8239119393494044E-2</v>
+          </cell>
+          <cell r="U134">
+            <v>0.27246327703415069</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="R135">
+            <v>2.1065423317759478E-2</v>
+          </cell>
+          <cell r="S135">
+            <v>5.128205128205128E-2</v>
+          </cell>
+          <cell r="U135">
+            <v>0.16873672064632289</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="R136">
+            <v>-4.1652621929469556E-3</v>
+          </cell>
+          <cell r="S136">
+            <v>4.004407273335673E-2</v>
+          </cell>
+          <cell r="U136">
+            <v>1.0819525272433808E-2</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="R137">
+            <v>-2.0280259004677427E-2</v>
+          </cell>
+          <cell r="S137">
+            <v>3.3840027153248686E-2</v>
+          </cell>
+          <cell r="U137">
+            <v>0.35915803655043049</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="R138">
+            <v>3.6226703084207966E-2</v>
+          </cell>
+          <cell r="S138">
+            <v>2.8713886396267204E-2</v>
+          </cell>
+          <cell r="U138">
+            <v>1.591745635082159</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="R139">
+            <v>1.8204091973367642E-2</v>
+          </cell>
+          <cell r="S139">
+            <v>2.5479257578373642E-2</v>
+          </cell>
+          <cell r="U139">
+            <v>0.51046327630695099</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="R140">
+            <v>1.8073296462906202E-2</v>
+          </cell>
+          <cell r="S140">
+            <v>2.3065580739059788E-2</v>
+          </cell>
+          <cell r="U140">
+            <v>0.61396831315097522</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="R141">
+            <v>1.1190273187198669E-2</v>
+          </cell>
+          <cell r="S141">
+            <v>2.0825990392946817E-2</v>
+          </cell>
+          <cell r="U141">
+            <v>0.28871546716328944</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="R142">
+            <v>6.7301059239082027E-3</v>
+          </cell>
+          <cell r="S142">
+            <v>1.9282539322832151E-2</v>
+          </cell>
+          <cell r="U142">
+            <v>0.12181908909662181</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="R143">
+            <v>1.4381130125347068E-2</v>
+          </cell>
+          <cell r="S143">
+            <v>1.8267316060998445E-2</v>
+          </cell>
+          <cell r="U143">
+            <v>0.61977855610952803</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="R144">
+            <v>-7.855267711991198E-4</v>
+          </cell>
+          <cell r="S144">
+            <v>1.7176718136839322E-2</v>
+          </cell>
+          <cell r="U144">
+            <v>2.0914216673443742E-3</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="R145">
+            <v>9.6659833624698089E-3</v>
+          </cell>
+          <cell r="S145">
+            <v>1.6238709775341649E-2</v>
+          </cell>
+          <cell r="U145">
+            <v>0.35431459851514646</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="R146">
+            <v>-6.5832339617510859E-3</v>
+          </cell>
+          <cell r="S146">
+            <v>1.5591727976114366E-2</v>
+          </cell>
+          <cell r="U146">
+            <v>0.17827485060696144</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="R147">
+            <v>2.9501404703416523E-3</v>
+          </cell>
+          <cell r="S147">
+            <v>1.5172209934815136E-2</v>
+          </cell>
+          <cell r="U147">
+            <v>3.7808348200483205E-2</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="R148">
+            <v>3.7241703942011172E-3</v>
+          </cell>
+          <cell r="S148">
+            <v>1.4521950407133924E-2</v>
+          </cell>
+          <cell r="U148">
+            <v>6.5767175102318512E-2</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="R149">
+            <v>7.0249294495233826E-4</v>
+          </cell>
+          <cell r="S149">
+            <v>1.4174953192277748E-2</v>
+          </cell>
+          <cell r="U149">
+            <v>2.4560695857295516E-3</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="R150">
+            <v>2.2962361025349802E-3</v>
+          </cell>
+          <cell r="S150">
+            <v>1.3944479031314379E-2</v>
+          </cell>
+          <cell r="U150">
+            <v>2.7116179151983191E-2</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="R151">
+            <v>5.0674132512573819E-3</v>
+          </cell>
+          <cell r="S151">
+            <v>1.3686115720737697E-2</v>
+          </cell>
+          <cell r="U151">
+            <v>0.13709203714883716</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="R152">
+            <v>-6.5977886857159799E-3</v>
+          </cell>
+          <cell r="S152">
+            <v>1.3550838384546319E-2</v>
+          </cell>
+          <cell r="U152">
+            <v>0.2370633800863137</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="R153">
+            <v>5.6852837267531325E-4</v>
+          </cell>
+          <cell r="S153">
+            <v>1.337336474903855E-2</v>
+          </cell>
+          <cell r="U153">
+            <v>1.8072694476029233E-3</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="R154">
+            <v>-6.9335463770812261E-3</v>
+          </cell>
+          <cell r="S154">
+            <v>1.3294980928779005E-2</v>
+          </cell>
+          <cell r="U154">
+            <v>0.27197902479194308</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="R155">
+            <v>-7.7317726222970295E-3</v>
+          </cell>
+          <cell r="S155">
+            <v>1.3220124979025265E-2</v>
+          </cell>
+          <cell r="U155">
+            <v>0.34204797662899389</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="R156">
+            <v>-1.1095481454550518E-3</v>
+          </cell>
+          <cell r="S156">
+            <v>1.3168015154181935E-2</v>
+          </cell>
+          <cell r="U156">
+            <v>7.099890788342075E-3</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="R157">
+            <v>2.5724800740679179E-3</v>
+          </cell>
+          <cell r="S157">
+            <v>1.3212910564542248E-2</v>
+          </cell>
+          <cell r="U157">
+            <v>3.790592057389728E-2</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="R158">
+            <v>-2.7176888031028418E-3</v>
+          </cell>
+          <cell r="S158">
+            <v>1.3328743112218882E-2</v>
+          </cell>
+          <cell r="U158">
+            <v>4.1573927522290111E-2</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="R159">
+            <v>-1.3797588885797796E-2</v>
+          </cell>
+          <cell r="S159">
+            <v>1.3435230372511476E-2</v>
+          </cell>
+          <cell r="U159">
+            <v>1.0546689632006596</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="R160">
+            <v>-4.4439143573622728E-3</v>
+          </cell>
+          <cell r="S160">
+            <v>1.3499192392788215E-2</v>
+          </cell>
+          <cell r="U160">
+            <v>0.10837167534729529</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="R161">
+            <v>-1.2980955315924211E-2</v>
+          </cell>
+          <cell r="S161">
+            <v>1.3763839347353903E-2</v>
+          </cell>
+          <cell r="U161">
+            <v>0.8894757661747742</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="R162">
+            <v>3.3622296168745154E-3</v>
+          </cell>
+          <cell r="S162">
+            <v>1.3847214960382929E-2</v>
+          </cell>
+          <cell r="U162">
+            <v>5.8956252549206369E-2</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="R163">
+            <v>-1.0387855947005165E-2</v>
+          </cell>
+          <cell r="S163">
+            <v>1.4183148764245436E-2</v>
+          </cell>
+          <cell r="U163">
+            <v>0.53642192533845368</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="R164">
+            <v>2.8210754583344725E-3</v>
+          </cell>
+          <cell r="S164">
+            <v>1.432376666040793E-2</v>
+          </cell>
+          <cell r="U164">
+            <v>3.8789566898641513E-2</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="R165">
+            <v>3.5962085332337987E-3</v>
+          </cell>
+          <cell r="S165">
+            <v>1.4712247158412491E-2</v>
+          </cell>
+          <cell r="U165">
+            <v>5.9749147063006589E-2</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="R166">
+            <v>-1.5476208946703146E-2</v>
+          </cell>
+          <cell r="S166">
+            <v>1.504418666962188E-2</v>
+          </cell>
+          <cell r="U166">
+            <v>1.0582584429646409</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="R167">
+            <v>-1.2664560537708695E-2</v>
+          </cell>
+          <cell r="S167">
+            <v>1.5353757178626857E-2</v>
+          </cell>
+          <cell r="U167">
+            <v>0.68037901910756915</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="R168">
+            <v>-1.0426043723433173E-3</v>
+          </cell>
+          <cell r="S168">
+            <v>1.5715666909482562E-2</v>
+          </cell>
+          <cell r="U168">
+            <v>4.401223800917199E-3</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="R169">
+            <v>-4.9831749146953212E-3</v>
+          </cell>
+          <cell r="S169">
+            <v>1.6153476372506338E-2</v>
+          </cell>
+          <cell r="U169">
+            <v>9.5165659519165932E-2</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="R170">
+            <v>9.7735251709563549E-3</v>
+          </cell>
+          <cell r="S170">
+            <v>1.6635792022840736E-2</v>
+          </cell>
+          <cell r="U170">
+            <v>0.34515606336066823</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="R171">
+            <v>6.5841652835281483E-3</v>
+          </cell>
+          <cell r="S171">
+            <v>1.7044904292704971E-2</v>
+          </cell>
+          <cell r="U171">
+            <v>0.14921494219897316</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="R172">
+            <v>2.1770937790127849E-2</v>
+          </cell>
+          <cell r="S172">
+            <v>1.7657678008211362E-2</v>
+          </cell>
+          <cell r="U172">
+            <v>1.5201522527960705</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="R173">
+            <v>-1.4028904120963722E-2</v>
+          </cell>
+          <cell r="S173">
+            <v>1.844199375737695E-2</v>
+          </cell>
+          <cell r="U173">
+            <v>0.57867104599317587</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="R174">
+            <v>-6.8520266222517291E-3</v>
+          </cell>
+          <cell r="S174">
+            <v>1.8984015070124632E-2</v>
+          </cell>
+          <cell r="U174">
+            <v>0.13027525844172089</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="R175">
+            <v>6.5643021283019456E-3</v>
+          </cell>
+          <cell r="S175">
+            <v>1.9416560651186562E-2</v>
+          </cell>
+          <cell r="U175">
+            <v>0.11429639059989713</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="R176">
+            <v>-3.8574833723739889E-3</v>
+          </cell>
+          <cell r="S176">
+            <v>2.0502847851135975E-2</v>
+          </cell>
+          <cell r="U176">
+            <v>3.5398083363963329E-2</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="R177">
+            <v>-3.68410812929713E-3</v>
+          </cell>
+          <cell r="S177">
+            <v>2.1142428689408906E-2</v>
+          </cell>
+          <cell r="U177">
+            <v>3.0363720690174647E-2</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="R178">
+            <v>-1.1710508748742625E-2</v>
+          </cell>
+          <cell r="S178">
+            <v>2.1976031725940863E-2</v>
+          </cell>
+          <cell r="U178">
+            <v>0.28395726137903304</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="R179">
+            <v>-1.6111014793742397E-3</v>
+          </cell>
+          <cell r="S179">
+            <v>2.2777329617136386E-2</v>
+          </cell>
+          <cell r="U179">
+            <v>5.003111475362693E-3</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="R180">
+            <v>1.4771466632292573E-2</v>
+          </cell>
+          <cell r="S180">
+            <v>2.3806993438741434E-2</v>
+          </cell>
+          <cell r="U180">
+            <v>0.38497996707612342</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="R181">
+            <v>8.8927156627950556E-3</v>
+          </cell>
+          <cell r="S181">
+            <v>2.5030328537576901E-2</v>
+          </cell>
+          <cell r="U181">
+            <v>0.12622219045645797</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="R182">
+            <v>3.9874230704888061E-3</v>
+          </cell>
+          <cell r="S182">
+            <v>2.6423514707860023E-2</v>
+          </cell>
+          <cell r="U182">
+            <v>2.2772120093756822E-2</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="R183">
+            <v>-8.7623110890781911E-3</v>
+          </cell>
+          <cell r="S183">
+            <v>2.7529308506178359E-2</v>
+          </cell>
+          <cell r="U183">
+            <v>0.10130869717294219</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="R184">
+            <v>1.4637329296378558E-2</v>
+          </cell>
+          <cell r="S184">
+            <v>2.8987029394585629E-2</v>
+          </cell>
+          <cell r="U184">
+            <v>0.25498595805355656</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="R185">
+            <v>-3.7069768941649958E-3</v>
+          </cell>
+          <cell r="S185">
+            <v>3.0718378505606096E-2</v>
+          </cell>
+          <cell r="U185">
+            <v>1.4562742936082078E-2</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="R186">
+            <v>-1.269873152410681E-3</v>
+          </cell>
+          <cell r="S186">
+            <v>3.2064707742092177E-2</v>
+          </cell>
+          <cell r="U186">
+            <v>1.568433505302973E-3</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="R187">
+            <v>-7.9408428086733575E-3</v>
+          </cell>
+          <cell r="S187">
+            <v>3.430476221747198E-2</v>
+          </cell>
+          <cell r="U187">
+            <v>5.3582672589122457E-2</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="R188">
+            <v>-1.4710713540224627E-2</v>
+          </cell>
+          <cell r="S188">
+            <v>3.6040423985645734E-2</v>
+          </cell>
+          <cell r="U188">
+            <v>0.16660487086755432</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="R189">
+            <v>-3.8998924569152238E-3</v>
+          </cell>
+          <cell r="S189">
+            <v>3.7942399730627178E-2</v>
+          </cell>
+          <cell r="U189">
+            <v>1.0564663581534649E-2</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="R190">
+            <v>-3.222335013651232E-2</v>
+          </cell>
+          <cell r="S190">
+            <v>4.1567556712637267E-2</v>
+          </cell>
+          <cell r="U190">
+            <v>0.60094176016423051</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="R191">
+            <v>-2.8048837312870945E-2</v>
+          </cell>
+          <cell r="S191">
+            <v>4.3003295253753064E-2</v>
+          </cell>
+          <cell r="U191">
+            <v>0.42542818124205961</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="R192">
+            <v>-2.8351337706645958E-2</v>
+          </cell>
+          <cell r="S192">
+            <v>4.6480215984769452E-2</v>
+          </cell>
+          <cell r="U192">
+            <v>0.37205816114344031</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="R193">
+            <v>-4.2110959267564682E-2</v>
+          </cell>
+          <cell r="S193">
+            <v>4.8400476747043952E-2</v>
+          </cell>
+          <cell r="U193">
+            <v>0.75699147760422358</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="R194">
+            <v>-3.4659712607531992E-2</v>
+          </cell>
+          <cell r="S194">
+            <v>5.1786715433664143E-2</v>
+          </cell>
+          <cell r="U194">
+            <v>0.44793312594793899</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="R195">
+            <v>-3.1508256459648956E-2</v>
+          </cell>
+          <cell r="S195">
+            <v>5.4242586434973504E-2</v>
+          </cell>
+          <cell r="U195">
+            <v>0.3374177802650426</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="R196">
+            <v>-5.1833460452901506E-2</v>
+          </cell>
+          <cell r="S196">
+            <v>6.0233860193683417E-2</v>
+          </cell>
+          <cell r="U196">
+            <v>0.74052378845776512</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="R197">
+            <v>6.3216629575675804E-3</v>
+          </cell>
+          <cell r="S197">
+            <v>6.291610618605574E-2</v>
+          </cell>
+          <cell r="U197">
+            <v>1.0095759621461864E-2</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="R198">
+            <v>-1.1919830559787733E-2</v>
+          </cell>
+          <cell r="S198">
+            <v>6.7943155358499832E-2</v>
+          </cell>
+          <cell r="U198">
+            <v>3.0778591359353479E-2</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="R199">
+            <v>-2.4295221495194856E-2</v>
+          </cell>
+          <cell r="S199">
+            <v>7.474350927519359E-2</v>
+          </cell>
+          <cell r="U199">
+            <v>0.10565614396260349</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="R200">
+            <v>-2.5082914978035668E-2</v>
+          </cell>
+          <cell r="S200">
+            <v>7.8027431464087041E-2</v>
+          </cell>
+          <cell r="U200">
+            <v>0.10333831845838888</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="R201">
+            <v>1.2833077710346004E-2</v>
+          </cell>
+          <cell r="S201">
+            <v>8.6226122711845377E-2</v>
+          </cell>
+          <cell r="U201">
+            <v>2.2150520333410337E-2</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="R202">
+            <v>-5.5109271980650534E-2</v>
+          </cell>
+          <cell r="S202">
+            <v>9.067521068905561E-2</v>
+          </cell>
+          <cell r="U202">
+            <v>0.36937899975811328</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="R203">
+            <v>-3.6451789476461198E-3</v>
+          </cell>
+          <cell r="S203">
+            <v>0.10044039219036507</v>
+          </cell>
+          <cell r="U203">
+            <v>1.3171065426709301E-3</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="R204">
+            <v>-0.11958370045414075</v>
+          </cell>
+          <cell r="S204">
+            <v>0.11340959542474854</v>
+          </cell>
+          <cell r="U204">
+            <v>1.1118453249622653</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="R205">
+            <v>0.10518720072330305</v>
+          </cell>
+          <cell r="S205">
+            <v>0.11206636293610515</v>
+          </cell>
+          <cell r="U205">
+            <v>0.88099864548185403</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="R206">
+            <v>-4.9402257020747437E-2</v>
+          </cell>
+          <cell r="S206">
+            <v>0.131448155980155</v>
+          </cell>
+          <cell r="U206">
+            <v>0.14124874105230836</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="R207">
+            <v>-0.20127952219993933</v>
+          </cell>
+          <cell r="S207">
+            <v>0.14724203476646205</v>
+          </cell>
+          <cell r="U207">
+            <v>1.8686826993807795</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="R208">
+            <v>5.7945040217783159E-3</v>
+          </cell>
+          <cell r="S208">
+            <v>0.17087153154335219</v>
+          </cell>
+          <cell r="U208">
+            <v>1.1499874824003741E-3</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="R209">
+            <v>-0.35286669858748065</v>
+          </cell>
+          <cell r="S209">
+            <v>0.18107149208503706</v>
+          </cell>
+          <cell r="U209">
+            <v>3.7977046626468511</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="R210">
+            <v>1.3980572506473667E-2</v>
+          </cell>
+          <cell r="S210">
+            <v>0.17474081133220759</v>
+          </cell>
+          <cell r="U210">
+            <v>6.4011973491871323E-3</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="R211">
+            <v>4.0586891709219752E-3</v>
+          </cell>
+          <cell r="S211">
+            <v>0.19950186722152657</v>
+          </cell>
+          <cell r="U211">
+            <v>4.138830643772527E-4</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="R212">
+            <v>-6.0601809734682988E-2</v>
+          </cell>
+          <cell r="S212">
+            <v>0.23570226039551587</v>
+          </cell>
+          <cell r="U212">
+            <v>6.6106428176136919E-2</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="R213">
+            <v>0.12116702294092691</v>
+          </cell>
+          <cell r="S213">
+            <v>0.26607604209509572</v>
+          </cell>
+          <cell r="U213">
+            <v>0.20737544520818535</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="R214">
+            <v>-0.6368495187722012</v>
+          </cell>
+          <cell r="S214">
+            <v>0.31622776601683794</v>
+          </cell>
+          <cell r="U214">
+            <v>4.0557730956038416</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="R215">
+            <v>-0.55949035306232231</v>
+          </cell>
+          <cell r="S215">
+            <v>0.38851434494290565</v>
+          </cell>
+          <cell r="U215">
+            <v>2.0738201404999388</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="R216">
+            <v>-0.10543339483609211</v>
+          </cell>
+          <cell r="S216">
+            <v>0.4923659639173309</v>
+          </cell>
+          <cell r="U216">
+            <v>4.5854328079986087E-2</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="R217">
+            <v>1.2194639529334386</v>
+          </cell>
+          <cell r="S217">
+            <v>0.63245553203367588</v>
+          </cell>
+          <cell r="U217">
+            <v>3.7177308312601185</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="R218">
+            <v>0.13019234883158204</v>
+          </cell>
+          <cell r="S218">
+            <v>0.64888568452305018</v>
+          </cell>
+          <cell r="U218">
+            <v>4.0256363273925316E-2</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="R219">
+            <v>1.1963842814522143</v>
+          </cell>
+          <cell r="S219">
+            <v>1.0690449676496976</v>
+          </cell>
+          <cell r="U219">
+            <v>1.2524184302926895</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="R220">
+            <v>-2.7271952199439133</v>
+          </cell>
+          <cell r="S220">
+            <v>0.73029674334022143</v>
+          </cell>
+          <cell r="U220">
+            <v>13.945488314409241</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="R221">
+            <v>3.6904017557389821</v>
+          </cell>
+          <cell r="S221">
+            <v>1.4142135623730949</v>
+          </cell>
+          <cell r="U221">
+            <v>6.8095325593806812</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="R222">
+            <v>-0.24829757128098384</v>
+          </cell>
+          <cell r="S222">
+            <v>1.4142135623730949</v>
+          </cell>
+          <cell r="U222">
+            <v>3.0825841952017628E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2585,10 +7105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O244"/>
+  <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="N245" sqref="N245"/>
+    <sheetView tabSelected="1" topLeftCell="M150" workbookViewId="0">
+      <selection activeCell="AH182" sqref="AH182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7606,7 +12126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
@@ -7627,7 +12147,7 @@
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>0</v>
       </c>
@@ -7664,8 +12184,23 @@
       <c r="O122" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U122" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0</v>
       </c>
@@ -7710,7 +12245,7 @@
         <v>10.42354208347904</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -7755,7 +12290,7 @@
         <v>10.684633309050598</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2</v>
       </c>
@@ -7800,7 +12335,7 @@
         <v>10.056887793739065</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>3</v>
       </c>
@@ -7845,7 +12380,7 @@
         <v>8.6695936363388117</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>4</v>
       </c>
@@ -7890,7 +12425,7 @@
         <v>6.1615314113588386</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5</v>
       </c>
@@ -7935,7 +12470,7 @@
         <v>6.5541845445414522</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>6</v>
       </c>
@@ -7980,7 +12515,7 @@
         <v>9.1606189337473971</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>7</v>
       </c>
@@ -8024,8 +12559,28 @@
         <f t="shared" si="11"/>
         <v>12.227428685918747</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q130">
+        <f>M10-M130</f>
+        <v>4.3142074504867134</v>
+      </c>
+      <c r="R130">
+        <f>Q130/M10</f>
+        <v>11.504553201297902</v>
+      </c>
+      <c r="S130">
+        <f>1/SQRT(M10)</f>
+        <v>1.6329931618554523</v>
+      </c>
+      <c r="T130">
+        <f>R130/S130</f>
+        <v>7.0450712654706455</v>
+      </c>
+      <c r="U130">
+        <f>Q130*Q130/M10</f>
+        <v>49.633029135560179</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>8</v>
       </c>
@@ -8069,8 +12624,28 @@
         <f t="shared" si="11"/>
         <v>12.433726685627423</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q131">
+        <f>M11-M131</f>
+        <v>8.2932233354658749</v>
+      </c>
+      <c r="R131">
+        <f t="shared" ref="R131:R194" si="12">Q131/M11</f>
+        <v>3.3172893341863499</v>
+      </c>
+      <c r="S131">
+        <f t="shared" ref="S131:S194" si="13">1/SQRT(M11)</f>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="T131">
+        <f t="shared" ref="T131:T194" si="14">R131/S131</f>
+        <v>5.2450949769061657</v>
+      </c>
+      <c r="U131">
+        <f t="shared" ref="U131:U194" si="15">Q131*Q131/M11</f>
+        <v>27.511021316766296</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>9</v>
       </c>
@@ -8114,8 +12689,28 @@
         <f t="shared" si="11"/>
         <v>10.789427517905311</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q132">
+        <f t="shared" ref="Q132:Q195" si="16">M12-M132</f>
+        <v>-9.5618159233126221</v>
+      </c>
+      <c r="R132">
+        <f t="shared" si="12"/>
+        <v>-0.37497317346324011</v>
+      </c>
+      <c r="S132">
+        <f t="shared" si="13"/>
+        <v>0.19802950859533489</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="14"/>
+        <v>-1.8935217085726466</v>
+      </c>
+      <c r="U132">
+        <f t="shared" si="15"/>
+        <v>3.585424460835875</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>10</v>
       </c>
@@ -8159,8 +12754,28 @@
         <f t="shared" si="11"/>
         <v>17.177280931431234</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q133">
+        <f t="shared" si="16"/>
+        <v>-6.2793955770317496</v>
+      </c>
+      <c r="R133">
+        <f t="shared" si="12"/>
+        <v>-6.148734959149816E-2</v>
+      </c>
+      <c r="S133">
+        <f t="shared" si="13"/>
+        <v>9.8954139199058683E-2</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="14"/>
+        <v>-0.62137218401555316</v>
+      </c>
+      <c r="U133">
+        <f t="shared" si="15"/>
+        <v>0.38610339106825847</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>11</v>
       </c>
@@ -8204,8 +12819,28 @@
         <f t="shared" si="11"/>
         <v>11.071788063908965</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q134">
+        <f t="shared" si="16"/>
+        <v>-2.9169907374303534</v>
+      </c>
+      <c r="R134">
+        <f t="shared" si="12"/>
+        <v>-1.3583193189431216E-2</v>
+      </c>
+      <c r="S134">
+        <f t="shared" si="13"/>
+        <v>6.8239119393494044E-2</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="14"/>
+        <v>-0.19905287920122611</v>
+      </c>
+      <c r="U134">
+        <f t="shared" si="15"/>
+        <v>3.9622048718297914E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>12</v>
       </c>
@@ -8249,8 +12884,28 @@
         <f t="shared" si="11"/>
         <v>10.787859297556146</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q135">
+        <f t="shared" si="16"/>
+        <v>15.224031927074634</v>
+      </c>
+      <c r="R135">
+        <f t="shared" si="12"/>
+        <v>4.0036901846350122E-2</v>
+      </c>
+      <c r="S135">
+        <f t="shared" si="13"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="14"/>
+        <v>0.7807195860038274</v>
+      </c>
+      <c r="U135">
+        <f t="shared" si="15"/>
+        <v>0.60952307196998767</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>13</v>
       </c>
@@ -8294,8 +12949,28 @@
         <f t="shared" si="11"/>
         <v>15.195045866839227</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q136">
+        <f t="shared" si="16"/>
+        <v>12.879101019353129</v>
+      </c>
+      <c r="R136">
+        <f t="shared" si="12"/>
+        <v>2.0651996022213879E-2</v>
+      </c>
+      <c r="S136">
+        <f t="shared" si="13"/>
+        <v>4.004407273335673E-2</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="14"/>
+        <v>0.51573165795922549</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="15"/>
+        <v>0.26597914302137154</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>14</v>
       </c>
@@ -8339,8 +13014,28 @@
         <f t="shared" si="11"/>
         <v>27.550953069044432</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q137">
+        <f t="shared" si="16"/>
+        <v>-10.475401632478906</v>
+      </c>
+      <c r="R137">
+        <f t="shared" si="12"/>
+        <v>-1.19958793386532E-2</v>
+      </c>
+      <c r="S137">
+        <f t="shared" si="13"/>
+        <v>3.3840027153248686E-2</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="14"/>
+        <v>-0.35448787568427176</v>
+      </c>
+      <c r="U137">
+        <f t="shared" si="15"/>
+        <v>0.12566165400714771</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>15</v>
       </c>
@@ -8384,8 +13079,28 @@
         <f t="shared" si="11"/>
         <v>37.883999937078528</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q138">
+        <f t="shared" si="16"/>
+        <v>33.780673898762416</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="12"/>
+        <v>2.7851735668360231E-2</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="13"/>
+        <v>2.8713886396267204E-2</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="14"/>
+        <v>0.96997443271841277</v>
+      </c>
+      <c r="U138">
+        <f t="shared" si="15"/>
+        <v>0.94085040012740673</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>16</v>
       </c>
@@ -8429,8 +13144,28 @@
         <f t="shared" si="11"/>
         <v>45.96688318476663</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q139">
+        <f t="shared" si="16"/>
+        <v>6.3689854443127842</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="12"/>
+        <v>4.1346980081556663E-3</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="13"/>
+        <v>2.5479257578373642E-2</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="14"/>
+        <v>0.16227702064855795</v>
+      </c>
+      <c r="U139">
+        <f t="shared" si="15"/>
+        <v>2.63338314305725E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>17</v>
       </c>
@@ -8474,8 +13209,28 @@
         <f t="shared" si="11"/>
         <v>40.706411214035015</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q140">
+        <f t="shared" si="16"/>
+        <v>9.8015366345712209</v>
+      </c>
+      <c r="R140">
+        <f t="shared" si="12"/>
+        <v>5.214623467218845E-3</v>
+      </c>
+      <c r="S140">
+        <f t="shared" si="13"/>
+        <v>2.3065580739059788E-2</v>
+      </c>
+      <c r="T140">
+        <f t="shared" si="14"/>
+        <v>0.22607813461155482</v>
+      </c>
+      <c r="U140">
+        <f t="shared" si="15"/>
+        <v>5.1111322949440305E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>18</v>
       </c>
@@ -8519,8 +13274,28 @@
         <f t="shared" si="11"/>
         <v>64.440201486851635</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q141">
+        <f t="shared" si="16"/>
+        <v>8.4185200780689229</v>
+      </c>
+      <c r="R141">
+        <f t="shared" si="12"/>
+        <v>3.6512963201166377E-3</v>
+      </c>
+      <c r="S141">
+        <f t="shared" si="13"/>
+        <v>2.0825990392946817E-2</v>
+      </c>
+      <c r="T141">
+        <f t="shared" si="14"/>
+        <v>0.17532401826869323</v>
+      </c>
+      <c r="U141">
+        <f t="shared" si="15"/>
+        <v>3.0738511381881089E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>19</v>
       </c>
@@ -8564,8 +13339,28 @@
         <f t="shared" si="11"/>
         <v>77.078039709871518</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q142">
+        <f t="shared" si="16"/>
+        <v>2.6752340793677831</v>
+      </c>
+      <c r="R142">
+        <f t="shared" si="12"/>
+        <v>9.9469569785007729E-4</v>
+      </c>
+      <c r="S142">
+        <f t="shared" si="13"/>
+        <v>1.9282539322832151E-2</v>
+      </c>
+      <c r="T142">
+        <f t="shared" si="14"/>
+        <v>5.1585306333189931E-2</v>
+      </c>
+      <c r="U142">
+        <f t="shared" si="15"/>
+        <v>2.6610438294890465E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>20</v>
       </c>
@@ -8609,8 +13404,28 @@
         <f t="shared" si="11"/>
         <v>63.193012173073463</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q143">
+        <f t="shared" si="16"/>
+        <v>24.247328996662418</v>
+      </c>
+      <c r="R143">
+        <f t="shared" si="12"/>
+        <v>8.0912084747351027E-3</v>
+      </c>
+      <c r="S143">
+        <f t="shared" si="13"/>
+        <v>1.8267316060998445E-2</v>
+      </c>
+      <c r="T143">
+        <f t="shared" si="14"/>
+        <v>0.44293362241704476</v>
+      </c>
+      <c r="U143">
+        <f t="shared" si="15"/>
+        <v>0.19619019386748512</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>21</v>
       </c>
@@ -8654,8 +13469,28 @@
         <f t="shared" si="11"/>
         <v>99.284422987009847</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q144">
+        <f t="shared" si="16"/>
+        <v>-45.715275794262652</v>
+      </c>
+      <c r="R144">
+        <f t="shared" si="12"/>
+        <v>-1.3487818784956711E-2</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="13"/>
+        <v>1.7176718136839322E-2</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="14"/>
+        <v>-0.78523840686592283</v>
+      </c>
+      <c r="U144">
+        <f t="shared" si="15"/>
+        <v>0.61659935561733259</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>22</v>
       </c>
@@ -8699,8 +13534,28 @@
         <f t="shared" si="11"/>
         <v>105.28608159361735</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q145">
+        <f t="shared" si="16"/>
+        <v>19.737509936098832</v>
+      </c>
+      <c r="R145">
+        <f t="shared" si="12"/>
+        <v>5.2046964034804747E-3</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="13"/>
+        <v>1.6238709775341649E-2</v>
+      </c>
+      <c r="T145">
+        <f t="shared" si="14"/>
+        <v>0.32051169554023096</v>
+      </c>
+      <c r="U145">
+        <f t="shared" si="15"/>
+        <v>0.10272774697807373</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>23</v>
       </c>
@@ -8744,8 +13599,28 @@
         <f t="shared" si="11"/>
         <v>102.34779885287602</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q146">
+        <f t="shared" si="16"/>
+        <v>-21.742539525026586</v>
+      </c>
+      <c r="R146">
+        <f t="shared" si="12"/>
+        <v>-5.2856544366176213E-3</v>
+      </c>
+      <c r="S146">
+        <f t="shared" si="13"/>
+        <v>1.5591727976114366E-2</v>
+      </c>
+      <c r="T146">
+        <f t="shared" si="14"/>
+        <v>-0.33900376178412944</v>
+      </c>
+      <c r="U146">
+        <f t="shared" si="15"/>
+        <v>0.11492355050379077</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>24</v>
       </c>
@@ -8789,8 +13664,28 @@
         <f t="shared" si="11"/>
         <v>120.23162011084302</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q147">
+        <f t="shared" si="16"/>
+        <v>3.607103943830225</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="12"/>
+        <v>8.3034073463130668E-4</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="13"/>
+        <v>1.5172209934815136E-2</v>
+      </c>
+      <c r="T147">
+        <f t="shared" si="14"/>
+        <v>5.4727738292491793E-2</v>
+      </c>
+      <c r="U147">
+        <f t="shared" si="15"/>
+        <v>2.9951253386114726E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>25</v>
       </c>
@@ -8834,8 +13729,28 @@
         <f t="shared" si="11"/>
         <v>126.35017689370075</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q148">
+        <f t="shared" si="16"/>
+        <v>7.0434984862849888</v>
+      </c>
+      <c r="R148">
+        <f t="shared" si="12"/>
+        <v>1.485382572565702E-3</v>
+      </c>
+      <c r="S148">
+        <f t="shared" si="13"/>
+        <v>1.4521950407133924E-2</v>
+      </c>
+      <c r="T148">
+        <f t="shared" si="14"/>
+        <v>0.10228533571055347</v>
+      </c>
+      <c r="U148">
+        <f t="shared" si="15"/>
+        <v>1.0462289901420625E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>26</v>
       </c>
@@ -8879,8 +13794,28 @@
         <f t="shared" si="11"/>
         <v>120.49452462859267</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q149">
+        <f t="shared" si="16"/>
+        <v>-6.4638740420314207</v>
+      </c>
+      <c r="R149">
+        <f t="shared" si="12"/>
+        <v>-1.298781673646901E-3</v>
+      </c>
+      <c r="S149">
+        <f t="shared" si="13"/>
+        <v>1.4174953192277748E-2</v>
+      </c>
+      <c r="T149">
+        <f t="shared" si="14"/>
+        <v>-9.1625111986574539E-2</v>
+      </c>
+      <c r="U149">
+        <f t="shared" si="15"/>
+        <v>8.3951611465523275E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>27</v>
       </c>
@@ -8924,8 +13859,28 @@
         <f t="shared" si="11"/>
         <v>142.9612670960926</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q150">
+        <f t="shared" si="16"/>
+        <v>-10.193053513759878</v>
+      </c>
+      <c r="R150">
+        <f t="shared" si="12"/>
+        <v>-1.9820239198405287E-3</v>
+      </c>
+      <c r="S150">
+        <f t="shared" si="13"/>
+        <v>1.3944479031314379E-2</v>
+      </c>
+      <c r="T150">
+        <f t="shared" si="14"/>
+        <v>-0.14213682098768998</v>
+      </c>
+      <c r="U150">
+        <f t="shared" si="15"/>
+        <v>2.0202875880486627E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>28</v>
       </c>
@@ -8969,8 +13924,28 @@
         <f t="shared" si="11"/>
         <v>143.6447343020605</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q151">
+        <f t="shared" si="16"/>
+        <v>3.7049828171839181</v>
+      </c>
+      <c r="R151">
+        <f t="shared" si="12"/>
+        <v>6.9397945533765729E-4</v>
+      </c>
+      <c r="S151">
+        <f t="shared" si="13"/>
+        <v>1.3686115720737697E-2</v>
+      </c>
+      <c r="T151">
+        <f t="shared" si="14"/>
+        <v>5.0706823579323865E-2</v>
+      </c>
+      <c r="U151">
+        <f t="shared" si="15"/>
+        <v>2.5711819575046746E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>29</v>
       </c>
@@ -9014,8 +13989,28 @@
         <f t="shared" si="11"/>
         <v>152.3554406553709</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q152">
+        <f t="shared" si="16"/>
+        <v>-47.595238298172262</v>
+      </c>
+      <c r="R152">
+        <f t="shared" si="12"/>
+        <v>-8.739686147436778E-3</v>
+      </c>
+      <c r="S152">
+        <f t="shared" si="13"/>
+        <v>1.3550838384546319E-2</v>
+      </c>
+      <c r="T152">
+        <f t="shared" si="14"/>
+        <v>-0.6449553820525018</v>
+      </c>
+      <c r="U152">
+        <f t="shared" si="15"/>
+        <v>0.41596744483848846</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>30</v>
       </c>
@@ -9059,8 +14054,28 @@
         <f t="shared" si="11"/>
         <v>163.22421078115983</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q153">
+        <f t="shared" si="16"/>
+        <v>-38.303087264293936</v>
+      </c>
+      <c r="R153">
+        <f t="shared" si="12"/>
+        <v>-6.8503878320259216E-3</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="13"/>
+        <v>1.337336474903855E-2</v>
+      </c>
+      <c r="T153">
+        <f t="shared" si="14"/>
+        <v>-0.512241156999656</v>
+      </c>
+      <c r="U153">
+        <f t="shared" si="15"/>
+        <v>0.26239100292434619</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>31</v>
       </c>
@@ -9104,8 +14119,28 @@
         <f t="shared" si="11"/>
         <v>181.61180528746752</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q154">
+        <f t="shared" si="16"/>
+        <v>-102.53142470120929</v>
+      </c>
+      <c r="R154">
+        <f t="shared" si="12"/>
+        <v>-1.8123097605162931E-2</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="13"/>
+        <v>1.3294980928779005E-2</v>
+      </c>
+      <c r="T154">
+        <f t="shared" si="14"/>
+        <v>-1.3631533360031178</v>
+      </c>
+      <c r="U154">
+        <f t="shared" si="15"/>
+        <v>1.8581870174564294</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>32</v>
       </c>
@@ -9149,8 +14184,28 @@
         <f t="shared" si="11"/>
         <v>165.17050946354104</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q155">
+        <f t="shared" si="16"/>
+        <v>-76.690414726730523</v>
+      </c>
+      <c r="R155">
+        <f t="shared" si="12"/>
+        <v>-1.3403314497615332E-2</v>
+      </c>
+      <c r="S155">
+        <f t="shared" si="13"/>
+        <v>1.3220124979025265E-2</v>
+      </c>
+      <c r="T155">
+        <f t="shared" si="14"/>
+        <v>-1.0138568673806572</v>
+      </c>
+      <c r="U155">
+        <f t="shared" si="15"/>
+        <v>1.0279057475349196</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>33</v>
       </c>
@@ -9194,8 +14249,28 @@
         <f t="shared" si="11"/>
         <v>181.4924118618876</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q156">
+        <f t="shared" si="16"/>
+        <v>-19.200662255278075</v>
+      </c>
+      <c r="R156">
+        <f t="shared" si="12"/>
+        <v>-3.3293299963635392E-3</v>
+      </c>
+      <c r="S156">
+        <f t="shared" si="13"/>
+        <v>1.3168015154181935E-2</v>
+      </c>
+      <c r="T156">
+        <f t="shared" si="14"/>
+        <v>-0.25283461154783082</v>
+      </c>
+      <c r="U156">
+        <f t="shared" si="15"/>
+        <v>6.3925340796542496E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>34</v>
       </c>
@@ -9239,8 +14314,28 @@
         <f t="shared" si="11"/>
         <v>173.56415022763503</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q157">
+        <f t="shared" si="16"/>
+        <v>-22.586277604097631</v>
+      </c>
+      <c r="R157">
+        <f t="shared" si="12"/>
+        <v>-3.9431350565812904E-3</v>
+      </c>
+      <c r="S157">
+        <f t="shared" si="13"/>
+        <v>1.3212910564542248E-2</v>
+      </c>
+      <c r="T157">
+        <f t="shared" si="14"/>
+        <v>-0.29843046596886563</v>
+      </c>
+      <c r="U157">
+        <f t="shared" si="15"/>
+        <v>8.9060743018394242E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>35</v>
       </c>
@@ -9284,8 +14379,28 @@
         <f t="shared" si="11"/>
         <v>176.59952588882149</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q158">
+        <f t="shared" si="16"/>
+        <v>-74.670384347435174</v>
+      </c>
+      <c r="R158">
+        <f t="shared" si="12"/>
+        <v>-1.3265596473084795E-2</v>
+      </c>
+      <c r="S158">
+        <f t="shared" si="13"/>
+        <v>1.3328743112218882E-2</v>
+      </c>
+      <c r="T158">
+        <f t="shared" si="14"/>
+        <v>-0.99526237105761317</v>
+      </c>
+      <c r="U158">
+        <f t="shared" si="15"/>
+        <v>0.9905471872432221</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>36</v>
       </c>
@@ -9329,8 +14444,28 @@
         <f t="shared" si="11"/>
         <v>186.85580114088393</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q159">
+        <f t="shared" si="16"/>
+        <v>-88.968263328067223</v>
+      </c>
+      <c r="R159">
+        <f t="shared" si="12"/>
+        <v>-1.6059253308315383E-2</v>
+      </c>
+      <c r="S159">
+        <f t="shared" si="13"/>
+        <v>1.3435230372511476E-2</v>
+      </c>
+      <c r="T159">
+        <f t="shared" si="14"/>
+        <v>-1.1953091136548477</v>
+      </c>
+      <c r="U159">
+        <f t="shared" si="15"/>
+        <v>1.4287638771863378</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>37</v>
       </c>
@@ -9374,8 +14509,28 @@
         <f t="shared" si="11"/>
         <v>200.58974710724692</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q160">
+        <f t="shared" si="16"/>
+        <v>-28.651956498619256</v>
+      </c>
+      <c r="R160">
+        <f t="shared" si="12"/>
+        <v>-5.2211943233401075E-3</v>
+      </c>
+      <c r="S160">
+        <f t="shared" si="13"/>
+        <v>1.3499192392788215E-2</v>
+      </c>
+      <c r="T160">
+        <f t="shared" si="14"/>
+        <v>-0.38677827320465996</v>
+      </c>
+      <c r="U160">
+        <f t="shared" si="15"/>
+        <v>0.14959743262317854</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>38</v>
       </c>
@@ -9419,8 +14574,28 @@
         <f t="shared" si="11"/>
         <v>182.65288748181274</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q161">
+        <f t="shared" si="16"/>
+        <v>-103.08118565379846</v>
+      </c>
+      <c r="R161">
+        <f t="shared" si="12"/>
+        <v>-1.9528037254739342E-2</v>
+      </c>
+      <c r="S161">
+        <f t="shared" si="13"/>
+        <v>1.3763839347353903E-2</v>
+      </c>
+      <c r="T161">
+        <f t="shared" si="14"/>
+        <v>-1.4187928790736435</v>
+      </c>
+      <c r="U161">
+        <f t="shared" si="15"/>
+        <v>2.012973233710079</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>39</v>
       </c>
@@ -9464,8 +14639,28 @@
         <f t="shared" si="11"/>
         <v>192.07242898365612</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q162">
+        <f t="shared" si="16"/>
+        <v>1.374294906864634</v>
+      </c>
+      <c r="R162">
+        <f t="shared" si="12"/>
+        <v>2.6351467463010093E-4</v>
+      </c>
+      <c r="S162">
+        <f t="shared" si="13"/>
+        <v>1.3847214960382929E-2</v>
+      </c>
+      <c r="T162">
+        <f t="shared" si="14"/>
+        <v>1.9030156994314019E-2</v>
+      </c>
+      <c r="U162">
+        <f t="shared" si="15"/>
+        <v>3.6214687522823888E-4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>40</v>
       </c>
@@ -9509,8 +14704,28 @@
         <f t="shared" si="11"/>
         <v>193.76446197873014</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q163">
+        <f t="shared" si="16"/>
+        <v>-78.767599344247174</v>
+      </c>
+      <c r="R163">
+        <f t="shared" si="12"/>
+        <v>-1.5845024887575183E-2</v>
+      </c>
+      <c r="S163">
+        <f t="shared" si="13"/>
+        <v>1.4183148764245436E-2</v>
+      </c>
+      <c r="T163">
+        <f t="shared" si="14"/>
+        <v>-1.1171725793019391</v>
+      </c>
+      <c r="U163">
+        <f t="shared" si="15"/>
+        <v>1.2480745719441468</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>41</v>
       </c>
@@ -9554,8 +14769,28 @@
         <f t="shared" si="11"/>
         <v>190.18073815183379</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q164">
+        <f t="shared" si="16"/>
+        <v>-39.384422697112313</v>
+      </c>
+      <c r="R164">
+        <f t="shared" si="12"/>
+        <v>-8.0805134790956738E-3</v>
+      </c>
+      <c r="S164">
+        <f t="shared" si="13"/>
+        <v>1.432376666040793E-2</v>
+      </c>
+      <c r="T164">
+        <f t="shared" si="14"/>
+        <v>-0.5641332807683106</v>
+      </c>
+      <c r="U164">
+        <f t="shared" si="15"/>
+        <v>0.31824635847041766</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>42</v>
       </c>
@@ -9599,8 +14834,28 @@
         <f t="shared" si="11"/>
         <v>178.69989803030001</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q165">
+        <f t="shared" si="16"/>
+        <v>-15.624424152061692</v>
+      </c>
+      <c r="R165">
+        <f t="shared" si="12"/>
+        <v>-3.381909989623743E-3</v>
+      </c>
+      <c r="S165">
+        <f t="shared" si="13"/>
+        <v>1.4712247158412491E-2</v>
+      </c>
+      <c r="T165">
+        <f t="shared" si="14"/>
+        <v>-0.22987038983300118</v>
+      </c>
+      <c r="U165">
+        <f t="shared" si="15"/>
+        <v>5.284039612197592E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>43</v>
       </c>
@@ -9644,8 +14899,28 @@
         <f t="shared" si="11"/>
         <v>186.99604167683722</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q166">
+        <f t="shared" si="16"/>
+        <v>-91.88628849572342</v>
+      </c>
+      <c r="R166">
+        <f t="shared" si="12"/>
+        <v>-2.0796398788179685E-2</v>
+      </c>
+      <c r="S166">
+        <f t="shared" si="13"/>
+        <v>1.504418666962188E-2</v>
+      </c>
+      <c r="T166">
+        <f t="shared" si="14"/>
+        <v>-1.3823544765083922</v>
+      </c>
+      <c r="U166">
+        <f t="shared" si="15"/>
+        <v>1.9109038987227913</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>44</v>
       </c>
@@ -9689,8 +14964,28 @@
         <f t="shared" si="11"/>
         <v>186.17775090926628</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q167">
+        <f t="shared" si="16"/>
+        <v>-94.050310445944888</v>
+      </c>
+      <c r="R167">
+        <f t="shared" si="12"/>
+        <v>-2.2171218869859708E-2</v>
+      </c>
+      <c r="S167">
+        <f t="shared" si="13"/>
+        <v>1.5353757178626857E-2</v>
+      </c>
+      <c r="T167">
+        <f t="shared" si="14"/>
+        <v>-1.4440256291615106</v>
+      </c>
+      <c r="U167">
+        <f t="shared" si="15"/>
+        <v>2.0852100176752972</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>45</v>
       </c>
@@ -9734,8 +15029,28 @@
         <f t="shared" si="11"/>
         <v>180.57369727857295</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q168">
+        <f t="shared" si="16"/>
+        <v>-31.091321178706494</v>
+      </c>
+      <c r="R168">
+        <f t="shared" si="12"/>
+        <v>-7.679002483086411E-3</v>
+      </c>
+      <c r="S168">
+        <f t="shared" si="13"/>
+        <v>1.5715666909482562E-2</v>
+      </c>
+      <c r="T168">
+        <f t="shared" si="14"/>
+        <v>-0.48862084742029199</v>
+      </c>
+      <c r="U168">
+        <f t="shared" si="15"/>
+        <v>0.2387503325337243</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>46</v>
       </c>
@@ -9779,8 +15094,28 @@
         <f t="shared" si="11"/>
         <v>158.84765021655369</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q169">
+        <f t="shared" si="16"/>
+        <v>-22.849774809549672</v>
+      </c>
+      <c r="R169">
+        <f t="shared" si="12"/>
+        <v>-5.9623013952313309E-3</v>
+      </c>
+      <c r="S169">
+        <f t="shared" si="13"/>
+        <v>1.6153476372506338E-2</v>
+      </c>
+      <c r="T169">
+        <f t="shared" si="14"/>
+        <v>-0.36910329750315124</v>
+      </c>
+      <c r="U169">
+        <f t="shared" si="15"/>
+        <v>0.13623724422769973</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>47</v>
       </c>
@@ -9824,8 +15159,28 @@
         <f t="shared" si="11"/>
         <v>173.17085304109003</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q170">
+        <f t="shared" si="16"/>
+        <v>-15.851207328953933</v>
+      </c>
+      <c r="R170">
+        <f t="shared" si="12"/>
+        <v>-4.3868149109776685E-3</v>
+      </c>
+      <c r="S170">
+        <f t="shared" si="13"/>
+        <v>1.6635792022840736E-2</v>
+      </c>
+      <c r="T170">
+        <f t="shared" si="14"/>
+        <v>-0.26369738843540635</v>
+      </c>
+      <c r="U170">
+        <f t="shared" si="15"/>
+        <v>6.9536312667653616E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>48</v>
       </c>
@@ -9869,8 +15224,28 @@
         <f t="shared" si="11"/>
         <v>141.03199676403278</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q171">
+        <f t="shared" si="16"/>
+        <v>-25.634674809869011</v>
+      </c>
+      <c r="R171">
+        <f t="shared" si="12"/>
+        <v>-7.4476103456911713E-3</v>
+      </c>
+      <c r="S171">
+        <f t="shared" si="13"/>
+        <v>1.7044904292704971E-2</v>
+      </c>
+      <c r="T171">
+        <f t="shared" si="14"/>
+        <v>-0.43694057870883241</v>
+      </c>
+      <c r="U171">
+        <f t="shared" si="15"/>
+        <v>0.19091706932240932</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>49</v>
       </c>
@@ -9914,8 +15289,28 @@
         <f t="shared" si="11"/>
         <v>177.9883063034527</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q172">
+        <f t="shared" si="16"/>
+        <v>48.529026644775513</v>
+      </c>
+      <c r="R172">
+        <f t="shared" si="12"/>
+        <v>1.5131039564977945E-2</v>
+      </c>
+      <c r="S172">
+        <f t="shared" si="13"/>
+        <v>1.7657678008211362E-2</v>
+      </c>
+      <c r="T172">
+        <f t="shared" si="14"/>
+        <v>0.85690992654535592</v>
+      </c>
+      <c r="U172">
+        <f t="shared" si="15"/>
+        <v>0.73429462221196717</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>50</v>
       </c>
@@ -9959,8 +15354,28 @@
         <f t="shared" si="11"/>
         <v>146.5249238794465</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q173">
+        <f t="shared" si="16"/>
+        <v>-45.228289295448576</v>
+      </c>
+      <c r="R173">
+        <f t="shared" si="12"/>
+        <v>-1.5382463836561033E-2</v>
+      </c>
+      <c r="S173">
+        <f t="shared" si="13"/>
+        <v>1.844199375737695E-2</v>
+      </c>
+      <c r="T173">
+        <f t="shared" si="14"/>
+        <v>-0.83409982884350131</v>
+      </c>
+      <c r="U173">
+        <f t="shared" si="15"/>
+        <v>0.6957225244767582</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>51</v>
       </c>
@@ -10004,8 +15419,28 @@
         <f t="shared" si="11"/>
         <v>148.26623069913884</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q174">
+        <f t="shared" si="16"/>
+        <v>-16.241867364378322</v>
+      </c>
+      <c r="R174">
+        <f t="shared" si="12"/>
+        <v>-5.8534525144169104E-3</v>
+      </c>
+      <c r="S174">
+        <f t="shared" si="13"/>
+        <v>1.8984015070124632E-2</v>
+      </c>
+      <c r="T174">
+        <f t="shared" si="14"/>
+        <v>-0.30833585481232351</v>
+      </c>
+      <c r="U174">
+        <f t="shared" si="15"/>
+        <v>9.5070999362846256E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>52</v>
       </c>
@@ -10049,8 +15484,28 @@
         <f t="shared" si="11"/>
         <v>145.87011591981155</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q175">
+        <f t="shared" si="16"/>
+        <v>29.697509963302764</v>
+      </c>
+      <c r="R175">
+        <f t="shared" si="12"/>
+        <v>1.1196045226504341E-2</v>
+      </c>
+      <c r="S175">
+        <f t="shared" si="13"/>
+        <v>1.9416560651186562E-2</v>
+      </c>
+      <c r="T175">
+        <f t="shared" si="14"/>
+        <v>0.57662350339168544</v>
+      </c>
+      <c r="U175">
+        <f t="shared" si="15"/>
+        <v>0.33249466466370098</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>53</v>
       </c>
@@ -10094,8 +15549,28 @@
         <f t="shared" si="11"/>
         <v>133.22581054046248</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q176">
+        <f t="shared" si="16"/>
+        <v>11.580686094017437</v>
+      </c>
+      <c r="R176">
+        <f t="shared" si="12"/>
+        <v>4.8681356078051335E-3</v>
+      </c>
+      <c r="S176">
+        <f t="shared" si="13"/>
+        <v>2.0502847851135975E-2</v>
+      </c>
+      <c r="T176">
+        <f t="shared" si="14"/>
+        <v>0.23743704499740562</v>
+      </c>
+      <c r="U176">
+        <f t="shared" si="15"/>
+        <v>5.6376350337100041E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>54</v>
       </c>
@@ -10139,8 +15614,28 @@
         <f t="shared" si="11"/>
         <v>130.92363419639693</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q177">
+        <f t="shared" si="16"/>
+        <v>15.621781238592575</v>
+      </c>
+      <c r="R177">
+        <f t="shared" si="12"/>
+        <v>6.9829720013823886E-3</v>
+      </c>
+      <c r="S177">
+        <f t="shared" si="13"/>
+        <v>2.1142428689408906E-2</v>
+      </c>
+      <c r="T177">
+        <f t="shared" si="14"/>
+        <v>0.33028239583848945</v>
+      </c>
+      <c r="U177">
+        <f t="shared" si="15"/>
+        <v>0.10908646100081264</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>55</v>
       </c>
@@ -10184,8 +15679,28 @@
         <f t="shared" si="11"/>
         <v>119.92533689513934</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q178">
+        <f t="shared" si="16"/>
+        <v>-13.462991464936295</v>
+      </c>
+      <c r="R178">
+        <f t="shared" si="12"/>
+        <v>-6.5018974777839031E-3</v>
+      </c>
+      <c r="S178">
+        <f t="shared" si="13"/>
+        <v>2.1976031725940863E-2</v>
+      </c>
+      <c r="T178">
+        <f t="shared" si="14"/>
+        <v>-0.29586312755951105</v>
+      </c>
+      <c r="U178">
+        <f t="shared" si="15"/>
+        <v>8.7534990249295508E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>56</v>
       </c>
@@ -10229,8 +15744,28 @@
         <f t="shared" si="11"/>
         <v>119.08327098625055</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q179">
+        <f t="shared" si="16"/>
+        <v>27.871238863566077</v>
+      </c>
+      <c r="R179">
+        <f t="shared" si="12"/>
+        <v>1.4459786699645176E-2</v>
+      </c>
+      <c r="S179">
+        <f t="shared" si="13"/>
+        <v>2.2777329617136386E-2</v>
+      </c>
+      <c r="T179">
+        <f t="shared" si="14"/>
+        <v>0.63483239443338624</v>
+      </c>
+      <c r="U179">
+        <f t="shared" si="15"/>
+        <v>0.40301216902202652</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>57</v>
       </c>
@@ -10274,8 +15809,28 @@
         <f t="shared" si="11"/>
         <v>99.623995279918006</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q180">
+        <f t="shared" si="16"/>
+        <v>59.699781917506016</v>
+      </c>
+      <c r="R180">
+        <f t="shared" si="12"/>
+        <v>3.3836220711303447E-2</v>
+      </c>
+      <c r="S180">
+        <f t="shared" si="13"/>
+        <v>2.3806993438741434E-2</v>
+      </c>
+      <c r="T180">
+        <f t="shared" si="14"/>
+        <v>1.4212723164043604</v>
+      </c>
+      <c r="U180">
+        <f t="shared" si="15"/>
+        <v>2.020014997377416</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>58</v>
       </c>
@@ -10319,8 +15874,28 @@
         <f t="shared" si="11"/>
         <v>102.92504283867592</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q181">
+        <f t="shared" si="16"/>
+        <v>44.785595108528696</v>
+      </c>
+      <c r="R181">
+        <f t="shared" si="12"/>
+        <v>2.8058952217732757E-2</v>
+      </c>
+      <c r="S181">
+        <f t="shared" si="13"/>
+        <v>2.5030328537576901E-2</v>
+      </c>
+      <c r="T181">
+        <f t="shared" si="14"/>
+        <v>1.1209981593173706</v>
+      </c>
+      <c r="U181">
+        <f t="shared" si="15"/>
+        <v>1.2566368731929325</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>59</v>
       </c>
@@ -10364,8 +15939,28 @@
         <f t="shared" si="11"/>
         <v>99.344184520512727</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q182">
+        <f t="shared" si="16"/>
+        <v>39.972651921917304</v>
+      </c>
+      <c r="R182">
+        <f t="shared" si="12"/>
+        <v>2.7908990694304279E-2</v>
+      </c>
+      <c r="S182">
+        <f t="shared" si="13"/>
+        <v>2.6423514707860023E-2</v>
+      </c>
+      <c r="T182">
+        <f t="shared" si="14"/>
+        <v>1.0562179559709512</v>
+      </c>
+      <c r="U182">
+        <f t="shared" si="15"/>
+        <v>1.1155963705154541</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>60</v>
       </c>
@@ -10409,8 +16004,28 @@
         <f t="shared" si="11"/>
         <v>94.928296348390404</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q183">
+        <f t="shared" si="16"/>
+        <v>26.360333282853844</v>
+      </c>
+      <c r="R183">
+        <f t="shared" si="12"/>
+        <v>1.9977516697880896E-2</v>
+      </c>
+      <c r="S183">
+        <f t="shared" si="13"/>
+        <v>2.7529308506178359E-2</v>
+      </c>
+      <c r="T183">
+        <f t="shared" si="14"/>
+        <v>0.72568174726936474</v>
+      </c>
+      <c r="U183">
+        <f t="shared" si="15"/>
+        <v>0.52661399831991829</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>61</v>
       </c>
@@ -10454,8 +16069,28 @@
         <f t="shared" si="11"/>
         <v>78.516866322898792</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q184">
+        <f t="shared" si="16"/>
+        <v>43.823060014637804</v>
+      </c>
+      <c r="R184">
+        <f t="shared" si="12"/>
+        <v>3.6822232971022203E-2</v>
+      </c>
+      <c r="S184">
+        <f t="shared" si="13"/>
+        <v>2.8987029394585629E-2</v>
+      </c>
+      <c r="T184">
+        <f t="shared" si="14"/>
+        <v>1.2703003288049959</v>
+      </c>
+      <c r="U184">
+        <f t="shared" si="15"/>
+        <v>1.6136629253620809</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>62</v>
       </c>
@@ -10499,8 +16134,28 @@
         <f t="shared" si="11"/>
         <v>83.89550541654053</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q185">
+        <f t="shared" si="16"/>
+        <v>26.933928515070647</v>
+      </c>
+      <c r="R185">
+        <f t="shared" si="12"/>
+        <v>2.5415360712498843E-2</v>
+      </c>
+      <c r="S185">
+        <f t="shared" si="13"/>
+        <v>3.0718378505606096E-2</v>
+      </c>
+      <c r="T185">
+        <f t="shared" si="14"/>
+        <v>0.82736661076887719</v>
+      </c>
+      <c r="U185">
+        <f t="shared" si="15"/>
+        <v>0.68453550861517876</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>63</v>
       </c>
@@ -10544,8 +16199,28 @@
         <f t="shared" si="11"/>
         <v>87.415729403054229</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q186">
+        <f t="shared" si="16"/>
+        <v>34.137039302393873</v>
+      </c>
+      <c r="R186">
+        <f t="shared" si="12"/>
+        <v>3.5097842747609687E-2</v>
+      </c>
+      <c r="S186">
+        <f t="shared" si="13"/>
+        <v>3.2064707742092177E-2</v>
+      </c>
+      <c r="T186">
+        <f t="shared" si="14"/>
+        <v>1.0945941884115735</v>
+      </c>
+      <c r="U186">
+        <f t="shared" si="15"/>
+        <v>1.1981364373043917</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>64</v>
       </c>
@@ -10589,8 +16264,28 @@
         <f t="shared" si="11"/>
         <v>75.409530587060644</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q187">
+        <f t="shared" si="16"/>
+        <v>28.101970109042554</v>
+      </c>
+      <c r="R187">
+        <f t="shared" si="12"/>
+        <v>3.3070868030647314E-2</v>
+      </c>
+      <c r="S187">
+        <f t="shared" si="13"/>
+        <v>3.430476221747198E-2</v>
+      </c>
+      <c r="T187">
+        <f t="shared" si="14"/>
+        <v>0.96403140243321017</v>
+      </c>
+      <c r="U187">
+        <f t="shared" si="15"/>
+        <v>0.92935654487734176</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>65</v>
       </c>
@@ -10619,23 +16314,43 @@
         <v>720.37803126312701</v>
       </c>
       <c r="L188" s="1">
-        <f t="shared" ref="L188:L232" si="12">SUM(B188:K188)</f>
+        <f t="shared" ref="L188:L232" si="17">SUM(B188:K188)</f>
         <v>6097.542761381711</v>
       </c>
       <c r="M188" s="1">
-        <f t="shared" ref="M188:M232" si="13">AVERAGE(B188:K188)</f>
+        <f t="shared" ref="M188:M232" si="18">AVERAGE(B188:K188)</f>
         <v>762.19284517271387</v>
       </c>
       <c r="N188" s="1">
-        <f t="shared" ref="N188:N232" si="14">STDEV(B188:K188)</f>
+        <f t="shared" ref="N188:N232" si="19">STDEV(B188:K188)</f>
         <v>126.56878091796456</v>
       </c>
       <c r="O188">
-        <f t="shared" ref="O188:O232" si="15">N188/SQRT(3)</f>
+        <f t="shared" ref="O188:O232" si="20">N188/SQRT(3)</f>
         <v>73.074519733989618</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q188">
+        <f t="shared" si="16"/>
+        <v>7.6821548272861264</v>
+      </c>
+      <c r="R188">
+        <f t="shared" si="12"/>
+        <v>9.9784443283469741E-3</v>
+      </c>
+      <c r="S188">
+        <f t="shared" si="13"/>
+        <v>3.6040423985645734E-2</v>
+      </c>
+      <c r="T188">
+        <f t="shared" si="14"/>
+        <v>0.27686811709876702</v>
+      </c>
+      <c r="U188">
+        <f t="shared" si="15"/>
+        <v>7.6655954265816575E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>66</v>
       </c>
@@ -10664,23 +16379,43 @@
         <v>630.47682815045096</v>
       </c>
       <c r="L189" s="1">
+        <f t="shared" si="17"/>
+        <v>5325.1775283813413</v>
+      </c>
+      <c r="M189" s="1">
+        <f t="shared" si="18"/>
+        <v>665.64719104766766</v>
+      </c>
+      <c r="N189" s="1">
+        <f t="shared" si="19"/>
+        <v>103.63244878033906</v>
+      </c>
+      <c r="O189">
+        <f t="shared" si="20"/>
+        <v>59.832222200108866</v>
+      </c>
+      <c r="Q189">
+        <f t="shared" si="16"/>
+        <v>28.977808952332339</v>
+      </c>
+      <c r="R189">
         <f t="shared" si="12"/>
-        <v>5325.1775283813413</v>
-      </c>
-      <c r="M189" s="1">
+        <v>4.1717198419769425E-2</v>
+      </c>
+      <c r="S189">
         <f t="shared" si="13"/>
-        <v>665.64719104766766</v>
-      </c>
-      <c r="N189" s="1">
+        <v>3.7942399730627178E-2</v>
+      </c>
+      <c r="T189">
         <f t="shared" si="14"/>
-        <v>103.63244878033906</v>
-      </c>
-      <c r="O189">
+        <v>1.0994876105871401</v>
+      </c>
+      <c r="U189">
         <f t="shared" si="15"/>
-        <v>59.832222200108866</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1.2088730058346191</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>67</v>
       </c>
@@ -10709,23 +16444,43 @@
         <v>564.18701916560497</v>
       </c>
       <c r="L190" s="1">
+        <f t="shared" si="17"/>
+        <v>4528.8752147410869</v>
+      </c>
+      <c r="M190" s="1">
+        <f t="shared" si="18"/>
+        <v>566.10940184263586</v>
+      </c>
+      <c r="N190" s="1">
+        <f t="shared" si="19"/>
+        <v>95.165827244180917</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="20"/>
+        <v>54.944015977081278</v>
+      </c>
+      <c r="Q190">
+        <f t="shared" si="16"/>
+        <v>12.640598157364138</v>
+      </c>
+      <c r="R190">
         <f t="shared" si="12"/>
-        <v>4528.8752147410869</v>
-      </c>
-      <c r="M190" s="1">
+        <v>2.1841206319419677E-2</v>
+      </c>
+      <c r="S190">
         <f t="shared" si="13"/>
-        <v>566.10940184263586</v>
-      </c>
-      <c r="N190" s="1">
+        <v>4.1567556712637267E-2</v>
+      </c>
+      <c r="T190">
         <f t="shared" si="14"/>
-        <v>95.165827244180917</v>
-      </c>
-      <c r="O190">
+        <v>0.52543878078789186</v>
+      </c>
+      <c r="U190">
         <f t="shared" si="15"/>
-        <v>54.944015977081278</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.27608591235586633</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>68</v>
       </c>
@@ -10754,23 +16509,43 @@
         <v>505.98251850157902</v>
       </c>
       <c r="L191" s="1">
+        <f t="shared" si="17"/>
+        <v>4176.2824944946879</v>
+      </c>
+      <c r="M191" s="1">
+        <f t="shared" si="18"/>
+        <v>522.03531181183598</v>
+      </c>
+      <c r="N191" s="1">
+        <f t="shared" si="19"/>
+        <v>84.863906268916168</v>
+      </c>
+      <c r="O191">
+        <f t="shared" si="20"/>
+        <v>48.996199128841923</v>
+      </c>
+      <c r="Q191">
+        <f t="shared" si="16"/>
+        <v>18.714688188164018</v>
+      </c>
+      <c r="R191">
         <f t="shared" si="12"/>
-        <v>4176.2824944946879</v>
-      </c>
-      <c r="M191" s="1">
+        <v>3.4608762252730497E-2</v>
+      </c>
+      <c r="S191">
         <f t="shared" si="13"/>
-        <v>522.03531181183598</v>
-      </c>
-      <c r="N191" s="1">
+        <v>4.3003295253753064E-2</v>
+      </c>
+      <c r="T191">
         <f t="shared" si="14"/>
-        <v>84.863906268916168</v>
-      </c>
-      <c r="O191">
+        <v>0.80479326173754229</v>
+      </c>
+      <c r="U191">
         <f t="shared" si="15"/>
-        <v>48.996199128841923</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.64769219413815227</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>69</v>
       </c>
@@ -10799,23 +16574,43 @@
         <v>465.87965810298903</v>
       </c>
       <c r="L192" s="1">
+        <f t="shared" si="17"/>
+        <v>3550.4023149795794</v>
+      </c>
+      <c r="M192" s="1">
+        <f t="shared" si="18"/>
+        <v>443.80028937244742</v>
+      </c>
+      <c r="N192" s="1">
+        <f t="shared" si="19"/>
+        <v>81.611555679799324</v>
+      </c>
+      <c r="O192">
+        <f t="shared" si="20"/>
+        <v>47.118453640716275</v>
+      </c>
+      <c r="Q192">
+        <f t="shared" si="16"/>
+        <v>19.074710627552577</v>
+      </c>
+      <c r="R192">
         <f t="shared" si="12"/>
-        <v>3550.4023149795794</v>
-      </c>
-      <c r="M192" s="1">
+        <v>4.12092047044074E-2</v>
+      </c>
+      <c r="S192">
         <f t="shared" si="13"/>
-        <v>443.80028937244742</v>
-      </c>
-      <c r="N192" s="1">
+        <v>4.6480215984769452E-2</v>
+      </c>
+      <c r="T192">
         <f t="shared" si="14"/>
-        <v>81.611555679799324</v>
-      </c>
-      <c r="O192">
+        <v>0.88659666981562124</v>
+      </c>
+      <c r="U192">
         <f t="shared" si="15"/>
-        <v>47.118453640716275</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.7860536549281496</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>70</v>
       </c>
@@ -10844,23 +16639,43 @@
         <v>401.28703208267598</v>
       </c>
       <c r="L193" s="1">
+        <f t="shared" si="17"/>
+        <v>3423.2333299989614</v>
+      </c>
+      <c r="M193" s="1">
+        <f t="shared" si="18"/>
+        <v>427.90416624987017</v>
+      </c>
+      <c r="N193" s="1">
+        <f t="shared" si="19"/>
+        <v>87.224648937924485</v>
+      </c>
+      <c r="O193">
+        <f t="shared" si="20"/>
+        <v>50.359174544281309</v>
+      </c>
+      <c r="Q193">
+        <f t="shared" si="16"/>
+        <v>-1.0291662498701726</v>
+      </c>
+      <c r="R193">
         <f t="shared" si="12"/>
-        <v>3423.2333299989614</v>
-      </c>
-      <c r="M193" s="1">
+        <v>-2.4109311856402287E-3</v>
+      </c>
+      <c r="S193">
         <f t="shared" si="13"/>
-        <v>427.90416624987017</v>
-      </c>
-      <c r="N193" s="1">
+        <v>4.8400476747043952E-2</v>
+      </c>
+      <c r="T193">
         <f t="shared" si="14"/>
-        <v>87.224648937924485</v>
-      </c>
-      <c r="O193">
+        <v>-4.9812137145683708E-2</v>
+      </c>
+      <c r="U193">
         <f t="shared" si="15"/>
-        <v>50.359174544281309</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2.481249007020403E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>71</v>
       </c>
@@ -10889,23 +16704,43 @@
         <v>358.33520548045601</v>
       </c>
       <c r="L194" s="1">
+        <f t="shared" si="17"/>
+        <v>2960.1366727240352</v>
+      </c>
+      <c r="M194" s="1">
+        <f t="shared" si="18"/>
+        <v>370.0170840905044</v>
+      </c>
+      <c r="N194" s="1">
+        <f t="shared" si="19"/>
+        <v>76.783508451619127</v>
+      </c>
+      <c r="O194">
+        <f t="shared" si="20"/>
+        <v>44.330979273866213</v>
+      </c>
+      <c r="Q194">
+        <f t="shared" si="16"/>
+        <v>2.8579159094956026</v>
+      </c>
+      <c r="R194">
         <f t="shared" si="12"/>
-        <v>2960.1366727240352</v>
-      </c>
-      <c r="M194" s="1">
+        <v>7.6645414937863967E-3</v>
+      </c>
+      <c r="S194">
         <f t="shared" si="13"/>
-        <v>370.0170840905044</v>
-      </c>
-      <c r="N194" s="1">
+        <v>5.1786715433664143E-2</v>
+      </c>
+      <c r="T194">
         <f t="shared" si="14"/>
-        <v>76.783508451619127</v>
-      </c>
-      <c r="O194">
+        <v>0.14800207793839024</v>
+      </c>
+      <c r="U194">
         <f t="shared" si="15"/>
-        <v>44.330979273866213</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2.1904615074081334E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>72</v>
       </c>
@@ -10934,23 +16769,43 @@
         <v>305.59199909120002</v>
       </c>
       <c r="L195" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2708.619616307773</v>
       </c>
       <c r="M195" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>338.57745203847162</v>
       </c>
       <c r="N195" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>67.185362434201167</v>
       </c>
       <c r="O195">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>38.789487086988615</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q195">
+        <f t="shared" si="16"/>
+        <v>1.2975479615283803</v>
+      </c>
+      <c r="R195">
+        <f t="shared" ref="R195:R222" si="21">Q195/M75</f>
+        <v>3.817721107843708E-3</v>
+      </c>
+      <c r="S195">
+        <f t="shared" ref="S195:S222" si="22">1/SQRT(M75)</f>
+        <v>5.4242586434973504E-2</v>
+      </c>
+      <c r="T195">
+        <f t="shared" ref="T195:T222" si="23">R195/S195</f>
+        <v>7.0382357456726843E-2</v>
+      </c>
+      <c r="U195">
+        <f t="shared" ref="U195:U222" si="24">Q195*Q195/M75</f>
+        <v>4.9536762411664728E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>73</v>
       </c>
@@ -10979,23 +16834,43 @@
         <v>269.87582623958502</v>
       </c>
       <c r="L196" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2200.964628150683</v>
       </c>
       <c r="M196" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>275.12057851883537</v>
       </c>
       <c r="N196" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>53.989834539966907</v>
       </c>
       <c r="O196">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>31.171045505153252</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q196">
+        <f t="shared" ref="Q196:Q232" si="25">M76-M196</f>
+        <v>0.50442148116462704</v>
+      </c>
+      <c r="R196">
+        <f t="shared" si="21"/>
+        <v>1.8301006119351548E-3</v>
+      </c>
+      <c r="S196">
+        <f t="shared" si="22"/>
+        <v>6.0233860193683417E-2</v>
+      </c>
+      <c r="T196">
+        <f t="shared" si="23"/>
+        <v>3.0383252975160858E-2</v>
+      </c>
+      <c r="U196">
+        <f t="shared" si="24"/>
+        <v>9.2314206135262118E-4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>74</v>
       </c>
@@ -11024,23 +16899,43 @@
         <v>258.55856408178801</v>
       </c>
       <c r="L197" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1907.8276772098582</v>
       </c>
       <c r="M197" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>238.47845965123227</v>
       </c>
       <c r="N197" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>59.296875372609662</v>
       </c>
       <c r="O197">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>34.235066958479884</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q197">
+        <f t="shared" si="25"/>
+        <v>14.146540348767729</v>
+      </c>
+      <c r="R197">
+        <f t="shared" si="21"/>
+        <v>5.5998180499822775E-2</v>
+      </c>
+      <c r="S197">
+        <f t="shared" si="22"/>
+        <v>6.291610618605574E-2</v>
+      </c>
+      <c r="T197">
+        <f t="shared" si="23"/>
+        <v>0.89004523474839259</v>
+      </c>
+      <c r="U197">
+        <f t="shared" si="24"/>
+        <v>0.79218051989832117</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>75</v>
       </c>
@@ -11069,23 +16964,43 @@
         <v>193.70429855584999</v>
       </c>
       <c r="L198" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1736.223778141657</v>
       </c>
       <c r="M198" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>217.02797226770713</v>
       </c>
       <c r="N198" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>55.816785745098173</v>
       </c>
       <c r="O198">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>32.225836275232098</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q198">
+        <f t="shared" si="25"/>
+        <v>-0.40297226770712768</v>
+      </c>
+      <c r="R198">
+        <f t="shared" si="21"/>
+        <v>-1.8602297412908377E-3</v>
+      </c>
+      <c r="S198">
+        <f t="shared" si="22"/>
+        <v>6.7943155358499832E-2</v>
+      </c>
+      <c r="T198">
+        <f t="shared" si="23"/>
+        <v>-2.737920738999236E-2</v>
+      </c>
+      <c r="U198">
+        <f t="shared" si="24"/>
+        <v>7.4962099730421219E-4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>76</v>
       </c>
@@ -11114,23 +17029,43 @@
         <v>179.15716037154101</v>
       </c>
       <c r="L199" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1561.8766918880831</v>
       </c>
       <c r="M199" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>195.23458648601039</v>
       </c>
       <c r="N199" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>42.040545806231385</v>
       </c>
       <c r="O199">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>24.272120438106484</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q199">
+        <f t="shared" si="25"/>
+        <v>-16.234586486010386</v>
+      </c>
+      <c r="R199">
+        <f t="shared" si="21"/>
+        <v>-9.0696013888326182E-2</v>
+      </c>
+      <c r="S199">
+        <f t="shared" si="22"/>
+        <v>7.474350927519359E-2</v>
+      </c>
+      <c r="T199">
+        <f t="shared" si="23"/>
+        <v>-1.2134299655960497</v>
+      </c>
+      <c r="U199">
+        <f t="shared" si="24"/>
+        <v>1.4724122814064302</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>77</v>
       </c>
@@ -11159,23 +17094,43 @@
         <v>136.856427527964</v>
       </c>
       <c r="L200" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1356.549425959583</v>
       </c>
       <c r="M200" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>169.56867824494788</v>
       </c>
       <c r="N200" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>28.971189803252386</v>
       </c>
       <c r="O200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>16.726524231651506</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q200">
+        <f t="shared" si="25"/>
+        <v>-5.3186782449478756</v>
+      </c>
+      <c r="R200">
+        <f t="shared" si="21"/>
+        <v>-3.2381602708967276E-2</v>
+      </c>
+      <c r="S200">
+        <f t="shared" si="22"/>
+        <v>7.8027431464087041E-2</v>
+      </c>
+      <c r="T200">
+        <f t="shared" si="23"/>
+        <v>-0.4150028022372011</v>
+      </c>
+      <c r="U200">
+        <f t="shared" si="24"/>
+        <v>0.17222732586472944</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>78</v>
       </c>
@@ -11204,23 +17159,43 @@
         <v>122.17720984295001</v>
       </c>
       <c r="L201" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1200.2271554479348</v>
       </c>
       <c r="M201" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>150.02839443099185</v>
       </c>
       <c r="N201" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>39.774980801458469</v>
       </c>
       <c r="O201">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>22.964095872734244</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q201">
+        <f t="shared" si="25"/>
+        <v>-15.528394430991852</v>
+      </c>
+      <c r="R201">
+        <f t="shared" si="21"/>
+        <v>-0.11545274669882419</v>
+      </c>
+      <c r="S201">
+        <f t="shared" si="22"/>
+        <v>8.6226122711845377E-2</v>
+      </c>
+      <c r="T201">
+        <f t="shared" si="23"/>
+        <v>-1.3389532437246396</v>
+      </c>
+      <c r="U201">
+        <f t="shared" si="24"/>
+        <v>1.7927957888807342</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>79</v>
       </c>
@@ -11249,23 +17224,43 @@
         <v>124.60754057019901</v>
       </c>
       <c r="L202" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1198.647036079313</v>
       </c>
       <c r="M202" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>149.83087950991413</v>
       </c>
       <c r="N202" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>30.037171993911127</v>
       </c>
       <c r="O202">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>17.341969336379677</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q202">
+        <f t="shared" si="25"/>
+        <v>-28.205879509914126</v>
+      </c>
+      <c r="R202">
+        <f t="shared" si="21"/>
+        <v>-0.23190856739908841</v>
+      </c>
+      <c r="S202">
+        <f t="shared" si="22"/>
+        <v>9.067521068905561E-2</v>
+      </c>
+      <c r="T202">
+        <f t="shared" si="23"/>
+        <v>-2.5575740672315801</v>
+      </c>
+      <c r="U202">
+        <f t="shared" si="24"/>
+        <v>6.541185109375486</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>80</v>
       </c>
@@ -11294,23 +17289,43 @@
         <v>73.997515335678997</v>
       </c>
       <c r="L203" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>787.37331376911425</v>
       </c>
       <c r="M203" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>98.421664221139281</v>
       </c>
       <c r="N203" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>33.439158067953628</v>
       </c>
       <c r="O203">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>19.306106912007476</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q203">
+        <f t="shared" si="25"/>
+        <v>0.70333577886071907</v>
+      </c>
+      <c r="R203">
+        <f t="shared" si="21"/>
+        <v>7.0954429141056145E-3</v>
+      </c>
+      <c r="S203">
+        <f t="shared" si="22"/>
+        <v>0.10044039219036507</v>
+      </c>
+      <c r="T203">
+        <f t="shared" si="23"/>
+        <v>7.0643321470286513E-2</v>
+      </c>
+      <c r="U203">
+        <f t="shared" si="24"/>
+        <v>4.9904788683542423E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>81</v>
       </c>
@@ -11339,23 +17354,43 @@
         <v>86.469246324151698</v>
       </c>
       <c r="L204" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>753.23678484279435</v>
       </c>
       <c r="M204" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>94.154598105349294</v>
       </c>
       <c r="N204" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>33.033022423713071</v>
       </c>
       <c r="O204">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>19.071624388477687</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q204">
+        <f t="shared" si="25"/>
+        <v>-16.404598105349294</v>
+      </c>
+      <c r="R204">
+        <f t="shared" si="21"/>
+        <v>-0.21099161550288481</v>
+      </c>
+      <c r="S204">
+        <f t="shared" si="22"/>
+        <v>0.11340959542474854</v>
+      </c>
+      <c r="T204">
+        <f t="shared" si="23"/>
+        <v>-1.8604388342332598</v>
+      </c>
+      <c r="U204">
+        <f t="shared" si="24"/>
+        <v>3.4612326559232107</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>82</v>
       </c>
@@ -11384,23 +17419,43 @@
         <v>67.569545127451406</v>
       </c>
       <c r="L205" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>645.18398324493251</v>
       </c>
       <c r="M205" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>80.647997905616563</v>
       </c>
       <c r="N205" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>20.028400827927555</v>
       </c>
       <c r="O205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>11.563402609441699</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q205">
+        <f t="shared" si="25"/>
+        <v>-1.0229979056165632</v>
+      </c>
+      <c r="R205">
+        <f t="shared" si="21"/>
+        <v>-1.2847697401777875E-2</v>
+      </c>
+      <c r="S205">
+        <f t="shared" si="22"/>
+        <v>0.11206636293610515</v>
+      </c>
+      <c r="T205">
+        <f t="shared" si="23"/>
+        <v>-0.11464365457370124</v>
+      </c>
+      <c r="U205">
+        <f t="shared" si="24"/>
+        <v>1.3143167534014125E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>83</v>
       </c>
@@ -11429,23 +17484,43 @@
         <v>74.844059363007503</v>
       </c>
       <c r="L206" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>550.62154293805338</v>
       </c>
       <c r="M206" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>68.827692867256673</v>
       </c>
       <c r="N206" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>19.194692378920461</v>
       </c>
       <c r="O206">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>11.082060811981787</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q206">
+        <f t="shared" si="25"/>
+        <v>-10.952692867256673</v>
+      </c>
+      <c r="R206">
+        <f t="shared" si="21"/>
+        <v>-0.18924739295475893</v>
+      </c>
+      <c r="S206">
+        <f t="shared" si="22"/>
+        <v>0.131448155980155</v>
+      </c>
+      <c r="T206">
+        <f t="shared" si="23"/>
+        <v>-1.4397112804178858</v>
+      </c>
+      <c r="U206">
+        <f t="shared" si="24"/>
+        <v>2.0727685709625088</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>84</v>
       </c>
@@ -11474,23 +17549,43 @@
         <v>52.693843189626897</v>
       </c>
       <c r="L207" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>457.51396796107161</v>
       </c>
       <c r="M207" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>57.189245995133952</v>
       </c>
       <c r="N207" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>30.722901434037812</v>
       </c>
       <c r="O207">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>17.737875413228071</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q207">
+        <f t="shared" si="25"/>
+        <v>-11.064245995133952</v>
+      </c>
+      <c r="R207">
+        <f t="shared" si="21"/>
+        <v>-0.23987525192702336</v>
+      </c>
+      <c r="S207">
+        <f t="shared" si="22"/>
+        <v>0.14724203476646205</v>
+      </c>
+      <c r="T207">
+        <f t="shared" si="23"/>
+        <v>-1.629122093480202</v>
+      </c>
+      <c r="U207">
+        <f t="shared" si="24"/>
+        <v>2.6540387954653157</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>85</v>
       </c>
@@ -11519,23 +17614,43 @@
         <v>51.615301094949203</v>
       </c>
       <c r="L208" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>357.8924772492602</v>
       </c>
       <c r="M208" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>44.736559656157525</v>
       </c>
       <c r="N208" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>18.430109575100925</v>
       </c>
       <c r="O208">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>10.64062872437882</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q208">
+        <f t="shared" si="25"/>
+        <v>-10.486559656157525</v>
+      </c>
+      <c r="R208">
+        <f t="shared" si="21"/>
+        <v>-0.30617692426737297</v>
+      </c>
+      <c r="S208">
+        <f t="shared" si="22"/>
+        <v>0.17087153154335219</v>
+      </c>
+      <c r="T208">
+        <f t="shared" si="23"/>
+        <v>-1.7918545090683649</v>
+      </c>
+      <c r="U208">
+        <f t="shared" si="24"/>
+        <v>3.2107425816686312</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>86</v>
       </c>
@@ -11564,23 +17679,43 @@
         <v>41.112762467935603</v>
       </c>
       <c r="L209" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>305.12886315863545</v>
       </c>
       <c r="M209" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>38.141107894829432</v>
       </c>
       <c r="N209" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>17.217071979433495</v>
       </c>
       <c r="O209">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>9.9402811419830925</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q209">
+        <f t="shared" si="25"/>
+        <v>-7.6411078948294318</v>
+      </c>
+      <c r="R209">
+        <f t="shared" si="21"/>
+        <v>-0.25052812769932564</v>
+      </c>
+      <c r="S209">
+        <f t="shared" si="22"/>
+        <v>0.18107149208503706</v>
+      </c>
+      <c r="T209">
+        <f t="shared" si="23"/>
+        <v>-1.3835868076995217</v>
+      </c>
+      <c r="U209">
+        <f t="shared" si="24"/>
+        <v>1.9143124544401533</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>87</v>
       </c>
@@ -11609,23 +17744,43 @@
         <v>37.793222576379698</v>
       </c>
       <c r="L210" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>238.6237921789284</v>
       </c>
       <c r="M210" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>29.82797402236605</v>
       </c>
       <c r="N210" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>17.735074362074229</v>
       </c>
       <c r="O210">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>10.239349957041588</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q210">
+        <f t="shared" si="25"/>
+        <v>2.9220259776339503</v>
+      </c>
+      <c r="R210">
+        <f t="shared" si="21"/>
+        <v>8.9222167255998477E-2</v>
+      </c>
+      <c r="S210">
+        <f t="shared" si="22"/>
+        <v>0.17474081133220759</v>
+      </c>
+      <c r="T210">
+        <f t="shared" si="23"/>
+        <v>0.51059719006554349</v>
+      </c>
+      <c r="U210">
+        <f t="shared" si="24"/>
+        <v>0.26070949050282882</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>88</v>
       </c>
@@ -11654,23 +17809,43 @@
         <v>38.343322138302</v>
       </c>
       <c r="L211" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>318.94637586711838</v>
       </c>
       <c r="M211" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>39.868296983389797</v>
       </c>
       <c r="N211" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>21.523964550642845</v>
       </c>
       <c r="O211">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>12.42686672734161</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q211">
+        <f t="shared" si="25"/>
+        <v>-14.743296983389797</v>
+      </c>
+      <c r="R211">
+        <f t="shared" si="21"/>
+        <v>-0.58679788988616111</v>
+      </c>
+      <c r="S211">
+        <f t="shared" si="22"/>
+        <v>0.19950186722152657</v>
+      </c>
+      <c r="T211">
+        <f t="shared" si="23"/>
+        <v>-2.9413152771877651</v>
+      </c>
+      <c r="U211">
+        <f t="shared" si="24"/>
+        <v>8.6513355598181381</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>89</v>
       </c>
@@ -11699,23 +17874,43 @@
         <v>26.2762759365141</v>
       </c>
       <c r="L212" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>232.13371216878264</v>
       </c>
       <c r="M212" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>29.01671402109783</v>
       </c>
       <c r="N212" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>18.951358285701524</v>
       </c>
       <c r="O212">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>10.94157180775882</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q212">
+        <f t="shared" si="25"/>
+        <v>-11.01671402109783</v>
+      </c>
+      <c r="R212">
+        <f t="shared" si="21"/>
+        <v>-0.61203966783876829</v>
+      </c>
+      <c r="S212">
+        <f t="shared" si="22"/>
+        <v>0.23570226039551587</v>
+      </c>
+      <c r="T212">
+        <f t="shared" si="23"/>
+        <v>-2.5966643969037309</v>
+      </c>
+      <c r="U212">
+        <f t="shared" si="24"/>
+        <v>6.7426659901474171</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>90</v>
       </c>
@@ -11744,23 +17939,43 @@
         <v>23.710084021091401</v>
       </c>
       <c r="L213" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>59.838198516517664</v>
       </c>
       <c r="M213" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>7.4797748145647081</v>
       </c>
       <c r="N213" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>18.635023574004244</v>
       </c>
       <c r="O213">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>10.758935876806373</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q213">
+        <f t="shared" si="25"/>
+        <v>6.6452251854352919</v>
+      </c>
+      <c r="R213">
+        <f t="shared" si="21"/>
+        <v>0.47045842020780826</v>
+      </c>
+      <c r="S213">
+        <f t="shared" si="22"/>
+        <v>0.26607604209509572</v>
+      </c>
+      <c r="T213">
+        <f t="shared" si="23"/>
+        <v>1.7681352161712709</v>
+      </c>
+      <c r="U213">
+        <f t="shared" si="24"/>
+        <v>3.1263021426650273</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>91</v>
       </c>
@@ -11789,23 +18004,43 @@
         <v>24.572477728128401</v>
       </c>
       <c r="L214" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>82.464627341832852</v>
       </c>
       <c r="M214" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>10.308078417729106</v>
       </c>
       <c r="N214" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>10.63227878370847</v>
       </c>
       <c r="O214">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.138549017873232</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q214">
+        <f t="shared" si="25"/>
+        <v>-0.30807841772910649</v>
+      </c>
+      <c r="R214">
+        <f t="shared" si="21"/>
+        <v>-3.0807841772910648E-2</v>
+      </c>
+      <c r="S214">
+        <f t="shared" si="22"/>
+        <v>0.31622776601683794</v>
+      </c>
+      <c r="T214">
+        <f t="shared" si="23"/>
+        <v>-9.7422949796477532E-2</v>
+      </c>
+      <c r="U214">
+        <f t="shared" si="24"/>
+        <v>9.491231147046985E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>92</v>
       </c>
@@ -11834,23 +18069,43 @@
         <v>8.9410649063065595</v>
       </c>
       <c r="L215" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>93.54310485254959</v>
       </c>
       <c r="M215" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>11.692888106568699</v>
       </c>
       <c r="N215" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>8.2967785241306764</v>
       </c>
       <c r="O215">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.7901473143135522</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q215">
+        <f t="shared" si="25"/>
+        <v>-5.0678881065686987</v>
+      </c>
+      <c r="R215">
+        <f t="shared" si="21"/>
+        <v>-0.76496424250093564</v>
+      </c>
+      <c r="S215">
+        <f t="shared" si="22"/>
+        <v>0.38851434494290565</v>
+      </c>
+      <c r="T215">
+        <f t="shared" si="23"/>
+        <v>-1.9689472279674807</v>
+      </c>
+      <c r="U215">
+        <f t="shared" si="24"/>
+        <v>3.8767531865208253</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>93</v>
       </c>
@@ -11879,23 +18134,43 @@
         <v>12.2594229876995</v>
       </c>
       <c r="L216" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>32.243210610002215</v>
       </c>
       <c r="M216" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.0304013262502769</v>
       </c>
       <c r="N216" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>12.386927365652456</v>
       </c>
       <c r="O216">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>7.1515958489917875</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q216">
+        <f t="shared" si="25"/>
+        <v>9.4598673749723083E-2</v>
+      </c>
+      <c r="R216">
+        <f t="shared" si="21"/>
+        <v>2.2933011818114687E-2</v>
+      </c>
+      <c r="S216">
+        <f t="shared" si="22"/>
+        <v>0.4923659639173309</v>
+      </c>
+      <c r="T216">
+        <f t="shared" si="23"/>
+        <v>4.6577167186083519E-2</v>
+      </c>
+      <c r="U216">
+        <f t="shared" si="24"/>
+        <v>2.1694325030803749E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>94</v>
       </c>
@@ -11924,23 +18199,43 @@
         <v>-9.3192417174577695</v>
       </c>
       <c r="L217" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-26.869954727590098</v>
       </c>
       <c r="M217" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-3.3587443409487623</v>
       </c>
       <c r="N217" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>14.896529785886422</v>
       </c>
       <c r="O217">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>8.6005154818728045</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q217">
+        <f t="shared" si="25"/>
+        <v>5.8587443409487623</v>
+      </c>
+      <c r="R217">
+        <f t="shared" si="21"/>
+        <v>2.3434977363795051</v>
+      </c>
+      <c r="S217">
+        <f t="shared" si="22"/>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="T217">
+        <f t="shared" si="23"/>
+        <v>3.7053952692040375</v>
+      </c>
+      <c r="U217">
+        <f t="shared" si="24"/>
+        <v>13.729954101039658</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>95</v>
       </c>
@@ -11969,23 +18264,43 @@
         <v>4.1663666442036602</v>
       </c>
       <c r="L218" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>35.653240589424939</v>
       </c>
       <c r="M218" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.4566550736781174</v>
       </c>
       <c r="N218" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>9.4018484815399308</v>
       </c>
       <c r="O218">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5.4281597516971534</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q218">
+        <f t="shared" si="25"/>
+        <v>-2.0816550736781174</v>
+      </c>
+      <c r="R218">
+        <f t="shared" si="21"/>
+        <v>-0.8764863468118389</v>
+      </c>
+      <c r="S218">
+        <f t="shared" si="22"/>
+        <v>0.64888568452305018</v>
+      </c>
+      <c r="T218">
+        <f t="shared" si="23"/>
+        <v>-1.3507561774245056</v>
+      </c>
+      <c r="U218">
+        <f t="shared" si="24"/>
+        <v>1.8245422508504625</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>96</v>
       </c>
@@ -12014,23 +18329,43 @@
         <v>13.258610799908601</v>
       </c>
       <c r="L219" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>26.122325572185183</v>
       </c>
       <c r="M219" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3.2652906965231479</v>
       </c>
       <c r="N219" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6.9568580691809601</v>
       </c>
       <c r="O219">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.0165438789556474</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q219">
+        <f t="shared" si="25"/>
+        <v>-2.3902906965231479</v>
+      </c>
+      <c r="R219">
+        <f t="shared" si="21"/>
+        <v>-2.7317607960264545</v>
+      </c>
+      <c r="S219">
+        <f t="shared" si="22"/>
+        <v>1.0690449676496976</v>
+      </c>
+      <c r="T219">
+        <f t="shared" si="23"/>
+        <v>-2.5553282403379614</v>
+      </c>
+      <c r="U219">
+        <f t="shared" si="24"/>
+        <v>6.5297024158687034</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>97</v>
       </c>
@@ -12059,23 +18394,43 @@
         <v>10.687712647020801</v>
       </c>
       <c r="L220" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>57.114075575489458</v>
       </c>
       <c r="M220" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>7.1392594469361823</v>
       </c>
       <c r="N220" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>13.35282885009517</v>
       </c>
       <c r="O220">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>7.7092593310454482</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q220">
+        <f t="shared" si="25"/>
+        <v>-5.2642594469361823</v>
+      </c>
+      <c r="R220">
+        <f t="shared" si="21"/>
+        <v>-2.8076050383659639</v>
+      </c>
+      <c r="S220">
+        <f t="shared" si="22"/>
+        <v>0.73029674334022143</v>
+      </c>
+      <c r="T220">
+        <f t="shared" si="23"/>
+        <v>-3.8444715301954897</v>
+      </c>
+      <c r="U220">
+        <f t="shared" si="24"/>
+        <v>14.779961346483647</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>98</v>
       </c>
@@ -12104,23 +18459,43 @@
         <v>-9.6760659590363005</v>
       </c>
       <c r="L221" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-52.904293797444467</v>
       </c>
       <c r="M221" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-6.6130367246805584</v>
       </c>
       <c r="N221" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>21.54864264497753</v>
       </c>
       <c r="O221">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>12.441114631748826</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q221">
+        <f t="shared" si="25"/>
+        <v>7.1130367246805584</v>
+      </c>
+      <c r="R221">
+        <f t="shared" si="21"/>
+        <v>14.226073449361117</v>
+      </c>
+      <c r="S221">
+        <f t="shared" si="22"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="T221">
+        <f t="shared" si="23"/>
+        <v>10.059353005701146</v>
+      </c>
+      <c r="U221">
+        <f t="shared" si="24"/>
+        <v>101.19058289330864</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>99</v>
       </c>
@@ -12149,23 +18524,43 @@
         <v>-3.2920221313834102</v>
       </c>
       <c r="L222" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>38.057576380670049</v>
       </c>
       <c r="M222" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.7571970475837562</v>
       </c>
       <c r="N222" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>12.920645263014061</v>
       </c>
       <c r="O222">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>7.4597380207048314</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q222">
+        <f t="shared" si="25"/>
+        <v>-4.2571970475837562</v>
+      </c>
+      <c r="R222">
+        <f t="shared" si="21"/>
+        <v>-8.5143940951675123</v>
+      </c>
+      <c r="S222">
+        <f t="shared" si="22"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="T222">
+        <f t="shared" si="23"/>
+        <v>-6.0205858023876466</v>
+      </c>
+      <c r="U222">
+        <f t="shared" si="24"/>
+        <v>36.247453403911699</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>100</v>
       </c>
@@ -12194,23 +18589,27 @@
         <v>16.315936967730501</v>
       </c>
       <c r="L223" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>9.8453540952177914</v>
       </c>
       <c r="M223" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1.2306692619022239</v>
       </c>
       <c r="N223" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>7.3569363248759734</v>
       </c>
       <c r="O223">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.2475291675780795</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q223">
+        <f t="shared" si="25"/>
+        <v>-1.2306692619022239</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>101</v>
       </c>
@@ -12239,23 +18638,27 @@
         <v>4.6297631303314102</v>
       </c>
       <c r="L224" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>99.30092721874766</v>
       </c>
       <c r="M224" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>12.412615902343457</v>
       </c>
       <c r="N224" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>31.979791403038476</v>
       </c>
       <c r="O224">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>18.463541175172345</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q224">
+        <f t="shared" si="25"/>
+        <v>-12.162615902343457</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>102</v>
       </c>
@@ -12284,23 +18687,27 @@
         <v>-5.1344314366579002</v>
       </c>
       <c r="L225" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-11.883241638541264</v>
       </c>
       <c r="M225" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-1.485405204817658</v>
       </c>
       <c r="N225" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4.5808459006171747</v>
       </c>
       <c r="O225">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2.6447526138375195</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q225">
+        <f t="shared" si="25"/>
+        <v>1.485405204817658</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>103</v>
       </c>
@@ -12329,23 +18736,27 @@
         <v>-1.7414490021765201</v>
       </c>
       <c r="L226" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3.5824199914932149</v>
       </c>
       <c r="M226" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.44780249893665186</v>
       </c>
       <c r="N226" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4.3306754393399824</v>
       </c>
       <c r="O226">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2.5003166306758398</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q226">
+        <f t="shared" si="25"/>
+        <v>-0.44780249893665186</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>104</v>
       </c>
@@ -12374,23 +18785,27 @@
         <v>-16.658390298485699</v>
       </c>
       <c r="L227" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>20.817600445705395</v>
       </c>
       <c r="M227" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.6022000557131744</v>
       </c>
       <c r="N227" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>11.09433192734352</v>
       </c>
       <c r="O227">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.4053155247308409</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q227">
+        <f t="shared" si="25"/>
+        <v>-2.6022000557131744</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>105</v>
       </c>
@@ -12419,23 +18834,27 @@
         <v>5.6308373101055604</v>
       </c>
       <c r="L228" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>40.776547748595377</v>
       </c>
       <c r="M228" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>5.0970684685744221</v>
       </c>
       <c r="N228" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>8.2922455211810888</v>
       </c>
       <c r="O228">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.7875301838403708</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q228">
+        <f t="shared" si="25"/>
+        <v>-5.0970684685744221</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>106</v>
       </c>
@@ -12464,23 +18883,27 @@
         <v>-7.71944869682192</v>
       </c>
       <c r="L229" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>30.979114925488844</v>
       </c>
       <c r="M229" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3.8723893656861055</v>
       </c>
       <c r="N229" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>9.6267637043795524</v>
       </c>
       <c r="O229">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5.558014616148454</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q229">
+        <f t="shared" si="25"/>
+        <v>-3.8723893656861055</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>107</v>
       </c>
@@ -12509,23 +18932,27 @@
         <v>5.9684545397758404</v>
       </c>
       <c r="L230" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>27.567680742591591</v>
       </c>
       <c r="M230" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3.4459600928239489</v>
       </c>
       <c r="N230" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>8.9411670151133205</v>
       </c>
       <c r="O230">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5.1621851830450787</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q230">
+        <f t="shared" si="25"/>
+        <v>-3.4459600928239489</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>108</v>
       </c>
@@ -12554,23 +18981,27 @@
         <v>5.8997051045298496</v>
       </c>
       <c r="L231" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>28.750445824116454</v>
       </c>
       <c r="M231" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>3.5938057280145568</v>
       </c>
       <c r="N231" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.16673954052394</v>
       </c>
       <c r="O231">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.8283179261749287</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q231">
+        <f t="shared" si="25"/>
+        <v>-3.5938057280145568</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>109</v>
       </c>
@@ -12599,23 +19030,27 @@
         <v>-4.0648083984851802</v>
       </c>
       <c r="L232" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-43.833372020162557</v>
       </c>
       <c r="M232" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-5.4791715025203196</v>
       </c>
       <c r="N232" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>10.898541547619216</v>
       </c>
       <c r="O232">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.2922758962922751</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q232">
+        <f t="shared" si="25"/>
+        <v>5.4791715025203196</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -12624,15 +19059,15 @@
         <v>162724.44598495992</v>
       </c>
       <c r="C240">
-        <f t="shared" ref="C240:I240" si="16">SUM(C123:C232)</f>
+        <f t="shared" ref="C240:H240" si="26">SUM(C123:C232)</f>
         <v>180954.53929556283</v>
       </c>
       <c r="D240">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>193272.1403713327</v>
       </c>
       <c r="E240">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>194450.75705760188</v>
       </c>
       <c r="F240">
@@ -12640,11 +19075,11 @@
         <v>188934.90737039709</v>
       </c>
       <c r="G240">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>197007.14330274114</v>
       </c>
       <c r="H240">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>193458.91895056827</v>
       </c>
       <c r="I240">
@@ -12652,7 +19087,7 @@
         <v>184926.81991420136</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -12661,15 +19096,15 @@
         <v>161351</v>
       </c>
       <c r="C241">
-        <f t="shared" ref="C241:I241" si="17">SUM(C3:C112)</f>
+        <f t="shared" ref="C241:I241" si="27">SUM(C3:C112)</f>
         <v>181519</v>
       </c>
       <c r="D241">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>192822</v>
       </c>
       <c r="E241">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>194520</v>
       </c>
       <c r="F241">
@@ -12677,19 +19112,19 @@
         <v>186904</v>
       </c>
       <c r="G241">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>196497</v>
       </c>
       <c r="H241">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>193015</v>
       </c>
       <c r="I241">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>183450</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -12698,15 +19133,15 @@
         <v>1373.4459849599225</v>
       </c>
       <c r="C242">
-        <f t="shared" ref="C242:I242" si="18">C240-C241</f>
+        <f t="shared" ref="C242:I242" si="28">C240-C241</f>
         <v>-564.46070443716599</v>
       </c>
       <c r="D242">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>450.14037133270176</v>
       </c>
       <c r="E242">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>-69.242942398122977</v>
       </c>
       <c r="F242">
@@ -12714,19 +19149,19 @@
         <v>2030.9073703970935</v>
       </c>
       <c r="G242">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>510.14330274114036</v>
       </c>
       <c r="H242">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>443.91895056827343</v>
       </c>
       <c r="I242">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1476.8199142013618</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -12735,15 +19170,15 @@
         <v>8.5121628310944625E-3</v>
       </c>
       <c r="C243">
-        <f t="shared" ref="C243:E243" si="19">C242/C241</f>
+        <f t="shared" ref="C243:E243" si="29">C242/C241</f>
         <v>-3.1096508048037174E-3</v>
       </c>
       <c r="D243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>2.3344865800204425E-3</v>
       </c>
       <c r="E243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>-3.5596824181638383E-4</v>
       </c>
       <c r="F243">
@@ -12751,19 +19186,27 @@
         <v>1.086604551211902E-2</v>
       </c>
       <c r="G243">
-        <f t="shared" ref="G243:I243" si="20">G242/G241</f>
+        <f t="shared" ref="G243:H243" si="30">G242/G241</f>
         <v>2.5961887598341979E-3</v>
       </c>
       <c r="H243">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>2.299919439257433E-3</v>
       </c>
       <c r="I243">
         <f>I242/I241</f>
         <v>8.0502584584429653E-3</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J243">
+        <f>AVERAGE(B243:I243)</f>
+        <v>3.8991803167685527E-3</v>
+      </c>
+      <c r="K243">
+        <f>STDEV(B243:I243)/SQRT(7)</f>
+        <v>1.8125523770272829E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>10</v>
       </c>
@@ -12776,11 +19219,11 @@
         <v>1.7552756838331065</v>
       </c>
       <c r="D244">
-        <f t="shared" ref="D244:E244" si="21">(D241-D240)^2/D241</f>
+        <f t="shared" ref="D244:E244" si="31">(D241-D240)^2/D241</f>
         <v>1.050846656001611</v>
       </c>
       <c r="E244">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>2.4648288463652974E-2</v>
       </c>
       <c r="F244">
@@ -12792,11 +19235,11 @@
         <v>1.3244283084812429</v>
       </c>
       <c r="H244">
-        <f t="shared" ref="H244:I244" si="22">(H241-H240)^2/H241</f>
+        <f t="shared" ref="H244:I244" si="32">(H241-H240)^2/H241</f>
         <v>1.0209778238667315</v>
       </c>
       <c r="I244">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>11.888782005896525</v>
       </c>
     </row>

--- a/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
@@ -263,7 +263,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1340,11 +1339,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="313006688"/>
-        <c:axId val="369551456"/>
+        <c:axId val="455795088"/>
+        <c:axId val="455792344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313006688"/>
+        <c:axId val="455795088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,7 +1390,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1457,7 +1455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369551456"/>
+        <c:crossAx val="455792344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1465,7 +1463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="369551456"/>
+        <c:axId val="455792344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,7 +1510,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1579,7 +1576,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313006688"/>
+        <c:crossAx val="455795088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1632,7 +1629,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2105,11 +2101,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="512855680"/>
-        <c:axId val="512856464"/>
+        <c:axId val="444946760"/>
+        <c:axId val="368262856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="512855680"/>
+        <c:axId val="444946760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,12 +2161,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512856464"/>
+        <c:crossAx val="368262856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="512856464"/>
+        <c:axId val="368262856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,7 +2223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512855680"/>
+        <c:crossAx val="444946760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2675,11 +2671,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446301384"/>
-        <c:axId val="446301776"/>
+        <c:axId val="366927880"/>
+        <c:axId val="366928272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="446301384"/>
+        <c:axId val="366927880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2735,12 +2731,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446301776"/>
+        <c:crossAx val="366928272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446301776"/>
+        <c:axId val="366928272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2797,7 +2793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446301384"/>
+        <c:crossAx val="366927880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3245,11 +3241,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="445877040"/>
-        <c:axId val="445876648"/>
+        <c:axId val="368132064"/>
+        <c:axId val="368130888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="445877040"/>
+        <c:axId val="368132064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3305,12 +3301,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445876648"/>
+        <c:crossAx val="368130888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="445876648"/>
+        <c:axId val="368130888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3367,7 +3363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445877040"/>
+        <c:crossAx val="368132064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3379,6 +3375,2780 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>relative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> error</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]גיליון1!$R$130:$R$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>-2.4315509963780584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9938397216144885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.20464890981640621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5174480604062502E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5619465779506934E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1065423317759478E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.1652621929469556E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.0280259004677427E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6226703084207966E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8204091973367642E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8073296462906202E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1190273187198669E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7301059239082027E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4381130125347068E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.855267711991198E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6659833624698089E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.5832339617510859E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9501404703416523E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7241703942011172E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0249294495233826E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2962361025349802E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0674132512573819E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.5977886857159799E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6852837267531325E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6.9335463770812261E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.7317726222970295E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.1095481454550518E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5724800740679179E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.7176888031028418E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.3797588885797796E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.4439143573622728E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.2980955315924211E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3622296168745154E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.0387855947005165E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8210754583344725E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5962085332337987E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.5476208946703146E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.2664560537708695E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.0426043723433173E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-4.9831749146953212E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.7735251709563549E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.5841652835281483E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1770937790127849E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.4028904120963722E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-6.8520266222517291E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5643021283019456E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.8574833723739889E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3.68410812929713E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.1710508748742625E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.6111014793742397E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4771466632292573E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.8927156627950556E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.9874230704888061E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-8.7623110890781911E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4637329296378558E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.7069768941649958E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.269873152410681E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-7.9408428086733575E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.4710713540224627E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.8998924569152238E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.222335013651232E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2.8048837312870945E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.8351337706645958E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.2110959267564682E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.4659712607531992E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-3.1508256459648956E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-5.1833460452901506E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.3216629575675804E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.1919830559787733E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-2.4295221495194856E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.5082914978035668E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2833077710346004E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-5.5109271980650534E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-3.6451789476461198E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.11958370045414075</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.10518720072330305</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-4.9402257020747437E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.20127952219993933</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.7945040217783159E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.35286669858748065</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.3980572506473667E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.0586891709219752E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-6.0601809734682988E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.12116702294092691</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.6368495187722012</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.55949035306232231</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.10543339483609211</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.2194639529334386</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.13019234883158204</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1963842814522143</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.7271952199439133</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6904017557389821</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.24829757128098384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>allz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$R$130:$R$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>11.504553201297902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3172893341863499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.37497317346324011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.148734959149816E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3583193189431216E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0036901846350122E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0651996022213879E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.19958793386532E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7851735668360231E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1346980081556663E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.214623467218845E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6512963201166377E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9469569785007729E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0912084747351027E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.3487818784956711E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2046964034804747E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.2856544366176213E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3034073463130668E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.485382572565702E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.298781673646901E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.9820239198405287E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.9397945533765729E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8.739686147436778E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.8503878320259216E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.8123097605162931E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.3403314497615332E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.3293299963635392E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.9431350565812904E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.3265596473084795E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.6059253308315383E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5.2211943233401075E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9528037254739342E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6351467463010093E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.5845024887575183E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-8.0805134790956738E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.381909989623743E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.0796398788179685E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.2171218869859708E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.679002483086411E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5.9623013952313309E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.3868149109776685E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.4476103456911713E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5131039564977945E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.5382463836561033E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-5.8534525144169104E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1196045226504341E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.8681356078051335E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.9829720013823886E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-6.5018974777839031E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4459786699645176E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.3836220711303447E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.8058952217732757E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.7908990694304279E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9977516697880896E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.6822232971022203E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.5415360712498843E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.5097842747609687E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.3070868030647314E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.9784443283469741E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.1717198419769425E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.1841206319419677E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.4608762252730497E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.12092047044074E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.4109311856402287E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.6645414937863967E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.817721107843708E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.8301006119351548E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.5998180499822775E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.8602297412908377E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-9.0696013888326182E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-3.2381602708967276E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.11545274669882419</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.23190856739908841</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.0954429141056145E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.21099161550288481</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.2847697401777875E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.18924739295475893</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.23987525192702336</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.30617692426737297</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.25052812769932564</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.9222167255998477E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.58679788988616111</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.61203966783876829</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.47045842020780826</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-3.0807841772910648E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.76496424250093564</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2933011818114687E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.3434977363795051</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.8764863468118389</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.7317607960264545</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.8076050383659639</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14.226073449361117</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-8.5143940951675123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="471650032"/>
+        <c:axId val="471645720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="471650032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471645720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="471645720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471650032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1/root(true)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]גיליון1!$S$130:$S$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>1.6329931618554523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19802950859533489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8954139199058683E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8239119393494044E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.004407273335673E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3840027153248686E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8713886396267204E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5479257578373642E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3065580739059788E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0825990392946817E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9282539322832151E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8267316060998445E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7176718136839322E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6238709775341649E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5591727976114366E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5172209934815136E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4521950407133924E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4174953192277748E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3944479031314379E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3686115720737697E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3550838384546319E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.337336474903855E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3294980928779005E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3220124979025265E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3168015154181935E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3212910564542248E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3328743112218882E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3435230372511476E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3499192392788215E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3763839347353903E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3847214960382929E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4183148764245436E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.432376666040793E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4712247158412491E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.504418666962188E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5353757178626857E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5715666909482562E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6153476372506338E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6635792022840736E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7044904292704971E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7657678008211362E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.844199375737695E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8984015070124632E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9416560651186562E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0502847851135975E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1142428689408906E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1976031725940863E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2777329617136386E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.3806993438741434E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5030328537576901E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6423514707860023E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7529308506178359E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8987029394585629E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.0718378505606096E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2064707742092177E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.430476221747198E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.6040423985645734E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.7942399730627178E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.1567556712637267E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.3003295253753064E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.6480215984769452E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8400476747043952E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.1786715433664143E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.4242586434973504E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.0233860193683417E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.291610618605574E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7943155358499832E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.474350927519359E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.8027431464087041E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.6226122711845377E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.067521068905561E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.10044039219036507</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.11340959542474854</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.11206636293610515</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.131448155980155</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.14724203476646205</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.17087153154335219</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.18107149208503706</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.17474081133220759</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.19950186722152657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.23570226039551587</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.26607604209509572</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.31622776601683794</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.38851434494290565</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.4923659639173309</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.64888568452305018</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0690449676496976</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.73029674334022143</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4142135623730949</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4142135623730949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>allz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$S$130:$S$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>1.6329931618554523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19802950859533489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8954139199058683E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8239119393494044E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.004407273335673E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3840027153248686E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8713886396267204E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5479257578373642E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3065580739059788E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0825990392946817E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9282539322832151E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8267316060998445E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7176718136839322E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6238709775341649E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5591727976114366E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5172209934815136E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4521950407133924E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4174953192277748E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3944479031314379E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3686115720737697E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3550838384546319E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.337336474903855E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3294980928779005E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3220124979025265E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3168015154181935E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3212910564542248E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3328743112218882E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3435230372511476E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3499192392788215E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3763839347353903E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3847214960382929E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4183148764245436E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.432376666040793E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4712247158412491E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.504418666962188E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5353757178626857E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5715666909482562E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6153476372506338E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6635792022840736E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7044904292704971E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7657678008211362E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.844199375737695E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8984015070124632E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9416560651186562E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0502847851135975E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1142428689408906E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1976031725940863E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2777329617136386E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.3806993438741434E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5030328537576901E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6423514707860023E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7529308506178359E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8987029394585629E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.0718378505606096E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2064707742092177E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.430476221747198E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.6040423985645734E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.7942399730627178E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.1567556712637267E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.3003295253753064E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.6480215984769452E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8400476747043952E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.1786715433664143E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.4242586434973504E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.0233860193683417E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.291610618605574E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7943155358499832E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.474350927519359E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.8027431464087041E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.6226122711845377E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.067521068905561E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.10044039219036507</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.11340959542474854</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.11206636293610515</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.131448155980155</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.14724203476646205</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.17087153154335219</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.18107149208503706</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.17474081133220759</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.19950186722152657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.23570226039551587</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.26607604209509572</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.31622776601683794</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.38851434494290565</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.4923659639173309</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.64888568452305018</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0690449676496976</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.73029674334022143</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4142135623730949</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4142135623730949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="471642584"/>
+        <c:axId val="471648464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="471642584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471648464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="471648464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471642584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>chi squared</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]גיליון1!$U$130:$U$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>2.2171650929951729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9384920887193537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0679699953706108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12635355225880876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27246327703415069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16873672064632289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0819525272433808E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35915803655043049</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.591745635082159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51046327630695099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61396831315097522</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28871546716328944</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12181908909662181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.61977855610952803</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0914216673443742E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35431459851514646</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17827485060696144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7808348200483205E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.5767175102318512E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4560695857295516E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7116179151983191E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13709203714883716</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2370633800863137</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8072694476029233E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.27197902479194308</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.34204797662899389</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.099890788342075E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.790592057389728E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1573927522290111E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0546689632006596</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.10837167534729529</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8894757661747742</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.8956252549206369E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.53642192533845368</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.8789566898641513E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.9749147063006589E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0582584429646409</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.68037901910756915</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.401223800917199E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.5165659519165932E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.34515606336066823</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.14921494219897316</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5201522527960705</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57867104599317587</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.13027525844172089</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.11429639059989713</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.5398083363963329E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.0363720690174647E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.28395726137903304</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.003111475362693E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.38497996707612342</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.12622219045645797</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.2772120093756822E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.10130869717294219</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.25498595805355656</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4562742936082078E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.568433505302973E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.3582672589122457E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.16660487086755432</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0564663581534649E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.60094176016423051</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.42542818124205961</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.37205816114344031</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75699147760422358</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.44793312594793899</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.3374177802650426</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.74052378845776512</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0095759621461864E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.0778591359353479E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.10565614396260349</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.10333831845838888</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.2150520333410337E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.36937899975811328</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.3171065426709301E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.1118453249622653</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.88099864548185403</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.14124874105230836</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8686826993807795</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.1499874824003741E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.7977046626468511</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.4011973491871323E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.138830643772527E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.6106428176136919E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.20737544520818535</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.0557730956038416</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.0738201404999388</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5854328079986087E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7177308312601185</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.0256363273925316E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.2524184302926895</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>13.945488314409241</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.8095325593806812</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.0825841952017628E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>allz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$U$130:$U$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>49.633029135560179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.511021316766296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.585424460835875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38610339106825847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9622048718297914E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60952307196998767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26597914302137154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12566165400714771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94085040012740673</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.63338314305725E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1111322949440305E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0738511381881089E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6610438294890465E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19619019386748512</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61659935561733259</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10272774697807373</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11492355050379077</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9951253386114726E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0462289901420625E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3951611465523275E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0202875880486627E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5711819575046746E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41596744483848846</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26239100292434619</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8581870174564294</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0279057475349196</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.3925340796542496E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.9060743018394242E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9905471872432221</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4287638771863378</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14959743262317854</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.012973233710079</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.6214687522823888E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2480745719441468</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.31824635847041766</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.284039612197592E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9109038987227913</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.0852100176752972</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.2387503325337243</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.13623724422769973</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.9536312667653616E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.19091706932240932</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.73429462221196717</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.6957225244767582</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.5070999362846256E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.33249466466370098</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.6376350337100041E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.10908646100081264</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.7534990249295508E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.40301216902202652</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.020014997377416</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2566368731929325</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1155963705154541</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.52661399831991829</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6136629253620809</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.68453550861517876</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1981364373043917</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.92935654487734176</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.6655954265816575E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.2088730058346191</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.27608591235586633</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.64769219413815227</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.7860536549281496</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.481249007020403E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.1904615074081334E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.9536762411664728E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.2314206135262118E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.79218051989832117</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.4962099730421219E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4724122814064302</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.17222732586472944</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7927957888807342</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.541185109375486</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.9904788683542423E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.4612326559232107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.3143167534014125E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.0727685709625088</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.6540387954653157</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.2107425816686312</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.9143124544401533</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.26070949050282882</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.6513355598181381</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.7426659901474171</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.1263021426650273</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.491231147046985E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.8767531865208253</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1694325030803749E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13.729954101039658</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8245422508504625</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.5297024158687034</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>14.779961346483647</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>101.19058289330864</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>36.247453403911699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="471655128"/>
+        <c:axId val="471657872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="471655128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471657872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="471657872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471655128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3537,6 +6307,126 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5640,6 +8530,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5660,7 +10098,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5763,6 +10201,102 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>57823</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>46617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>62305</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>64994</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>103094</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>47066</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7107,8 +11641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M150" workbookViewId="0">
-      <selection activeCell="AH182" sqref="AH182"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BA158" sqref="BA158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Target</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>chisq</t>
+  </si>
+  <si>
+    <t>bins</t>
   </si>
 </sst>
 </file>
@@ -1339,11 +1342,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="455795088"/>
-        <c:axId val="455792344"/>
+        <c:axId val="486317088"/>
+        <c:axId val="486318264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455795088"/>
+        <c:axId val="486317088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455792344"/>
+        <c:crossAx val="486318264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1463,7 +1466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455792344"/>
+        <c:axId val="486318264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,7 +1579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455795088"/>
+        <c:crossAx val="486317088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1803,6 +1806,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>גיליון1!$R$130:$R$222</c:f>
@@ -2101,11 +2422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="444946760"/>
-        <c:axId val="368262856"/>
+        <c:axId val="486318656"/>
+        <c:axId val="486316696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="444946760"/>
+        <c:axId val="486318656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,6 +2446,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2161,12 +2483,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368262856"/>
+        <c:crossAx val="486316696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368262856"/>
+        <c:axId val="486316696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,7 +2545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444946760"/>
+        <c:crossAx val="486318656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2373,6 +2695,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>גיליון1!$S$130:$S$222</c:f>
@@ -2671,11 +3311,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="366927880"/>
-        <c:axId val="366928272"/>
+        <c:axId val="471657480"/>
+        <c:axId val="471654736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="366927880"/>
+        <c:axId val="471657480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2695,6 +3335,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2731,12 +3372,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366928272"/>
+        <c:crossAx val="471654736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="366928272"/>
+        <c:axId val="471654736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2793,7 +3434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366927880"/>
+        <c:crossAx val="471657480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2943,6 +3584,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>גיליון1!$U$130:$U$222</c:f>
@@ -3241,11 +4200,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="368132064"/>
-        <c:axId val="368130888"/>
+        <c:axId val="471644936"/>
+        <c:axId val="471645328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="368132064"/>
+        <c:axId val="471644936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3265,6 +4224,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3301,12 +4261,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368130888"/>
+        <c:crossAx val="471645328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368130888"/>
+        <c:axId val="471645328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,7 +4323,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368132064"/>
+        <c:crossAx val="471644936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3521,6 +4481,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>[1]גיליון1!$R$130:$R$222</c:f>
@@ -3839,6 +5117,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>גיליון1!$R$130:$R$222</c:f>
@@ -4137,11 +5733,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="471650032"/>
-        <c:axId val="471645720"/>
+        <c:axId val="473446480"/>
+        <c:axId val="455791952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="471650032"/>
+        <c:axId val="473446480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4161,6 +5757,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4197,12 +5794,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471645720"/>
+        <c:crossAx val="455791952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471645720"/>
+        <c:axId val="455791952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4259,7 +5856,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471650032"/>
+        <c:crossAx val="473446480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4444,6 +6041,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>[1]גיליון1!$S$130:$S$222</c:f>
@@ -4762,6 +6677,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>גיליון1!$S$130:$S$222</c:f>
@@ -5060,11 +7293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="471642584"/>
-        <c:axId val="471648464"/>
+        <c:axId val="472782824"/>
+        <c:axId val="472783216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="471642584"/>
+        <c:axId val="472782824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5084,6 +7317,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5120,12 +7354,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471648464"/>
+        <c:crossAx val="472783216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471648464"/>
+        <c:axId val="472783216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5182,7 +7416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471642584"/>
+        <c:crossAx val="472782824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5367,6 +7601,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>[1]גיליון1!$U$130:$U$222</c:f>
@@ -5685,6 +8237,324 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>גיליון1!$U$130:$U$222</c:f>
@@ -5983,11 +8853,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="471655128"/>
-        <c:axId val="471657872"/>
+        <c:axId val="511703080"/>
+        <c:axId val="511702296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="471655128"/>
+        <c:axId val="511703080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6007,6 +8877,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6043,12 +8914,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471657872"/>
+        <c:crossAx val="511702296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471657872"/>
+        <c:axId val="511702296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6105,7 +8976,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471655128"/>
+        <c:crossAx val="511703080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10208,16 +13079,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>126</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>57823</xdr:rowOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>61286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10240,16 +13111,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>46617</xdr:rowOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>39689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>62305</xdr:rowOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>58841</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10272,16 +13143,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>64994</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>80683</xdr:rowOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>46046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>103094</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>47066</xdr:rowOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>5502</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10314,6 +13185,9 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="130">
+          <cell r="P130">
+            <v>7</v>
+          </cell>
           <cell r="R130">
             <v>-2.4315509963780584</v>
           </cell>
@@ -10325,6 +13199,9 @@
           </cell>
         </row>
         <row r="131">
+          <cell r="P131">
+            <v>8</v>
+          </cell>
           <cell r="R131">
             <v>-1.9938397216144885</v>
           </cell>
@@ -10336,6 +13213,9 @@
           </cell>
         </row>
         <row r="132">
+          <cell r="P132">
+            <v>9</v>
+          </cell>
           <cell r="R132">
             <v>-0.20464890981640621</v>
           </cell>
@@ -10347,6 +13227,9 @@
           </cell>
         </row>
         <row r="133">
+          <cell r="P133">
+            <v>10</v>
+          </cell>
           <cell r="R133">
             <v>3.5174480604062502E-2</v>
           </cell>
@@ -10358,6 +13241,9 @@
           </cell>
         </row>
         <row r="134">
+          <cell r="P134">
+            <v>11</v>
+          </cell>
           <cell r="R134">
             <v>-3.5619465779506934E-2</v>
           </cell>
@@ -10369,6 +13255,9 @@
           </cell>
         </row>
         <row r="135">
+          <cell r="P135">
+            <v>12</v>
+          </cell>
           <cell r="R135">
             <v>2.1065423317759478E-2</v>
           </cell>
@@ -10380,6 +13269,9 @@
           </cell>
         </row>
         <row r="136">
+          <cell r="P136">
+            <v>13</v>
+          </cell>
           <cell r="R136">
             <v>-4.1652621929469556E-3</v>
           </cell>
@@ -10391,6 +13283,9 @@
           </cell>
         </row>
         <row r="137">
+          <cell r="P137">
+            <v>14</v>
+          </cell>
           <cell r="R137">
             <v>-2.0280259004677427E-2</v>
           </cell>
@@ -10402,6 +13297,9 @@
           </cell>
         </row>
         <row r="138">
+          <cell r="P138">
+            <v>15</v>
+          </cell>
           <cell r="R138">
             <v>3.6226703084207966E-2</v>
           </cell>
@@ -10413,6 +13311,9 @@
           </cell>
         </row>
         <row r="139">
+          <cell r="P139">
+            <v>16</v>
+          </cell>
           <cell r="R139">
             <v>1.8204091973367642E-2</v>
           </cell>
@@ -10424,6 +13325,9 @@
           </cell>
         </row>
         <row r="140">
+          <cell r="P140">
+            <v>17</v>
+          </cell>
           <cell r="R140">
             <v>1.8073296462906202E-2</v>
           </cell>
@@ -10435,6 +13339,9 @@
           </cell>
         </row>
         <row r="141">
+          <cell r="P141">
+            <v>18</v>
+          </cell>
           <cell r="R141">
             <v>1.1190273187198669E-2</v>
           </cell>
@@ -10446,6 +13353,9 @@
           </cell>
         </row>
         <row r="142">
+          <cell r="P142">
+            <v>19</v>
+          </cell>
           <cell r="R142">
             <v>6.7301059239082027E-3</v>
           </cell>
@@ -10457,6 +13367,9 @@
           </cell>
         </row>
         <row r="143">
+          <cell r="P143">
+            <v>20</v>
+          </cell>
           <cell r="R143">
             <v>1.4381130125347068E-2</v>
           </cell>
@@ -10468,6 +13381,9 @@
           </cell>
         </row>
         <row r="144">
+          <cell r="P144">
+            <v>21</v>
+          </cell>
           <cell r="R144">
             <v>-7.855267711991198E-4</v>
           </cell>
@@ -10479,6 +13395,9 @@
           </cell>
         </row>
         <row r="145">
+          <cell r="P145">
+            <v>22</v>
+          </cell>
           <cell r="R145">
             <v>9.6659833624698089E-3</v>
           </cell>
@@ -10490,6 +13409,9 @@
           </cell>
         </row>
         <row r="146">
+          <cell r="P146">
+            <v>23</v>
+          </cell>
           <cell r="R146">
             <v>-6.5832339617510859E-3</v>
           </cell>
@@ -10501,6 +13423,9 @@
           </cell>
         </row>
         <row r="147">
+          <cell r="P147">
+            <v>24</v>
+          </cell>
           <cell r="R147">
             <v>2.9501404703416523E-3</v>
           </cell>
@@ -10512,6 +13437,9 @@
           </cell>
         </row>
         <row r="148">
+          <cell r="P148">
+            <v>25</v>
+          </cell>
           <cell r="R148">
             <v>3.7241703942011172E-3</v>
           </cell>
@@ -10523,6 +13451,9 @@
           </cell>
         </row>
         <row r="149">
+          <cell r="P149">
+            <v>26</v>
+          </cell>
           <cell r="R149">
             <v>7.0249294495233826E-4</v>
           </cell>
@@ -10534,6 +13465,9 @@
           </cell>
         </row>
         <row r="150">
+          <cell r="P150">
+            <v>27</v>
+          </cell>
           <cell r="R150">
             <v>2.2962361025349802E-3</v>
           </cell>
@@ -10545,6 +13479,9 @@
           </cell>
         </row>
         <row r="151">
+          <cell r="P151">
+            <v>28</v>
+          </cell>
           <cell r="R151">
             <v>5.0674132512573819E-3</v>
           </cell>
@@ -10556,6 +13493,9 @@
           </cell>
         </row>
         <row r="152">
+          <cell r="P152">
+            <v>29</v>
+          </cell>
           <cell r="R152">
             <v>-6.5977886857159799E-3</v>
           </cell>
@@ -10567,6 +13507,9 @@
           </cell>
         </row>
         <row r="153">
+          <cell r="P153">
+            <v>30</v>
+          </cell>
           <cell r="R153">
             <v>5.6852837267531325E-4</v>
           </cell>
@@ -10578,6 +13521,9 @@
           </cell>
         </row>
         <row r="154">
+          <cell r="P154">
+            <v>31</v>
+          </cell>
           <cell r="R154">
             <v>-6.9335463770812261E-3</v>
           </cell>
@@ -10589,6 +13535,9 @@
           </cell>
         </row>
         <row r="155">
+          <cell r="P155">
+            <v>32</v>
+          </cell>
           <cell r="R155">
             <v>-7.7317726222970295E-3</v>
           </cell>
@@ -10600,6 +13549,9 @@
           </cell>
         </row>
         <row r="156">
+          <cell r="P156">
+            <v>33</v>
+          </cell>
           <cell r="R156">
             <v>-1.1095481454550518E-3</v>
           </cell>
@@ -10611,6 +13563,9 @@
           </cell>
         </row>
         <row r="157">
+          <cell r="P157">
+            <v>34</v>
+          </cell>
           <cell r="R157">
             <v>2.5724800740679179E-3</v>
           </cell>
@@ -10622,6 +13577,9 @@
           </cell>
         </row>
         <row r="158">
+          <cell r="P158">
+            <v>35</v>
+          </cell>
           <cell r="R158">
             <v>-2.7176888031028418E-3</v>
           </cell>
@@ -10633,6 +13591,9 @@
           </cell>
         </row>
         <row r="159">
+          <cell r="P159">
+            <v>36</v>
+          </cell>
           <cell r="R159">
             <v>-1.3797588885797796E-2</v>
           </cell>
@@ -10644,6 +13605,9 @@
           </cell>
         </row>
         <row r="160">
+          <cell r="P160">
+            <v>37</v>
+          </cell>
           <cell r="R160">
             <v>-4.4439143573622728E-3</v>
           </cell>
@@ -10655,6 +13619,9 @@
           </cell>
         </row>
         <row r="161">
+          <cell r="P161">
+            <v>38</v>
+          </cell>
           <cell r="R161">
             <v>-1.2980955315924211E-2</v>
           </cell>
@@ -10666,6 +13633,9 @@
           </cell>
         </row>
         <row r="162">
+          <cell r="P162">
+            <v>39</v>
+          </cell>
           <cell r="R162">
             <v>3.3622296168745154E-3</v>
           </cell>
@@ -10677,6 +13647,9 @@
           </cell>
         </row>
         <row r="163">
+          <cell r="P163">
+            <v>40</v>
+          </cell>
           <cell r="R163">
             <v>-1.0387855947005165E-2</v>
           </cell>
@@ -10688,6 +13661,9 @@
           </cell>
         </row>
         <row r="164">
+          <cell r="P164">
+            <v>41</v>
+          </cell>
           <cell r="R164">
             <v>2.8210754583344725E-3</v>
           </cell>
@@ -10699,6 +13675,9 @@
           </cell>
         </row>
         <row r="165">
+          <cell r="P165">
+            <v>42</v>
+          </cell>
           <cell r="R165">
             <v>3.5962085332337987E-3</v>
           </cell>
@@ -10710,6 +13689,9 @@
           </cell>
         </row>
         <row r="166">
+          <cell r="P166">
+            <v>43</v>
+          </cell>
           <cell r="R166">
             <v>-1.5476208946703146E-2</v>
           </cell>
@@ -10721,6 +13703,9 @@
           </cell>
         </row>
         <row r="167">
+          <cell r="P167">
+            <v>44</v>
+          </cell>
           <cell r="R167">
             <v>-1.2664560537708695E-2</v>
           </cell>
@@ -10732,6 +13717,9 @@
           </cell>
         </row>
         <row r="168">
+          <cell r="P168">
+            <v>45</v>
+          </cell>
           <cell r="R168">
             <v>-1.0426043723433173E-3</v>
           </cell>
@@ -10743,6 +13731,9 @@
           </cell>
         </row>
         <row r="169">
+          <cell r="P169">
+            <v>46</v>
+          </cell>
           <cell r="R169">
             <v>-4.9831749146953212E-3</v>
           </cell>
@@ -10754,6 +13745,9 @@
           </cell>
         </row>
         <row r="170">
+          <cell r="P170">
+            <v>47</v>
+          </cell>
           <cell r="R170">
             <v>9.7735251709563549E-3</v>
           </cell>
@@ -10765,6 +13759,9 @@
           </cell>
         </row>
         <row r="171">
+          <cell r="P171">
+            <v>48</v>
+          </cell>
           <cell r="R171">
             <v>6.5841652835281483E-3</v>
           </cell>
@@ -10776,6 +13773,9 @@
           </cell>
         </row>
         <row r="172">
+          <cell r="P172">
+            <v>49</v>
+          </cell>
           <cell r="R172">
             <v>2.1770937790127849E-2</v>
           </cell>
@@ -10787,6 +13787,9 @@
           </cell>
         </row>
         <row r="173">
+          <cell r="P173">
+            <v>50</v>
+          </cell>
           <cell r="R173">
             <v>-1.4028904120963722E-2</v>
           </cell>
@@ -10798,6 +13801,9 @@
           </cell>
         </row>
         <row r="174">
+          <cell r="P174">
+            <v>51</v>
+          </cell>
           <cell r="R174">
             <v>-6.8520266222517291E-3</v>
           </cell>
@@ -10809,6 +13815,9 @@
           </cell>
         </row>
         <row r="175">
+          <cell r="P175">
+            <v>52</v>
+          </cell>
           <cell r="R175">
             <v>6.5643021283019456E-3</v>
           </cell>
@@ -10820,6 +13829,9 @@
           </cell>
         </row>
         <row r="176">
+          <cell r="P176">
+            <v>53</v>
+          </cell>
           <cell r="R176">
             <v>-3.8574833723739889E-3</v>
           </cell>
@@ -10831,6 +13843,9 @@
           </cell>
         </row>
         <row r="177">
+          <cell r="P177">
+            <v>54</v>
+          </cell>
           <cell r="R177">
             <v>-3.68410812929713E-3</v>
           </cell>
@@ -10842,6 +13857,9 @@
           </cell>
         </row>
         <row r="178">
+          <cell r="P178">
+            <v>55</v>
+          </cell>
           <cell r="R178">
             <v>-1.1710508748742625E-2</v>
           </cell>
@@ -10853,6 +13871,9 @@
           </cell>
         </row>
         <row r="179">
+          <cell r="P179">
+            <v>56</v>
+          </cell>
           <cell r="R179">
             <v>-1.6111014793742397E-3</v>
           </cell>
@@ -10864,6 +13885,9 @@
           </cell>
         </row>
         <row r="180">
+          <cell r="P180">
+            <v>57</v>
+          </cell>
           <cell r="R180">
             <v>1.4771466632292573E-2</v>
           </cell>
@@ -10875,6 +13899,9 @@
           </cell>
         </row>
         <row r="181">
+          <cell r="P181">
+            <v>58</v>
+          </cell>
           <cell r="R181">
             <v>8.8927156627950556E-3</v>
           </cell>
@@ -10886,6 +13913,9 @@
           </cell>
         </row>
         <row r="182">
+          <cell r="P182">
+            <v>59</v>
+          </cell>
           <cell r="R182">
             <v>3.9874230704888061E-3</v>
           </cell>
@@ -10897,6 +13927,9 @@
           </cell>
         </row>
         <row r="183">
+          <cell r="P183">
+            <v>60</v>
+          </cell>
           <cell r="R183">
             <v>-8.7623110890781911E-3</v>
           </cell>
@@ -10908,6 +13941,9 @@
           </cell>
         </row>
         <row r="184">
+          <cell r="P184">
+            <v>61</v>
+          </cell>
           <cell r="R184">
             <v>1.4637329296378558E-2</v>
           </cell>
@@ -10919,6 +13955,9 @@
           </cell>
         </row>
         <row r="185">
+          <cell r="P185">
+            <v>62</v>
+          </cell>
           <cell r="R185">
             <v>-3.7069768941649958E-3</v>
           </cell>
@@ -10930,6 +13969,9 @@
           </cell>
         </row>
         <row r="186">
+          <cell r="P186">
+            <v>63</v>
+          </cell>
           <cell r="R186">
             <v>-1.269873152410681E-3</v>
           </cell>
@@ -10941,6 +13983,9 @@
           </cell>
         </row>
         <row r="187">
+          <cell r="P187">
+            <v>64</v>
+          </cell>
           <cell r="R187">
             <v>-7.9408428086733575E-3</v>
           </cell>
@@ -10952,6 +13997,9 @@
           </cell>
         </row>
         <row r="188">
+          <cell r="P188">
+            <v>65</v>
+          </cell>
           <cell r="R188">
             <v>-1.4710713540224627E-2</v>
           </cell>
@@ -10963,6 +14011,9 @@
           </cell>
         </row>
         <row r="189">
+          <cell r="P189">
+            <v>66</v>
+          </cell>
           <cell r="R189">
             <v>-3.8998924569152238E-3</v>
           </cell>
@@ -10974,6 +14025,9 @@
           </cell>
         </row>
         <row r="190">
+          <cell r="P190">
+            <v>67</v>
+          </cell>
           <cell r="R190">
             <v>-3.222335013651232E-2</v>
           </cell>
@@ -10985,6 +14039,9 @@
           </cell>
         </row>
         <row r="191">
+          <cell r="P191">
+            <v>68</v>
+          </cell>
           <cell r="R191">
             <v>-2.8048837312870945E-2</v>
           </cell>
@@ -10996,6 +14053,9 @@
           </cell>
         </row>
         <row r="192">
+          <cell r="P192">
+            <v>69</v>
+          </cell>
           <cell r="R192">
             <v>-2.8351337706645958E-2</v>
           </cell>
@@ -11007,6 +14067,9 @@
           </cell>
         </row>
         <row r="193">
+          <cell r="P193">
+            <v>70</v>
+          </cell>
           <cell r="R193">
             <v>-4.2110959267564682E-2</v>
           </cell>
@@ -11018,6 +14081,9 @@
           </cell>
         </row>
         <row r="194">
+          <cell r="P194">
+            <v>71</v>
+          </cell>
           <cell r="R194">
             <v>-3.4659712607531992E-2</v>
           </cell>
@@ -11029,6 +14095,9 @@
           </cell>
         </row>
         <row r="195">
+          <cell r="P195">
+            <v>72</v>
+          </cell>
           <cell r="R195">
             <v>-3.1508256459648956E-2</v>
           </cell>
@@ -11040,6 +14109,9 @@
           </cell>
         </row>
         <row r="196">
+          <cell r="P196">
+            <v>73</v>
+          </cell>
           <cell r="R196">
             <v>-5.1833460452901506E-2</v>
           </cell>
@@ -11051,6 +14123,9 @@
           </cell>
         </row>
         <row r="197">
+          <cell r="P197">
+            <v>74</v>
+          </cell>
           <cell r="R197">
             <v>6.3216629575675804E-3</v>
           </cell>
@@ -11062,6 +14137,9 @@
           </cell>
         </row>
         <row r="198">
+          <cell r="P198">
+            <v>75</v>
+          </cell>
           <cell r="R198">
             <v>-1.1919830559787733E-2</v>
           </cell>
@@ -11073,6 +14151,9 @@
           </cell>
         </row>
         <row r="199">
+          <cell r="P199">
+            <v>76</v>
+          </cell>
           <cell r="R199">
             <v>-2.4295221495194856E-2</v>
           </cell>
@@ -11084,6 +14165,9 @@
           </cell>
         </row>
         <row r="200">
+          <cell r="P200">
+            <v>77</v>
+          </cell>
           <cell r="R200">
             <v>-2.5082914978035668E-2</v>
           </cell>
@@ -11095,6 +14179,9 @@
           </cell>
         </row>
         <row r="201">
+          <cell r="P201">
+            <v>78</v>
+          </cell>
           <cell r="R201">
             <v>1.2833077710346004E-2</v>
           </cell>
@@ -11106,6 +14193,9 @@
           </cell>
         </row>
         <row r="202">
+          <cell r="P202">
+            <v>79</v>
+          </cell>
           <cell r="R202">
             <v>-5.5109271980650534E-2</v>
           </cell>
@@ -11117,6 +14207,9 @@
           </cell>
         </row>
         <row r="203">
+          <cell r="P203">
+            <v>80</v>
+          </cell>
           <cell r="R203">
             <v>-3.6451789476461198E-3</v>
           </cell>
@@ -11128,6 +14221,9 @@
           </cell>
         </row>
         <row r="204">
+          <cell r="P204">
+            <v>81</v>
+          </cell>
           <cell r="R204">
             <v>-0.11958370045414075</v>
           </cell>
@@ -11139,6 +14235,9 @@
           </cell>
         </row>
         <row r="205">
+          <cell r="P205">
+            <v>82</v>
+          </cell>
           <cell r="R205">
             <v>0.10518720072330305</v>
           </cell>
@@ -11150,6 +14249,9 @@
           </cell>
         </row>
         <row r="206">
+          <cell r="P206">
+            <v>83</v>
+          </cell>
           <cell r="R206">
             <v>-4.9402257020747437E-2</v>
           </cell>
@@ -11161,6 +14263,9 @@
           </cell>
         </row>
         <row r="207">
+          <cell r="P207">
+            <v>84</v>
+          </cell>
           <cell r="R207">
             <v>-0.20127952219993933</v>
           </cell>
@@ -11172,6 +14277,9 @@
           </cell>
         </row>
         <row r="208">
+          <cell r="P208">
+            <v>85</v>
+          </cell>
           <cell r="R208">
             <v>5.7945040217783159E-3</v>
           </cell>
@@ -11183,6 +14291,9 @@
           </cell>
         </row>
         <row r="209">
+          <cell r="P209">
+            <v>86</v>
+          </cell>
           <cell r="R209">
             <v>-0.35286669858748065</v>
           </cell>
@@ -11194,6 +14305,9 @@
           </cell>
         </row>
         <row r="210">
+          <cell r="P210">
+            <v>87</v>
+          </cell>
           <cell r="R210">
             <v>1.3980572506473667E-2</v>
           </cell>
@@ -11205,6 +14319,9 @@
           </cell>
         </row>
         <row r="211">
+          <cell r="P211">
+            <v>88</v>
+          </cell>
           <cell r="R211">
             <v>4.0586891709219752E-3</v>
           </cell>
@@ -11216,6 +14333,9 @@
           </cell>
         </row>
         <row r="212">
+          <cell r="P212">
+            <v>89</v>
+          </cell>
           <cell r="R212">
             <v>-6.0601809734682988E-2</v>
           </cell>
@@ -11227,6 +14347,9 @@
           </cell>
         </row>
         <row r="213">
+          <cell r="P213">
+            <v>90</v>
+          </cell>
           <cell r="R213">
             <v>0.12116702294092691</v>
           </cell>
@@ -11238,6 +14361,9 @@
           </cell>
         </row>
         <row r="214">
+          <cell r="P214">
+            <v>91</v>
+          </cell>
           <cell r="R214">
             <v>-0.6368495187722012</v>
           </cell>
@@ -11249,6 +14375,9 @@
           </cell>
         </row>
         <row r="215">
+          <cell r="P215">
+            <v>92</v>
+          </cell>
           <cell r="R215">
             <v>-0.55949035306232231</v>
           </cell>
@@ -11260,6 +14389,9 @@
           </cell>
         </row>
         <row r="216">
+          <cell r="P216">
+            <v>93</v>
+          </cell>
           <cell r="R216">
             <v>-0.10543339483609211</v>
           </cell>
@@ -11271,6 +14403,9 @@
           </cell>
         </row>
         <row r="217">
+          <cell r="P217">
+            <v>94</v>
+          </cell>
           <cell r="R217">
             <v>1.2194639529334386</v>
           </cell>
@@ -11282,6 +14417,9 @@
           </cell>
         </row>
         <row r="218">
+          <cell r="P218">
+            <v>95</v>
+          </cell>
           <cell r="R218">
             <v>0.13019234883158204</v>
           </cell>
@@ -11293,6 +14431,9 @@
           </cell>
         </row>
         <row r="219">
+          <cell r="P219">
+            <v>96</v>
+          </cell>
           <cell r="R219">
             <v>1.1963842814522143</v>
           </cell>
@@ -11304,6 +14445,9 @@
           </cell>
         </row>
         <row r="220">
+          <cell r="P220">
+            <v>97</v>
+          </cell>
           <cell r="R220">
             <v>-2.7271952199439133</v>
           </cell>
@@ -11315,6 +14459,9 @@
           </cell>
         </row>
         <row r="221">
+          <cell r="P221">
+            <v>98</v>
+          </cell>
           <cell r="R221">
             <v>3.6904017557389821</v>
           </cell>
@@ -11326,6 +14473,9 @@
           </cell>
         </row>
         <row r="222">
+          <cell r="P222">
+            <v>99</v>
+          </cell>
           <cell r="R222">
             <v>-0.24829757128098384</v>
           </cell>
@@ -11334,6 +14484,56 @@
           </cell>
           <cell r="U222">
             <v>3.0825841952017628E-2</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="P223">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="P224">
+            <v>101</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="P225">
+            <v>102</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="P226">
+            <v>103</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="P227">
+            <v>104</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="P228">
+            <v>105</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="P229">
+            <v>106</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="P230">
+            <v>107</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="P231">
+            <v>108</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="P232">
+            <v>109</v>
           </cell>
         </row>
       </sheetData>
@@ -11641,8 +14841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BA158" sqref="BA158"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V169" sqref="V169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16718,6 +19918,9 @@
       <c r="O122" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="P122" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="Q122" s="1" t="s">
         <v>12</v>
       </c>
@@ -17093,6 +20296,10 @@
         <f t="shared" si="11"/>
         <v>12.227428685918747</v>
       </c>
+      <c r="P130">
+        <f>A130</f>
+        <v>7</v>
+      </c>
       <c r="Q130">
         <f>M10-M130</f>
         <v>4.3142074504867134</v>
@@ -17158,24 +20365,28 @@
         <f t="shared" si="11"/>
         <v>12.433726685627423</v>
       </c>
+      <c r="P131">
+        <f t="shared" ref="P131:P194" si="12">A131</f>
+        <v>8</v>
+      </c>
       <c r="Q131">
         <f>M11-M131</f>
         <v>8.2932233354658749</v>
       </c>
       <c r="R131">
-        <f t="shared" ref="R131:R194" si="12">Q131/M11</f>
+        <f t="shared" ref="R131:R194" si="13">Q131/M11</f>
         <v>3.3172893341863499</v>
       </c>
       <c r="S131">
-        <f t="shared" ref="S131:S194" si="13">1/SQRT(M11)</f>
+        <f t="shared" ref="S131:S194" si="14">1/SQRT(M11)</f>
         <v>0.63245553203367588</v>
       </c>
       <c r="T131">
-        <f t="shared" ref="T131:T194" si="14">R131/S131</f>
+        <f t="shared" ref="T131:T194" si="15">R131/S131</f>
         <v>5.2450949769061657</v>
       </c>
       <c r="U131">
-        <f t="shared" ref="U131:U194" si="15">Q131*Q131/M11</f>
+        <f t="shared" ref="U131:U194" si="16">Q131*Q131/M11</f>
         <v>27.511021316766296</v>
       </c>
     </row>
@@ -17223,24 +20434,28 @@
         <f t="shared" si="11"/>
         <v>10.789427517905311</v>
       </c>
+      <c r="P132">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
       <c r="Q132">
-        <f t="shared" ref="Q132:Q195" si="16">M12-M132</f>
+        <f t="shared" ref="Q132:Q195" si="17">M12-M132</f>
         <v>-9.5618159233126221</v>
       </c>
       <c r="R132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.37497317346324011</v>
       </c>
       <c r="S132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.19802950859533489</v>
       </c>
       <c r="T132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1.8935217085726466</v>
       </c>
       <c r="U132">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.585424460835875</v>
       </c>
     </row>
@@ -17288,24 +20503,28 @@
         <f t="shared" si="11"/>
         <v>17.177280931431234</v>
       </c>
+      <c r="P133">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
       <c r="Q133">
+        <f t="shared" si="17"/>
+        <v>-6.2793955770317496</v>
+      </c>
+      <c r="R133">
+        <f t="shared" si="13"/>
+        <v>-6.148734959149816E-2</v>
+      </c>
+      <c r="S133">
+        <f t="shared" si="14"/>
+        <v>9.8954139199058683E-2</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="15"/>
+        <v>-0.62137218401555316</v>
+      </c>
+      <c r="U133">
         <f t="shared" si="16"/>
-        <v>-6.2793955770317496</v>
-      </c>
-      <c r="R133">
-        <f t="shared" si="12"/>
-        <v>-6.148734959149816E-2</v>
-      </c>
-      <c r="S133">
-        <f t="shared" si="13"/>
-        <v>9.8954139199058683E-2</v>
-      </c>
-      <c r="T133">
-        <f t="shared" si="14"/>
-        <v>-0.62137218401555316</v>
-      </c>
-      <c r="U133">
-        <f t="shared" si="15"/>
         <v>0.38610339106825847</v>
       </c>
     </row>
@@ -17353,24 +20572,28 @@
         <f t="shared" si="11"/>
         <v>11.071788063908965</v>
       </c>
+      <c r="P134">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
       <c r="Q134">
+        <f t="shared" si="17"/>
+        <v>-2.9169907374303534</v>
+      </c>
+      <c r="R134">
+        <f t="shared" si="13"/>
+        <v>-1.3583193189431216E-2</v>
+      </c>
+      <c r="S134">
+        <f t="shared" si="14"/>
+        <v>6.8239119393494044E-2</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="15"/>
+        <v>-0.19905287920122611</v>
+      </c>
+      <c r="U134">
         <f t="shared" si="16"/>
-        <v>-2.9169907374303534</v>
-      </c>
-      <c r="R134">
-        <f t="shared" si="12"/>
-        <v>-1.3583193189431216E-2</v>
-      </c>
-      <c r="S134">
-        <f t="shared" si="13"/>
-        <v>6.8239119393494044E-2</v>
-      </c>
-      <c r="T134">
-        <f t="shared" si="14"/>
-        <v>-0.19905287920122611</v>
-      </c>
-      <c r="U134">
-        <f t="shared" si="15"/>
         <v>3.9622048718297914E-2</v>
       </c>
     </row>
@@ -17418,24 +20641,28 @@
         <f t="shared" si="11"/>
         <v>10.787859297556146</v>
       </c>
+      <c r="P135">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
       <c r="Q135">
+        <f t="shared" si="17"/>
+        <v>15.224031927074634</v>
+      </c>
+      <c r="R135">
+        <f t="shared" si="13"/>
+        <v>4.0036901846350122E-2</v>
+      </c>
+      <c r="S135">
+        <f t="shared" si="14"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="15"/>
+        <v>0.7807195860038274</v>
+      </c>
+      <c r="U135">
         <f t="shared" si="16"/>
-        <v>15.224031927074634</v>
-      </c>
-      <c r="R135">
-        <f t="shared" si="12"/>
-        <v>4.0036901846350122E-2</v>
-      </c>
-      <c r="S135">
-        <f t="shared" si="13"/>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="T135">
-        <f t="shared" si="14"/>
-        <v>0.7807195860038274</v>
-      </c>
-      <c r="U135">
-        <f t="shared" si="15"/>
         <v>0.60952307196998767</v>
       </c>
     </row>
@@ -17483,24 +20710,28 @@
         <f t="shared" si="11"/>
         <v>15.195045866839227</v>
       </c>
+      <c r="P136">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
       <c r="Q136">
+        <f t="shared" si="17"/>
+        <v>12.879101019353129</v>
+      </c>
+      <c r="R136">
+        <f t="shared" si="13"/>
+        <v>2.0651996022213879E-2</v>
+      </c>
+      <c r="S136">
+        <f t="shared" si="14"/>
+        <v>4.004407273335673E-2</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="15"/>
+        <v>0.51573165795922549</v>
+      </c>
+      <c r="U136">
         <f t="shared" si="16"/>
-        <v>12.879101019353129</v>
-      </c>
-      <c r="R136">
-        <f t="shared" si="12"/>
-        <v>2.0651996022213879E-2</v>
-      </c>
-      <c r="S136">
-        <f t="shared" si="13"/>
-        <v>4.004407273335673E-2</v>
-      </c>
-      <c r="T136">
-        <f t="shared" si="14"/>
-        <v>0.51573165795922549</v>
-      </c>
-      <c r="U136">
-        <f t="shared" si="15"/>
         <v>0.26597914302137154</v>
       </c>
     </row>
@@ -17548,24 +20779,28 @@
         <f t="shared" si="11"/>
         <v>27.550953069044432</v>
       </c>
+      <c r="P137">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
       <c r="Q137">
+        <f t="shared" si="17"/>
+        <v>-10.475401632478906</v>
+      </c>
+      <c r="R137">
+        <f t="shared" si="13"/>
+        <v>-1.19958793386532E-2</v>
+      </c>
+      <c r="S137">
+        <f t="shared" si="14"/>
+        <v>3.3840027153248686E-2</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="15"/>
+        <v>-0.35448787568427176</v>
+      </c>
+      <c r="U137">
         <f t="shared" si="16"/>
-        <v>-10.475401632478906</v>
-      </c>
-      <c r="R137">
-        <f t="shared" si="12"/>
-        <v>-1.19958793386532E-2</v>
-      </c>
-      <c r="S137">
-        <f t="shared" si="13"/>
-        <v>3.3840027153248686E-2</v>
-      </c>
-      <c r="T137">
-        <f t="shared" si="14"/>
-        <v>-0.35448787568427176</v>
-      </c>
-      <c r="U137">
-        <f t="shared" si="15"/>
         <v>0.12566165400714771</v>
       </c>
     </row>
@@ -17613,24 +20848,28 @@
         <f t="shared" si="11"/>
         <v>37.883999937078528</v>
       </c>
+      <c r="P138">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
       <c r="Q138">
+        <f t="shared" si="17"/>
+        <v>33.780673898762416</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="13"/>
+        <v>2.7851735668360231E-2</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="14"/>
+        <v>2.8713886396267204E-2</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="15"/>
+        <v>0.96997443271841277</v>
+      </c>
+      <c r="U138">
         <f t="shared" si="16"/>
-        <v>33.780673898762416</v>
-      </c>
-      <c r="R138">
-        <f t="shared" si="12"/>
-        <v>2.7851735668360231E-2</v>
-      </c>
-      <c r="S138">
-        <f t="shared" si="13"/>
-        <v>2.8713886396267204E-2</v>
-      </c>
-      <c r="T138">
-        <f t="shared" si="14"/>
-        <v>0.96997443271841277</v>
-      </c>
-      <c r="U138">
-        <f t="shared" si="15"/>
         <v>0.94085040012740673</v>
       </c>
     </row>
@@ -17678,24 +20917,28 @@
         <f t="shared" si="11"/>
         <v>45.96688318476663</v>
       </c>
+      <c r="P139">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
       <c r="Q139">
+        <f t="shared" si="17"/>
+        <v>6.3689854443127842</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="13"/>
+        <v>4.1346980081556663E-3</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="14"/>
+        <v>2.5479257578373642E-2</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="15"/>
+        <v>0.16227702064855795</v>
+      </c>
+      <c r="U139">
         <f t="shared" si="16"/>
-        <v>6.3689854443127842</v>
-      </c>
-      <c r="R139">
-        <f t="shared" si="12"/>
-        <v>4.1346980081556663E-3</v>
-      </c>
-      <c r="S139">
-        <f t="shared" si="13"/>
-        <v>2.5479257578373642E-2</v>
-      </c>
-      <c r="T139">
-        <f t="shared" si="14"/>
-        <v>0.16227702064855795</v>
-      </c>
-      <c r="U139">
-        <f t="shared" si="15"/>
         <v>2.63338314305725E-2</v>
       </c>
     </row>
@@ -17743,24 +20986,28 @@
         <f t="shared" si="11"/>
         <v>40.706411214035015</v>
       </c>
+      <c r="P140">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
       <c r="Q140">
+        <f t="shared" si="17"/>
+        <v>9.8015366345712209</v>
+      </c>
+      <c r="R140">
+        <f t="shared" si="13"/>
+        <v>5.214623467218845E-3</v>
+      </c>
+      <c r="S140">
+        <f t="shared" si="14"/>
+        <v>2.3065580739059788E-2</v>
+      </c>
+      <c r="T140">
+        <f t="shared" si="15"/>
+        <v>0.22607813461155482</v>
+      </c>
+      <c r="U140">
         <f t="shared" si="16"/>
-        <v>9.8015366345712209</v>
-      </c>
-      <c r="R140">
-        <f t="shared" si="12"/>
-        <v>5.214623467218845E-3</v>
-      </c>
-      <c r="S140">
-        <f t="shared" si="13"/>
-        <v>2.3065580739059788E-2</v>
-      </c>
-      <c r="T140">
-        <f t="shared" si="14"/>
-        <v>0.22607813461155482</v>
-      </c>
-      <c r="U140">
-        <f t="shared" si="15"/>
         <v>5.1111322949440305E-2</v>
       </c>
     </row>
@@ -17808,24 +21055,28 @@
         <f t="shared" si="11"/>
         <v>64.440201486851635</v>
       </c>
+      <c r="P141">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
       <c r="Q141">
+        <f t="shared" si="17"/>
+        <v>8.4185200780689229</v>
+      </c>
+      <c r="R141">
+        <f t="shared" si="13"/>
+        <v>3.6512963201166377E-3</v>
+      </c>
+      <c r="S141">
+        <f t="shared" si="14"/>
+        <v>2.0825990392946817E-2</v>
+      </c>
+      <c r="T141">
+        <f t="shared" si="15"/>
+        <v>0.17532401826869323</v>
+      </c>
+      <c r="U141">
         <f t="shared" si="16"/>
-        <v>8.4185200780689229</v>
-      </c>
-      <c r="R141">
-        <f t="shared" si="12"/>
-        <v>3.6512963201166377E-3</v>
-      </c>
-      <c r="S141">
-        <f t="shared" si="13"/>
-        <v>2.0825990392946817E-2</v>
-      </c>
-      <c r="T141">
-        <f t="shared" si="14"/>
-        <v>0.17532401826869323</v>
-      </c>
-      <c r="U141">
-        <f t="shared" si="15"/>
         <v>3.0738511381881089E-2</v>
       </c>
     </row>
@@ -17873,24 +21124,28 @@
         <f t="shared" si="11"/>
         <v>77.078039709871518</v>
       </c>
+      <c r="P142">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
       <c r="Q142">
+        <f t="shared" si="17"/>
+        <v>2.6752340793677831</v>
+      </c>
+      <c r="R142">
+        <f t="shared" si="13"/>
+        <v>9.9469569785007729E-4</v>
+      </c>
+      <c r="S142">
+        <f t="shared" si="14"/>
+        <v>1.9282539322832151E-2</v>
+      </c>
+      <c r="T142">
+        <f t="shared" si="15"/>
+        <v>5.1585306333189931E-2</v>
+      </c>
+      <c r="U142">
         <f t="shared" si="16"/>
-        <v>2.6752340793677831</v>
-      </c>
-      <c r="R142">
-        <f t="shared" si="12"/>
-        <v>9.9469569785007729E-4</v>
-      </c>
-      <c r="S142">
-        <f t="shared" si="13"/>
-        <v>1.9282539322832151E-2</v>
-      </c>
-      <c r="T142">
-        <f t="shared" si="14"/>
-        <v>5.1585306333189931E-2</v>
-      </c>
-      <c r="U142">
-        <f t="shared" si="15"/>
         <v>2.6610438294890465E-3</v>
       </c>
     </row>
@@ -17938,24 +21193,28 @@
         <f t="shared" si="11"/>
         <v>63.193012173073463</v>
       </c>
+      <c r="P143">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
       <c r="Q143">
+        <f t="shared" si="17"/>
+        <v>24.247328996662418</v>
+      </c>
+      <c r="R143">
+        <f t="shared" si="13"/>
+        <v>8.0912084747351027E-3</v>
+      </c>
+      <c r="S143">
+        <f t="shared" si="14"/>
+        <v>1.8267316060998445E-2</v>
+      </c>
+      <c r="T143">
+        <f t="shared" si="15"/>
+        <v>0.44293362241704476</v>
+      </c>
+      <c r="U143">
         <f t="shared" si="16"/>
-        <v>24.247328996662418</v>
-      </c>
-      <c r="R143">
-        <f t="shared" si="12"/>
-        <v>8.0912084747351027E-3</v>
-      </c>
-      <c r="S143">
-        <f t="shared" si="13"/>
-        <v>1.8267316060998445E-2</v>
-      </c>
-      <c r="T143">
-        <f t="shared" si="14"/>
-        <v>0.44293362241704476</v>
-      </c>
-      <c r="U143">
-        <f t="shared" si="15"/>
         <v>0.19619019386748512</v>
       </c>
     </row>
@@ -18003,24 +21262,28 @@
         <f t="shared" si="11"/>
         <v>99.284422987009847</v>
       </c>
+      <c r="P144">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
       <c r="Q144">
+        <f t="shared" si="17"/>
+        <v>-45.715275794262652</v>
+      </c>
+      <c r="R144">
+        <f t="shared" si="13"/>
+        <v>-1.3487818784956711E-2</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="14"/>
+        <v>1.7176718136839322E-2</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="15"/>
+        <v>-0.78523840686592283</v>
+      </c>
+      <c r="U144">
         <f t="shared" si="16"/>
-        <v>-45.715275794262652</v>
-      </c>
-      <c r="R144">
-        <f t="shared" si="12"/>
-        <v>-1.3487818784956711E-2</v>
-      </c>
-      <c r="S144">
-        <f t="shared" si="13"/>
-        <v>1.7176718136839322E-2</v>
-      </c>
-      <c r="T144">
-        <f t="shared" si="14"/>
-        <v>-0.78523840686592283</v>
-      </c>
-      <c r="U144">
-        <f t="shared" si="15"/>
         <v>0.61659935561733259</v>
       </c>
     </row>
@@ -18068,24 +21331,28 @@
         <f t="shared" si="11"/>
         <v>105.28608159361735</v>
       </c>
+      <c r="P145">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
       <c r="Q145">
+        <f t="shared" si="17"/>
+        <v>19.737509936098832</v>
+      </c>
+      <c r="R145">
+        <f t="shared" si="13"/>
+        <v>5.2046964034804747E-3</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="14"/>
+        <v>1.6238709775341649E-2</v>
+      </c>
+      <c r="T145">
+        <f t="shared" si="15"/>
+        <v>0.32051169554023096</v>
+      </c>
+      <c r="U145">
         <f t="shared" si="16"/>
-        <v>19.737509936098832</v>
-      </c>
-      <c r="R145">
-        <f t="shared" si="12"/>
-        <v>5.2046964034804747E-3</v>
-      </c>
-      <c r="S145">
-        <f t="shared" si="13"/>
-        <v>1.6238709775341649E-2</v>
-      </c>
-      <c r="T145">
-        <f t="shared" si="14"/>
-        <v>0.32051169554023096</v>
-      </c>
-      <c r="U145">
-        <f t="shared" si="15"/>
         <v>0.10272774697807373</v>
       </c>
     </row>
@@ -18133,24 +21400,28 @@
         <f t="shared" si="11"/>
         <v>102.34779885287602</v>
       </c>
+      <c r="P146">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
       <c r="Q146">
+        <f t="shared" si="17"/>
+        <v>-21.742539525026586</v>
+      </c>
+      <c r="R146">
+        <f t="shared" si="13"/>
+        <v>-5.2856544366176213E-3</v>
+      </c>
+      <c r="S146">
+        <f t="shared" si="14"/>
+        <v>1.5591727976114366E-2</v>
+      </c>
+      <c r="T146">
+        <f t="shared" si="15"/>
+        <v>-0.33900376178412944</v>
+      </c>
+      <c r="U146">
         <f t="shared" si="16"/>
-        <v>-21.742539525026586</v>
-      </c>
-      <c r="R146">
-        <f t="shared" si="12"/>
-        <v>-5.2856544366176213E-3</v>
-      </c>
-      <c r="S146">
-        <f t="shared" si="13"/>
-        <v>1.5591727976114366E-2</v>
-      </c>
-      <c r="T146">
-        <f t="shared" si="14"/>
-        <v>-0.33900376178412944</v>
-      </c>
-      <c r="U146">
-        <f t="shared" si="15"/>
         <v>0.11492355050379077</v>
       </c>
     </row>
@@ -18198,24 +21469,28 @@
         <f t="shared" si="11"/>
         <v>120.23162011084302</v>
       </c>
+      <c r="P147">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
       <c r="Q147">
+        <f t="shared" si="17"/>
+        <v>3.607103943830225</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="13"/>
+        <v>8.3034073463130668E-4</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="14"/>
+        <v>1.5172209934815136E-2</v>
+      </c>
+      <c r="T147">
+        <f t="shared" si="15"/>
+        <v>5.4727738292491793E-2</v>
+      </c>
+      <c r="U147">
         <f t="shared" si="16"/>
-        <v>3.607103943830225</v>
-      </c>
-      <c r="R147">
-        <f t="shared" si="12"/>
-        <v>8.3034073463130668E-4</v>
-      </c>
-      <c r="S147">
-        <f t="shared" si="13"/>
-        <v>1.5172209934815136E-2</v>
-      </c>
-      <c r="T147">
-        <f t="shared" si="14"/>
-        <v>5.4727738292491793E-2</v>
-      </c>
-      <c r="U147">
-        <f t="shared" si="15"/>
         <v>2.9951253386114726E-3</v>
       </c>
     </row>
@@ -18263,24 +21538,28 @@
         <f t="shared" si="11"/>
         <v>126.35017689370075</v>
       </c>
+      <c r="P148">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
       <c r="Q148">
+        <f t="shared" si="17"/>
+        <v>7.0434984862849888</v>
+      </c>
+      <c r="R148">
+        <f t="shared" si="13"/>
+        <v>1.485382572565702E-3</v>
+      </c>
+      <c r="S148">
+        <f t="shared" si="14"/>
+        <v>1.4521950407133924E-2</v>
+      </c>
+      <c r="T148">
+        <f t="shared" si="15"/>
+        <v>0.10228533571055347</v>
+      </c>
+      <c r="U148">
         <f t="shared" si="16"/>
-        <v>7.0434984862849888</v>
-      </c>
-      <c r="R148">
-        <f t="shared" si="12"/>
-        <v>1.485382572565702E-3</v>
-      </c>
-      <c r="S148">
-        <f t="shared" si="13"/>
-        <v>1.4521950407133924E-2</v>
-      </c>
-      <c r="T148">
-        <f t="shared" si="14"/>
-        <v>0.10228533571055347</v>
-      </c>
-      <c r="U148">
-        <f t="shared" si="15"/>
         <v>1.0462289901420625E-2</v>
       </c>
     </row>
@@ -18328,24 +21607,28 @@
         <f t="shared" si="11"/>
         <v>120.49452462859267</v>
       </c>
+      <c r="P149">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
       <c r="Q149">
+        <f t="shared" si="17"/>
+        <v>-6.4638740420314207</v>
+      </c>
+      <c r="R149">
+        <f t="shared" si="13"/>
+        <v>-1.298781673646901E-3</v>
+      </c>
+      <c r="S149">
+        <f t="shared" si="14"/>
+        <v>1.4174953192277748E-2</v>
+      </c>
+      <c r="T149">
+        <f t="shared" si="15"/>
+        <v>-9.1625111986574539E-2</v>
+      </c>
+      <c r="U149">
         <f t="shared" si="16"/>
-        <v>-6.4638740420314207</v>
-      </c>
-      <c r="R149">
-        <f t="shared" si="12"/>
-        <v>-1.298781673646901E-3</v>
-      </c>
-      <c r="S149">
-        <f t="shared" si="13"/>
-        <v>1.4174953192277748E-2</v>
-      </c>
-      <c r="T149">
-        <f t="shared" si="14"/>
-        <v>-9.1625111986574539E-2</v>
-      </c>
-      <c r="U149">
-        <f t="shared" si="15"/>
         <v>8.3951611465523275E-3</v>
       </c>
     </row>
@@ -18393,24 +21676,28 @@
         <f t="shared" si="11"/>
         <v>142.9612670960926</v>
       </c>
+      <c r="P150">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
       <c r="Q150">
+        <f t="shared" si="17"/>
+        <v>-10.193053513759878</v>
+      </c>
+      <c r="R150">
+        <f t="shared" si="13"/>
+        <v>-1.9820239198405287E-3</v>
+      </c>
+      <c r="S150">
+        <f t="shared" si="14"/>
+        <v>1.3944479031314379E-2</v>
+      </c>
+      <c r="T150">
+        <f t="shared" si="15"/>
+        <v>-0.14213682098768998</v>
+      </c>
+      <c r="U150">
         <f t="shared" si="16"/>
-        <v>-10.193053513759878</v>
-      </c>
-      <c r="R150">
-        <f t="shared" si="12"/>
-        <v>-1.9820239198405287E-3</v>
-      </c>
-      <c r="S150">
-        <f t="shared" si="13"/>
-        <v>1.3944479031314379E-2</v>
-      </c>
-      <c r="T150">
-        <f t="shared" si="14"/>
-        <v>-0.14213682098768998</v>
-      </c>
-      <c r="U150">
-        <f t="shared" si="15"/>
         <v>2.0202875880486627E-2</v>
       </c>
     </row>
@@ -18458,24 +21745,28 @@
         <f t="shared" si="11"/>
         <v>143.6447343020605</v>
       </c>
+      <c r="P151">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
       <c r="Q151">
+        <f t="shared" si="17"/>
+        <v>3.7049828171839181</v>
+      </c>
+      <c r="R151">
+        <f t="shared" si="13"/>
+        <v>6.9397945533765729E-4</v>
+      </c>
+      <c r="S151">
+        <f t="shared" si="14"/>
+        <v>1.3686115720737697E-2</v>
+      </c>
+      <c r="T151">
+        <f t="shared" si="15"/>
+        <v>5.0706823579323865E-2</v>
+      </c>
+      <c r="U151">
         <f t="shared" si="16"/>
-        <v>3.7049828171839181</v>
-      </c>
-      <c r="R151">
-        <f t="shared" si="12"/>
-        <v>6.9397945533765729E-4</v>
-      </c>
-      <c r="S151">
-        <f t="shared" si="13"/>
-        <v>1.3686115720737697E-2</v>
-      </c>
-      <c r="T151">
-        <f t="shared" si="14"/>
-        <v>5.0706823579323865E-2</v>
-      </c>
-      <c r="U151">
-        <f t="shared" si="15"/>
         <v>2.5711819575046746E-3</v>
       </c>
     </row>
@@ -18523,24 +21814,28 @@
         <f t="shared" si="11"/>
         <v>152.3554406553709</v>
       </c>
+      <c r="P152">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
       <c r="Q152">
+        <f t="shared" si="17"/>
+        <v>-47.595238298172262</v>
+      </c>
+      <c r="R152">
+        <f t="shared" si="13"/>
+        <v>-8.739686147436778E-3</v>
+      </c>
+      <c r="S152">
+        <f t="shared" si="14"/>
+        <v>1.3550838384546319E-2</v>
+      </c>
+      <c r="T152">
+        <f t="shared" si="15"/>
+        <v>-0.6449553820525018</v>
+      </c>
+      <c r="U152">
         <f t="shared" si="16"/>
-        <v>-47.595238298172262</v>
-      </c>
-      <c r="R152">
-        <f t="shared" si="12"/>
-        <v>-8.739686147436778E-3</v>
-      </c>
-      <c r="S152">
-        <f t="shared" si="13"/>
-        <v>1.3550838384546319E-2</v>
-      </c>
-      <c r="T152">
-        <f t="shared" si="14"/>
-        <v>-0.6449553820525018</v>
-      </c>
-      <c r="U152">
-        <f t="shared" si="15"/>
         <v>0.41596744483848846</v>
       </c>
     </row>
@@ -18588,24 +21883,28 @@
         <f t="shared" si="11"/>
         <v>163.22421078115983</v>
       </c>
+      <c r="P153">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
       <c r="Q153">
+        <f t="shared" si="17"/>
+        <v>-38.303087264293936</v>
+      </c>
+      <c r="R153">
+        <f t="shared" si="13"/>
+        <v>-6.8503878320259216E-3</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="14"/>
+        <v>1.337336474903855E-2</v>
+      </c>
+      <c r="T153">
+        <f t="shared" si="15"/>
+        <v>-0.512241156999656</v>
+      </c>
+      <c r="U153">
         <f t="shared" si="16"/>
-        <v>-38.303087264293936</v>
-      </c>
-      <c r="R153">
-        <f t="shared" si="12"/>
-        <v>-6.8503878320259216E-3</v>
-      </c>
-      <c r="S153">
-        <f t="shared" si="13"/>
-        <v>1.337336474903855E-2</v>
-      </c>
-      <c r="T153">
-        <f t="shared" si="14"/>
-        <v>-0.512241156999656</v>
-      </c>
-      <c r="U153">
-        <f t="shared" si="15"/>
         <v>0.26239100292434619</v>
       </c>
     </row>
@@ -18653,24 +21952,28 @@
         <f t="shared" si="11"/>
         <v>181.61180528746752</v>
       </c>
+      <c r="P154">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
       <c r="Q154">
+        <f t="shared" si="17"/>
+        <v>-102.53142470120929</v>
+      </c>
+      <c r="R154">
+        <f t="shared" si="13"/>
+        <v>-1.8123097605162931E-2</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="14"/>
+        <v>1.3294980928779005E-2</v>
+      </c>
+      <c r="T154">
+        <f t="shared" si="15"/>
+        <v>-1.3631533360031178</v>
+      </c>
+      <c r="U154">
         <f t="shared" si="16"/>
-        <v>-102.53142470120929</v>
-      </c>
-      <c r="R154">
-        <f t="shared" si="12"/>
-        <v>-1.8123097605162931E-2</v>
-      </c>
-      <c r="S154">
-        <f t="shared" si="13"/>
-        <v>1.3294980928779005E-2</v>
-      </c>
-      <c r="T154">
-        <f t="shared" si="14"/>
-        <v>-1.3631533360031178</v>
-      </c>
-      <c r="U154">
-        <f t="shared" si="15"/>
         <v>1.8581870174564294</v>
       </c>
     </row>
@@ -18718,24 +22021,28 @@
         <f t="shared" si="11"/>
         <v>165.17050946354104</v>
       </c>
+      <c r="P155">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
       <c r="Q155">
+        <f t="shared" si="17"/>
+        <v>-76.690414726730523</v>
+      </c>
+      <c r="R155">
+        <f t="shared" si="13"/>
+        <v>-1.3403314497615332E-2</v>
+      </c>
+      <c r="S155">
+        <f t="shared" si="14"/>
+        <v>1.3220124979025265E-2</v>
+      </c>
+      <c r="T155">
+        <f t="shared" si="15"/>
+        <v>-1.0138568673806572</v>
+      </c>
+      <c r="U155">
         <f t="shared" si="16"/>
-        <v>-76.690414726730523</v>
-      </c>
-      <c r="R155">
-        <f t="shared" si="12"/>
-        <v>-1.3403314497615332E-2</v>
-      </c>
-      <c r="S155">
-        <f t="shared" si="13"/>
-        <v>1.3220124979025265E-2</v>
-      </c>
-      <c r="T155">
-        <f t="shared" si="14"/>
-        <v>-1.0138568673806572</v>
-      </c>
-      <c r="U155">
-        <f t="shared" si="15"/>
         <v>1.0279057475349196</v>
       </c>
     </row>
@@ -18783,24 +22090,28 @@
         <f t="shared" si="11"/>
         <v>181.4924118618876</v>
       </c>
+      <c r="P156">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
       <c r="Q156">
+        <f t="shared" si="17"/>
+        <v>-19.200662255278075</v>
+      </c>
+      <c r="R156">
+        <f t="shared" si="13"/>
+        <v>-3.3293299963635392E-3</v>
+      </c>
+      <c r="S156">
+        <f t="shared" si="14"/>
+        <v>1.3168015154181935E-2</v>
+      </c>
+      <c r="T156">
+        <f t="shared" si="15"/>
+        <v>-0.25283461154783082</v>
+      </c>
+      <c r="U156">
         <f t="shared" si="16"/>
-        <v>-19.200662255278075</v>
-      </c>
-      <c r="R156">
-        <f t="shared" si="12"/>
-        <v>-3.3293299963635392E-3</v>
-      </c>
-      <c r="S156">
-        <f t="shared" si="13"/>
-        <v>1.3168015154181935E-2</v>
-      </c>
-      <c r="T156">
-        <f t="shared" si="14"/>
-        <v>-0.25283461154783082</v>
-      </c>
-      <c r="U156">
-        <f t="shared" si="15"/>
         <v>6.3925340796542496E-2</v>
       </c>
     </row>
@@ -18848,24 +22159,28 @@
         <f t="shared" si="11"/>
         <v>173.56415022763503</v>
       </c>
+      <c r="P157">
+        <f t="shared" si="12"/>
+        <v>34</v>
+      </c>
       <c r="Q157">
+        <f t="shared" si="17"/>
+        <v>-22.586277604097631</v>
+      </c>
+      <c r="R157">
+        <f t="shared" si="13"/>
+        <v>-3.9431350565812904E-3</v>
+      </c>
+      <c r="S157">
+        <f t="shared" si="14"/>
+        <v>1.3212910564542248E-2</v>
+      </c>
+      <c r="T157">
+        <f t="shared" si="15"/>
+        <v>-0.29843046596886563</v>
+      </c>
+      <c r="U157">
         <f t="shared" si="16"/>
-        <v>-22.586277604097631</v>
-      </c>
-      <c r="R157">
-        <f t="shared" si="12"/>
-        <v>-3.9431350565812904E-3</v>
-      </c>
-      <c r="S157">
-        <f t="shared" si="13"/>
-        <v>1.3212910564542248E-2</v>
-      </c>
-      <c r="T157">
-        <f t="shared" si="14"/>
-        <v>-0.29843046596886563</v>
-      </c>
-      <c r="U157">
-        <f t="shared" si="15"/>
         <v>8.9060743018394242E-2</v>
       </c>
     </row>
@@ -18913,24 +22228,28 @@
         <f t="shared" si="11"/>
         <v>176.59952588882149</v>
       </c>
+      <c r="P158">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
       <c r="Q158">
+        <f t="shared" si="17"/>
+        <v>-74.670384347435174</v>
+      </c>
+      <c r="R158">
+        <f t="shared" si="13"/>
+        <v>-1.3265596473084795E-2</v>
+      </c>
+      <c r="S158">
+        <f t="shared" si="14"/>
+        <v>1.3328743112218882E-2</v>
+      </c>
+      <c r="T158">
+        <f t="shared" si="15"/>
+        <v>-0.99526237105761317</v>
+      </c>
+      <c r="U158">
         <f t="shared" si="16"/>
-        <v>-74.670384347435174</v>
-      </c>
-      <c r="R158">
-        <f t="shared" si="12"/>
-        <v>-1.3265596473084795E-2</v>
-      </c>
-      <c r="S158">
-        <f t="shared" si="13"/>
-        <v>1.3328743112218882E-2</v>
-      </c>
-      <c r="T158">
-        <f t="shared" si="14"/>
-        <v>-0.99526237105761317</v>
-      </c>
-      <c r="U158">
-        <f t="shared" si="15"/>
         <v>0.9905471872432221</v>
       </c>
     </row>
@@ -18978,24 +22297,28 @@
         <f t="shared" si="11"/>
         <v>186.85580114088393</v>
       </c>
+      <c r="P159">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
       <c r="Q159">
+        <f t="shared" si="17"/>
+        <v>-88.968263328067223</v>
+      </c>
+      <c r="R159">
+        <f t="shared" si="13"/>
+        <v>-1.6059253308315383E-2</v>
+      </c>
+      <c r="S159">
+        <f t="shared" si="14"/>
+        <v>1.3435230372511476E-2</v>
+      </c>
+      <c r="T159">
+        <f t="shared" si="15"/>
+        <v>-1.1953091136548477</v>
+      </c>
+      <c r="U159">
         <f t="shared" si="16"/>
-        <v>-88.968263328067223</v>
-      </c>
-      <c r="R159">
-        <f t="shared" si="12"/>
-        <v>-1.6059253308315383E-2</v>
-      </c>
-      <c r="S159">
-        <f t="shared" si="13"/>
-        <v>1.3435230372511476E-2</v>
-      </c>
-      <c r="T159">
-        <f t="shared" si="14"/>
-        <v>-1.1953091136548477</v>
-      </c>
-      <c r="U159">
-        <f t="shared" si="15"/>
         <v>1.4287638771863378</v>
       </c>
     </row>
@@ -19043,24 +22366,28 @@
         <f t="shared" si="11"/>
         <v>200.58974710724692</v>
       </c>
+      <c r="P160">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
       <c r="Q160">
+        <f t="shared" si="17"/>
+        <v>-28.651956498619256</v>
+      </c>
+      <c r="R160">
+        <f t="shared" si="13"/>
+        <v>-5.2211943233401075E-3</v>
+      </c>
+      <c r="S160">
+        <f t="shared" si="14"/>
+        <v>1.3499192392788215E-2</v>
+      </c>
+      <c r="T160">
+        <f t="shared" si="15"/>
+        <v>-0.38677827320465996</v>
+      </c>
+      <c r="U160">
         <f t="shared" si="16"/>
-        <v>-28.651956498619256</v>
-      </c>
-      <c r="R160">
-        <f t="shared" si="12"/>
-        <v>-5.2211943233401075E-3</v>
-      </c>
-      <c r="S160">
-        <f t="shared" si="13"/>
-        <v>1.3499192392788215E-2</v>
-      </c>
-      <c r="T160">
-        <f t="shared" si="14"/>
-        <v>-0.38677827320465996</v>
-      </c>
-      <c r="U160">
-        <f t="shared" si="15"/>
         <v>0.14959743262317854</v>
       </c>
     </row>
@@ -19108,24 +22435,28 @@
         <f t="shared" si="11"/>
         <v>182.65288748181274</v>
       </c>
+      <c r="P161">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
       <c r="Q161">
+        <f t="shared" si="17"/>
+        <v>-103.08118565379846</v>
+      </c>
+      <c r="R161">
+        <f t="shared" si="13"/>
+        <v>-1.9528037254739342E-2</v>
+      </c>
+      <c r="S161">
+        <f t="shared" si="14"/>
+        <v>1.3763839347353903E-2</v>
+      </c>
+      <c r="T161">
+        <f t="shared" si="15"/>
+        <v>-1.4187928790736435</v>
+      </c>
+      <c r="U161">
         <f t="shared" si="16"/>
-        <v>-103.08118565379846</v>
-      </c>
-      <c r="R161">
-        <f t="shared" si="12"/>
-        <v>-1.9528037254739342E-2</v>
-      </c>
-      <c r="S161">
-        <f t="shared" si="13"/>
-        <v>1.3763839347353903E-2</v>
-      </c>
-      <c r="T161">
-        <f t="shared" si="14"/>
-        <v>-1.4187928790736435</v>
-      </c>
-      <c r="U161">
-        <f t="shared" si="15"/>
         <v>2.012973233710079</v>
       </c>
     </row>
@@ -19173,24 +22504,28 @@
         <f t="shared" si="11"/>
         <v>192.07242898365612</v>
       </c>
+      <c r="P162">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
       <c r="Q162">
+        <f t="shared" si="17"/>
+        <v>1.374294906864634</v>
+      </c>
+      <c r="R162">
+        <f t="shared" si="13"/>
+        <v>2.6351467463010093E-4</v>
+      </c>
+      <c r="S162">
+        <f t="shared" si="14"/>
+        <v>1.3847214960382929E-2</v>
+      </c>
+      <c r="T162">
+        <f t="shared" si="15"/>
+        <v>1.9030156994314019E-2</v>
+      </c>
+      <c r="U162">
         <f t="shared" si="16"/>
-        <v>1.374294906864634</v>
-      </c>
-      <c r="R162">
-        <f t="shared" si="12"/>
-        <v>2.6351467463010093E-4</v>
-      </c>
-      <c r="S162">
-        <f t="shared" si="13"/>
-        <v>1.3847214960382929E-2</v>
-      </c>
-      <c r="T162">
-        <f t="shared" si="14"/>
-        <v>1.9030156994314019E-2</v>
-      </c>
-      <c r="U162">
-        <f t="shared" si="15"/>
         <v>3.6214687522823888E-4</v>
       </c>
     </row>
@@ -19238,24 +22573,28 @@
         <f t="shared" si="11"/>
         <v>193.76446197873014</v>
       </c>
+      <c r="P163">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
       <c r="Q163">
+        <f t="shared" si="17"/>
+        <v>-78.767599344247174</v>
+      </c>
+      <c r="R163">
+        <f t="shared" si="13"/>
+        <v>-1.5845024887575183E-2</v>
+      </c>
+      <c r="S163">
+        <f t="shared" si="14"/>
+        <v>1.4183148764245436E-2</v>
+      </c>
+      <c r="T163">
+        <f t="shared" si="15"/>
+        <v>-1.1171725793019391</v>
+      </c>
+      <c r="U163">
         <f t="shared" si="16"/>
-        <v>-78.767599344247174</v>
-      </c>
-      <c r="R163">
-        <f t="shared" si="12"/>
-        <v>-1.5845024887575183E-2</v>
-      </c>
-      <c r="S163">
-        <f t="shared" si="13"/>
-        <v>1.4183148764245436E-2</v>
-      </c>
-      <c r="T163">
-        <f t="shared" si="14"/>
-        <v>-1.1171725793019391</v>
-      </c>
-      <c r="U163">
-        <f t="shared" si="15"/>
         <v>1.2480745719441468</v>
       </c>
     </row>
@@ -19303,24 +22642,28 @@
         <f t="shared" si="11"/>
         <v>190.18073815183379</v>
       </c>
+      <c r="P164">
+        <f t="shared" si="12"/>
+        <v>41</v>
+      </c>
       <c r="Q164">
+        <f t="shared" si="17"/>
+        <v>-39.384422697112313</v>
+      </c>
+      <c r="R164">
+        <f t="shared" si="13"/>
+        <v>-8.0805134790956738E-3</v>
+      </c>
+      <c r="S164">
+        <f t="shared" si="14"/>
+        <v>1.432376666040793E-2</v>
+      </c>
+      <c r="T164">
+        <f t="shared" si="15"/>
+        <v>-0.5641332807683106</v>
+      </c>
+      <c r="U164">
         <f t="shared" si="16"/>
-        <v>-39.384422697112313</v>
-      </c>
-      <c r="R164">
-        <f t="shared" si="12"/>
-        <v>-8.0805134790956738E-3</v>
-      </c>
-      <c r="S164">
-        <f t="shared" si="13"/>
-        <v>1.432376666040793E-2</v>
-      </c>
-      <c r="T164">
-        <f t="shared" si="14"/>
-        <v>-0.5641332807683106</v>
-      </c>
-      <c r="U164">
-        <f t="shared" si="15"/>
         <v>0.31824635847041766</v>
       </c>
     </row>
@@ -19368,24 +22711,28 @@
         <f t="shared" si="11"/>
         <v>178.69989803030001</v>
       </c>
+      <c r="P165">
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
       <c r="Q165">
+        <f t="shared" si="17"/>
+        <v>-15.624424152061692</v>
+      </c>
+      <c r="R165">
+        <f t="shared" si="13"/>
+        <v>-3.381909989623743E-3</v>
+      </c>
+      <c r="S165">
+        <f t="shared" si="14"/>
+        <v>1.4712247158412491E-2</v>
+      </c>
+      <c r="T165">
+        <f t="shared" si="15"/>
+        <v>-0.22987038983300118</v>
+      </c>
+      <c r="U165">
         <f t="shared" si="16"/>
-        <v>-15.624424152061692</v>
-      </c>
-      <c r="R165">
-        <f t="shared" si="12"/>
-        <v>-3.381909989623743E-3</v>
-      </c>
-      <c r="S165">
-        <f t="shared" si="13"/>
-        <v>1.4712247158412491E-2</v>
-      </c>
-      <c r="T165">
-        <f t="shared" si="14"/>
-        <v>-0.22987038983300118</v>
-      </c>
-      <c r="U165">
-        <f t="shared" si="15"/>
         <v>5.284039612197592E-2</v>
       </c>
     </row>
@@ -19433,24 +22780,28 @@
         <f t="shared" si="11"/>
         <v>186.99604167683722</v>
       </c>
+      <c r="P166">
+        <f t="shared" si="12"/>
+        <v>43</v>
+      </c>
       <c r="Q166">
+        <f t="shared" si="17"/>
+        <v>-91.88628849572342</v>
+      </c>
+      <c r="R166">
+        <f t="shared" si="13"/>
+        <v>-2.0796398788179685E-2</v>
+      </c>
+      <c r="S166">
+        <f t="shared" si="14"/>
+        <v>1.504418666962188E-2</v>
+      </c>
+      <c r="T166">
+        <f t="shared" si="15"/>
+        <v>-1.3823544765083922</v>
+      </c>
+      <c r="U166">
         <f t="shared" si="16"/>
-        <v>-91.88628849572342</v>
-      </c>
-      <c r="R166">
-        <f t="shared" si="12"/>
-        <v>-2.0796398788179685E-2</v>
-      </c>
-      <c r="S166">
-        <f t="shared" si="13"/>
-        <v>1.504418666962188E-2</v>
-      </c>
-      <c r="T166">
-        <f t="shared" si="14"/>
-        <v>-1.3823544765083922</v>
-      </c>
-      <c r="U166">
-        <f t="shared" si="15"/>
         <v>1.9109038987227913</v>
       </c>
     </row>
@@ -19498,24 +22849,28 @@
         <f t="shared" si="11"/>
         <v>186.17775090926628</v>
       </c>
+      <c r="P167">
+        <f t="shared" si="12"/>
+        <v>44</v>
+      </c>
       <c r="Q167">
+        <f t="shared" si="17"/>
+        <v>-94.050310445944888</v>
+      </c>
+      <c r="R167">
+        <f t="shared" si="13"/>
+        <v>-2.2171218869859708E-2</v>
+      </c>
+      <c r="S167">
+        <f t="shared" si="14"/>
+        <v>1.5353757178626857E-2</v>
+      </c>
+      <c r="T167">
+        <f t="shared" si="15"/>
+        <v>-1.4440256291615106</v>
+      </c>
+      <c r="U167">
         <f t="shared" si="16"/>
-        <v>-94.050310445944888</v>
-      </c>
-      <c r="R167">
-        <f t="shared" si="12"/>
-        <v>-2.2171218869859708E-2</v>
-      </c>
-      <c r="S167">
-        <f t="shared" si="13"/>
-        <v>1.5353757178626857E-2</v>
-      </c>
-      <c r="T167">
-        <f t="shared" si="14"/>
-        <v>-1.4440256291615106</v>
-      </c>
-      <c r="U167">
-        <f t="shared" si="15"/>
         <v>2.0852100176752972</v>
       </c>
     </row>
@@ -19563,24 +22918,28 @@
         <f t="shared" si="11"/>
         <v>180.57369727857295</v>
       </c>
+      <c r="P168">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
       <c r="Q168">
+        <f t="shared" si="17"/>
+        <v>-31.091321178706494</v>
+      </c>
+      <c r="R168">
+        <f t="shared" si="13"/>
+        <v>-7.679002483086411E-3</v>
+      </c>
+      <c r="S168">
+        <f t="shared" si="14"/>
+        <v>1.5715666909482562E-2</v>
+      </c>
+      <c r="T168">
+        <f t="shared" si="15"/>
+        <v>-0.48862084742029199</v>
+      </c>
+      <c r="U168">
         <f t="shared" si="16"/>
-        <v>-31.091321178706494</v>
-      </c>
-      <c r="R168">
-        <f t="shared" si="12"/>
-        <v>-7.679002483086411E-3</v>
-      </c>
-      <c r="S168">
-        <f t="shared" si="13"/>
-        <v>1.5715666909482562E-2</v>
-      </c>
-      <c r="T168">
-        <f t="shared" si="14"/>
-        <v>-0.48862084742029199</v>
-      </c>
-      <c r="U168">
-        <f t="shared" si="15"/>
         <v>0.2387503325337243</v>
       </c>
     </row>
@@ -19628,24 +22987,28 @@
         <f t="shared" si="11"/>
         <v>158.84765021655369</v>
       </c>
+      <c r="P169">
+        <f t="shared" si="12"/>
+        <v>46</v>
+      </c>
       <c r="Q169">
+        <f t="shared" si="17"/>
+        <v>-22.849774809549672</v>
+      </c>
+      <c r="R169">
+        <f t="shared" si="13"/>
+        <v>-5.9623013952313309E-3</v>
+      </c>
+      <c r="S169">
+        <f t="shared" si="14"/>
+        <v>1.6153476372506338E-2</v>
+      </c>
+      <c r="T169">
+        <f t="shared" si="15"/>
+        <v>-0.36910329750315124</v>
+      </c>
+      <c r="U169">
         <f t="shared" si="16"/>
-        <v>-22.849774809549672</v>
-      </c>
-      <c r="R169">
-        <f t="shared" si="12"/>
-        <v>-5.9623013952313309E-3</v>
-      </c>
-      <c r="S169">
-        <f t="shared" si="13"/>
-        <v>1.6153476372506338E-2</v>
-      </c>
-      <c r="T169">
-        <f t="shared" si="14"/>
-        <v>-0.36910329750315124</v>
-      </c>
-      <c r="U169">
-        <f t="shared" si="15"/>
         <v>0.13623724422769973</v>
       </c>
     </row>
@@ -19693,24 +23056,28 @@
         <f t="shared" si="11"/>
         <v>173.17085304109003</v>
       </c>
+      <c r="P170">
+        <f t="shared" si="12"/>
+        <v>47</v>
+      </c>
       <c r="Q170">
+        <f t="shared" si="17"/>
+        <v>-15.851207328953933</v>
+      </c>
+      <c r="R170">
+        <f t="shared" si="13"/>
+        <v>-4.3868149109776685E-3</v>
+      </c>
+      <c r="S170">
+        <f t="shared" si="14"/>
+        <v>1.6635792022840736E-2</v>
+      </c>
+      <c r="T170">
+        <f t="shared" si="15"/>
+        <v>-0.26369738843540635</v>
+      </c>
+      <c r="U170">
         <f t="shared" si="16"/>
-        <v>-15.851207328953933</v>
-      </c>
-      <c r="R170">
-        <f t="shared" si="12"/>
-        <v>-4.3868149109776685E-3</v>
-      </c>
-      <c r="S170">
-        <f t="shared" si="13"/>
-        <v>1.6635792022840736E-2</v>
-      </c>
-      <c r="T170">
-        <f t="shared" si="14"/>
-        <v>-0.26369738843540635</v>
-      </c>
-      <c r="U170">
-        <f t="shared" si="15"/>
         <v>6.9536312667653616E-2</v>
       </c>
     </row>
@@ -19758,24 +23125,28 @@
         <f t="shared" si="11"/>
         <v>141.03199676403278</v>
       </c>
+      <c r="P171">
+        <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
       <c r="Q171">
+        <f t="shared" si="17"/>
+        <v>-25.634674809869011</v>
+      </c>
+      <c r="R171">
+        <f t="shared" si="13"/>
+        <v>-7.4476103456911713E-3</v>
+      </c>
+      <c r="S171">
+        <f t="shared" si="14"/>
+        <v>1.7044904292704971E-2</v>
+      </c>
+      <c r="T171">
+        <f t="shared" si="15"/>
+        <v>-0.43694057870883241</v>
+      </c>
+      <c r="U171">
         <f t="shared" si="16"/>
-        <v>-25.634674809869011</v>
-      </c>
-      <c r="R171">
-        <f t="shared" si="12"/>
-        <v>-7.4476103456911713E-3</v>
-      </c>
-      <c r="S171">
-        <f t="shared" si="13"/>
-        <v>1.7044904292704971E-2</v>
-      </c>
-      <c r="T171">
-        <f t="shared" si="14"/>
-        <v>-0.43694057870883241</v>
-      </c>
-      <c r="U171">
-        <f t="shared" si="15"/>
         <v>0.19091706932240932</v>
       </c>
     </row>
@@ -19823,24 +23194,28 @@
         <f t="shared" si="11"/>
         <v>177.9883063034527</v>
       </c>
+      <c r="P172">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
       <c r="Q172">
+        <f t="shared" si="17"/>
+        <v>48.529026644775513</v>
+      </c>
+      <c r="R172">
+        <f t="shared" si="13"/>
+        <v>1.5131039564977945E-2</v>
+      </c>
+      <c r="S172">
+        <f t="shared" si="14"/>
+        <v>1.7657678008211362E-2</v>
+      </c>
+      <c r="T172">
+        <f t="shared" si="15"/>
+        <v>0.85690992654535592</v>
+      </c>
+      <c r="U172">
         <f t="shared" si="16"/>
-        <v>48.529026644775513</v>
-      </c>
-      <c r="R172">
-        <f t="shared" si="12"/>
-        <v>1.5131039564977945E-2</v>
-      </c>
-      <c r="S172">
-        <f t="shared" si="13"/>
-        <v>1.7657678008211362E-2</v>
-      </c>
-      <c r="T172">
-        <f t="shared" si="14"/>
-        <v>0.85690992654535592</v>
-      </c>
-      <c r="U172">
-        <f t="shared" si="15"/>
         <v>0.73429462221196717</v>
       </c>
     </row>
@@ -19888,24 +23263,28 @@
         <f t="shared" si="11"/>
         <v>146.5249238794465</v>
       </c>
+      <c r="P173">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
       <c r="Q173">
+        <f t="shared" si="17"/>
+        <v>-45.228289295448576</v>
+      </c>
+      <c r="R173">
+        <f t="shared" si="13"/>
+        <v>-1.5382463836561033E-2</v>
+      </c>
+      <c r="S173">
+        <f t="shared" si="14"/>
+        <v>1.844199375737695E-2</v>
+      </c>
+      <c r="T173">
+        <f t="shared" si="15"/>
+        <v>-0.83409982884350131</v>
+      </c>
+      <c r="U173">
         <f t="shared" si="16"/>
-        <v>-45.228289295448576</v>
-      </c>
-      <c r="R173">
-        <f t="shared" si="12"/>
-        <v>-1.5382463836561033E-2</v>
-      </c>
-      <c r="S173">
-        <f t="shared" si="13"/>
-        <v>1.844199375737695E-2</v>
-      </c>
-      <c r="T173">
-        <f t="shared" si="14"/>
-        <v>-0.83409982884350131</v>
-      </c>
-      <c r="U173">
-        <f t="shared" si="15"/>
         <v>0.6957225244767582</v>
       </c>
     </row>
@@ -19953,24 +23332,28 @@
         <f t="shared" si="11"/>
         <v>148.26623069913884</v>
       </c>
+      <c r="P174">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
       <c r="Q174">
+        <f t="shared" si="17"/>
+        <v>-16.241867364378322</v>
+      </c>
+      <c r="R174">
+        <f t="shared" si="13"/>
+        <v>-5.8534525144169104E-3</v>
+      </c>
+      <c r="S174">
+        <f t="shared" si="14"/>
+        <v>1.8984015070124632E-2</v>
+      </c>
+      <c r="T174">
+        <f t="shared" si="15"/>
+        <v>-0.30833585481232351</v>
+      </c>
+      <c r="U174">
         <f t="shared" si="16"/>
-        <v>-16.241867364378322</v>
-      </c>
-      <c r="R174">
-        <f t="shared" si="12"/>
-        <v>-5.8534525144169104E-3</v>
-      </c>
-      <c r="S174">
-        <f t="shared" si="13"/>
-        <v>1.8984015070124632E-2</v>
-      </c>
-      <c r="T174">
-        <f t="shared" si="14"/>
-        <v>-0.30833585481232351</v>
-      </c>
-      <c r="U174">
-        <f t="shared" si="15"/>
         <v>9.5070999362846256E-2</v>
       </c>
     </row>
@@ -20018,24 +23401,28 @@
         <f t="shared" si="11"/>
         <v>145.87011591981155</v>
       </c>
+      <c r="P175">
+        <f t="shared" si="12"/>
+        <v>52</v>
+      </c>
       <c r="Q175">
+        <f t="shared" si="17"/>
+        <v>29.697509963302764</v>
+      </c>
+      <c r="R175">
+        <f t="shared" si="13"/>
+        <v>1.1196045226504341E-2</v>
+      </c>
+      <c r="S175">
+        <f t="shared" si="14"/>
+        <v>1.9416560651186562E-2</v>
+      </c>
+      <c r="T175">
+        <f t="shared" si="15"/>
+        <v>0.57662350339168544</v>
+      </c>
+      <c r="U175">
         <f t="shared" si="16"/>
-        <v>29.697509963302764</v>
-      </c>
-      <c r="R175">
-        <f t="shared" si="12"/>
-        <v>1.1196045226504341E-2</v>
-      </c>
-      <c r="S175">
-        <f t="shared" si="13"/>
-        <v>1.9416560651186562E-2</v>
-      </c>
-      <c r="T175">
-        <f t="shared" si="14"/>
-        <v>0.57662350339168544</v>
-      </c>
-      <c r="U175">
-        <f t="shared" si="15"/>
         <v>0.33249466466370098</v>
       </c>
     </row>
@@ -20083,24 +23470,28 @@
         <f t="shared" si="11"/>
         <v>133.22581054046248</v>
       </c>
+      <c r="P176">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
       <c r="Q176">
+        <f t="shared" si="17"/>
+        <v>11.580686094017437</v>
+      </c>
+      <c r="R176">
+        <f t="shared" si="13"/>
+        <v>4.8681356078051335E-3</v>
+      </c>
+      <c r="S176">
+        <f t="shared" si="14"/>
+        <v>2.0502847851135975E-2</v>
+      </c>
+      <c r="T176">
+        <f t="shared" si="15"/>
+        <v>0.23743704499740562</v>
+      </c>
+      <c r="U176">
         <f t="shared" si="16"/>
-        <v>11.580686094017437</v>
-      </c>
-      <c r="R176">
-        <f t="shared" si="12"/>
-        <v>4.8681356078051335E-3</v>
-      </c>
-      <c r="S176">
-        <f t="shared" si="13"/>
-        <v>2.0502847851135975E-2</v>
-      </c>
-      <c r="T176">
-        <f t="shared" si="14"/>
-        <v>0.23743704499740562</v>
-      </c>
-      <c r="U176">
-        <f t="shared" si="15"/>
         <v>5.6376350337100041E-2</v>
       </c>
     </row>
@@ -20148,24 +23539,28 @@
         <f t="shared" si="11"/>
         <v>130.92363419639693</v>
       </c>
+      <c r="P177">
+        <f t="shared" si="12"/>
+        <v>54</v>
+      </c>
       <c r="Q177">
+        <f t="shared" si="17"/>
+        <v>15.621781238592575</v>
+      </c>
+      <c r="R177">
+        <f t="shared" si="13"/>
+        <v>6.9829720013823886E-3</v>
+      </c>
+      <c r="S177">
+        <f t="shared" si="14"/>
+        <v>2.1142428689408906E-2</v>
+      </c>
+      <c r="T177">
+        <f t="shared" si="15"/>
+        <v>0.33028239583848945</v>
+      </c>
+      <c r="U177">
         <f t="shared" si="16"/>
-        <v>15.621781238592575</v>
-      </c>
-      <c r="R177">
-        <f t="shared" si="12"/>
-        <v>6.9829720013823886E-3</v>
-      </c>
-      <c r="S177">
-        <f t="shared" si="13"/>
-        <v>2.1142428689408906E-2</v>
-      </c>
-      <c r="T177">
-        <f t="shared" si="14"/>
-        <v>0.33028239583848945</v>
-      </c>
-      <c r="U177">
-        <f t="shared" si="15"/>
         <v>0.10908646100081264</v>
       </c>
     </row>
@@ -20213,24 +23608,28 @@
         <f t="shared" si="11"/>
         <v>119.92533689513934</v>
       </c>
+      <c r="P178">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
       <c r="Q178">
+        <f t="shared" si="17"/>
+        <v>-13.462991464936295</v>
+      </c>
+      <c r="R178">
+        <f t="shared" si="13"/>
+        <v>-6.5018974777839031E-3</v>
+      </c>
+      <c r="S178">
+        <f t="shared" si="14"/>
+        <v>2.1976031725940863E-2</v>
+      </c>
+      <c r="T178">
+        <f t="shared" si="15"/>
+        <v>-0.29586312755951105</v>
+      </c>
+      <c r="U178">
         <f t="shared" si="16"/>
-        <v>-13.462991464936295</v>
-      </c>
-      <c r="R178">
-        <f t="shared" si="12"/>
-        <v>-6.5018974777839031E-3</v>
-      </c>
-      <c r="S178">
-        <f t="shared" si="13"/>
-        <v>2.1976031725940863E-2</v>
-      </c>
-      <c r="T178">
-        <f t="shared" si="14"/>
-        <v>-0.29586312755951105</v>
-      </c>
-      <c r="U178">
-        <f t="shared" si="15"/>
         <v>8.7534990249295508E-2</v>
       </c>
     </row>
@@ -20278,24 +23677,28 @@
         <f t="shared" si="11"/>
         <v>119.08327098625055</v>
       </c>
+      <c r="P179">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
       <c r="Q179">
+        <f t="shared" si="17"/>
+        <v>27.871238863566077</v>
+      </c>
+      <c r="R179">
+        <f t="shared" si="13"/>
+        <v>1.4459786699645176E-2</v>
+      </c>
+      <c r="S179">
+        <f t="shared" si="14"/>
+        <v>2.2777329617136386E-2</v>
+      </c>
+      <c r="T179">
+        <f t="shared" si="15"/>
+        <v>0.63483239443338624</v>
+      </c>
+      <c r="U179">
         <f t="shared" si="16"/>
-        <v>27.871238863566077</v>
-      </c>
-      <c r="R179">
-        <f t="shared" si="12"/>
-        <v>1.4459786699645176E-2</v>
-      </c>
-      <c r="S179">
-        <f t="shared" si="13"/>
-        <v>2.2777329617136386E-2</v>
-      </c>
-      <c r="T179">
-        <f t="shared" si="14"/>
-        <v>0.63483239443338624</v>
-      </c>
-      <c r="U179">
-        <f t="shared" si="15"/>
         <v>0.40301216902202652</v>
       </c>
     </row>
@@ -20343,24 +23746,28 @@
         <f t="shared" si="11"/>
         <v>99.623995279918006</v>
       </c>
+      <c r="P180">
+        <f t="shared" si="12"/>
+        <v>57</v>
+      </c>
       <c r="Q180">
+        <f t="shared" si="17"/>
+        <v>59.699781917506016</v>
+      </c>
+      <c r="R180">
+        <f t="shared" si="13"/>
+        <v>3.3836220711303447E-2</v>
+      </c>
+      <c r="S180">
+        <f t="shared" si="14"/>
+        <v>2.3806993438741434E-2</v>
+      </c>
+      <c r="T180">
+        <f t="shared" si="15"/>
+        <v>1.4212723164043604</v>
+      </c>
+      <c r="U180">
         <f t="shared" si="16"/>
-        <v>59.699781917506016</v>
-      </c>
-      <c r="R180">
-        <f t="shared" si="12"/>
-        <v>3.3836220711303447E-2</v>
-      </c>
-      <c r="S180">
-        <f t="shared" si="13"/>
-        <v>2.3806993438741434E-2</v>
-      </c>
-      <c r="T180">
-        <f t="shared" si="14"/>
-        <v>1.4212723164043604</v>
-      </c>
-      <c r="U180">
-        <f t="shared" si="15"/>
         <v>2.020014997377416</v>
       </c>
     </row>
@@ -20408,24 +23815,28 @@
         <f t="shared" si="11"/>
         <v>102.92504283867592</v>
       </c>
+      <c r="P181">
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
       <c r="Q181">
+        <f t="shared" si="17"/>
+        <v>44.785595108528696</v>
+      </c>
+      <c r="R181">
+        <f t="shared" si="13"/>
+        <v>2.8058952217732757E-2</v>
+      </c>
+      <c r="S181">
+        <f t="shared" si="14"/>
+        <v>2.5030328537576901E-2</v>
+      </c>
+      <c r="T181">
+        <f t="shared" si="15"/>
+        <v>1.1209981593173706</v>
+      </c>
+      <c r="U181">
         <f t="shared" si="16"/>
-        <v>44.785595108528696</v>
-      </c>
-      <c r="R181">
-        <f t="shared" si="12"/>
-        <v>2.8058952217732757E-2</v>
-      </c>
-      <c r="S181">
-        <f t="shared" si="13"/>
-        <v>2.5030328537576901E-2</v>
-      </c>
-      <c r="T181">
-        <f t="shared" si="14"/>
-        <v>1.1209981593173706</v>
-      </c>
-      <c r="U181">
-        <f t="shared" si="15"/>
         <v>1.2566368731929325</v>
       </c>
     </row>
@@ -20473,24 +23884,28 @@
         <f t="shared" si="11"/>
         <v>99.344184520512727</v>
       </c>
+      <c r="P182">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
       <c r="Q182">
+        <f t="shared" si="17"/>
+        <v>39.972651921917304</v>
+      </c>
+      <c r="R182">
+        <f t="shared" si="13"/>
+        <v>2.7908990694304279E-2</v>
+      </c>
+      <c r="S182">
+        <f t="shared" si="14"/>
+        <v>2.6423514707860023E-2</v>
+      </c>
+      <c r="T182">
+        <f t="shared" si="15"/>
+        <v>1.0562179559709512</v>
+      </c>
+      <c r="U182">
         <f t="shared" si="16"/>
-        <v>39.972651921917304</v>
-      </c>
-      <c r="R182">
-        <f t="shared" si="12"/>
-        <v>2.7908990694304279E-2</v>
-      </c>
-      <c r="S182">
-        <f t="shared" si="13"/>
-        <v>2.6423514707860023E-2</v>
-      </c>
-      <c r="T182">
-        <f t="shared" si="14"/>
-        <v>1.0562179559709512</v>
-      </c>
-      <c r="U182">
-        <f t="shared" si="15"/>
         <v>1.1155963705154541</v>
       </c>
     </row>
@@ -20538,24 +23953,28 @@
         <f t="shared" si="11"/>
         <v>94.928296348390404</v>
       </c>
+      <c r="P183">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
       <c r="Q183">
+        <f t="shared" si="17"/>
+        <v>26.360333282853844</v>
+      </c>
+      <c r="R183">
+        <f t="shared" si="13"/>
+        <v>1.9977516697880896E-2</v>
+      </c>
+      <c r="S183">
+        <f t="shared" si="14"/>
+        <v>2.7529308506178359E-2</v>
+      </c>
+      <c r="T183">
+        <f t="shared" si="15"/>
+        <v>0.72568174726936474</v>
+      </c>
+      <c r="U183">
         <f t="shared" si="16"/>
-        <v>26.360333282853844</v>
-      </c>
-      <c r="R183">
-        <f t="shared" si="12"/>
-        <v>1.9977516697880896E-2</v>
-      </c>
-      <c r="S183">
-        <f t="shared" si="13"/>
-        <v>2.7529308506178359E-2</v>
-      </c>
-      <c r="T183">
-        <f t="shared" si="14"/>
-        <v>0.72568174726936474</v>
-      </c>
-      <c r="U183">
-        <f t="shared" si="15"/>
         <v>0.52661399831991829</v>
       </c>
     </row>
@@ -20603,24 +24022,28 @@
         <f t="shared" si="11"/>
         <v>78.516866322898792</v>
       </c>
+      <c r="P184">
+        <f t="shared" si="12"/>
+        <v>61</v>
+      </c>
       <c r="Q184">
+        <f t="shared" si="17"/>
+        <v>43.823060014637804</v>
+      </c>
+      <c r="R184">
+        <f t="shared" si="13"/>
+        <v>3.6822232971022203E-2</v>
+      </c>
+      <c r="S184">
+        <f t="shared" si="14"/>
+        <v>2.8987029394585629E-2</v>
+      </c>
+      <c r="T184">
+        <f t="shared" si="15"/>
+        <v>1.2703003288049959</v>
+      </c>
+      <c r="U184">
         <f t="shared" si="16"/>
-        <v>43.823060014637804</v>
-      </c>
-      <c r="R184">
-        <f t="shared" si="12"/>
-        <v>3.6822232971022203E-2</v>
-      </c>
-      <c r="S184">
-        <f t="shared" si="13"/>
-        <v>2.8987029394585629E-2</v>
-      </c>
-      <c r="T184">
-        <f t="shared" si="14"/>
-        <v>1.2703003288049959</v>
-      </c>
-      <c r="U184">
-        <f t="shared" si="15"/>
         <v>1.6136629253620809</v>
       </c>
     </row>
@@ -20668,24 +24091,28 @@
         <f t="shared" si="11"/>
         <v>83.89550541654053</v>
       </c>
+      <c r="P185">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
       <c r="Q185">
+        <f t="shared" si="17"/>
+        <v>26.933928515070647</v>
+      </c>
+      <c r="R185">
+        <f t="shared" si="13"/>
+        <v>2.5415360712498843E-2</v>
+      </c>
+      <c r="S185">
+        <f t="shared" si="14"/>
+        <v>3.0718378505606096E-2</v>
+      </c>
+      <c r="T185">
+        <f t="shared" si="15"/>
+        <v>0.82736661076887719</v>
+      </c>
+      <c r="U185">
         <f t="shared" si="16"/>
-        <v>26.933928515070647</v>
-      </c>
-      <c r="R185">
-        <f t="shared" si="12"/>
-        <v>2.5415360712498843E-2</v>
-      </c>
-      <c r="S185">
-        <f t="shared" si="13"/>
-        <v>3.0718378505606096E-2</v>
-      </c>
-      <c r="T185">
-        <f t="shared" si="14"/>
-        <v>0.82736661076887719</v>
-      </c>
-      <c r="U185">
-        <f t="shared" si="15"/>
         <v>0.68453550861517876</v>
       </c>
     </row>
@@ -20733,24 +24160,28 @@
         <f t="shared" si="11"/>
         <v>87.415729403054229</v>
       </c>
+      <c r="P186">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
       <c r="Q186">
+        <f t="shared" si="17"/>
+        <v>34.137039302393873</v>
+      </c>
+      <c r="R186">
+        <f t="shared" si="13"/>
+        <v>3.5097842747609687E-2</v>
+      </c>
+      <c r="S186">
+        <f t="shared" si="14"/>
+        <v>3.2064707742092177E-2</v>
+      </c>
+      <c r="T186">
+        <f t="shared" si="15"/>
+        <v>1.0945941884115735</v>
+      </c>
+      <c r="U186">
         <f t="shared" si="16"/>
-        <v>34.137039302393873</v>
-      </c>
-      <c r="R186">
-        <f t="shared" si="12"/>
-        <v>3.5097842747609687E-2</v>
-      </c>
-      <c r="S186">
-        <f t="shared" si="13"/>
-        <v>3.2064707742092177E-2</v>
-      </c>
-      <c r="T186">
-        <f t="shared" si="14"/>
-        <v>1.0945941884115735</v>
-      </c>
-      <c r="U186">
-        <f t="shared" si="15"/>
         <v>1.1981364373043917</v>
       </c>
     </row>
@@ -20798,24 +24229,28 @@
         <f t="shared" si="11"/>
         <v>75.409530587060644</v>
       </c>
+      <c r="P187">
+        <f t="shared" si="12"/>
+        <v>64</v>
+      </c>
       <c r="Q187">
+        <f t="shared" si="17"/>
+        <v>28.101970109042554</v>
+      </c>
+      <c r="R187">
+        <f t="shared" si="13"/>
+        <v>3.3070868030647314E-2</v>
+      </c>
+      <c r="S187">
+        <f t="shared" si="14"/>
+        <v>3.430476221747198E-2</v>
+      </c>
+      <c r="T187">
+        <f t="shared" si="15"/>
+        <v>0.96403140243321017</v>
+      </c>
+      <c r="U187">
         <f t="shared" si="16"/>
-        <v>28.101970109042554</v>
-      </c>
-      <c r="R187">
-        <f t="shared" si="12"/>
-        <v>3.3070868030647314E-2</v>
-      </c>
-      <c r="S187">
-        <f t="shared" si="13"/>
-        <v>3.430476221747198E-2</v>
-      </c>
-      <c r="T187">
-        <f t="shared" si="14"/>
-        <v>0.96403140243321017</v>
-      </c>
-      <c r="U187">
-        <f t="shared" si="15"/>
         <v>0.92935654487734176</v>
       </c>
     </row>
@@ -20848,39 +24283,43 @@
         <v>720.37803126312701</v>
       </c>
       <c r="L188" s="1">
-        <f t="shared" ref="L188:L232" si="17">SUM(B188:K188)</f>
+        <f t="shared" ref="L188:L232" si="18">SUM(B188:K188)</f>
         <v>6097.542761381711</v>
       </c>
       <c r="M188" s="1">
-        <f t="shared" ref="M188:M232" si="18">AVERAGE(B188:K188)</f>
+        <f t="shared" ref="M188:M232" si="19">AVERAGE(B188:K188)</f>
         <v>762.19284517271387</v>
       </c>
       <c r="N188" s="1">
-        <f t="shared" ref="N188:N232" si="19">STDEV(B188:K188)</f>
+        <f t="shared" ref="N188:N232" si="20">STDEV(B188:K188)</f>
         <v>126.56878091796456</v>
       </c>
       <c r="O188">
-        <f t="shared" ref="O188:O232" si="20">N188/SQRT(3)</f>
+        <f t="shared" ref="O188:O232" si="21">N188/SQRT(3)</f>
         <v>73.074519733989618</v>
       </c>
+      <c r="P188">
+        <f t="shared" si="12"/>
+        <v>65</v>
+      </c>
       <c r="Q188">
+        <f t="shared" si="17"/>
+        <v>7.6821548272861264</v>
+      </c>
+      <c r="R188">
+        <f t="shared" si="13"/>
+        <v>9.9784443283469741E-3</v>
+      </c>
+      <c r="S188">
+        <f t="shared" si="14"/>
+        <v>3.6040423985645734E-2</v>
+      </c>
+      <c r="T188">
+        <f t="shared" si="15"/>
+        <v>0.27686811709876702</v>
+      </c>
+      <c r="U188">
         <f t="shared" si="16"/>
-        <v>7.6821548272861264</v>
-      </c>
-      <c r="R188">
-        <f t="shared" si="12"/>
-        <v>9.9784443283469741E-3</v>
-      </c>
-      <c r="S188">
-        <f t="shared" si="13"/>
-        <v>3.6040423985645734E-2</v>
-      </c>
-      <c r="T188">
-        <f t="shared" si="14"/>
-        <v>0.27686811709876702</v>
-      </c>
-      <c r="U188">
-        <f t="shared" si="15"/>
         <v>7.6655954265816575E-2</v>
       </c>
     </row>
@@ -20913,39 +24352,43 @@
         <v>630.47682815045096</v>
       </c>
       <c r="L189" s="1">
+        <f t="shared" si="18"/>
+        <v>5325.1775283813413</v>
+      </c>
+      <c r="M189" s="1">
+        <f t="shared" si="19"/>
+        <v>665.64719104766766</v>
+      </c>
+      <c r="N189" s="1">
+        <f t="shared" si="20"/>
+        <v>103.63244878033906</v>
+      </c>
+      <c r="O189">
+        <f t="shared" si="21"/>
+        <v>59.832222200108866</v>
+      </c>
+      <c r="P189">
+        <f t="shared" si="12"/>
+        <v>66</v>
+      </c>
+      <c r="Q189">
         <f t="shared" si="17"/>
-        <v>5325.1775283813413</v>
-      </c>
-      <c r="M189" s="1">
-        <f t="shared" si="18"/>
-        <v>665.64719104766766</v>
-      </c>
-      <c r="N189" s="1">
-        <f t="shared" si="19"/>
-        <v>103.63244878033906</v>
-      </c>
-      <c r="O189">
-        <f t="shared" si="20"/>
-        <v>59.832222200108866</v>
-      </c>
-      <c r="Q189">
+        <v>28.977808952332339</v>
+      </c>
+      <c r="R189">
+        <f t="shared" si="13"/>
+        <v>4.1717198419769425E-2</v>
+      </c>
+      <c r="S189">
+        <f t="shared" si="14"/>
+        <v>3.7942399730627178E-2</v>
+      </c>
+      <c r="T189">
+        <f t="shared" si="15"/>
+        <v>1.0994876105871401</v>
+      </c>
+      <c r="U189">
         <f t="shared" si="16"/>
-        <v>28.977808952332339</v>
-      </c>
-      <c r="R189">
-        <f t="shared" si="12"/>
-        <v>4.1717198419769425E-2</v>
-      </c>
-      <c r="S189">
-        <f t="shared" si="13"/>
-        <v>3.7942399730627178E-2</v>
-      </c>
-      <c r="T189">
-        <f t="shared" si="14"/>
-        <v>1.0994876105871401</v>
-      </c>
-      <c r="U189">
-        <f t="shared" si="15"/>
         <v>1.2088730058346191</v>
       </c>
     </row>
@@ -20978,39 +24421,43 @@
         <v>564.18701916560497</v>
       </c>
       <c r="L190" s="1">
+        <f t="shared" si="18"/>
+        <v>4528.8752147410869</v>
+      </c>
+      <c r="M190" s="1">
+        <f t="shared" si="19"/>
+        <v>566.10940184263586</v>
+      </c>
+      <c r="N190" s="1">
+        <f t="shared" si="20"/>
+        <v>95.165827244180917</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="21"/>
+        <v>54.944015977081278</v>
+      </c>
+      <c r="P190">
+        <f t="shared" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="Q190">
         <f t="shared" si="17"/>
-        <v>4528.8752147410869</v>
-      </c>
-      <c r="M190" s="1">
-        <f t="shared" si="18"/>
-        <v>566.10940184263586</v>
-      </c>
-      <c r="N190" s="1">
-        <f t="shared" si="19"/>
-        <v>95.165827244180917</v>
-      </c>
-      <c r="O190">
-        <f t="shared" si="20"/>
-        <v>54.944015977081278</v>
-      </c>
-      <c r="Q190">
+        <v>12.640598157364138</v>
+      </c>
+      <c r="R190">
+        <f t="shared" si="13"/>
+        <v>2.1841206319419677E-2</v>
+      </c>
+      <c r="S190">
+        <f t="shared" si="14"/>
+        <v>4.1567556712637267E-2</v>
+      </c>
+      <c r="T190">
+        <f t="shared" si="15"/>
+        <v>0.52543878078789186</v>
+      </c>
+      <c r="U190">
         <f t="shared" si="16"/>
-        <v>12.640598157364138</v>
-      </c>
-      <c r="R190">
-        <f t="shared" si="12"/>
-        <v>2.1841206319419677E-2</v>
-      </c>
-      <c r="S190">
-        <f t="shared" si="13"/>
-        <v>4.1567556712637267E-2</v>
-      </c>
-      <c r="T190">
-        <f t="shared" si="14"/>
-        <v>0.52543878078789186</v>
-      </c>
-      <c r="U190">
-        <f t="shared" si="15"/>
         <v>0.27608591235586633</v>
       </c>
     </row>
@@ -21043,39 +24490,43 @@
         <v>505.98251850157902</v>
       </c>
       <c r="L191" s="1">
+        <f t="shared" si="18"/>
+        <v>4176.2824944946879</v>
+      </c>
+      <c r="M191" s="1">
+        <f t="shared" si="19"/>
+        <v>522.03531181183598</v>
+      </c>
+      <c r="N191" s="1">
+        <f t="shared" si="20"/>
+        <v>84.863906268916168</v>
+      </c>
+      <c r="O191">
+        <f t="shared" si="21"/>
+        <v>48.996199128841923</v>
+      </c>
+      <c r="P191">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="Q191">
         <f t="shared" si="17"/>
-        <v>4176.2824944946879</v>
-      </c>
-      <c r="M191" s="1">
-        <f t="shared" si="18"/>
-        <v>522.03531181183598</v>
-      </c>
-      <c r="N191" s="1">
-        <f t="shared" si="19"/>
-        <v>84.863906268916168</v>
-      </c>
-      <c r="O191">
-        <f t="shared" si="20"/>
-        <v>48.996199128841923</v>
-      </c>
-      <c r="Q191">
+        <v>18.714688188164018</v>
+      </c>
+      <c r="R191">
+        <f t="shared" si="13"/>
+        <v>3.4608762252730497E-2</v>
+      </c>
+      <c r="S191">
+        <f t="shared" si="14"/>
+        <v>4.3003295253753064E-2</v>
+      </c>
+      <c r="T191">
+        <f t="shared" si="15"/>
+        <v>0.80479326173754229</v>
+      </c>
+      <c r="U191">
         <f t="shared" si="16"/>
-        <v>18.714688188164018</v>
-      </c>
-      <c r="R191">
-        <f t="shared" si="12"/>
-        <v>3.4608762252730497E-2</v>
-      </c>
-      <c r="S191">
-        <f t="shared" si="13"/>
-        <v>4.3003295253753064E-2</v>
-      </c>
-      <c r="T191">
-        <f t="shared" si="14"/>
-        <v>0.80479326173754229</v>
-      </c>
-      <c r="U191">
-        <f t="shared" si="15"/>
         <v>0.64769219413815227</v>
       </c>
     </row>
@@ -21108,39 +24559,43 @@
         <v>465.87965810298903</v>
       </c>
       <c r="L192" s="1">
+        <f t="shared" si="18"/>
+        <v>3550.4023149795794</v>
+      </c>
+      <c r="M192" s="1">
+        <f t="shared" si="19"/>
+        <v>443.80028937244742</v>
+      </c>
+      <c r="N192" s="1">
+        <f t="shared" si="20"/>
+        <v>81.611555679799324</v>
+      </c>
+      <c r="O192">
+        <f t="shared" si="21"/>
+        <v>47.118453640716275</v>
+      </c>
+      <c r="P192">
+        <f t="shared" si="12"/>
+        <v>69</v>
+      </c>
+      <c r="Q192">
         <f t="shared" si="17"/>
-        <v>3550.4023149795794</v>
-      </c>
-      <c r="M192" s="1">
-        <f t="shared" si="18"/>
-        <v>443.80028937244742</v>
-      </c>
-      <c r="N192" s="1">
-        <f t="shared" si="19"/>
-        <v>81.611555679799324</v>
-      </c>
-      <c r="O192">
-        <f t="shared" si="20"/>
-        <v>47.118453640716275</v>
-      </c>
-      <c r="Q192">
+        <v>19.074710627552577</v>
+      </c>
+      <c r="R192">
+        <f t="shared" si="13"/>
+        <v>4.12092047044074E-2</v>
+      </c>
+      <c r="S192">
+        <f t="shared" si="14"/>
+        <v>4.6480215984769452E-2</v>
+      </c>
+      <c r="T192">
+        <f t="shared" si="15"/>
+        <v>0.88659666981562124</v>
+      </c>
+      <c r="U192">
         <f t="shared" si="16"/>
-        <v>19.074710627552577</v>
-      </c>
-      <c r="R192">
-        <f t="shared" si="12"/>
-        <v>4.12092047044074E-2</v>
-      </c>
-      <c r="S192">
-        <f t="shared" si="13"/>
-        <v>4.6480215984769452E-2</v>
-      </c>
-      <c r="T192">
-        <f t="shared" si="14"/>
-        <v>0.88659666981562124</v>
-      </c>
-      <c r="U192">
-        <f t="shared" si="15"/>
         <v>0.7860536549281496</v>
       </c>
     </row>
@@ -21173,39 +24628,43 @@
         <v>401.28703208267598</v>
       </c>
       <c r="L193" s="1">
+        <f t="shared" si="18"/>
+        <v>3423.2333299989614</v>
+      </c>
+      <c r="M193" s="1">
+        <f t="shared" si="19"/>
+        <v>427.90416624987017</v>
+      </c>
+      <c r="N193" s="1">
+        <f t="shared" si="20"/>
+        <v>87.224648937924485</v>
+      </c>
+      <c r="O193">
+        <f t="shared" si="21"/>
+        <v>50.359174544281309</v>
+      </c>
+      <c r="P193">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="Q193">
         <f t="shared" si="17"/>
-        <v>3423.2333299989614</v>
-      </c>
-      <c r="M193" s="1">
-        <f t="shared" si="18"/>
-        <v>427.90416624987017</v>
-      </c>
-      <c r="N193" s="1">
-        <f t="shared" si="19"/>
-        <v>87.224648937924485</v>
-      </c>
-      <c r="O193">
-        <f t="shared" si="20"/>
-        <v>50.359174544281309</v>
-      </c>
-      <c r="Q193">
+        <v>-1.0291662498701726</v>
+      </c>
+      <c r="R193">
+        <f t="shared" si="13"/>
+        <v>-2.4109311856402287E-3</v>
+      </c>
+      <c r="S193">
+        <f t="shared" si="14"/>
+        <v>4.8400476747043952E-2</v>
+      </c>
+      <c r="T193">
+        <f t="shared" si="15"/>
+        <v>-4.9812137145683708E-2</v>
+      </c>
+      <c r="U193">
         <f t="shared" si="16"/>
-        <v>-1.0291662498701726</v>
-      </c>
-      <c r="R193">
-        <f t="shared" si="12"/>
-        <v>-2.4109311856402287E-3</v>
-      </c>
-      <c r="S193">
-        <f t="shared" si="13"/>
-        <v>4.8400476747043952E-2</v>
-      </c>
-      <c r="T193">
-        <f t="shared" si="14"/>
-        <v>-4.9812137145683708E-2</v>
-      </c>
-      <c r="U193">
-        <f t="shared" si="15"/>
         <v>2.481249007020403E-3</v>
       </c>
     </row>
@@ -21238,39 +24697,43 @@
         <v>358.33520548045601</v>
       </c>
       <c r="L194" s="1">
+        <f t="shared" si="18"/>
+        <v>2960.1366727240352</v>
+      </c>
+      <c r="M194" s="1">
+        <f t="shared" si="19"/>
+        <v>370.0170840905044</v>
+      </c>
+      <c r="N194" s="1">
+        <f t="shared" si="20"/>
+        <v>76.783508451619127</v>
+      </c>
+      <c r="O194">
+        <f t="shared" si="21"/>
+        <v>44.330979273866213</v>
+      </c>
+      <c r="P194">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="Q194">
         <f t="shared" si="17"/>
-        <v>2960.1366727240352</v>
-      </c>
-      <c r="M194" s="1">
-        <f t="shared" si="18"/>
-        <v>370.0170840905044</v>
-      </c>
-      <c r="N194" s="1">
-        <f t="shared" si="19"/>
-        <v>76.783508451619127</v>
-      </c>
-      <c r="O194">
-        <f t="shared" si="20"/>
-        <v>44.330979273866213</v>
-      </c>
-      <c r="Q194">
+        <v>2.8579159094956026</v>
+      </c>
+      <c r="R194">
+        <f t="shared" si="13"/>
+        <v>7.6645414937863967E-3</v>
+      </c>
+      <c r="S194">
+        <f t="shared" si="14"/>
+        <v>5.1786715433664143E-2</v>
+      </c>
+      <c r="T194">
+        <f t="shared" si="15"/>
+        <v>0.14800207793839024</v>
+      </c>
+      <c r="U194">
         <f t="shared" si="16"/>
-        <v>2.8579159094956026</v>
-      </c>
-      <c r="R194">
-        <f t="shared" si="12"/>
-        <v>7.6645414937863967E-3</v>
-      </c>
-      <c r="S194">
-        <f t="shared" si="13"/>
-        <v>5.1786715433664143E-2</v>
-      </c>
-      <c r="T194">
-        <f t="shared" si="14"/>
-        <v>0.14800207793839024</v>
-      </c>
-      <c r="U194">
-        <f t="shared" si="15"/>
         <v>2.1904615074081334E-2</v>
       </c>
     </row>
@@ -21303,39 +24766,43 @@
         <v>305.59199909120002</v>
       </c>
       <c r="L195" s="1">
+        <f t="shared" si="18"/>
+        <v>2708.619616307773</v>
+      </c>
+      <c r="M195" s="1">
+        <f t="shared" si="19"/>
+        <v>338.57745203847162</v>
+      </c>
+      <c r="N195" s="1">
+        <f t="shared" si="20"/>
+        <v>67.185362434201167</v>
+      </c>
+      <c r="O195">
+        <f t="shared" si="21"/>
+        <v>38.789487086988615</v>
+      </c>
+      <c r="P195">
+        <f t="shared" ref="P195:P232" si="22">A195</f>
+        <v>72</v>
+      </c>
+      <c r="Q195">
         <f t="shared" si="17"/>
-        <v>2708.619616307773</v>
-      </c>
-      <c r="M195" s="1">
-        <f t="shared" si="18"/>
-        <v>338.57745203847162</v>
-      </c>
-      <c r="N195" s="1">
-        <f t="shared" si="19"/>
-        <v>67.185362434201167</v>
-      </c>
-      <c r="O195">
-        <f t="shared" si="20"/>
-        <v>38.789487086988615</v>
-      </c>
-      <c r="Q195">
-        <f t="shared" si="16"/>
         <v>1.2975479615283803</v>
       </c>
       <c r="R195">
-        <f t="shared" ref="R195:R222" si="21">Q195/M75</f>
+        <f t="shared" ref="R195:R222" si="23">Q195/M75</f>
         <v>3.817721107843708E-3</v>
       </c>
       <c r="S195">
-        <f t="shared" ref="S195:S222" si="22">1/SQRT(M75)</f>
+        <f t="shared" ref="S195:S222" si="24">1/SQRT(M75)</f>
         <v>5.4242586434973504E-2</v>
       </c>
       <c r="T195">
-        <f t="shared" ref="T195:T222" si="23">R195/S195</f>
+        <f t="shared" ref="T195:T222" si="25">R195/S195</f>
         <v>7.0382357456726843E-2</v>
       </c>
       <c r="U195">
-        <f t="shared" ref="U195:U222" si="24">Q195*Q195/M75</f>
+        <f t="shared" ref="U195:U222" si="26">Q195*Q195/M75</f>
         <v>4.9536762411664728E-3</v>
       </c>
     </row>
@@ -21368,39 +24835,43 @@
         <v>269.87582623958502</v>
       </c>
       <c r="L196" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2200.964628150683</v>
       </c>
       <c r="M196" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>275.12057851883537</v>
       </c>
       <c r="N196" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>53.989834539966907</v>
       </c>
       <c r="O196">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31.171045505153252</v>
       </c>
+      <c r="P196">
+        <f t="shared" si="22"/>
+        <v>73</v>
+      </c>
       <c r="Q196">
-        <f t="shared" ref="Q196:Q232" si="25">M76-M196</f>
+        <f t="shared" ref="Q196:Q232" si="27">M76-M196</f>
         <v>0.50442148116462704</v>
       </c>
       <c r="R196">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.8301006119351548E-3</v>
       </c>
       <c r="S196">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>6.0233860193683417E-2</v>
       </c>
       <c r="T196">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.0383252975160858E-2</v>
       </c>
       <c r="U196">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.2314206135262118E-4</v>
       </c>
     </row>
@@ -21433,39 +24904,43 @@
         <v>258.55856408178801</v>
       </c>
       <c r="L197" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1907.8276772098582</v>
       </c>
       <c r="M197" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>238.47845965123227</v>
       </c>
       <c r="N197" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>59.296875372609662</v>
       </c>
       <c r="O197">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>34.235066958479884</v>
       </c>
+      <c r="P197">
+        <f t="shared" si="22"/>
+        <v>74</v>
+      </c>
       <c r="Q197">
+        <f t="shared" si="27"/>
+        <v>14.146540348767729</v>
+      </c>
+      <c r="R197">
+        <f t="shared" si="23"/>
+        <v>5.5998180499822775E-2</v>
+      </c>
+      <c r="S197">
+        <f t="shared" si="24"/>
+        <v>6.291610618605574E-2</v>
+      </c>
+      <c r="T197">
         <f t="shared" si="25"/>
-        <v>14.146540348767729</v>
-      </c>
-      <c r="R197">
-        <f t="shared" si="21"/>
-        <v>5.5998180499822775E-2</v>
-      </c>
-      <c r="S197">
-        <f t="shared" si="22"/>
-        <v>6.291610618605574E-2</v>
-      </c>
-      <c r="T197">
-        <f t="shared" si="23"/>
         <v>0.89004523474839259</v>
       </c>
       <c r="U197">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.79218051989832117</v>
       </c>
     </row>
@@ -21498,39 +24973,43 @@
         <v>193.70429855584999</v>
       </c>
       <c r="L198" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1736.223778141657</v>
       </c>
       <c r="M198" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>217.02797226770713</v>
       </c>
       <c r="N198" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>55.816785745098173</v>
       </c>
       <c r="O198">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>32.225836275232098</v>
       </c>
+      <c r="P198">
+        <f t="shared" si="22"/>
+        <v>75</v>
+      </c>
       <c r="Q198">
+        <f t="shared" si="27"/>
+        <v>-0.40297226770712768</v>
+      </c>
+      <c r="R198">
+        <f t="shared" si="23"/>
+        <v>-1.8602297412908377E-3</v>
+      </c>
+      <c r="S198">
+        <f t="shared" si="24"/>
+        <v>6.7943155358499832E-2</v>
+      </c>
+      <c r="T198">
         <f t="shared" si="25"/>
-        <v>-0.40297226770712768</v>
-      </c>
-      <c r="R198">
-        <f t="shared" si="21"/>
-        <v>-1.8602297412908377E-3</v>
-      </c>
-      <c r="S198">
-        <f t="shared" si="22"/>
-        <v>6.7943155358499832E-2</v>
-      </c>
-      <c r="T198">
-        <f t="shared" si="23"/>
         <v>-2.737920738999236E-2</v>
       </c>
       <c r="U198">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7.4962099730421219E-4</v>
       </c>
     </row>
@@ -21563,39 +25042,43 @@
         <v>179.15716037154101</v>
       </c>
       <c r="L199" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1561.8766918880831</v>
       </c>
       <c r="M199" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>195.23458648601039</v>
       </c>
       <c r="N199" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>42.040545806231385</v>
       </c>
       <c r="O199">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>24.272120438106484</v>
       </c>
+      <c r="P199">
+        <f t="shared" si="22"/>
+        <v>76</v>
+      </c>
       <c r="Q199">
+        <f t="shared" si="27"/>
+        <v>-16.234586486010386</v>
+      </c>
+      <c r="R199">
+        <f t="shared" si="23"/>
+        <v>-9.0696013888326182E-2</v>
+      </c>
+      <c r="S199">
+        <f t="shared" si="24"/>
+        <v>7.474350927519359E-2</v>
+      </c>
+      <c r="T199">
         <f t="shared" si="25"/>
-        <v>-16.234586486010386</v>
-      </c>
-      <c r="R199">
-        <f t="shared" si="21"/>
-        <v>-9.0696013888326182E-2</v>
-      </c>
-      <c r="S199">
-        <f t="shared" si="22"/>
-        <v>7.474350927519359E-2</v>
-      </c>
-      <c r="T199">
-        <f t="shared" si="23"/>
         <v>-1.2134299655960497</v>
       </c>
       <c r="U199">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.4724122814064302</v>
       </c>
     </row>
@@ -21628,39 +25111,43 @@
         <v>136.856427527964</v>
       </c>
       <c r="L200" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1356.549425959583</v>
       </c>
       <c r="M200" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>169.56867824494788</v>
       </c>
       <c r="N200" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>28.971189803252386</v>
       </c>
       <c r="O200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>16.726524231651506</v>
       </c>
+      <c r="P200">
+        <f t="shared" si="22"/>
+        <v>77</v>
+      </c>
       <c r="Q200">
+        <f t="shared" si="27"/>
+        <v>-5.3186782449478756</v>
+      </c>
+      <c r="R200">
+        <f t="shared" si="23"/>
+        <v>-3.2381602708967276E-2</v>
+      </c>
+      <c r="S200">
+        <f t="shared" si="24"/>
+        <v>7.8027431464087041E-2</v>
+      </c>
+      <c r="T200">
         <f t="shared" si="25"/>
-        <v>-5.3186782449478756</v>
-      </c>
-      <c r="R200">
-        <f t="shared" si="21"/>
-        <v>-3.2381602708967276E-2</v>
-      </c>
-      <c r="S200">
-        <f t="shared" si="22"/>
-        <v>7.8027431464087041E-2</v>
-      </c>
-      <c r="T200">
-        <f t="shared" si="23"/>
         <v>-0.4150028022372011</v>
       </c>
       <c r="U200">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.17222732586472944</v>
       </c>
     </row>
@@ -21693,39 +25180,43 @@
         <v>122.17720984295001</v>
       </c>
       <c r="L201" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1200.2271554479348</v>
       </c>
       <c r="M201" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>150.02839443099185</v>
       </c>
       <c r="N201" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>39.774980801458469</v>
       </c>
       <c r="O201">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>22.964095872734244</v>
       </c>
+      <c r="P201">
+        <f t="shared" si="22"/>
+        <v>78</v>
+      </c>
       <c r="Q201">
+        <f t="shared" si="27"/>
+        <v>-15.528394430991852</v>
+      </c>
+      <c r="R201">
+        <f t="shared" si="23"/>
+        <v>-0.11545274669882419</v>
+      </c>
+      <c r="S201">
+        <f t="shared" si="24"/>
+        <v>8.6226122711845377E-2</v>
+      </c>
+      <c r="T201">
         <f t="shared" si="25"/>
-        <v>-15.528394430991852</v>
-      </c>
-      <c r="R201">
-        <f t="shared" si="21"/>
-        <v>-0.11545274669882419</v>
-      </c>
-      <c r="S201">
-        <f t="shared" si="22"/>
-        <v>8.6226122711845377E-2</v>
-      </c>
-      <c r="T201">
-        <f t="shared" si="23"/>
         <v>-1.3389532437246396</v>
       </c>
       <c r="U201">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.7927957888807342</v>
       </c>
     </row>
@@ -21758,39 +25249,43 @@
         <v>124.60754057019901</v>
       </c>
       <c r="L202" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1198.647036079313</v>
       </c>
       <c r="M202" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>149.83087950991413</v>
       </c>
       <c r="N202" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>30.037171993911127</v>
       </c>
       <c r="O202">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>17.341969336379677</v>
       </c>
+      <c r="P202">
+        <f t="shared" si="22"/>
+        <v>79</v>
+      </c>
       <c r="Q202">
+        <f t="shared" si="27"/>
+        <v>-28.205879509914126</v>
+      </c>
+      <c r="R202">
+        <f t="shared" si="23"/>
+        <v>-0.23190856739908841</v>
+      </c>
+      <c r="S202">
+        <f t="shared" si="24"/>
+        <v>9.067521068905561E-2</v>
+      </c>
+      <c r="T202">
         <f t="shared" si="25"/>
-        <v>-28.205879509914126</v>
-      </c>
-      <c r="R202">
-        <f t="shared" si="21"/>
-        <v>-0.23190856739908841</v>
-      </c>
-      <c r="S202">
-        <f t="shared" si="22"/>
-        <v>9.067521068905561E-2</v>
-      </c>
-      <c r="T202">
-        <f t="shared" si="23"/>
         <v>-2.5575740672315801</v>
       </c>
       <c r="U202">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6.541185109375486</v>
       </c>
     </row>
@@ -21823,39 +25318,43 @@
         <v>73.997515335678997</v>
       </c>
       <c r="L203" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>787.37331376911425</v>
       </c>
       <c r="M203" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>98.421664221139281</v>
       </c>
       <c r="N203" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>33.439158067953628</v>
       </c>
       <c r="O203">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>19.306106912007476</v>
       </c>
+      <c r="P203">
+        <f t="shared" si="22"/>
+        <v>80</v>
+      </c>
       <c r="Q203">
+        <f t="shared" si="27"/>
+        <v>0.70333577886071907</v>
+      </c>
+      <c r="R203">
+        <f t="shared" si="23"/>
+        <v>7.0954429141056145E-3</v>
+      </c>
+      <c r="S203">
+        <f t="shared" si="24"/>
+        <v>0.10044039219036507</v>
+      </c>
+      <c r="T203">
         <f t="shared" si="25"/>
-        <v>0.70333577886071907</v>
-      </c>
-      <c r="R203">
-        <f t="shared" si="21"/>
-        <v>7.0954429141056145E-3</v>
-      </c>
-      <c r="S203">
-        <f t="shared" si="22"/>
-        <v>0.10044039219036507</v>
-      </c>
-      <c r="T203">
-        <f t="shared" si="23"/>
         <v>7.0643321470286513E-2</v>
       </c>
       <c r="U203">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.9904788683542423E-3</v>
       </c>
     </row>
@@ -21888,39 +25387,43 @@
         <v>86.469246324151698</v>
       </c>
       <c r="L204" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>753.23678484279435</v>
       </c>
       <c r="M204" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>94.154598105349294</v>
       </c>
       <c r="N204" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>33.033022423713071</v>
       </c>
       <c r="O204">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>19.071624388477687</v>
       </c>
+      <c r="P204">
+        <f t="shared" si="22"/>
+        <v>81</v>
+      </c>
       <c r="Q204">
+        <f t="shared" si="27"/>
+        <v>-16.404598105349294</v>
+      </c>
+      <c r="R204">
+        <f t="shared" si="23"/>
+        <v>-0.21099161550288481</v>
+      </c>
+      <c r="S204">
+        <f t="shared" si="24"/>
+        <v>0.11340959542474854</v>
+      </c>
+      <c r="T204">
         <f t="shared" si="25"/>
-        <v>-16.404598105349294</v>
-      </c>
-      <c r="R204">
-        <f t="shared" si="21"/>
-        <v>-0.21099161550288481</v>
-      </c>
-      <c r="S204">
-        <f t="shared" si="22"/>
-        <v>0.11340959542474854</v>
-      </c>
-      <c r="T204">
-        <f t="shared" si="23"/>
         <v>-1.8604388342332598</v>
       </c>
       <c r="U204">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.4612326559232107</v>
       </c>
     </row>
@@ -21953,39 +25456,43 @@
         <v>67.569545127451406</v>
       </c>
       <c r="L205" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>645.18398324493251</v>
       </c>
       <c r="M205" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>80.647997905616563</v>
       </c>
       <c r="N205" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20.028400827927555</v>
       </c>
       <c r="O205">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>11.563402609441699</v>
       </c>
+      <c r="P205">
+        <f t="shared" si="22"/>
+        <v>82</v>
+      </c>
       <c r="Q205">
+        <f t="shared" si="27"/>
+        <v>-1.0229979056165632</v>
+      </c>
+      <c r="R205">
+        <f t="shared" si="23"/>
+        <v>-1.2847697401777875E-2</v>
+      </c>
+      <c r="S205">
+        <f t="shared" si="24"/>
+        <v>0.11206636293610515</v>
+      </c>
+      <c r="T205">
         <f t="shared" si="25"/>
-        <v>-1.0229979056165632</v>
-      </c>
-      <c r="R205">
-        <f t="shared" si="21"/>
-        <v>-1.2847697401777875E-2</v>
-      </c>
-      <c r="S205">
-        <f t="shared" si="22"/>
-        <v>0.11206636293610515</v>
-      </c>
-      <c r="T205">
-        <f t="shared" si="23"/>
         <v>-0.11464365457370124</v>
       </c>
       <c r="U205">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.3143167534014125E-2</v>
       </c>
     </row>
@@ -22018,39 +25525,43 @@
         <v>74.844059363007503</v>
       </c>
       <c r="L206" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>550.62154293805338</v>
       </c>
       <c r="M206" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>68.827692867256673</v>
       </c>
       <c r="N206" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>19.194692378920461</v>
       </c>
       <c r="O206">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>11.082060811981787</v>
       </c>
+      <c r="P206">
+        <f t="shared" si="22"/>
+        <v>83</v>
+      </c>
       <c r="Q206">
+        <f t="shared" si="27"/>
+        <v>-10.952692867256673</v>
+      </c>
+      <c r="R206">
+        <f t="shared" si="23"/>
+        <v>-0.18924739295475893</v>
+      </c>
+      <c r="S206">
+        <f t="shared" si="24"/>
+        <v>0.131448155980155</v>
+      </c>
+      <c r="T206">
         <f t="shared" si="25"/>
-        <v>-10.952692867256673</v>
-      </c>
-      <c r="R206">
-        <f t="shared" si="21"/>
-        <v>-0.18924739295475893</v>
-      </c>
-      <c r="S206">
-        <f t="shared" si="22"/>
-        <v>0.131448155980155</v>
-      </c>
-      <c r="T206">
-        <f t="shared" si="23"/>
         <v>-1.4397112804178858</v>
       </c>
       <c r="U206">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.0727685709625088</v>
       </c>
     </row>
@@ -22083,39 +25594,43 @@
         <v>52.693843189626897</v>
       </c>
       <c r="L207" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>457.51396796107161</v>
       </c>
       <c r="M207" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>57.189245995133952</v>
       </c>
       <c r="N207" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>30.722901434037812</v>
       </c>
       <c r="O207">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>17.737875413228071</v>
       </c>
+      <c r="P207">
+        <f t="shared" si="22"/>
+        <v>84</v>
+      </c>
       <c r="Q207">
+        <f t="shared" si="27"/>
+        <v>-11.064245995133952</v>
+      </c>
+      <c r="R207">
+        <f t="shared" si="23"/>
+        <v>-0.23987525192702336</v>
+      </c>
+      <c r="S207">
+        <f t="shared" si="24"/>
+        <v>0.14724203476646205</v>
+      </c>
+      <c r="T207">
         <f t="shared" si="25"/>
-        <v>-11.064245995133952</v>
-      </c>
-      <c r="R207">
-        <f t="shared" si="21"/>
-        <v>-0.23987525192702336</v>
-      </c>
-      <c r="S207">
-        <f t="shared" si="22"/>
-        <v>0.14724203476646205</v>
-      </c>
-      <c r="T207">
-        <f t="shared" si="23"/>
         <v>-1.629122093480202</v>
       </c>
       <c r="U207">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.6540387954653157</v>
       </c>
     </row>
@@ -22148,39 +25663,43 @@
         <v>51.615301094949203</v>
       </c>
       <c r="L208" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>357.8924772492602</v>
       </c>
       <c r="M208" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>44.736559656157525</v>
       </c>
       <c r="N208" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>18.430109575100925</v>
       </c>
       <c r="O208">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10.64062872437882</v>
       </c>
+      <c r="P208">
+        <f t="shared" si="22"/>
+        <v>85</v>
+      </c>
       <c r="Q208">
+        <f t="shared" si="27"/>
+        <v>-10.486559656157525</v>
+      </c>
+      <c r="R208">
+        <f t="shared" si="23"/>
+        <v>-0.30617692426737297</v>
+      </c>
+      <c r="S208">
+        <f t="shared" si="24"/>
+        <v>0.17087153154335219</v>
+      </c>
+      <c r="T208">
         <f t="shared" si="25"/>
-        <v>-10.486559656157525</v>
-      </c>
-      <c r="R208">
-        <f t="shared" si="21"/>
-        <v>-0.30617692426737297</v>
-      </c>
-      <c r="S208">
-        <f t="shared" si="22"/>
-        <v>0.17087153154335219</v>
-      </c>
-      <c r="T208">
-        <f t="shared" si="23"/>
         <v>-1.7918545090683649</v>
       </c>
       <c r="U208">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.2107425816686312</v>
       </c>
     </row>
@@ -22213,39 +25732,43 @@
         <v>41.112762467935603</v>
       </c>
       <c r="L209" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>305.12886315863545</v>
       </c>
       <c r="M209" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>38.141107894829432</v>
       </c>
       <c r="N209" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17.217071979433495</v>
       </c>
       <c r="O209">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.9402811419830925</v>
       </c>
+      <c r="P209">
+        <f t="shared" si="22"/>
+        <v>86</v>
+      </c>
       <c r="Q209">
+        <f t="shared" si="27"/>
+        <v>-7.6411078948294318</v>
+      </c>
+      <c r="R209">
+        <f t="shared" si="23"/>
+        <v>-0.25052812769932564</v>
+      </c>
+      <c r="S209">
+        <f t="shared" si="24"/>
+        <v>0.18107149208503706</v>
+      </c>
+      <c r="T209">
         <f t="shared" si="25"/>
-        <v>-7.6411078948294318</v>
-      </c>
-      <c r="R209">
-        <f t="shared" si="21"/>
-        <v>-0.25052812769932564</v>
-      </c>
-      <c r="S209">
-        <f t="shared" si="22"/>
-        <v>0.18107149208503706</v>
-      </c>
-      <c r="T209">
-        <f t="shared" si="23"/>
         <v>-1.3835868076995217</v>
       </c>
       <c r="U209">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.9143124544401533</v>
       </c>
     </row>
@@ -22278,39 +25801,43 @@
         <v>37.793222576379698</v>
       </c>
       <c r="L210" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>238.6237921789284</v>
       </c>
       <c r="M210" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29.82797402236605</v>
       </c>
       <c r="N210" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17.735074362074229</v>
       </c>
       <c r="O210">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10.239349957041588</v>
       </c>
+      <c r="P210">
+        <f t="shared" si="22"/>
+        <v>87</v>
+      </c>
       <c r="Q210">
+        <f t="shared" si="27"/>
+        <v>2.9220259776339503</v>
+      </c>
+      <c r="R210">
+        <f t="shared" si="23"/>
+        <v>8.9222167255998477E-2</v>
+      </c>
+      <c r="S210">
+        <f t="shared" si="24"/>
+        <v>0.17474081133220759</v>
+      </c>
+      <c r="T210">
         <f t="shared" si="25"/>
-        <v>2.9220259776339503</v>
-      </c>
-      <c r="R210">
-        <f t="shared" si="21"/>
-        <v>8.9222167255998477E-2</v>
-      </c>
-      <c r="S210">
-        <f t="shared" si="22"/>
-        <v>0.17474081133220759</v>
-      </c>
-      <c r="T210">
-        <f t="shared" si="23"/>
         <v>0.51059719006554349</v>
       </c>
       <c r="U210">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.26070949050282882</v>
       </c>
     </row>
@@ -22343,39 +25870,43 @@
         <v>38.343322138302</v>
       </c>
       <c r="L211" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>318.94637586711838</v>
       </c>
       <c r="M211" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>39.868296983389797</v>
       </c>
       <c r="N211" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>21.523964550642845</v>
       </c>
       <c r="O211">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12.42686672734161</v>
       </c>
+      <c r="P211">
+        <f t="shared" si="22"/>
+        <v>88</v>
+      </c>
       <c r="Q211">
+        <f t="shared" si="27"/>
+        <v>-14.743296983389797</v>
+      </c>
+      <c r="R211">
+        <f t="shared" si="23"/>
+        <v>-0.58679788988616111</v>
+      </c>
+      <c r="S211">
+        <f t="shared" si="24"/>
+        <v>0.19950186722152657</v>
+      </c>
+      <c r="T211">
         <f t="shared" si="25"/>
-        <v>-14.743296983389797</v>
-      </c>
-      <c r="R211">
-        <f t="shared" si="21"/>
-        <v>-0.58679788988616111</v>
-      </c>
-      <c r="S211">
-        <f t="shared" si="22"/>
-        <v>0.19950186722152657</v>
-      </c>
-      <c r="T211">
-        <f t="shared" si="23"/>
         <v>-2.9413152771877651</v>
       </c>
       <c r="U211">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>8.6513355598181381</v>
       </c>
     </row>
@@ -22408,39 +25939,43 @@
         <v>26.2762759365141</v>
       </c>
       <c r="L212" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>232.13371216878264</v>
       </c>
       <c r="M212" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29.01671402109783</v>
       </c>
       <c r="N212" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>18.951358285701524</v>
       </c>
       <c r="O212">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10.94157180775882</v>
       </c>
+      <c r="P212">
+        <f t="shared" si="22"/>
+        <v>89</v>
+      </c>
       <c r="Q212">
+        <f t="shared" si="27"/>
+        <v>-11.01671402109783</v>
+      </c>
+      <c r="R212">
+        <f t="shared" si="23"/>
+        <v>-0.61203966783876829</v>
+      </c>
+      <c r="S212">
+        <f t="shared" si="24"/>
+        <v>0.23570226039551587</v>
+      </c>
+      <c r="T212">
         <f t="shared" si="25"/>
-        <v>-11.01671402109783</v>
-      </c>
-      <c r="R212">
-        <f t="shared" si="21"/>
-        <v>-0.61203966783876829</v>
-      </c>
-      <c r="S212">
-        <f t="shared" si="22"/>
-        <v>0.23570226039551587</v>
-      </c>
-      <c r="T212">
-        <f t="shared" si="23"/>
         <v>-2.5966643969037309</v>
       </c>
       <c r="U212">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6.7426659901474171</v>
       </c>
     </row>
@@ -22473,39 +26008,43 @@
         <v>23.710084021091401</v>
       </c>
       <c r="L213" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>59.838198516517664</v>
       </c>
       <c r="M213" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.4797748145647081</v>
       </c>
       <c r="N213" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>18.635023574004244</v>
       </c>
       <c r="O213">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10.758935876806373</v>
       </c>
+      <c r="P213">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
       <c r="Q213">
+        <f t="shared" si="27"/>
+        <v>6.6452251854352919</v>
+      </c>
+      <c r="R213">
+        <f t="shared" si="23"/>
+        <v>0.47045842020780826</v>
+      </c>
+      <c r="S213">
+        <f t="shared" si="24"/>
+        <v>0.26607604209509572</v>
+      </c>
+      <c r="T213">
         <f t="shared" si="25"/>
-        <v>6.6452251854352919</v>
-      </c>
-      <c r="R213">
-        <f t="shared" si="21"/>
-        <v>0.47045842020780826</v>
-      </c>
-      <c r="S213">
-        <f t="shared" si="22"/>
-        <v>0.26607604209509572</v>
-      </c>
-      <c r="T213">
-        <f t="shared" si="23"/>
         <v>1.7681352161712709</v>
       </c>
       <c r="U213">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.1263021426650273</v>
       </c>
     </row>
@@ -22538,39 +26077,43 @@
         <v>24.572477728128401</v>
       </c>
       <c r="L214" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>82.464627341832852</v>
       </c>
       <c r="M214" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10.308078417729106</v>
       </c>
       <c r="N214" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10.63227878370847</v>
       </c>
       <c r="O214">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.138549017873232</v>
       </c>
+      <c r="P214">
+        <f t="shared" si="22"/>
+        <v>91</v>
+      </c>
       <c r="Q214">
+        <f t="shared" si="27"/>
+        <v>-0.30807841772910649</v>
+      </c>
+      <c r="R214">
+        <f t="shared" si="23"/>
+        <v>-3.0807841772910648E-2</v>
+      </c>
+      <c r="S214">
+        <f t="shared" si="24"/>
+        <v>0.31622776601683794</v>
+      </c>
+      <c r="T214">
         <f t="shared" si="25"/>
-        <v>-0.30807841772910649</v>
-      </c>
-      <c r="R214">
-        <f t="shared" si="21"/>
-        <v>-3.0807841772910648E-2</v>
-      </c>
-      <c r="S214">
-        <f t="shared" si="22"/>
-        <v>0.31622776601683794</v>
-      </c>
-      <c r="T214">
-        <f t="shared" si="23"/>
         <v>-9.7422949796477532E-2</v>
       </c>
       <c r="U214">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.491231147046985E-3</v>
       </c>
     </row>
@@ -22603,39 +26146,43 @@
         <v>8.9410649063065595</v>
       </c>
       <c r="L215" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>93.54310485254959</v>
       </c>
       <c r="M215" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>11.692888106568699</v>
       </c>
       <c r="N215" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.2967785241306764</v>
       </c>
       <c r="O215">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.7901473143135522</v>
       </c>
+      <c r="P215">
+        <f t="shared" si="22"/>
+        <v>92</v>
+      </c>
       <c r="Q215">
+        <f t="shared" si="27"/>
+        <v>-5.0678881065686987</v>
+      </c>
+      <c r="R215">
+        <f t="shared" si="23"/>
+        <v>-0.76496424250093564</v>
+      </c>
+      <c r="S215">
+        <f t="shared" si="24"/>
+        <v>0.38851434494290565</v>
+      </c>
+      <c r="T215">
         <f t="shared" si="25"/>
-        <v>-5.0678881065686987</v>
-      </c>
-      <c r="R215">
-        <f t="shared" si="21"/>
-        <v>-0.76496424250093564</v>
-      </c>
-      <c r="S215">
-        <f t="shared" si="22"/>
-        <v>0.38851434494290565</v>
-      </c>
-      <c r="T215">
-        <f t="shared" si="23"/>
         <v>-1.9689472279674807</v>
       </c>
       <c r="U215">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.8767531865208253</v>
       </c>
     </row>
@@ -22668,39 +26215,43 @@
         <v>12.2594229876995</v>
       </c>
       <c r="L216" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32.243210610002215</v>
       </c>
       <c r="M216" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.0304013262502769</v>
       </c>
       <c r="N216" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12.386927365652456</v>
       </c>
       <c r="O216">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.1515958489917875</v>
       </c>
+      <c r="P216">
+        <f t="shared" si="22"/>
+        <v>93</v>
+      </c>
       <c r="Q216">
+        <f t="shared" si="27"/>
+        <v>9.4598673749723083E-2</v>
+      </c>
+      <c r="R216">
+        <f t="shared" si="23"/>
+        <v>2.2933011818114687E-2</v>
+      </c>
+      <c r="S216">
+        <f t="shared" si="24"/>
+        <v>0.4923659639173309</v>
+      </c>
+      <c r="T216">
         <f t="shared" si="25"/>
-        <v>9.4598673749723083E-2</v>
-      </c>
-      <c r="R216">
-        <f t="shared" si="21"/>
-        <v>2.2933011818114687E-2</v>
-      </c>
-      <c r="S216">
-        <f t="shared" si="22"/>
-        <v>0.4923659639173309</v>
-      </c>
-      <c r="T216">
-        <f t="shared" si="23"/>
         <v>4.6577167186083519E-2</v>
       </c>
       <c r="U216">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.1694325030803749E-3</v>
       </c>
     </row>
@@ -22733,39 +26284,43 @@
         <v>-9.3192417174577695</v>
       </c>
       <c r="L217" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-26.869954727590098</v>
       </c>
       <c r="M217" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-3.3587443409487623</v>
       </c>
       <c r="N217" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>14.896529785886422</v>
       </c>
       <c r="O217">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.6005154818728045</v>
       </c>
+      <c r="P217">
+        <f t="shared" si="22"/>
+        <v>94</v>
+      </c>
       <c r="Q217">
+        <f t="shared" si="27"/>
+        <v>5.8587443409487623</v>
+      </c>
+      <c r="R217">
+        <f t="shared" si="23"/>
+        <v>2.3434977363795051</v>
+      </c>
+      <c r="S217">
+        <f t="shared" si="24"/>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="T217">
         <f t="shared" si="25"/>
-        <v>5.8587443409487623</v>
-      </c>
-      <c r="R217">
-        <f t="shared" si="21"/>
-        <v>2.3434977363795051</v>
-      </c>
-      <c r="S217">
-        <f t="shared" si="22"/>
-        <v>0.63245553203367588</v>
-      </c>
-      <c r="T217">
-        <f t="shared" si="23"/>
         <v>3.7053952692040375</v>
       </c>
       <c r="U217">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>13.729954101039658</v>
       </c>
     </row>
@@ -22798,39 +26353,43 @@
         <v>4.1663666442036602</v>
       </c>
       <c r="L218" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>35.653240589424939</v>
       </c>
       <c r="M218" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.4566550736781174</v>
       </c>
       <c r="N218" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.4018484815399308</v>
       </c>
       <c r="O218">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.4281597516971534</v>
       </c>
+      <c r="P218">
+        <f t="shared" si="22"/>
+        <v>95</v>
+      </c>
       <c r="Q218">
+        <f t="shared" si="27"/>
+        <v>-2.0816550736781174</v>
+      </c>
+      <c r="R218">
+        <f t="shared" si="23"/>
+        <v>-0.8764863468118389</v>
+      </c>
+      <c r="S218">
+        <f t="shared" si="24"/>
+        <v>0.64888568452305018</v>
+      </c>
+      <c r="T218">
         <f t="shared" si="25"/>
-        <v>-2.0816550736781174</v>
-      </c>
-      <c r="R218">
-        <f t="shared" si="21"/>
-        <v>-0.8764863468118389</v>
-      </c>
-      <c r="S218">
-        <f t="shared" si="22"/>
-        <v>0.64888568452305018</v>
-      </c>
-      <c r="T218">
-        <f t="shared" si="23"/>
         <v>-1.3507561774245056</v>
       </c>
       <c r="U218">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.8245422508504625</v>
       </c>
     </row>
@@ -22863,39 +26422,43 @@
         <v>13.258610799908601</v>
       </c>
       <c r="L219" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>26.122325572185183</v>
       </c>
       <c r="M219" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.2652906965231479</v>
       </c>
       <c r="N219" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.9568580691809601</v>
       </c>
       <c r="O219">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.0165438789556474</v>
       </c>
+      <c r="P219">
+        <f t="shared" si="22"/>
+        <v>96</v>
+      </c>
       <c r="Q219">
+        <f t="shared" si="27"/>
+        <v>-2.3902906965231479</v>
+      </c>
+      <c r="R219">
+        <f t="shared" si="23"/>
+        <v>-2.7317607960264545</v>
+      </c>
+      <c r="S219">
+        <f t="shared" si="24"/>
+        <v>1.0690449676496976</v>
+      </c>
+      <c r="T219">
         <f t="shared" si="25"/>
-        <v>-2.3902906965231479</v>
-      </c>
-      <c r="R219">
-        <f t="shared" si="21"/>
-        <v>-2.7317607960264545</v>
-      </c>
-      <c r="S219">
-        <f t="shared" si="22"/>
-        <v>1.0690449676496976</v>
-      </c>
-      <c r="T219">
-        <f t="shared" si="23"/>
         <v>-2.5553282403379614</v>
       </c>
       <c r="U219">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6.5297024158687034</v>
       </c>
     </row>
@@ -22928,39 +26491,43 @@
         <v>10.687712647020801</v>
       </c>
       <c r="L220" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>57.114075575489458</v>
       </c>
       <c r="M220" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.1392594469361823</v>
       </c>
       <c r="N220" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>13.35282885009517</v>
       </c>
       <c r="O220">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.7092593310454482</v>
       </c>
+      <c r="P220">
+        <f t="shared" si="22"/>
+        <v>97</v>
+      </c>
       <c r="Q220">
+        <f t="shared" si="27"/>
+        <v>-5.2642594469361823</v>
+      </c>
+      <c r="R220">
+        <f t="shared" si="23"/>
+        <v>-2.8076050383659639</v>
+      </c>
+      <c r="S220">
+        <f t="shared" si="24"/>
+        <v>0.73029674334022143</v>
+      </c>
+      <c r="T220">
         <f t="shared" si="25"/>
-        <v>-5.2642594469361823</v>
-      </c>
-      <c r="R220">
-        <f t="shared" si="21"/>
-        <v>-2.8076050383659639</v>
-      </c>
-      <c r="S220">
-        <f t="shared" si="22"/>
-        <v>0.73029674334022143</v>
-      </c>
-      <c r="T220">
-        <f t="shared" si="23"/>
         <v>-3.8444715301954897</v>
       </c>
       <c r="U220">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>14.779961346483647</v>
       </c>
     </row>
@@ -22993,39 +26560,43 @@
         <v>-9.6760659590363005</v>
       </c>
       <c r="L221" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-52.904293797444467</v>
       </c>
       <c r="M221" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-6.6130367246805584</v>
       </c>
       <c r="N221" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>21.54864264497753</v>
       </c>
       <c r="O221">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12.441114631748826</v>
       </c>
+      <c r="P221">
+        <f t="shared" si="22"/>
+        <v>98</v>
+      </c>
       <c r="Q221">
+        <f t="shared" si="27"/>
+        <v>7.1130367246805584</v>
+      </c>
+      <c r="R221">
+        <f t="shared" si="23"/>
+        <v>14.226073449361117</v>
+      </c>
+      <c r="S221">
+        <f t="shared" si="24"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="T221">
         <f t="shared" si="25"/>
-        <v>7.1130367246805584</v>
-      </c>
-      <c r="R221">
-        <f t="shared" si="21"/>
-        <v>14.226073449361117</v>
-      </c>
-      <c r="S221">
-        <f t="shared" si="22"/>
-        <v>1.4142135623730949</v>
-      </c>
-      <c r="T221">
-        <f t="shared" si="23"/>
         <v>10.059353005701146</v>
       </c>
       <c r="U221">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>101.19058289330864</v>
       </c>
     </row>
@@ -23058,39 +26629,43 @@
         <v>-3.2920221313834102</v>
       </c>
       <c r="L222" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>38.057576380670049</v>
       </c>
       <c r="M222" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.7571970475837562</v>
       </c>
       <c r="N222" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12.920645263014061</v>
       </c>
       <c r="O222">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.4597380207048314</v>
       </c>
+      <c r="P222">
+        <f t="shared" si="22"/>
+        <v>99</v>
+      </c>
       <c r="Q222">
+        <f t="shared" si="27"/>
+        <v>-4.2571970475837562</v>
+      </c>
+      <c r="R222">
+        <f t="shared" si="23"/>
+        <v>-8.5143940951675123</v>
+      </c>
+      <c r="S222">
+        <f t="shared" si="24"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="T222">
         <f t="shared" si="25"/>
-        <v>-4.2571970475837562</v>
-      </c>
-      <c r="R222">
-        <f t="shared" si="21"/>
-        <v>-8.5143940951675123</v>
-      </c>
-      <c r="S222">
-        <f t="shared" si="22"/>
-        <v>1.4142135623730949</v>
-      </c>
-      <c r="T222">
-        <f t="shared" si="23"/>
         <v>-6.0205858023876466</v>
       </c>
       <c r="U222">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>36.247453403911699</v>
       </c>
     </row>
@@ -23123,23 +26698,27 @@
         <v>16.315936967730501</v>
       </c>
       <c r="L223" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.8453540952177914</v>
       </c>
       <c r="M223" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2306692619022239</v>
       </c>
       <c r="N223" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.3569363248759734</v>
       </c>
       <c r="O223">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.2475291675780795</v>
       </c>
+      <c r="P223">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
       <c r="Q223">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-1.2306692619022239</v>
       </c>
     </row>
@@ -23172,23 +26751,27 @@
         <v>4.6297631303314102</v>
       </c>
       <c r="L224" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>99.30092721874766</v>
       </c>
       <c r="M224" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12.412615902343457</v>
       </c>
       <c r="N224" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>31.979791403038476</v>
       </c>
       <c r="O224">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>18.463541175172345</v>
       </c>
+      <c r="P224">
+        <f t="shared" si="22"/>
+        <v>101</v>
+      </c>
       <c r="Q224">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-12.162615902343457</v>
       </c>
     </row>
@@ -23221,23 +26804,27 @@
         <v>-5.1344314366579002</v>
       </c>
       <c r="L225" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-11.883241638541264</v>
       </c>
       <c r="M225" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.485405204817658</v>
       </c>
       <c r="N225" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.5808459006171747</v>
       </c>
       <c r="O225">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.6447526138375195</v>
       </c>
+      <c r="P225">
+        <f t="shared" si="22"/>
+        <v>102</v>
+      </c>
       <c r="Q225">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.485405204817658</v>
       </c>
     </row>
@@ -23270,23 +26857,27 @@
         <v>-1.7414490021765201</v>
       </c>
       <c r="L226" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.5824199914932149</v>
       </c>
       <c r="M226" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.44780249893665186</v>
       </c>
       <c r="N226" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.3306754393399824</v>
       </c>
       <c r="O226">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.5003166306758398</v>
       </c>
+      <c r="P226">
+        <f t="shared" si="22"/>
+        <v>103</v>
+      </c>
       <c r="Q226">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.44780249893665186</v>
       </c>
     </row>
@@ -23319,23 +26910,27 @@
         <v>-16.658390298485699</v>
       </c>
       <c r="L227" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20.817600445705395</v>
       </c>
       <c r="M227" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.6022000557131744</v>
       </c>
       <c r="N227" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11.09433192734352</v>
       </c>
       <c r="O227">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.4053155247308409</v>
       </c>
+      <c r="P227">
+        <f t="shared" si="22"/>
+        <v>104</v>
+      </c>
       <c r="Q227">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-2.6022000557131744</v>
       </c>
     </row>
@@ -23368,23 +26963,27 @@
         <v>5.6308373101055604</v>
       </c>
       <c r="L228" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>40.776547748595377</v>
       </c>
       <c r="M228" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.0970684685744221</v>
       </c>
       <c r="N228" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.2922455211810888</v>
       </c>
       <c r="O228">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.7875301838403708</v>
       </c>
+      <c r="P228">
+        <f t="shared" si="22"/>
+        <v>105</v>
+      </c>
       <c r="Q228">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-5.0970684685744221</v>
       </c>
     </row>
@@ -23417,23 +27016,27 @@
         <v>-7.71944869682192</v>
       </c>
       <c r="L229" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30.979114925488844</v>
       </c>
       <c r="M229" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.8723893656861055</v>
       </c>
       <c r="N229" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.6267637043795524</v>
       </c>
       <c r="O229">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.558014616148454</v>
       </c>
+      <c r="P229">
+        <f t="shared" si="22"/>
+        <v>106</v>
+      </c>
       <c r="Q229">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.8723893656861055</v>
       </c>
     </row>
@@ -23466,23 +27069,27 @@
         <v>5.9684545397758404</v>
       </c>
       <c r="L230" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27.567680742591591</v>
       </c>
       <c r="M230" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.4459600928239489</v>
       </c>
       <c r="N230" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.9411670151133205</v>
       </c>
       <c r="O230">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.1621851830450787</v>
       </c>
+      <c r="P230">
+        <f t="shared" si="22"/>
+        <v>107</v>
+      </c>
       <c r="Q230">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.4459600928239489</v>
       </c>
     </row>
@@ -23515,23 +27122,27 @@
         <v>5.8997051045298496</v>
       </c>
       <c r="L231" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>28.750445824116454</v>
       </c>
       <c r="M231" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.5938057280145568</v>
       </c>
       <c r="N231" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.16673954052394</v>
       </c>
       <c r="O231">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.8283179261749287</v>
       </c>
+      <c r="P231">
+        <f t="shared" si="22"/>
+        <v>108</v>
+      </c>
       <c r="Q231">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.5938057280145568</v>
       </c>
     </row>
@@ -23564,23 +27175,27 @@
         <v>-4.0648083984851802</v>
       </c>
       <c r="L232" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-43.833372020162557</v>
       </c>
       <c r="M232" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-5.4791715025203196</v>
       </c>
       <c r="N232" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10.898541547619216</v>
       </c>
       <c r="O232">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.2922758962922751</v>
       </c>
+      <c r="P232">
+        <f t="shared" si="22"/>
+        <v>109</v>
+      </c>
       <c r="Q232">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.4791715025203196</v>
       </c>
     </row>
@@ -23593,15 +27208,15 @@
         <v>162724.44598495992</v>
       </c>
       <c r="C240">
-        <f t="shared" ref="C240:H240" si="26">SUM(C123:C232)</f>
+        <f t="shared" ref="C240:H240" si="28">SUM(C123:C232)</f>
         <v>180954.53929556283</v>
       </c>
       <c r="D240">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>193272.1403713327</v>
       </c>
       <c r="E240">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>194450.75705760188</v>
       </c>
       <c r="F240">
@@ -23609,11 +27224,11 @@
         <v>188934.90737039709</v>
       </c>
       <c r="G240">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>197007.14330274114</v>
       </c>
       <c r="H240">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>193458.91895056827</v>
       </c>
       <c r="I240">
@@ -23630,15 +27245,15 @@
         <v>161351</v>
       </c>
       <c r="C241">
-        <f t="shared" ref="C241:I241" si="27">SUM(C3:C112)</f>
+        <f t="shared" ref="C241:I241" si="29">SUM(C3:C112)</f>
         <v>181519</v>
       </c>
       <c r="D241">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>192822</v>
       </c>
       <c r="E241">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>194520</v>
       </c>
       <c r="F241">
@@ -23646,15 +27261,15 @@
         <v>186904</v>
       </c>
       <c r="G241">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>196497</v>
       </c>
       <c r="H241">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>193015</v>
       </c>
       <c r="I241">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>183450</v>
       </c>
     </row>
@@ -23667,15 +27282,15 @@
         <v>1373.4459849599225</v>
       </c>
       <c r="C242">
-        <f t="shared" ref="C242:I242" si="28">C240-C241</f>
+        <f t="shared" ref="C242:I242" si="30">C240-C241</f>
         <v>-564.46070443716599</v>
       </c>
       <c r="D242">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>450.14037133270176</v>
       </c>
       <c r="E242">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-69.242942398122977</v>
       </c>
       <c r="F242">
@@ -23683,15 +27298,15 @@
         <v>2030.9073703970935</v>
       </c>
       <c r="G242">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>510.14330274114036</v>
       </c>
       <c r="H242">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>443.91895056827343</v>
       </c>
       <c r="I242">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1476.8199142013618</v>
       </c>
     </row>
@@ -23704,15 +27319,15 @@
         <v>8.5121628310944625E-3</v>
       </c>
       <c r="C243">
-        <f t="shared" ref="C243:E243" si="29">C242/C241</f>
+        <f t="shared" ref="C243:E243" si="31">C242/C241</f>
         <v>-3.1096508048037174E-3</v>
       </c>
       <c r="D243">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2.3344865800204425E-3</v>
       </c>
       <c r="E243">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-3.5596824181638383E-4</v>
       </c>
       <c r="F243">
@@ -23720,11 +27335,11 @@
         <v>1.086604551211902E-2</v>
       </c>
       <c r="G243">
-        <f t="shared" ref="G243:H243" si="30">G242/G241</f>
+        <f t="shared" ref="G243:H243" si="32">G242/G241</f>
         <v>2.5961887598341979E-3</v>
       </c>
       <c r="H243">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.299919439257433E-3</v>
       </c>
       <c r="I243">
@@ -23753,11 +27368,11 @@
         <v>1.7552756838331065</v>
       </c>
       <c r="D244">
-        <f t="shared" ref="D244:E244" si="31">(D241-D240)^2/D241</f>
+        <f t="shared" ref="D244:E244" si="33">(D241-D240)^2/D241</f>
         <v>1.050846656001611</v>
       </c>
       <c r="E244">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2.4648288463652974E-2</v>
       </c>
       <c r="F244">
@@ -23769,11 +27384,11 @@
         <v>1.3244283084812429</v>
       </c>
       <c r="H244">
-        <f t="shared" ref="H244:I244" si="32">(H241-H240)^2/H241</f>
+        <f t="shared" ref="H244:I244" si="34">(H241-H240)^2/H241</f>
         <v>1.0209778238667315</v>
       </c>
       <c r="I244">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11.888782005896525</v>
       </c>
     </row>

--- a/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,6 +16,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1342,11 +1343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="486317088"/>
-        <c:axId val="486318264"/>
+        <c:axId val="454312392"/>
+        <c:axId val="454312784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="486317088"/>
+        <c:axId val="454312392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1458,7 +1459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486318264"/>
+        <c:crossAx val="454312784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1466,7 +1467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="486318264"/>
+        <c:axId val="454312784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486317088"/>
+        <c:crossAx val="454312392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2422,11 +2423,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486318656"/>
-        <c:axId val="486316696"/>
+        <c:axId val="446660360"/>
+        <c:axId val="446662320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486318656"/>
+        <c:axId val="446660360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,12 +2484,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486316696"/>
+        <c:crossAx val="446662320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486316696"/>
+        <c:axId val="446662320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2545,7 +2546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486318656"/>
+        <c:crossAx val="446660360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3311,11 +3312,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="471657480"/>
-        <c:axId val="471654736"/>
+        <c:axId val="369921504"/>
+        <c:axId val="521186176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="471657480"/>
+        <c:axId val="369921504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3372,12 +3373,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471654736"/>
+        <c:crossAx val="521186176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471654736"/>
+        <c:axId val="521186176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3434,7 +3435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471657480"/>
+        <c:crossAx val="369921504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4200,11 +4201,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="471644936"/>
-        <c:axId val="471645328"/>
+        <c:axId val="457356456"/>
+        <c:axId val="457356848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="471644936"/>
+        <c:axId val="457356456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4261,12 +4262,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471645328"/>
+        <c:crossAx val="457356848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471645328"/>
+        <c:axId val="457356848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4323,7 +4324,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471644936"/>
+        <c:crossAx val="457356456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5733,11 +5734,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="473446480"/>
-        <c:axId val="455791952"/>
+        <c:axId val="457354104"/>
+        <c:axId val="457354496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="473446480"/>
+        <c:axId val="457354104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5794,12 +5795,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455791952"/>
+        <c:crossAx val="457354496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="455791952"/>
+        <c:axId val="457354496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5856,7 +5857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473446480"/>
+        <c:crossAx val="457354104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7293,11 +7294,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472782824"/>
-        <c:axId val="472783216"/>
+        <c:axId val="520423800"/>
+        <c:axId val="520424192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472782824"/>
+        <c:axId val="520423800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7354,12 +7355,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472783216"/>
+        <c:crossAx val="520424192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472783216"/>
+        <c:axId val="520424192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7416,7 +7417,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472782824"/>
+        <c:crossAx val="520423800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8853,11 +8854,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="511703080"/>
-        <c:axId val="511702296"/>
+        <c:axId val="520424584"/>
+        <c:axId val="520421840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="511703080"/>
+        <c:axId val="520424584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8914,12 +8915,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511702296"/>
+        <c:crossAx val="520421840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="511702296"/>
+        <c:axId val="520421840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8976,7 +8977,2203 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511703080"/>
+        <c:crossAx val="520424584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>relative error and 1/sqrt(true) together</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>relative error: 10z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]גיליון1!$R$130:$R$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>-2.4315509963780584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9938397216144885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.20464890981640621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5174480604062502E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5619465779506934E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1065423317759478E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.1652621929469556E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.0280259004677427E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6226703084207966E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8204091973367642E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8073296462906202E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1190273187198669E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7301059239082027E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4381130125347068E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.855267711991198E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6659833624698089E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.5832339617510859E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9501404703416523E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7241703942011172E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0249294495233826E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2962361025349802E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0674132512573819E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.5977886857159799E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6852837267531325E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6.9335463770812261E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.7317726222970295E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.1095481454550518E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5724800740679179E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.7176888031028418E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.3797588885797796E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.4439143573622728E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.2980955315924211E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3622296168745154E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.0387855947005165E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8210754583344725E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5962085332337987E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.5476208946703146E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.2664560537708695E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.0426043723433173E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-4.9831749146953212E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.7735251709563549E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.5841652835281483E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1770937790127849E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.4028904120963722E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-6.8520266222517291E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5643021283019456E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.8574833723739889E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3.68410812929713E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.1710508748742625E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.6111014793742397E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4771466632292573E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.8927156627950556E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.9874230704888061E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-8.7623110890781911E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4637329296378558E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.7069768941649958E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.269873152410681E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-7.9408428086733575E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.4710713540224627E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.8998924569152238E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.222335013651232E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2.8048837312870945E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.8351337706645958E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.2110959267564682E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.4659712607531992E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-3.1508256459648956E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-5.1833460452901506E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.3216629575675804E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.1919830559787733E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-2.4295221495194856E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.5082914978035668E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2833077710346004E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-5.5109271980650534E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-3.6451789476461198E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.11958370045414075</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.10518720072330305</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-4.9402257020747437E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.20127952219993933</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.7945040217783159E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.35286669858748065</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.3980572506473667E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.0586891709219752E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-6.0601809734682988E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.12116702294092691</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.6368495187722012</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.55949035306232231</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.10543339483609211</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.2194639529334386</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.13019234883158204</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1963842814522143</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.7271952199439133</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6904017557389821</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.24829757128098384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>relative error: allz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>גיליון1!$R$130:$R$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>11.504553201297902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3172893341863499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.37497317346324011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.148734959149816E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3583193189431216E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0036901846350122E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0651996022213879E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.19958793386532E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7851735668360231E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1346980081556663E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.214623467218845E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6512963201166377E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9469569785007729E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0912084747351027E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.3487818784956711E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2046964034804747E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.2856544366176213E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3034073463130668E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.485382572565702E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.298781673646901E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.9820239198405287E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.9397945533765729E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8.739686147436778E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.8503878320259216E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.8123097605162931E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.3403314497615332E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.3293299963635392E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.9431350565812904E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.3265596473084795E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.6059253308315383E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5.2211943233401075E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9528037254739342E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6351467463010093E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.5845024887575183E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-8.0805134790956738E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.381909989623743E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.0796398788179685E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.2171218869859708E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.679002483086411E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5.9623013952313309E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.3868149109776685E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.4476103456911713E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5131039564977945E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.5382463836561033E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-5.8534525144169104E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1196045226504341E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.8681356078051335E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.9829720013823886E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-6.5018974777839031E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4459786699645176E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.3836220711303447E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.8058952217732757E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.7908990694304279E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9977516697880896E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.6822232971022203E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.5415360712498843E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.5097842747609687E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.3070868030647314E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.9784443283469741E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.1717198419769425E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.1841206319419677E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.4608762252730497E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.12092047044074E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.4109311856402287E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.6645414937863967E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.817721107843708E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.8301006119351548E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.5998180499822775E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.8602297412908377E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-9.0696013888326182E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-3.2381602708967276E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.11545274669882419</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.23190856739908841</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.0954429141056145E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.21099161550288481</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.2847697401777875E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.18924739295475893</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.23987525192702336</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.30617692426737297</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.25052812769932564</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.9222167255998477E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.58679788988616111</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.61203966783876829</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.47045842020780826</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-3.0807841772910648E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.76496424250093564</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2933011818114687E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.3434977363795051</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.8764863468118389</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.7317607960264545</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.8076050383659639</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14.226073449361117</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-8.5143940951675123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1/sqrt(true)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]גיליון1!$S$130:$S$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>1.6329931618554523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19802950859533489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8954139199058683E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8239119393494044E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.128205128205128E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.004407273335673E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3840027153248686E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8713886396267204E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5479257578373642E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3065580739059788E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0825990392946817E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9282539322832151E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8267316060998445E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7176718136839322E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6238709775341649E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5591727976114366E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5172209934815136E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4521950407133924E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4174953192277748E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3944479031314379E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3686115720737697E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3550838384546319E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.337336474903855E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3294980928779005E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3220124979025265E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3168015154181935E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3212910564542248E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3328743112218882E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3435230372511476E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3499192392788215E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3763839347353903E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3847214960382929E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4183148764245436E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.432376666040793E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4712247158412491E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.504418666962188E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5353757178626857E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5715666909482562E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6153476372506338E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6635792022840736E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7044904292704971E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7657678008211362E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.844199375737695E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8984015070124632E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9416560651186562E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0502847851135975E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1142428689408906E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1976031725940863E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2777329617136386E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.3806993438741434E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5030328537576901E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6423514707860023E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7529308506178359E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8987029394585629E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.0718378505606096E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2064707742092177E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.430476221747198E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.6040423985645734E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.7942399730627178E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.1567556712637267E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.3003295253753064E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.6480215984769452E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8400476747043952E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.1786715433664143E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.4242586434973504E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.0233860193683417E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.291610618605574E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7943155358499832E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.474350927519359E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.8027431464087041E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.6226122711845377E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.067521068905561E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.10044039219036507</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.11340959542474854</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.11206636293610515</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.131448155980155</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.14724203476646205</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.17087153154335219</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.18107149208503706</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.17474081133220759</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.19950186722152657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.23570226039551587</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.26607604209509572</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.31622776601683794</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.38851434494290565</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.4923659639173309</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.63245553203367588</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.64888568452305018</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0690449676496976</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.73029674334022143</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4142135623730949</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4142135623730949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="512841800"/>
+        <c:axId val="512841016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="512841800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512841016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="512841016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512841800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9298,6 +11495,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12949,6 +15186,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12969,7 +15722,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13173,6 +15926,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>18634</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14484,6 +17269,814 @@
           </cell>
           <cell r="U222">
             <v>3.0825841952017628E-2</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="P223">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="P224">
+            <v>101</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="P225">
+            <v>102</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="P226">
+            <v>103</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="P227">
+            <v>104</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="P228">
+            <v>105</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="P229">
+            <v>106</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="P230">
+            <v>107</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="P231">
+            <v>108</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="P232">
+            <v>109</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="גיליון1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="130">
+          <cell r="P130">
+            <v>7</v>
+          </cell>
+          <cell r="S130">
+            <v>1.6329931618554523</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="P131">
+            <v>8</v>
+          </cell>
+          <cell r="S131">
+            <v>0.63245553203367588</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="P132">
+            <v>9</v>
+          </cell>
+          <cell r="S132">
+            <v>0.19802950859533489</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="P133">
+            <v>10</v>
+          </cell>
+          <cell r="S133">
+            <v>9.8954139199058683E-2</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="P134">
+            <v>11</v>
+          </cell>
+          <cell r="S134">
+            <v>6.8239119393494044E-2</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="P135">
+            <v>12</v>
+          </cell>
+          <cell r="S135">
+            <v>5.128205128205128E-2</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="P136">
+            <v>13</v>
+          </cell>
+          <cell r="S136">
+            <v>4.004407273335673E-2</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="P137">
+            <v>14</v>
+          </cell>
+          <cell r="S137">
+            <v>3.3840027153248686E-2</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="P138">
+            <v>15</v>
+          </cell>
+          <cell r="S138">
+            <v>2.8713886396267204E-2</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="P139">
+            <v>16</v>
+          </cell>
+          <cell r="S139">
+            <v>2.5479257578373642E-2</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="P140">
+            <v>17</v>
+          </cell>
+          <cell r="S140">
+            <v>2.3065580739059788E-2</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="P141">
+            <v>18</v>
+          </cell>
+          <cell r="S141">
+            <v>2.0825990392946817E-2</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="P142">
+            <v>19</v>
+          </cell>
+          <cell r="S142">
+            <v>1.9282539322832151E-2</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="P143">
+            <v>20</v>
+          </cell>
+          <cell r="S143">
+            <v>1.8267316060998445E-2</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="P144">
+            <v>21</v>
+          </cell>
+          <cell r="S144">
+            <v>1.7176718136839322E-2</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="P145">
+            <v>22</v>
+          </cell>
+          <cell r="S145">
+            <v>1.6238709775341649E-2</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="P146">
+            <v>23</v>
+          </cell>
+          <cell r="S146">
+            <v>1.5591727976114366E-2</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="P147">
+            <v>24</v>
+          </cell>
+          <cell r="S147">
+            <v>1.5172209934815136E-2</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="P148">
+            <v>25</v>
+          </cell>
+          <cell r="S148">
+            <v>1.4521950407133924E-2</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="P149">
+            <v>26</v>
+          </cell>
+          <cell r="S149">
+            <v>1.4174953192277748E-2</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="P150">
+            <v>27</v>
+          </cell>
+          <cell r="S150">
+            <v>1.3944479031314379E-2</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="P151">
+            <v>28</v>
+          </cell>
+          <cell r="S151">
+            <v>1.3686115720737697E-2</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="P152">
+            <v>29</v>
+          </cell>
+          <cell r="S152">
+            <v>1.3550838384546319E-2</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="P153">
+            <v>30</v>
+          </cell>
+          <cell r="S153">
+            <v>1.337336474903855E-2</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="P154">
+            <v>31</v>
+          </cell>
+          <cell r="S154">
+            <v>1.3294980928779005E-2</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="P155">
+            <v>32</v>
+          </cell>
+          <cell r="S155">
+            <v>1.3220124979025265E-2</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="P156">
+            <v>33</v>
+          </cell>
+          <cell r="S156">
+            <v>1.3168015154181935E-2</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="P157">
+            <v>34</v>
+          </cell>
+          <cell r="S157">
+            <v>1.3212910564542248E-2</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="P158">
+            <v>35</v>
+          </cell>
+          <cell r="S158">
+            <v>1.3328743112218882E-2</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="P159">
+            <v>36</v>
+          </cell>
+          <cell r="S159">
+            <v>1.3435230372511476E-2</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="P160">
+            <v>37</v>
+          </cell>
+          <cell r="S160">
+            <v>1.3499192392788215E-2</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="P161">
+            <v>38</v>
+          </cell>
+          <cell r="S161">
+            <v>1.3763839347353903E-2</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="P162">
+            <v>39</v>
+          </cell>
+          <cell r="S162">
+            <v>1.3847214960382929E-2</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="P163">
+            <v>40</v>
+          </cell>
+          <cell r="S163">
+            <v>1.4183148764245436E-2</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="P164">
+            <v>41</v>
+          </cell>
+          <cell r="S164">
+            <v>1.432376666040793E-2</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="P165">
+            <v>42</v>
+          </cell>
+          <cell r="S165">
+            <v>1.4712247158412491E-2</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="P166">
+            <v>43</v>
+          </cell>
+          <cell r="S166">
+            <v>1.504418666962188E-2</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="P167">
+            <v>44</v>
+          </cell>
+          <cell r="S167">
+            <v>1.5353757178626857E-2</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="P168">
+            <v>45</v>
+          </cell>
+          <cell r="S168">
+            <v>1.5715666909482562E-2</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="P169">
+            <v>46</v>
+          </cell>
+          <cell r="S169">
+            <v>1.6153476372506338E-2</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="P170">
+            <v>47</v>
+          </cell>
+          <cell r="S170">
+            <v>1.6635792022840736E-2</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="P171">
+            <v>48</v>
+          </cell>
+          <cell r="S171">
+            <v>1.7044904292704971E-2</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="P172">
+            <v>49</v>
+          </cell>
+          <cell r="S172">
+            <v>1.7657678008211362E-2</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="P173">
+            <v>50</v>
+          </cell>
+          <cell r="S173">
+            <v>1.844199375737695E-2</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="P174">
+            <v>51</v>
+          </cell>
+          <cell r="S174">
+            <v>1.8984015070124632E-2</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="P175">
+            <v>52</v>
+          </cell>
+          <cell r="S175">
+            <v>1.9416560651186562E-2</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="P176">
+            <v>53</v>
+          </cell>
+          <cell r="S176">
+            <v>2.0502847851135975E-2</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="P177">
+            <v>54</v>
+          </cell>
+          <cell r="S177">
+            <v>2.1142428689408906E-2</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="P178">
+            <v>55</v>
+          </cell>
+          <cell r="S178">
+            <v>2.1976031725940863E-2</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="P179">
+            <v>56</v>
+          </cell>
+          <cell r="S179">
+            <v>2.2777329617136386E-2</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="P180">
+            <v>57</v>
+          </cell>
+          <cell r="S180">
+            <v>2.3806993438741434E-2</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="P181">
+            <v>58</v>
+          </cell>
+          <cell r="S181">
+            <v>2.5030328537576901E-2</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="P182">
+            <v>59</v>
+          </cell>
+          <cell r="S182">
+            <v>2.6423514707860023E-2</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="P183">
+            <v>60</v>
+          </cell>
+          <cell r="S183">
+            <v>2.7529308506178359E-2</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="P184">
+            <v>61</v>
+          </cell>
+          <cell r="S184">
+            <v>2.8987029394585629E-2</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="P185">
+            <v>62</v>
+          </cell>
+          <cell r="S185">
+            <v>3.0718378505606096E-2</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="P186">
+            <v>63</v>
+          </cell>
+          <cell r="S186">
+            <v>3.2064707742092177E-2</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="P187">
+            <v>64</v>
+          </cell>
+          <cell r="S187">
+            <v>3.430476221747198E-2</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="P188">
+            <v>65</v>
+          </cell>
+          <cell r="S188">
+            <v>3.6040423985645734E-2</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="P189">
+            <v>66</v>
+          </cell>
+          <cell r="S189">
+            <v>3.7942399730627178E-2</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="P190">
+            <v>67</v>
+          </cell>
+          <cell r="S190">
+            <v>4.1567556712637267E-2</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="P191">
+            <v>68</v>
+          </cell>
+          <cell r="S191">
+            <v>4.3003295253753064E-2</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="P192">
+            <v>69</v>
+          </cell>
+          <cell r="S192">
+            <v>4.6480215984769452E-2</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="P193">
+            <v>70</v>
+          </cell>
+          <cell r="S193">
+            <v>4.8400476747043952E-2</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="P194">
+            <v>71</v>
+          </cell>
+          <cell r="S194">
+            <v>5.1786715433664143E-2</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="P195">
+            <v>72</v>
+          </cell>
+          <cell r="S195">
+            <v>5.4242586434973504E-2</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="P196">
+            <v>73</v>
+          </cell>
+          <cell r="S196">
+            <v>6.0233860193683417E-2</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="P197">
+            <v>74</v>
+          </cell>
+          <cell r="S197">
+            <v>6.291610618605574E-2</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="P198">
+            <v>75</v>
+          </cell>
+          <cell r="S198">
+            <v>6.7943155358499832E-2</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="P199">
+            <v>76</v>
+          </cell>
+          <cell r="S199">
+            <v>7.474350927519359E-2</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="P200">
+            <v>77</v>
+          </cell>
+          <cell r="S200">
+            <v>7.8027431464087041E-2</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="P201">
+            <v>78</v>
+          </cell>
+          <cell r="S201">
+            <v>8.6226122711845377E-2</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="P202">
+            <v>79</v>
+          </cell>
+          <cell r="S202">
+            <v>9.067521068905561E-2</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="P203">
+            <v>80</v>
+          </cell>
+          <cell r="S203">
+            <v>0.10044039219036507</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="P204">
+            <v>81</v>
+          </cell>
+          <cell r="S204">
+            <v>0.11340959542474854</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="P205">
+            <v>82</v>
+          </cell>
+          <cell r="S205">
+            <v>0.11206636293610515</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="P206">
+            <v>83</v>
+          </cell>
+          <cell r="S206">
+            <v>0.131448155980155</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="P207">
+            <v>84</v>
+          </cell>
+          <cell r="S207">
+            <v>0.14724203476646205</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="P208">
+            <v>85</v>
+          </cell>
+          <cell r="S208">
+            <v>0.17087153154335219</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="P209">
+            <v>86</v>
+          </cell>
+          <cell r="S209">
+            <v>0.18107149208503706</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="P210">
+            <v>87</v>
+          </cell>
+          <cell r="S210">
+            <v>0.17474081133220759</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="P211">
+            <v>88</v>
+          </cell>
+          <cell r="S211">
+            <v>0.19950186722152657</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="P212">
+            <v>89</v>
+          </cell>
+          <cell r="S212">
+            <v>0.23570226039551587</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="P213">
+            <v>90</v>
+          </cell>
+          <cell r="S213">
+            <v>0.26607604209509572</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="P214">
+            <v>91</v>
+          </cell>
+          <cell r="S214">
+            <v>0.31622776601683794</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="P215">
+            <v>92</v>
+          </cell>
+          <cell r="S215">
+            <v>0.38851434494290565</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="P216">
+            <v>93</v>
+          </cell>
+          <cell r="S216">
+            <v>0.4923659639173309</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="P217">
+            <v>94</v>
+          </cell>
+          <cell r="S217">
+            <v>0.63245553203367588</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="P218">
+            <v>95</v>
+          </cell>
+          <cell r="S218">
+            <v>0.64888568452305018</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="P219">
+            <v>96</v>
+          </cell>
+          <cell r="S219">
+            <v>1.0690449676496976</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="P220">
+            <v>97</v>
+          </cell>
+          <cell r="S220">
+            <v>0.73029674334022143</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="P221">
+            <v>98</v>
+          </cell>
+          <cell r="S221">
+            <v>1.4142135623730949</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="P222">
+            <v>99</v>
+          </cell>
+          <cell r="S222">
+            <v>1.4142135623730949</v>
           </cell>
         </row>
         <row r="223">
@@ -14841,8 +18434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V169" sqref="V169"/>
+    <sheetView tabSelected="1" topLeftCell="V115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AW122" sqref="AW122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
@@ -1343,11 +1343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="454312392"/>
-        <c:axId val="454312784"/>
+        <c:axId val="486306112"/>
+        <c:axId val="486307680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="454312392"/>
+        <c:axId val="486306112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,7 +1459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454312784"/>
+        <c:crossAx val="486307680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1467,7 +1467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="454312784"/>
+        <c:axId val="486307680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454312392"/>
+        <c:crossAx val="486306112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1672,6 +1672,924 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>relative: (allz - 10z)/allz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]גיליון1!$BG$119:$BG$228</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>1.3266727229610615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2919576669488091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12387460848890341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1062630582112669E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.1740961203080448E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.9762716437817181E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.5340591930851329E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.1861793119242816E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6149078797279083E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4127808358039591E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2926077503178653E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5666049836319894E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.7411209674700248E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3412299621783477E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.253324586570486E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.484627962093213E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.2907569382859456E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1215613483557116E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2421182243794889E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9986788480240983E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2697972342080103E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.376470849936592E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1233401647128528E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.3684394309845276E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0990371636731113E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5965298731107159E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2124159177682916E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.4900241811483971E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0409815124213247E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2259178617791541E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.732425391296328E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.4216792603623901E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0995316947242248E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.3720487056243271E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0814204716259058E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.9545985721124349E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.2118029309170411E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.3004557412527042E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.585825442160507E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.7332327399778074E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4098492648738905E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3928045058552772E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.7419101535183875E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.333054075343188E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-9.9276319388859877E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-4.6841876377813037E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-8.7683043368303407E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.0742091569303197E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-5.174964323279377E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.6306679302798777E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.973242506538269E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.9719546155665426E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.4608362011503467E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.932568149268595E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.303303089585633E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.9881794897050926E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.7690573753995329E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-4.2414391602985324E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.4938000297040956E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-4.7602952778027979E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-5.527175842780721E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-6.4903841242411386E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-7.2550281667301666E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.9604544284990786E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-4.2651155522686432E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-3.5461359370144913E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-5.3761950780428461E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-5.2623327975981522E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.0040922268709885E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.0879284316767299E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.069757296722194E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.11500785214028783</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.14351657263014328</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.0817375914515958E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.5481872820454154E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.1165376576426409</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.11759129069293195</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.1128720249258005E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.2388431632026842</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-8.183628092298717E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-8.2612457297560685E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.3723578049357652</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.34207462061894761</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.65961089832622199</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.58792885764638969</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.11641816009817275</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.13137933053568079</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.83664732224404814</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.53647003465631016</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0526250989407697</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.1118214167626891E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.7965834859324783</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.86879904706440492</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.13137933039071301</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.83664732214223447</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.53647003472941535</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.0526250990313533</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.1118214103571686E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.79658348594238737</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.86879904712849643</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.8051085040582202</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.2872623696360301</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-2.1394901307125558</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.4211644576344804</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.66852055566926416</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.8520495566284888</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.87401722100461698</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.8169538142750388</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.11479200853813973</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.5737340260965587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="444800304"/>
+        <c:axId val="444802264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="444800304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444802264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="444802264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444800304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2423,11 +3341,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446660360"/>
-        <c:axId val="446662320"/>
+        <c:axId val="486315520"/>
+        <c:axId val="486311992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="446660360"/>
+        <c:axId val="486315520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,12 +3402,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446662320"/>
+        <c:crossAx val="486311992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446662320"/>
+        <c:axId val="486311992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,7 +3464,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446660360"/>
+        <c:crossAx val="486315520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3312,11 +4230,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="369921504"/>
-        <c:axId val="521186176"/>
+        <c:axId val="486308072"/>
+        <c:axId val="486315128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="369921504"/>
+        <c:axId val="486308072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3373,12 +4291,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521186176"/>
+        <c:crossAx val="486315128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="521186176"/>
+        <c:axId val="486315128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3435,7 +4353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369921504"/>
+        <c:crossAx val="486308072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4201,11 +5119,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="457356456"/>
-        <c:axId val="457356848"/>
+        <c:axId val="486306896"/>
+        <c:axId val="486308464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="457356456"/>
+        <c:axId val="486306896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4262,12 +5180,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457356848"/>
+        <c:crossAx val="486308464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="457356848"/>
+        <c:axId val="486308464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4324,7 +5242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457356456"/>
+        <c:crossAx val="486306896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5734,11 +6652,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="457354104"/>
-        <c:axId val="457354496"/>
+        <c:axId val="486315912"/>
+        <c:axId val="486303760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="457354104"/>
+        <c:axId val="486315912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5795,12 +6713,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457354496"/>
+        <c:crossAx val="486303760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="457354496"/>
+        <c:axId val="486303760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5857,7 +6775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457354104"/>
+        <c:crossAx val="486315912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7294,11 +8212,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="520423800"/>
-        <c:axId val="520424192"/>
+        <c:axId val="516626648"/>
+        <c:axId val="516621552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="520423800"/>
+        <c:axId val="516626648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7355,12 +8273,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520424192"/>
+        <c:crossAx val="516621552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="520424192"/>
+        <c:axId val="516621552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7417,7 +8335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520423800"/>
+        <c:crossAx val="516626648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8854,11 +9772,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="520424584"/>
-        <c:axId val="520421840"/>
+        <c:axId val="516621944"/>
+        <c:axId val="516623120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="520424584"/>
+        <c:axId val="516621944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8915,12 +9833,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520421840"/>
+        <c:crossAx val="516623120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="520421840"/>
+        <c:axId val="516623120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8977,7 +9895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520424584"/>
+        <c:crossAx val="516621944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11050,11 +11968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="512841800"/>
-        <c:axId val="512841016"/>
+        <c:axId val="516627432"/>
+        <c:axId val="516630960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="512841800"/>
+        <c:axId val="516627432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11111,12 +12029,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512841016"/>
+        <c:crossAx val="516630960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="512841016"/>
+        <c:axId val="516630960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11173,7 +12091,1613 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512841800"/>
+        <c:crossAx val="516627432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>output 10z</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]גיליון1!$BE$119:$BE$228</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>1.286831624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4845993039999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.7185472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.532806170000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>222.39928029999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>372.2398728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>626.22256159999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>890.95973619999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1168.936537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1512.3338719999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1845.65398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2279.8244260000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2671.3993799999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2953.6533479999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3392.0374449999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3755.5941750000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4140.5801330000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4331.3092210000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4724.2154499999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4973.37878</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5130.9410319999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5311.6963480000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5481.8057319999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5588.1961449999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5696.7265390000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5765.98927</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5773.5239030000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5713.2648339999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5644.1725310000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5616.4386420000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5512.011536</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5347.1465950000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5197.7151320000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5022.76433</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4860.250078</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4603.3855169999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4486.7546949999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4295.7230659999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4053.0963750000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3851.4723949999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3578.0595880000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3419.3373029999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3137.4251599999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2981.4984850000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2793.7626610000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2635.0881890000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2388.0514710000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2245.36681</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2094.8730719999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1930.6053979999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1738.312594</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1581.931114</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1426.5390130000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1331.0618689999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1172.7047480000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1063.678469</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>973.86011040000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>856.49773119999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>781.20041060000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>697.33396279999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>597.39926390000005</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>555.91740879999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>475.99812539999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>444.85111569999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>385.79874030000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>350.58386869999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>289.91159750000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>251.02798989999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>219.20713330000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>183.34884460000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>168.36986880000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>132.77395100000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>128.32766520000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>99.486328360000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>87.047632710000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>71.249469140000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>60.734155629999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>55.40901796</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34.051538239999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41.262434310000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>32.292136249999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>25.023025430000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>19.090832580000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>12.413515800000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16.368495190000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10.33162359</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.559912754</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.54865988200000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.0657931719999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.171836246</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.9884910370000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.345200878</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.62414878600000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.5599127536988799</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.54865988233359597</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.0657931715249926</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.1718362462706875</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.9884910373948372</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-1.3452008778694911</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.62414878564049192</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.99082228844053344</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-3.5656774574890515</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-4.6634149806340996</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.18859849659201999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.86257582850521275</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.75411353982053531</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.48785437364130435</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-2.815190241672092</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.0063459058292192</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8.6227586283348341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>output allz</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]גיליון1!$P$130:$P$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]גיליון1!$BF$119:$BF$228</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>-3.9392074500000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.7932233350000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.061815920000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108.4043956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>217.66699070000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>365.0259681</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>610.74589900000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>883.72540160000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1179.0943259999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1534.0060149999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1869.8234629999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2297.2064799999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2686.8247660000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2972.5026710000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3435.0902759999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3772.5124900000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4135.2425400000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4340.5178960000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4734.831502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4983.338874</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5152.9430540000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5335.0450170000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5493.4702379999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5629.6780870000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5760.0314250000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5798.440415</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5786.3256620000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5750.5862779999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5703.545384</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5628.9682629999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5516.2769559999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5381.7061860000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5213.8757050000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5049.8925989999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4913.3844230000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4635.6244239999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4510.2612879999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4336.0503099999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4079.9663209999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3855.2247750000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3629.2262070000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3467.6346749999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3158.720973</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2985.4782890000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2790.9918670000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2622.80249</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2367.2943140000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2221.5032190000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2084.0879909999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1899.6287609999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1704.6752180000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1551.3394049999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1392.2773480000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1293.1396669999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1146.3019400000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1032.816071</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>938.48796070000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>821.64802989999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>762.19284519999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>665.64719100000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>566.1094018</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>522.03531180000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>443.8002894</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>427.90416620000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>370.01708409999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>338.57745199999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>275.12057850000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>238.4784597</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>217.02797229999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>195.23458650000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>169.56867819999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>150.0283944</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>149.83087950000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>98.421664219999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>94.154598109999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80.647997910000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>68.827692870000007</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>57.189245999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44.736559659999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>38.141107890000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>29.827974019999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>39.868296979999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>29.016714019999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.4797748149999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10.308078419999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>11.69288811</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.0304013259999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-3.358744341</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.4566550740000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.2652906970000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.1392594469999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-6.6130367249999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.7571970480000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.0304013262502769</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-3.3587443409487623</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.4566550736781174</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.2652906965231479</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.1392594469361823</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-6.6130367246805584</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.7571970475837562</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.2306692619022239</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>12.412615902343457</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-1.485405204817658</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.44780249893665186</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.6022000557131744</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.0970684685744221</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.8723893656861055</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.4459600928239489</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.5938057280145568</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-5.4791715025203196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="444801480"/>
+        <c:axId val="444799912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="444801480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444799912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="444799912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444801480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11255,6 +13779,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11574,7 +14138,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15702,6 +18822,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -15722,7 +19358,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15958,6 +19594,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>55419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>38793</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>137853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>89362</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17335,12 +21035,142 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="119">
+          <cell r="BE119">
+            <v>1.286831624</v>
+          </cell>
+          <cell r="BF119">
+            <v>-3.9392074500000001</v>
+          </cell>
+          <cell r="BG119">
+            <v>1.3266727229610615</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="BE120">
+            <v>7.4845993039999996</v>
+          </cell>
+          <cell r="BF120">
+            <v>-5.7932233350000004</v>
+          </cell>
+          <cell r="BG120">
+            <v>2.2919576669488091</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="BE121">
+            <v>30.7185472</v>
+          </cell>
+          <cell r="BF121">
+            <v>35.061815920000001</v>
+          </cell>
+          <cell r="BG121">
+            <v>0.12387460848890341</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="BE122">
+            <v>98.532806170000001</v>
+          </cell>
+          <cell r="BF122">
+            <v>108.4043956</v>
+          </cell>
+          <cell r="BG122">
+            <v>9.1062630582112669E-2</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="BE123">
+            <v>222.39928029999999</v>
+          </cell>
+          <cell r="BF123">
+            <v>217.66699070000001</v>
+          </cell>
+          <cell r="BG123">
+            <v>-2.1740961203080448E-2</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="BE124">
+            <v>372.2398728</v>
+          </cell>
+          <cell r="BF124">
+            <v>365.0259681</v>
+          </cell>
+          <cell r="BG124">
+            <v>-1.9762716437817181E-2</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="BE125">
+            <v>626.22256159999995</v>
+          </cell>
+          <cell r="BF125">
+            <v>610.74589900000001</v>
+          </cell>
+          <cell r="BG125">
+            <v>-2.5340591930851329E-2</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="BE126">
+            <v>890.95973619999995</v>
+          </cell>
+          <cell r="BF126">
+            <v>883.72540160000005</v>
+          </cell>
+          <cell r="BG126">
+            <v>-8.1861793119242816E-3</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="BE127">
+            <v>1168.936537</v>
+          </cell>
+          <cell r="BF127">
+            <v>1179.0943259999999</v>
+          </cell>
+          <cell r="BG127">
+            <v>8.6149078797279083E-3</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="BE128">
+            <v>1512.3338719999999</v>
+          </cell>
+          <cell r="BF128">
+            <v>1534.0060149999999</v>
+          </cell>
+          <cell r="BG128">
+            <v>1.4127808358039591E-2</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="BE129">
+            <v>1845.65398</v>
+          </cell>
+          <cell r="BF129">
+            <v>1869.8234629999999</v>
+          </cell>
+          <cell r="BG129">
+            <v>1.2926077503178653E-2</v>
+          </cell>
+        </row>
         <row r="130">
           <cell r="P130">
             <v>7</v>
           </cell>
           <cell r="S130">
             <v>1.6329931618554523</v>
+          </cell>
+          <cell r="BE130">
+            <v>2279.8244260000001</v>
+          </cell>
+          <cell r="BF130">
+            <v>2297.2064799999998</v>
+          </cell>
+          <cell r="BG130">
+            <v>7.5666049836319894E-3</v>
           </cell>
         </row>
         <row r="131">
@@ -17350,6 +21180,15 @@
           <cell r="S131">
             <v>0.63245553203367588</v>
           </cell>
+          <cell r="BE131">
+            <v>2671.3993799999998</v>
+          </cell>
+          <cell r="BF131">
+            <v>2686.8247660000002</v>
+          </cell>
+          <cell r="BG131">
+            <v>5.7411209674700248E-3</v>
+          </cell>
         </row>
         <row r="132">
           <cell r="P132">
@@ -17358,6 +21197,15 @@
           <cell r="S132">
             <v>0.19802950859533489</v>
           </cell>
+          <cell r="BE132">
+            <v>2953.6533479999998</v>
+          </cell>
+          <cell r="BF132">
+            <v>2972.5026710000002</v>
+          </cell>
+          <cell r="BG132">
+            <v>6.3412299621783477E-3</v>
+          </cell>
         </row>
         <row r="133">
           <cell r="P133">
@@ -17366,6 +21214,15 @@
           <cell r="S133">
             <v>9.8954139199058683E-2</v>
           </cell>
+          <cell r="BE133">
+            <v>3392.0374449999999</v>
+          </cell>
+          <cell r="BF133">
+            <v>3435.0902759999999</v>
+          </cell>
+          <cell r="BG133">
+            <v>1.253324586570486E-2</v>
+          </cell>
         </row>
         <row r="134">
           <cell r="P134">
@@ -17374,6 +21231,15 @@
           <cell r="S134">
             <v>6.8239119393494044E-2</v>
           </cell>
+          <cell r="BE134">
+            <v>3755.5941750000002</v>
+          </cell>
+          <cell r="BF134">
+            <v>3772.5124900000001</v>
+          </cell>
+          <cell r="BG134">
+            <v>4.484627962093213E-3</v>
+          </cell>
         </row>
         <row r="135">
           <cell r="P135">
@@ -17382,6 +21248,15 @@
           <cell r="S135">
             <v>5.128205128205128E-2</v>
           </cell>
+          <cell r="BE135">
+            <v>4140.5801330000004</v>
+          </cell>
+          <cell r="BF135">
+            <v>4135.2425400000002</v>
+          </cell>
+          <cell r="BG135">
+            <v>-1.2907569382859456E-3</v>
+          </cell>
         </row>
         <row r="136">
           <cell r="P136">
@@ -17390,6 +21265,15 @@
           <cell r="S136">
             <v>4.004407273335673E-2</v>
           </cell>
+          <cell r="BE136">
+            <v>4331.3092210000004</v>
+          </cell>
+          <cell r="BF136">
+            <v>4340.5178960000003</v>
+          </cell>
+          <cell r="BG136">
+            <v>2.1215613483557116E-3</v>
+          </cell>
         </row>
         <row r="137">
           <cell r="P137">
@@ -17398,6 +21282,15 @@
           <cell r="S137">
             <v>3.3840027153248686E-2</v>
           </cell>
+          <cell r="BE137">
+            <v>4724.2154499999997</v>
+          </cell>
+          <cell r="BF137">
+            <v>4734.831502</v>
+          </cell>
+          <cell r="BG137">
+            <v>2.2421182243794889E-3</v>
+          </cell>
         </row>
         <row r="138">
           <cell r="P138">
@@ -17406,6 +21299,15 @@
           <cell r="S138">
             <v>2.8713886396267204E-2</v>
           </cell>
+          <cell r="BE138">
+            <v>4973.37878</v>
+          </cell>
+          <cell r="BF138">
+            <v>4983.338874</v>
+          </cell>
+          <cell r="BG138">
+            <v>1.9986788480240983E-3</v>
+          </cell>
         </row>
         <row r="139">
           <cell r="P139">
@@ -17414,6 +21316,15 @@
           <cell r="S139">
             <v>2.5479257578373642E-2</v>
           </cell>
+          <cell r="BE139">
+            <v>5130.9410319999997</v>
+          </cell>
+          <cell r="BF139">
+            <v>5152.9430540000003</v>
+          </cell>
+          <cell r="BG139">
+            <v>4.2697972342080103E-3</v>
+          </cell>
         </row>
         <row r="140">
           <cell r="P140">
@@ -17422,6 +21333,15 @@
           <cell r="S140">
             <v>2.3065580739059788E-2</v>
           </cell>
+          <cell r="BE140">
+            <v>5311.6963480000004</v>
+          </cell>
+          <cell r="BF140">
+            <v>5335.0450170000004</v>
+          </cell>
+          <cell r="BG140">
+            <v>4.376470849936592E-3</v>
+          </cell>
         </row>
         <row r="141">
           <cell r="P141">
@@ -17430,6 +21350,15 @@
           <cell r="S141">
             <v>2.0825990392946817E-2</v>
           </cell>
+          <cell r="BE141">
+            <v>5481.8057319999998</v>
+          </cell>
+          <cell r="BF141">
+            <v>5493.4702379999999</v>
+          </cell>
+          <cell r="BG141">
+            <v>2.1233401647128528E-3</v>
+          </cell>
         </row>
         <row r="142">
           <cell r="P142">
@@ -17438,6 +21367,15 @@
           <cell r="S142">
             <v>1.9282539322832151E-2</v>
           </cell>
+          <cell r="BE142">
+            <v>5588.1961449999999</v>
+          </cell>
+          <cell r="BF142">
+            <v>5629.6780870000002</v>
+          </cell>
+          <cell r="BG142">
+            <v>7.3684394309845276E-3</v>
+          </cell>
         </row>
         <row r="143">
           <cell r="P143">
@@ -17446,6 +21384,15 @@
           <cell r="S143">
             <v>1.8267316060998445E-2</v>
           </cell>
+          <cell r="BE143">
+            <v>5696.7265390000002</v>
+          </cell>
+          <cell r="BF143">
+            <v>5760.0314250000001</v>
+          </cell>
+          <cell r="BG143">
+            <v>1.0990371636731113E-2</v>
+          </cell>
         </row>
         <row r="144">
           <cell r="P144">
@@ -17454,6 +21401,15 @@
           <cell r="S144">
             <v>1.7176718136839322E-2</v>
           </cell>
+          <cell r="BE144">
+            <v>5765.98927</v>
+          </cell>
+          <cell r="BF144">
+            <v>5798.440415</v>
+          </cell>
+          <cell r="BG144">
+            <v>5.5965298731107159E-3</v>
+          </cell>
         </row>
         <row r="145">
           <cell r="P145">
@@ -17462,6 +21418,15 @@
           <cell r="S145">
             <v>1.6238709775341649E-2</v>
           </cell>
+          <cell r="BE145">
+            <v>5773.5239030000002</v>
+          </cell>
+          <cell r="BF145">
+            <v>5786.3256620000002</v>
+          </cell>
+          <cell r="BG145">
+            <v>2.2124159177682916E-3</v>
+          </cell>
         </row>
         <row r="146">
           <cell r="P146">
@@ -17470,6 +21435,15 @@
           <cell r="S146">
             <v>1.5591727976114366E-2</v>
           </cell>
+          <cell r="BE146">
+            <v>5713.2648339999996</v>
+          </cell>
+          <cell r="BF146">
+            <v>5750.5862779999998</v>
+          </cell>
+          <cell r="BG146">
+            <v>6.4900241811483971E-3</v>
+          </cell>
         </row>
         <row r="147">
           <cell r="P147">
@@ -17478,6 +21452,15 @@
           <cell r="S147">
             <v>1.5172209934815136E-2</v>
           </cell>
+          <cell r="BE147">
+            <v>5644.1725310000002</v>
+          </cell>
+          <cell r="BF147">
+            <v>5703.545384</v>
+          </cell>
+          <cell r="BG147">
+            <v>1.0409815124213247E-2</v>
+          </cell>
         </row>
         <row r="148">
           <cell r="P148">
@@ -17486,6 +21469,15 @@
           <cell r="S148">
             <v>1.4521950407133924E-2</v>
           </cell>
+          <cell r="BE148">
+            <v>5616.4386420000001</v>
+          </cell>
+          <cell r="BF148">
+            <v>5628.9682629999998</v>
+          </cell>
+          <cell r="BG148">
+            <v>2.2259178617791541E-3</v>
+          </cell>
         </row>
         <row r="149">
           <cell r="P149">
@@ -17494,6 +21486,15 @@
           <cell r="S149">
             <v>1.4174953192277748E-2</v>
           </cell>
+          <cell r="BE149">
+            <v>5512.011536</v>
+          </cell>
+          <cell r="BF149">
+            <v>5516.2769559999997</v>
+          </cell>
+          <cell r="BG149">
+            <v>7.732425391296328E-4</v>
+          </cell>
         </row>
         <row r="150">
           <cell r="P150">
@@ -17502,6 +21503,15 @@
           <cell r="S150">
             <v>1.3944479031314379E-2</v>
           </cell>
+          <cell r="BE150">
+            <v>5347.1465950000002</v>
+          </cell>
+          <cell r="BF150">
+            <v>5381.7061860000003</v>
+          </cell>
+          <cell r="BG150">
+            <v>6.4216792603623901E-3</v>
+          </cell>
         </row>
         <row r="151">
           <cell r="P151">
@@ -17510,6 +21520,15 @@
           <cell r="S151">
             <v>1.3686115720737697E-2</v>
           </cell>
+          <cell r="BE151">
+            <v>5197.7151320000003</v>
+          </cell>
+          <cell r="BF151">
+            <v>5213.8757050000004</v>
+          </cell>
+          <cell r="BG151">
+            <v>3.0995316947242248E-3</v>
+          </cell>
         </row>
         <row r="152">
           <cell r="P152">
@@ -17518,6 +21537,15 @@
           <cell r="S152">
             <v>1.3550838384546319E-2</v>
           </cell>
+          <cell r="BE152">
+            <v>5022.76433</v>
+          </cell>
+          <cell r="BF152">
+            <v>5049.8925989999998</v>
+          </cell>
+          <cell r="BG152">
+            <v>5.3720487056243271E-3</v>
+          </cell>
         </row>
         <row r="153">
           <cell r="P153">
@@ -17526,6 +21554,15 @@
           <cell r="S153">
             <v>1.337336474903855E-2</v>
           </cell>
+          <cell r="BE153">
+            <v>4860.250078</v>
+          </cell>
+          <cell r="BF153">
+            <v>4913.3844230000004</v>
+          </cell>
+          <cell r="BG153">
+            <v>1.0814204716259058E-2</v>
+          </cell>
         </row>
         <row r="154">
           <cell r="P154">
@@ -17534,6 +21571,15 @@
           <cell r="S154">
             <v>1.3294980928779005E-2</v>
           </cell>
+          <cell r="BE154">
+            <v>4603.3855169999997</v>
+          </cell>
+          <cell r="BF154">
+            <v>4635.6244239999996</v>
+          </cell>
+          <cell r="BG154">
+            <v>6.9545985721124349E-3</v>
+          </cell>
         </row>
         <row r="155">
           <cell r="P155">
@@ -17542,6 +21588,15 @@
           <cell r="S155">
             <v>1.3220124979025265E-2</v>
           </cell>
+          <cell r="BE155">
+            <v>4486.7546949999996</v>
+          </cell>
+          <cell r="BF155">
+            <v>4510.2612879999997</v>
+          </cell>
+          <cell r="BG155">
+            <v>5.2118029309170411E-3</v>
+          </cell>
         </row>
         <row r="156">
           <cell r="P156">
@@ -17550,6 +21605,15 @@
           <cell r="S156">
             <v>1.3168015154181935E-2</v>
           </cell>
+          <cell r="BE156">
+            <v>4295.7230659999996</v>
+          </cell>
+          <cell r="BF156">
+            <v>4336.0503099999996</v>
+          </cell>
+          <cell r="BG156">
+            <v>9.3004557412527042E-3</v>
+          </cell>
         </row>
         <row r="157">
           <cell r="P157">
@@ -17558,6 +21622,15 @@
           <cell r="S157">
             <v>1.3212910564542248E-2</v>
           </cell>
+          <cell r="BE157">
+            <v>4053.0963750000001</v>
+          </cell>
+          <cell r="BF157">
+            <v>4079.9663209999999</v>
+          </cell>
+          <cell r="BG157">
+            <v>6.585825442160507E-3</v>
+          </cell>
         </row>
         <row r="158">
           <cell r="P158">
@@ -17566,6 +21639,15 @@
           <cell r="S158">
             <v>1.3328743112218882E-2</v>
           </cell>
+          <cell r="BE158">
+            <v>3851.4723949999998</v>
+          </cell>
+          <cell r="BF158">
+            <v>3855.2247750000001</v>
+          </cell>
+          <cell r="BG158">
+            <v>9.7332327399778074E-4</v>
+          </cell>
         </row>
         <row r="159">
           <cell r="P159">
@@ -17574,6 +21656,15 @@
           <cell r="S159">
             <v>1.3435230372511476E-2</v>
           </cell>
+          <cell r="BE159">
+            <v>3578.0595880000001</v>
+          </cell>
+          <cell r="BF159">
+            <v>3629.2262070000002</v>
+          </cell>
+          <cell r="BG159">
+            <v>1.4098492648738905E-2</v>
+          </cell>
         </row>
         <row r="160">
           <cell r="P160">
@@ -17582,6 +21673,15 @@
           <cell r="S160">
             <v>1.3499192392788215E-2</v>
           </cell>
+          <cell r="BE160">
+            <v>3419.3373029999998</v>
+          </cell>
+          <cell r="BF160">
+            <v>3467.6346749999998</v>
+          </cell>
+          <cell r="BG160">
+            <v>1.3928045058552772E-2</v>
+          </cell>
         </row>
         <row r="161">
           <cell r="P161">
@@ -17590,6 +21690,15 @@
           <cell r="S161">
             <v>1.3763839347353903E-2</v>
           </cell>
+          <cell r="BE161">
+            <v>3137.4251599999998</v>
+          </cell>
+          <cell r="BF161">
+            <v>3158.720973</v>
+          </cell>
+          <cell r="BG161">
+            <v>6.7419101535183875E-3</v>
+          </cell>
         </row>
         <row r="162">
           <cell r="P162">
@@ -17598,6 +21707,15 @@
           <cell r="S162">
             <v>1.3847214960382929E-2</v>
           </cell>
+          <cell r="BE162">
+            <v>2981.4984850000001</v>
+          </cell>
+          <cell r="BF162">
+            <v>2985.4782890000001</v>
+          </cell>
+          <cell r="BG162">
+            <v>1.333054075343188E-3</v>
+          </cell>
         </row>
         <row r="163">
           <cell r="P163">
@@ -17606,6 +21724,15 @@
           <cell r="S163">
             <v>1.4183148764245436E-2</v>
           </cell>
+          <cell r="BE163">
+            <v>2793.7626610000002</v>
+          </cell>
+          <cell r="BF163">
+            <v>2790.9918670000002</v>
+          </cell>
+          <cell r="BG163">
+            <v>-9.9276319388859877E-4</v>
+          </cell>
         </row>
         <row r="164">
           <cell r="P164">
@@ -17614,6 +21741,15 @@
           <cell r="S164">
             <v>1.432376666040793E-2</v>
           </cell>
+          <cell r="BE164">
+            <v>2635.0881890000001</v>
+          </cell>
+          <cell r="BF164">
+            <v>2622.80249</v>
+          </cell>
+          <cell r="BG164">
+            <v>-4.6841876377813037E-3</v>
+          </cell>
         </row>
         <row r="165">
           <cell r="P165">
@@ -17622,6 +21758,15 @@
           <cell r="S165">
             <v>1.4712247158412491E-2</v>
           </cell>
+          <cell r="BE165">
+            <v>2388.0514710000002</v>
+          </cell>
+          <cell r="BF165">
+            <v>2367.2943140000002</v>
+          </cell>
+          <cell r="BG165">
+            <v>-8.7683043368303407E-3</v>
+          </cell>
         </row>
         <row r="166">
           <cell r="P166">
@@ -17630,6 +21775,15 @@
           <cell r="S166">
             <v>1.504418666962188E-2</v>
           </cell>
+          <cell r="BE166">
+            <v>2245.36681</v>
+          </cell>
+          <cell r="BF166">
+            <v>2221.5032190000002</v>
+          </cell>
+          <cell r="BG166">
+            <v>-1.0742091569303197E-2</v>
+          </cell>
         </row>
         <row r="167">
           <cell r="P167">
@@ -17638,6 +21792,15 @@
           <cell r="S167">
             <v>1.5353757178626857E-2</v>
           </cell>
+          <cell r="BE167">
+            <v>2094.8730719999999</v>
+          </cell>
+          <cell r="BF167">
+            <v>2084.0879909999999</v>
+          </cell>
+          <cell r="BG167">
+            <v>-5.174964323279377E-3</v>
+          </cell>
         </row>
         <row r="168">
           <cell r="P168">
@@ -17646,6 +21809,15 @@
           <cell r="S168">
             <v>1.5715666909482562E-2</v>
           </cell>
+          <cell r="BE168">
+            <v>1930.6053979999999</v>
+          </cell>
+          <cell r="BF168">
+            <v>1899.6287609999999</v>
+          </cell>
+          <cell r="BG168">
+            <v>-1.6306679302798777E-2</v>
+          </cell>
         </row>
         <row r="169">
           <cell r="P169">
@@ -17654,6 +21826,15 @@
           <cell r="S169">
             <v>1.6153476372506338E-2</v>
           </cell>
+          <cell r="BE169">
+            <v>1738.312594</v>
+          </cell>
+          <cell r="BF169">
+            <v>1704.6752180000001</v>
+          </cell>
+          <cell r="BG169">
+            <v>-1.973242506538269E-2</v>
+          </cell>
         </row>
         <row r="170">
           <cell r="P170">
@@ -17662,6 +21843,15 @@
           <cell r="S170">
             <v>1.6635792022840736E-2</v>
           </cell>
+          <cell r="BE170">
+            <v>1581.931114</v>
+          </cell>
+          <cell r="BF170">
+            <v>1551.3394049999999</v>
+          </cell>
+          <cell r="BG170">
+            <v>-1.9719546155665426E-2</v>
+          </cell>
         </row>
         <row r="171">
           <cell r="P171">
@@ -17670,6 +21860,15 @@
           <cell r="S171">
             <v>1.7044904292704971E-2</v>
           </cell>
+          <cell r="BE171">
+            <v>1426.5390130000001</v>
+          </cell>
+          <cell r="BF171">
+            <v>1392.2773480000001</v>
+          </cell>
+          <cell r="BG171">
+            <v>-2.4608362011503467E-2</v>
+          </cell>
         </row>
         <row r="172">
           <cell r="P172">
@@ -17678,6 +21877,15 @@
           <cell r="S172">
             <v>1.7657678008211362E-2</v>
           </cell>
+          <cell r="BE172">
+            <v>1331.0618689999999</v>
+          </cell>
+          <cell r="BF172">
+            <v>1293.1396669999999</v>
+          </cell>
+          <cell r="BG172">
+            <v>-2.932568149268595E-2</v>
+          </cell>
         </row>
         <row r="173">
           <cell r="P173">
@@ -17686,6 +21894,15 @@
           <cell r="S173">
             <v>1.844199375737695E-2</v>
           </cell>
+          <cell r="BE173">
+            <v>1172.7047480000001</v>
+          </cell>
+          <cell r="BF173">
+            <v>1146.3019400000001</v>
+          </cell>
+          <cell r="BG173">
+            <v>-2.303303089585633E-2</v>
+          </cell>
         </row>
         <row r="174">
           <cell r="P174">
@@ -17694,6 +21911,15 @@
           <cell r="S174">
             <v>1.8984015070124632E-2</v>
           </cell>
+          <cell r="BE174">
+            <v>1063.678469</v>
+          </cell>
+          <cell r="BF174">
+            <v>1032.816071</v>
+          </cell>
+          <cell r="BG174">
+            <v>-2.9881794897050926E-2</v>
+          </cell>
         </row>
         <row r="175">
           <cell r="P175">
@@ -17702,6 +21928,15 @@
           <cell r="S175">
             <v>1.9416560651186562E-2</v>
           </cell>
+          <cell r="BE175">
+            <v>973.86011040000005</v>
+          </cell>
+          <cell r="BF175">
+            <v>938.48796070000003</v>
+          </cell>
+          <cell r="BG175">
+            <v>-3.7690573753995329E-2</v>
+          </cell>
         </row>
         <row r="176">
           <cell r="P176">
@@ -17710,6 +21945,15 @@
           <cell r="S176">
             <v>2.0502847851135975E-2</v>
           </cell>
+          <cell r="BE176">
+            <v>856.49773119999998</v>
+          </cell>
+          <cell r="BF176">
+            <v>821.64802989999998</v>
+          </cell>
+          <cell r="BG176">
+            <v>-4.2414391602985324E-2</v>
+          </cell>
         </row>
         <row r="177">
           <cell r="P177">
@@ -17718,6 +21962,15 @@
           <cell r="S177">
             <v>2.1142428689408906E-2</v>
           </cell>
+          <cell r="BE177">
+            <v>781.20041060000005</v>
+          </cell>
+          <cell r="BF177">
+            <v>762.19284519999997</v>
+          </cell>
+          <cell r="BG177">
+            <v>-2.4938000297040956E-2</v>
+          </cell>
         </row>
         <row r="178">
           <cell r="P178">
@@ -17726,6 +21979,15 @@
           <cell r="S178">
             <v>2.1976031725940863E-2</v>
           </cell>
+          <cell r="BE178">
+            <v>697.33396279999999</v>
+          </cell>
+          <cell r="BF178">
+            <v>665.64719100000002</v>
+          </cell>
+          <cell r="BG178">
+            <v>-4.7602952778027979E-2</v>
+          </cell>
         </row>
         <row r="179">
           <cell r="P179">
@@ -17734,6 +21996,15 @@
           <cell r="S179">
             <v>2.2777329617136386E-2</v>
           </cell>
+          <cell r="BE179">
+            <v>597.39926390000005</v>
+          </cell>
+          <cell r="BF179">
+            <v>566.1094018</v>
+          </cell>
+          <cell r="BG179">
+            <v>-5.527175842780721E-2</v>
+          </cell>
         </row>
         <row r="180">
           <cell r="P180">
@@ -17742,6 +22013,15 @@
           <cell r="S180">
             <v>2.3806993438741434E-2</v>
           </cell>
+          <cell r="BE180">
+            <v>555.91740879999998</v>
+          </cell>
+          <cell r="BF180">
+            <v>522.03531180000004</v>
+          </cell>
+          <cell r="BG180">
+            <v>-6.4903841242411386E-2</v>
+          </cell>
         </row>
         <row r="181">
           <cell r="P181">
@@ -17750,6 +22030,15 @@
           <cell r="S181">
             <v>2.5030328537576901E-2</v>
           </cell>
+          <cell r="BE181">
+            <v>475.99812539999999</v>
+          </cell>
+          <cell r="BF181">
+            <v>443.8002894</v>
+          </cell>
+          <cell r="BG181">
+            <v>-7.2550281667301666E-2</v>
+          </cell>
         </row>
         <row r="182">
           <cell r="P182">
@@ -17758,6 +22047,15 @@
           <cell r="S182">
             <v>2.6423514707860023E-2</v>
           </cell>
+          <cell r="BE182">
+            <v>444.85111569999998</v>
+          </cell>
+          <cell r="BF182">
+            <v>427.90416620000002</v>
+          </cell>
+          <cell r="BG182">
+            <v>-3.9604544284990786E-2</v>
+          </cell>
         </row>
         <row r="183">
           <cell r="P183">
@@ -17766,6 +22064,15 @@
           <cell r="S183">
             <v>2.7529308506178359E-2</v>
           </cell>
+          <cell r="BE183">
+            <v>385.79874030000002</v>
+          </cell>
+          <cell r="BF183">
+            <v>370.01708409999998</v>
+          </cell>
+          <cell r="BG183">
+            <v>-4.2651155522686432E-2</v>
+          </cell>
         </row>
         <row r="184">
           <cell r="P184">
@@ -17774,6 +22081,15 @@
           <cell r="S184">
             <v>2.8987029394585629E-2</v>
           </cell>
+          <cell r="BE184">
+            <v>350.58386869999998</v>
+          </cell>
+          <cell r="BF184">
+            <v>338.57745199999999</v>
+          </cell>
+          <cell r="BG184">
+            <v>-3.5461359370144913E-2</v>
+          </cell>
         </row>
         <row r="185">
           <cell r="P185">
@@ -17782,6 +22098,15 @@
           <cell r="S185">
             <v>3.0718378505606096E-2</v>
           </cell>
+          <cell r="BE185">
+            <v>289.91159750000003</v>
+          </cell>
+          <cell r="BF185">
+            <v>275.12057850000002</v>
+          </cell>
+          <cell r="BG185">
+            <v>-5.3761950780428461E-2</v>
+          </cell>
         </row>
         <row r="186">
           <cell r="P186">
@@ -17790,6 +22115,15 @@
           <cell r="S186">
             <v>3.2064707742092177E-2</v>
           </cell>
+          <cell r="BE186">
+            <v>251.02798989999999</v>
+          </cell>
+          <cell r="BF186">
+            <v>238.4784597</v>
+          </cell>
+          <cell r="BG186">
+            <v>-5.2623327975981522E-2</v>
+          </cell>
         </row>
         <row r="187">
           <cell r="P187">
@@ -17798,6 +22132,15 @@
           <cell r="S187">
             <v>3.430476221747198E-2</v>
           </cell>
+          <cell r="BE187">
+            <v>219.20713330000001</v>
+          </cell>
+          <cell r="BF187">
+            <v>217.02797229999999</v>
+          </cell>
+          <cell r="BG187">
+            <v>-1.0040922268709885E-2</v>
+          </cell>
         </row>
         <row r="188">
           <cell r="P188">
@@ -17806,6 +22149,15 @@
           <cell r="S188">
             <v>3.6040423985645734E-2</v>
           </cell>
+          <cell r="BE188">
+            <v>183.34884460000001</v>
+          </cell>
+          <cell r="BF188">
+            <v>195.23458650000001</v>
+          </cell>
+          <cell r="BG188">
+            <v>6.0879284316767299E-2</v>
+          </cell>
         </row>
         <row r="189">
           <cell r="P189">
@@ -17814,6 +22166,15 @@
           <cell r="S189">
             <v>3.7942399730627178E-2</v>
           </cell>
+          <cell r="BE189">
+            <v>168.36986880000001</v>
+          </cell>
+          <cell r="BF189">
+            <v>169.56867819999999</v>
+          </cell>
+          <cell r="BG189">
+            <v>7.069757296722194E-3</v>
+          </cell>
         </row>
         <row r="190">
           <cell r="P190">
@@ -17822,6 +22183,15 @@
           <cell r="S190">
             <v>4.1567556712637267E-2</v>
           </cell>
+          <cell r="BE190">
+            <v>132.77395100000001</v>
+          </cell>
+          <cell r="BF190">
+            <v>150.0283944</v>
+          </cell>
+          <cell r="BG190">
+            <v>0.11500785214028783</v>
+          </cell>
         </row>
         <row r="191">
           <cell r="P191">
@@ -17830,6 +22200,15 @@
           <cell r="S191">
             <v>4.3003295253753064E-2</v>
           </cell>
+          <cell r="BE191">
+            <v>128.32766520000001</v>
+          </cell>
+          <cell r="BF191">
+            <v>149.83087950000001</v>
+          </cell>
+          <cell r="BG191">
+            <v>0.14351657263014328</v>
+          </cell>
         </row>
         <row r="192">
           <cell r="P192">
@@ -17838,6 +22217,15 @@
           <cell r="S192">
             <v>4.6480215984769452E-2</v>
           </cell>
+          <cell r="BE192">
+            <v>99.486328360000002</v>
+          </cell>
+          <cell r="BF192">
+            <v>98.421664219999997</v>
+          </cell>
+          <cell r="BG192">
+            <v>-1.0817375914515958E-2</v>
+          </cell>
         </row>
         <row r="193">
           <cell r="P193">
@@ -17846,6 +22234,15 @@
           <cell r="S193">
             <v>4.8400476747043952E-2</v>
           </cell>
+          <cell r="BE193">
+            <v>87.047632710000002</v>
+          </cell>
+          <cell r="BF193">
+            <v>94.154598109999995</v>
+          </cell>
+          <cell r="BG193">
+            <v>7.5481872820454154E-2</v>
+          </cell>
         </row>
         <row r="194">
           <cell r="P194">
@@ -17854,6 +22251,15 @@
           <cell r="S194">
             <v>5.1786715433664143E-2</v>
           </cell>
+          <cell r="BE194">
+            <v>71.249469140000002</v>
+          </cell>
+          <cell r="BF194">
+            <v>80.647997910000001</v>
+          </cell>
+          <cell r="BG194">
+            <v>0.1165376576426409</v>
+          </cell>
         </row>
         <row r="195">
           <cell r="P195">
@@ -17862,6 +22268,15 @@
           <cell r="S195">
             <v>5.4242586434973504E-2</v>
           </cell>
+          <cell r="BE195">
+            <v>60.734155629999997</v>
+          </cell>
+          <cell r="BF195">
+            <v>68.827692870000007</v>
+          </cell>
+          <cell r="BG195">
+            <v>0.11759129069293195</v>
+          </cell>
         </row>
         <row r="196">
           <cell r="P196">
@@ -17870,6 +22285,15 @@
           <cell r="S196">
             <v>6.0233860193683417E-2</v>
           </cell>
+          <cell r="BE196">
+            <v>55.40901796</v>
+          </cell>
+          <cell r="BF196">
+            <v>57.189245999999997</v>
+          </cell>
+          <cell r="BG196">
+            <v>3.1128720249258005E-2</v>
+          </cell>
         </row>
         <row r="197">
           <cell r="P197">
@@ -17878,6 +22302,15 @@
           <cell r="S197">
             <v>6.291610618605574E-2</v>
           </cell>
+          <cell r="BE197">
+            <v>34.051538239999999</v>
+          </cell>
+          <cell r="BF197">
+            <v>44.736559659999998</v>
+          </cell>
+          <cell r="BG197">
+            <v>0.2388431632026842</v>
+          </cell>
         </row>
         <row r="198">
           <cell r="P198">
@@ -17886,6 +22319,15 @@
           <cell r="S198">
             <v>6.7943155358499832E-2</v>
           </cell>
+          <cell r="BE198">
+            <v>41.262434310000003</v>
+          </cell>
+          <cell r="BF198">
+            <v>38.141107890000001</v>
+          </cell>
+          <cell r="BG198">
+            <v>-8.183628092298717E-2</v>
+          </cell>
         </row>
         <row r="199">
           <cell r="P199">
@@ -17894,6 +22336,15 @@
           <cell r="S199">
             <v>7.474350927519359E-2</v>
           </cell>
+          <cell r="BE199">
+            <v>32.292136249999999</v>
+          </cell>
+          <cell r="BF199">
+            <v>29.827974019999999</v>
+          </cell>
+          <cell r="BG199">
+            <v>-8.2612457297560685E-2</v>
+          </cell>
         </row>
         <row r="200">
           <cell r="P200">
@@ -17902,6 +22353,15 @@
           <cell r="S200">
             <v>7.8027431464087041E-2</v>
           </cell>
+          <cell r="BE200">
+            <v>25.023025430000001</v>
+          </cell>
+          <cell r="BF200">
+            <v>39.868296979999997</v>
+          </cell>
+          <cell r="BG200">
+            <v>0.3723578049357652</v>
+          </cell>
         </row>
         <row r="201">
           <cell r="P201">
@@ -17910,6 +22370,15 @@
           <cell r="S201">
             <v>8.6226122711845377E-2</v>
           </cell>
+          <cell r="BE201">
+            <v>19.090832580000001</v>
+          </cell>
+          <cell r="BF201">
+            <v>29.016714019999998</v>
+          </cell>
+          <cell r="BG201">
+            <v>0.34207462061894761</v>
+          </cell>
         </row>
         <row r="202">
           <cell r="P202">
@@ -17918,6 +22387,15 @@
           <cell r="S202">
             <v>9.067521068905561E-2</v>
           </cell>
+          <cell r="BE202">
+            <v>12.413515800000001</v>
+          </cell>
+          <cell r="BF202">
+            <v>7.4797748149999999</v>
+          </cell>
+          <cell r="BG202">
+            <v>-0.65961089832622199</v>
+          </cell>
         </row>
         <row r="203">
           <cell r="P203">
@@ -17926,6 +22404,15 @@
           <cell r="S203">
             <v>0.10044039219036507</v>
           </cell>
+          <cell r="BE203">
+            <v>16.368495190000001</v>
+          </cell>
+          <cell r="BF203">
+            <v>10.308078419999999</v>
+          </cell>
+          <cell r="BG203">
+            <v>-0.58792885764638969</v>
+          </cell>
         </row>
         <row r="204">
           <cell r="P204">
@@ -17934,6 +22421,15 @@
           <cell r="S204">
             <v>0.11340959542474854</v>
           </cell>
+          <cell r="BE204">
+            <v>10.33162359</v>
+          </cell>
+          <cell r="BF204">
+            <v>11.69288811</v>
+          </cell>
+          <cell r="BG204">
+            <v>0.11641816009817275</v>
+          </cell>
         </row>
         <row r="205">
           <cell r="P205">
@@ -17942,6 +22438,15 @@
           <cell r="S205">
             <v>0.11206636293610515</v>
           </cell>
+          <cell r="BE205">
+            <v>4.559912754</v>
+          </cell>
+          <cell r="BF205">
+            <v>4.0304013259999998</v>
+          </cell>
+          <cell r="BG205">
+            <v>-0.13137933053568079</v>
+          </cell>
         </row>
         <row r="206">
           <cell r="P206">
@@ -17950,6 +22455,15 @@
           <cell r="S206">
             <v>0.131448155980155</v>
           </cell>
+          <cell r="BE206">
+            <v>-0.54865988200000004</v>
+          </cell>
+          <cell r="BF206">
+            <v>-3.358744341</v>
+          </cell>
+          <cell r="BG206">
+            <v>0.83664732224404814</v>
+          </cell>
         </row>
         <row r="207">
           <cell r="P207">
@@ -17958,6 +22472,15 @@
           <cell r="S207">
             <v>0.14724203476646205</v>
           </cell>
+          <cell r="BE207">
+            <v>2.0657931719999998</v>
+          </cell>
+          <cell r="BF207">
+            <v>4.4566550740000004</v>
+          </cell>
+          <cell r="BG207">
+            <v>0.53647003465631016</v>
+          </cell>
         </row>
         <row r="208">
           <cell r="P208">
@@ -17966,6 +22489,15 @@
           <cell r="S208">
             <v>0.17087153154335219</v>
           </cell>
+          <cell r="BE208">
+            <v>-0.171836246</v>
+          </cell>
+          <cell r="BF208">
+            <v>3.2652906970000002</v>
+          </cell>
+          <cell r="BG208">
+            <v>1.0526250989407697</v>
+          </cell>
         </row>
         <row r="209">
           <cell r="P209">
@@ -17974,6 +22506,15 @@
           <cell r="S209">
             <v>0.18107149208503706</v>
           </cell>
+          <cell r="BE209">
+            <v>6.9884910370000002</v>
+          </cell>
+          <cell r="BF209">
+            <v>7.1392594469999997</v>
+          </cell>
+          <cell r="BG209">
+            <v>2.1118214167626891E-2</v>
+          </cell>
         </row>
         <row r="210">
           <cell r="P210">
@@ -17982,6 +22523,15 @@
           <cell r="S210">
             <v>0.17474081133220759</v>
           </cell>
+          <cell r="BE210">
+            <v>-1.345200878</v>
+          </cell>
+          <cell r="BF210">
+            <v>-6.6130367249999997</v>
+          </cell>
+          <cell r="BG210">
+            <v>0.7965834859324783</v>
+          </cell>
         </row>
         <row r="211">
           <cell r="P211">
@@ -17990,6 +22540,15 @@
           <cell r="S211">
             <v>0.19950186722152657</v>
           </cell>
+          <cell r="BE211">
+            <v>0.62414878600000001</v>
+          </cell>
+          <cell r="BF211">
+            <v>4.7571970480000001</v>
+          </cell>
+          <cell r="BG211">
+            <v>0.86879904706440492</v>
+          </cell>
         </row>
         <row r="212">
           <cell r="P212">
@@ -17998,6 +22557,15 @@
           <cell r="S212">
             <v>0.23570226039551587</v>
           </cell>
+          <cell r="BE212">
+            <v>4.5599127536988799</v>
+          </cell>
+          <cell r="BF212">
+            <v>4.0304013262502769</v>
+          </cell>
+          <cell r="BG212">
+            <v>-0.13137933039071301</v>
+          </cell>
         </row>
         <row r="213">
           <cell r="P213">
@@ -18006,6 +22574,15 @@
           <cell r="S213">
             <v>0.26607604209509572</v>
           </cell>
+          <cell r="BE213">
+            <v>-0.54865988233359597</v>
+          </cell>
+          <cell r="BF213">
+            <v>-3.3587443409487623</v>
+          </cell>
+          <cell r="BG213">
+            <v>0.83664732214223447</v>
+          </cell>
         </row>
         <row r="214">
           <cell r="P214">
@@ -18014,6 +22591,15 @@
           <cell r="S214">
             <v>0.31622776601683794</v>
           </cell>
+          <cell r="BE214">
+            <v>2.0657931715249926</v>
+          </cell>
+          <cell r="BF214">
+            <v>4.4566550736781174</v>
+          </cell>
+          <cell r="BG214">
+            <v>0.53647003472941535</v>
+          </cell>
         </row>
         <row r="215">
           <cell r="P215">
@@ -18022,6 +22608,15 @@
           <cell r="S215">
             <v>0.38851434494290565</v>
           </cell>
+          <cell r="BE215">
+            <v>-0.1718362462706875</v>
+          </cell>
+          <cell r="BF215">
+            <v>3.2652906965231479</v>
+          </cell>
+          <cell r="BG215">
+            <v>1.0526250990313533</v>
+          </cell>
         </row>
         <row r="216">
           <cell r="P216">
@@ -18030,6 +22625,15 @@
           <cell r="S216">
             <v>0.4923659639173309</v>
           </cell>
+          <cell r="BE216">
+            <v>6.9884910373948372</v>
+          </cell>
+          <cell r="BF216">
+            <v>7.1392594469361823</v>
+          </cell>
+          <cell r="BG216">
+            <v>2.1118214103571686E-2</v>
+          </cell>
         </row>
         <row r="217">
           <cell r="P217">
@@ -18038,6 +22642,15 @@
           <cell r="S217">
             <v>0.63245553203367588</v>
           </cell>
+          <cell r="BE217">
+            <v>-1.3452008778694911</v>
+          </cell>
+          <cell r="BF217">
+            <v>-6.6130367246805584</v>
+          </cell>
+          <cell r="BG217">
+            <v>0.79658348594238737</v>
+          </cell>
         </row>
         <row r="218">
           <cell r="P218">
@@ -18046,6 +22659,15 @@
           <cell r="S218">
             <v>0.64888568452305018</v>
           </cell>
+          <cell r="BE218">
+            <v>0.62414878564049192</v>
+          </cell>
+          <cell r="BF218">
+            <v>4.7571970475837562</v>
+          </cell>
+          <cell r="BG218">
+            <v>0.86879904712849643</v>
+          </cell>
         </row>
         <row r="219">
           <cell r="P219">
@@ -18054,6 +22676,15 @@
           <cell r="S219">
             <v>1.0690449676496976</v>
           </cell>
+          <cell r="BE219">
+            <v>-0.99082228844053344</v>
+          </cell>
+          <cell r="BF219">
+            <v>1.2306692619022239</v>
+          </cell>
+          <cell r="BG219">
+            <v>1.8051085040582202</v>
+          </cell>
         </row>
         <row r="220">
           <cell r="P220">
@@ -18062,6 +22693,15 @@
           <cell r="S220">
             <v>0.73029674334022143</v>
           </cell>
+          <cell r="BE220">
+            <v>-3.5656774574890515</v>
+          </cell>
+          <cell r="BF220">
+            <v>12.412615902343457</v>
+          </cell>
+          <cell r="BG220">
+            <v>1.2872623696360301</v>
+          </cell>
         </row>
         <row r="221">
           <cell r="P221">
@@ -18070,6 +22710,15 @@
           <cell r="S221">
             <v>1.4142135623730949</v>
           </cell>
+          <cell r="BE221">
+            <v>-4.6634149806340996</v>
+          </cell>
+          <cell r="BF221">
+            <v>-1.485405204817658</v>
+          </cell>
+          <cell r="BG221">
+            <v>-2.1394901307125558</v>
+          </cell>
         </row>
         <row r="222">
           <cell r="P222">
@@ -18078,35 +22727,98 @@
           <cell r="S222">
             <v>1.4142135623730949</v>
           </cell>
+          <cell r="BE222">
+            <v>-0.18859849659201999</v>
+          </cell>
+          <cell r="BF222">
+            <v>0.44780249893665186</v>
+          </cell>
+          <cell r="BG222">
+            <v>1.4211644576344804</v>
+          </cell>
         </row>
         <row r="223">
           <cell r="P223">
             <v>100</v>
           </cell>
+          <cell r="BE223">
+            <v>0.86257582850521275</v>
+          </cell>
+          <cell r="BF223">
+            <v>2.6022000557131744</v>
+          </cell>
+          <cell r="BG223">
+            <v>0.66852055566926416</v>
+          </cell>
         </row>
         <row r="224">
           <cell r="P224">
             <v>101</v>
           </cell>
+          <cell r="BE224">
+            <v>0.75411353982053531</v>
+          </cell>
+          <cell r="BF224">
+            <v>5.0970684685744221</v>
+          </cell>
+          <cell r="BG224">
+            <v>0.8520495566284888</v>
+          </cell>
         </row>
         <row r="225">
           <cell r="P225">
             <v>102</v>
           </cell>
+          <cell r="BE225">
+            <v>0.48785437364130435</v>
+          </cell>
+          <cell r="BF225">
+            <v>3.8723893656861055</v>
+          </cell>
+          <cell r="BG225">
+            <v>0.87401722100461698</v>
+          </cell>
         </row>
         <row r="226">
           <cell r="P226">
             <v>103</v>
           </cell>
+          <cell r="BE226">
+            <v>-2.815190241672092</v>
+          </cell>
+          <cell r="BF226">
+            <v>3.4459600928239489</v>
+          </cell>
+          <cell r="BG226">
+            <v>1.8169538142750388</v>
+          </cell>
         </row>
         <row r="227">
           <cell r="P227">
             <v>104</v>
           </cell>
+          <cell r="BE227">
+            <v>4.0063459058292192</v>
+          </cell>
+          <cell r="BF227">
+            <v>3.5938057280145568</v>
+          </cell>
+          <cell r="BG227">
+            <v>-0.11479200853813973</v>
+          </cell>
         </row>
         <row r="228">
           <cell r="P228">
             <v>105</v>
+          </cell>
+          <cell r="BE228">
+            <v>8.6227586283348341</v>
+          </cell>
+          <cell r="BF228">
+            <v>-5.4791715025203196</v>
+          </cell>
+          <cell r="BG228">
+            <v>2.5737340260965587</v>
           </cell>
         </row>
         <row r="229">
@@ -18434,8 +23146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW122" sqref="AW122"/>
+    <sheetView tabSelected="1" topLeftCell="S130" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AU150" sqref="AU150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
@@ -1343,11 +1343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="486306112"/>
-        <c:axId val="486307680"/>
+        <c:axId val="516630176"/>
+        <c:axId val="516630960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="486306112"/>
+        <c:axId val="516630176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,7 +1459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486307680"/>
+        <c:crossAx val="516630960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1467,7 +1467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="486307680"/>
+        <c:axId val="516630960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486306112"/>
+        <c:crossAx val="516630176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2452,11 +2452,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="444800304"/>
-        <c:axId val="444802264"/>
+        <c:axId val="486304152"/>
+        <c:axId val="486304544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="444800304"/>
+        <c:axId val="486304152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,12 +2513,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444802264"/>
+        <c:crossAx val="486304544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="444802264"/>
+        <c:axId val="486304544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +2575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444800304"/>
+        <c:crossAx val="486304152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3341,11 +3341,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486315520"/>
-        <c:axId val="486311992"/>
+        <c:axId val="516621160"/>
+        <c:axId val="516621552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486315520"/>
+        <c:axId val="516621160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3402,12 +3402,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486311992"/>
+        <c:crossAx val="516621552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486311992"/>
+        <c:axId val="516621552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3464,7 +3464,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486315520"/>
+        <c:crossAx val="516621160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4230,11 +4230,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486308072"/>
-        <c:axId val="486315128"/>
+        <c:axId val="516624296"/>
+        <c:axId val="486319440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486308072"/>
+        <c:axId val="516624296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4291,12 +4291,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486315128"/>
+        <c:crossAx val="486319440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486315128"/>
+        <c:axId val="486319440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4353,7 +4353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486308072"/>
+        <c:crossAx val="516624296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5119,11 +5119,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486306896"/>
-        <c:axId val="486308464"/>
+        <c:axId val="486316696"/>
+        <c:axId val="486317088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486306896"/>
+        <c:axId val="486316696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5180,12 +5180,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486308464"/>
+        <c:crossAx val="486317088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486308464"/>
+        <c:axId val="486317088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5242,7 +5242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486306896"/>
+        <c:crossAx val="486316696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6652,11 +6652,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486315912"/>
-        <c:axId val="486303760"/>
+        <c:axId val="486306896"/>
+        <c:axId val="486308072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486315912"/>
+        <c:axId val="486306896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6713,12 +6713,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486303760"/>
+        <c:crossAx val="486308072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486303760"/>
+        <c:axId val="486308072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6775,7 +6775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486315912"/>
+        <c:crossAx val="486306896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8212,11 +8212,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516626648"/>
-        <c:axId val="516621552"/>
+        <c:axId val="486308464"/>
+        <c:axId val="486304936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516626648"/>
+        <c:axId val="486308464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8273,12 +8273,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516621552"/>
+        <c:crossAx val="486304936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516621552"/>
+        <c:axId val="486304936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8335,7 +8335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516626648"/>
+        <c:crossAx val="486308464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9772,11 +9772,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516621944"/>
-        <c:axId val="516623120"/>
+        <c:axId val="486309640"/>
+        <c:axId val="486310032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516621944"/>
+        <c:axId val="486309640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9833,12 +9833,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516623120"/>
+        <c:crossAx val="486310032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516623120"/>
+        <c:axId val="486310032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9895,7 +9895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516621944"/>
+        <c:crossAx val="486309640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11968,11 +11968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516627432"/>
-        <c:axId val="516630960"/>
+        <c:axId val="486311992"/>
+        <c:axId val="486312776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516627432"/>
+        <c:axId val="486311992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12029,12 +12029,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516630960"/>
+        <c:crossAx val="486312776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516630960"/>
+        <c:axId val="486312776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12091,7 +12091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516627432"/>
+        <c:crossAx val="486311992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13574,11 +13574,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="444801480"/>
-        <c:axId val="444799912"/>
+        <c:axId val="486313168"/>
+        <c:axId val="486315520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="444801480"/>
+        <c:axId val="486313168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13635,12 +13635,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444799912"/>
+        <c:crossAx val="486315520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="444799912"/>
+        <c:axId val="486315520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13697,7 +13697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444801480"/>
+        <c:crossAx val="486313168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19358,7 +19358,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23147,7 +23147,7 @@
   <dimension ref="A1:U244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S130" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AU150" sqref="AU150"/>
+      <selection activeCell="BE152" sqref="BE152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
@@ -1343,11 +1343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="516630176"/>
-        <c:axId val="516630960"/>
+        <c:axId val="167784048"/>
+        <c:axId val="167783656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="516630176"/>
+        <c:axId val="167784048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,7 +1459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516630960"/>
+        <c:crossAx val="167783656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1467,7 +1467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="516630960"/>
+        <c:axId val="167783656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516630176"/>
+        <c:crossAx val="167784048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2452,11 +2452,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486304152"/>
-        <c:axId val="486304544"/>
+        <c:axId val="357488872"/>
+        <c:axId val="358206936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486304152"/>
+        <c:axId val="357488872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,12 +2513,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486304544"/>
+        <c:crossAx val="358206936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486304544"/>
+        <c:axId val="358206936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +2575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486304152"/>
+        <c:crossAx val="357488872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3341,11 +3341,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516621160"/>
-        <c:axId val="516621552"/>
+        <c:axId val="167785616"/>
+        <c:axId val="356569352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516621160"/>
+        <c:axId val="167785616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3402,12 +3402,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516621552"/>
+        <c:crossAx val="356569352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516621552"/>
+        <c:axId val="356569352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3464,7 +3464,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516621160"/>
+        <c:crossAx val="167785616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4230,11 +4230,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="516624296"/>
-        <c:axId val="486319440"/>
+        <c:axId val="356566216"/>
+        <c:axId val="356563472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="516624296"/>
+        <c:axId val="356566216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4291,12 +4291,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486319440"/>
+        <c:crossAx val="356563472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486319440"/>
+        <c:axId val="356563472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4353,7 +4353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516624296"/>
+        <c:crossAx val="356566216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5119,11 +5119,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486316696"/>
-        <c:axId val="486317088"/>
+        <c:axId val="356563864"/>
+        <c:axId val="356566608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486316696"/>
+        <c:axId val="356563864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5180,12 +5180,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486317088"/>
+        <c:crossAx val="356566608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486317088"/>
+        <c:axId val="356566608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5242,7 +5242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486316696"/>
+        <c:crossAx val="356563864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6652,11 +6652,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486306896"/>
-        <c:axId val="486308072"/>
+        <c:axId val="356569744"/>
+        <c:axId val="356567392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486306896"/>
+        <c:axId val="356569744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6713,12 +6713,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486308072"/>
+        <c:crossAx val="356567392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486308072"/>
+        <c:axId val="356567392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6775,7 +6775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486306896"/>
+        <c:crossAx val="356569744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8212,11 +8212,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486308464"/>
-        <c:axId val="486304936"/>
+        <c:axId val="357484952"/>
+        <c:axId val="357488088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486308464"/>
+        <c:axId val="357484952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8273,12 +8273,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486304936"/>
+        <c:crossAx val="357488088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486304936"/>
+        <c:axId val="357488088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8335,7 +8335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486308464"/>
+        <c:crossAx val="357484952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9772,11 +9772,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486309640"/>
-        <c:axId val="486310032"/>
+        <c:axId val="357486912"/>
+        <c:axId val="357489264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486309640"/>
+        <c:axId val="357486912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9833,12 +9833,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486310032"/>
+        <c:crossAx val="357489264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486310032"/>
+        <c:axId val="357489264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9895,7 +9895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486309640"/>
+        <c:crossAx val="357486912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11968,11 +11968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486311992"/>
-        <c:axId val="486312776"/>
+        <c:axId val="357482992"/>
+        <c:axId val="357483776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486311992"/>
+        <c:axId val="357482992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12029,12 +12029,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486312776"/>
+        <c:crossAx val="357483776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486312776"/>
+        <c:axId val="357483776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12091,7 +12091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486311992"/>
+        <c:crossAx val="357482992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13574,11 +13574,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486313168"/>
-        <c:axId val="486315520"/>
+        <c:axId val="357486128"/>
+        <c:axId val="357487304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486313168"/>
+        <c:axId val="357486128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13635,12 +13635,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486315520"/>
+        <c:crossAx val="357487304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486315520"/>
+        <c:axId val="357487304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13697,7 +13697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486313168"/>
+        <c:crossAx val="357486128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19358,7 +19358,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23147,7 +23147,7 @@
   <dimension ref="A1:U244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S130" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BE152" sqref="BE152"/>
+      <selection activeCell="BF150" sqref="BF150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
+++ b/csv_files/paper/2d_110classes_allz/target_vs_output.xlsx
@@ -1343,11 +1343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="167784048"/>
-        <c:axId val="167783656"/>
+        <c:axId val="302633552"/>
+        <c:axId val="347505576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167784048"/>
+        <c:axId val="302633552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,7 +1459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167783656"/>
+        <c:crossAx val="347505576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1467,7 +1467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167783656"/>
+        <c:axId val="347505576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167784048"/>
+        <c:crossAx val="302633552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2452,11 +2452,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357488872"/>
-        <c:axId val="358206936"/>
+        <c:axId val="347676768"/>
+        <c:axId val="348128048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357488872"/>
+        <c:axId val="347676768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,12 +2513,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358206936"/>
+        <c:crossAx val="348128048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="358206936"/>
+        <c:axId val="348128048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +2575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357488872"/>
+        <c:crossAx val="347676768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3341,11 +3341,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="167785616"/>
-        <c:axId val="356569352"/>
+        <c:axId val="347504400"/>
+        <c:axId val="347504792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="167785616"/>
+        <c:axId val="347504400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3402,12 +3402,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356569352"/>
+        <c:crossAx val="347504792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="356569352"/>
+        <c:axId val="347504792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3464,7 +3464,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167785616"/>
+        <c:crossAx val="347504400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4230,11 +4230,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="356566216"/>
-        <c:axId val="356563472"/>
+        <c:axId val="347506360"/>
+        <c:axId val="347510280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="356566216"/>
+        <c:axId val="347506360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4291,12 +4291,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356563472"/>
+        <c:crossAx val="347510280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="356563472"/>
+        <c:axId val="347510280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4353,7 +4353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356566216"/>
+        <c:crossAx val="347506360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5119,11 +5119,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="356563864"/>
-        <c:axId val="356566608"/>
+        <c:axId val="347511456"/>
+        <c:axId val="347509104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="356563864"/>
+        <c:axId val="347511456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5180,12 +5180,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356566608"/>
+        <c:crossAx val="347509104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="356566608"/>
+        <c:axId val="347509104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5242,7 +5242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356563864"/>
+        <c:crossAx val="347511456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6652,11 +6652,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="356569744"/>
-        <c:axId val="356567392"/>
+        <c:axId val="347507536"/>
+        <c:axId val="347509496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="356569744"/>
+        <c:axId val="347507536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6713,12 +6713,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356567392"/>
+        <c:crossAx val="347509496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="356567392"/>
+        <c:axId val="347509496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6775,7 +6775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356569744"/>
+        <c:crossAx val="347507536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8212,11 +8212,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357484952"/>
-        <c:axId val="357488088"/>
+        <c:axId val="347672848"/>
+        <c:axId val="347677944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357484952"/>
+        <c:axId val="347672848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8273,12 +8273,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357488088"/>
+        <c:crossAx val="347677944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357488088"/>
+        <c:axId val="347677944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8335,7 +8335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357484952"/>
+        <c:crossAx val="347672848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9772,11 +9772,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357486912"/>
-        <c:axId val="357489264"/>
+        <c:axId val="347671672"/>
+        <c:axId val="347678728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357486912"/>
+        <c:axId val="347671672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9833,12 +9833,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357489264"/>
+        <c:crossAx val="347678728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357489264"/>
+        <c:axId val="347678728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9895,7 +9895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357486912"/>
+        <c:crossAx val="347671672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11968,11 +11968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357482992"/>
-        <c:axId val="357483776"/>
+        <c:axId val="347674808"/>
+        <c:axId val="347674024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357482992"/>
+        <c:axId val="347674808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12029,12 +12029,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357483776"/>
+        <c:crossAx val="347674024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357483776"/>
+        <c:axId val="347674024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12091,7 +12091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357482992"/>
+        <c:crossAx val="347674808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13574,11 +13574,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357486128"/>
-        <c:axId val="357487304"/>
+        <c:axId val="347675200"/>
+        <c:axId val="347675592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357486128"/>
+        <c:axId val="347675200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13635,12 +13635,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357487304"/>
+        <c:crossAx val="347675592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357487304"/>
+        <c:axId val="347675592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13697,7 +13697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357486128"/>
+        <c:crossAx val="347675200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19358,7 +19358,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23147,7 +23147,7 @@
   <dimension ref="A1:U244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S130" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BF150" sqref="BF150"/>
+      <selection activeCell="BF162" sqref="BF162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
